--- a/OPPM.xlsx
+++ b/OPPM.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20515"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="260" windowWidth="25600" windowHeight="19300"/>
+    <workbookView xWindow="1875" yWindow="255" windowWidth="20610" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Template" sheetId="45818" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="83">
   <si>
     <t>A = primary owner</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,10 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Project Completed By: 04/3/2010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -101,30 +97,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>O</t>
   </si>
   <si>
@@ -140,42 +112,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>09/12</t>
-  </si>
-  <si>
-    <t>09/19</t>
-  </si>
-  <si>
     <t>09/26</t>
   </si>
   <si>
-    <t>10/03</t>
-  </si>
-  <si>
-    <t>10/10</t>
-  </si>
-  <si>
-    <t>10/17</t>
-  </si>
-  <si>
-    <t>10/24</t>
-  </si>
-  <si>
-    <t>10/31</t>
-  </si>
-  <si>
-    <t>11/07</t>
-  </si>
-  <si>
-    <t>11/14</t>
-  </si>
-  <si>
-    <t>11/21</t>
-  </si>
-  <si>
-    <t>11/28</t>
-  </si>
-  <si>
     <t>Agile phase 1</t>
   </si>
   <si>
@@ -185,45 +124,9 @@
     <t>Agile phase 3</t>
   </si>
   <si>
-    <t>Phase 3 feature set selected</t>
-  </si>
-  <si>
-    <t>Phase 3 feature 3 unit tested</t>
-  </si>
-  <si>
-    <t>Phase 3 feature 4 unit tested</t>
-  </si>
-  <si>
-    <t>Phase 3 feature 1 developed</t>
-  </si>
-  <si>
-    <t>Phase 3 feature 2 developed</t>
-  </si>
-  <si>
-    <t>Phase 3 feature 3 developed</t>
-  </si>
-  <si>
-    <t>Phase 3 feature 4 developed</t>
-  </si>
-  <si>
-    <t>Phase 3 feature 1 unit tested</t>
-  </si>
-  <si>
-    <t>Phase 3 feature 2 unit tested</t>
-  </si>
-  <si>
-    <t>Phase 2 feature 3 unit tested</t>
-  </si>
-  <si>
-    <t>Phase 2 feature 4 unit tested</t>
-  </si>
-  <si>
     <t>Presentation slides completed</t>
   </si>
   <si>
-    <t>Final documentation completed</t>
-  </si>
-  <si>
     <t>Demonstration rehearsal</t>
   </si>
   <si>
@@ -233,54 +136,9 @@
     <t>B</t>
   </si>
   <si>
-    <t>Project Objective: To a prototype demonstration</t>
-  </si>
-  <si>
     <t>Design &amp; Document</t>
   </si>
   <si>
-    <t>Date: 11/05/2013</t>
-  </si>
-  <si>
-    <t>Phase 1 Brainstorming Ideas</t>
-  </si>
-  <si>
-    <t>Phase 1 Deciding main concept and story</t>
-  </si>
-  <si>
-    <t>Phase 1 Detailing the shop and game items</t>
-  </si>
-  <si>
-    <t>Phase 1 Choosing different roles</t>
-  </si>
-  <si>
-    <t>Phase 1 2 page summary</t>
-  </si>
-  <si>
-    <t>Phase 2 Understanding version control</t>
-  </si>
-  <si>
-    <t>Phase 2 Creating Github Project and adding collaborators</t>
-  </si>
-  <si>
-    <t>Phase 2 Reading and watching tutorials on QT</t>
-  </si>
-  <si>
-    <t>Phase 2 Continuing tutorials, focusing on Qpaint</t>
-  </si>
-  <si>
-    <t>Phase 2 Drawing objects in QT</t>
-  </si>
-  <si>
-    <t>Phase 2 Inheritance and classes</t>
-  </si>
-  <si>
-    <t>Phase 2 Alien and sky created</t>
-  </si>
-  <si>
-    <t>CS 340 project</t>
-  </si>
-  <si>
     <t>Chris Tobias</t>
   </si>
   <si>
@@ -291,6 +149,147 @@
   </si>
   <si>
     <t>Brandon Shaver</t>
+  </si>
+  <si>
+    <t>Phase 2 Multiple Key Presses Enabled</t>
+  </si>
+  <si>
+    <t>Phase 2 Enable the Alien to Move up, left, and right</t>
+  </si>
+  <si>
+    <t>11/12</t>
+  </si>
+  <si>
+    <t>Phase 3 Limited Number of Lives implemented utilizing Collision</t>
+  </si>
+  <si>
+    <t>Date: 11/19/2013</t>
+  </si>
+  <si>
+    <t>CS 340 Project</t>
+  </si>
+  <si>
+    <t>Project Objective: To develop a working prototype of a game featuring a flying alien</t>
+  </si>
+  <si>
+    <t>Final documentation completed (Project website, OPPM sheet)</t>
+  </si>
+  <si>
+    <t>Phase 3 Sky Background Tiled Horizontally/Vertically</t>
+  </si>
+  <si>
+    <t>Phase 3 Background Audio added</t>
+  </si>
+  <si>
+    <t>Phase 3 Space simulation created/Spaceship Object implemented</t>
+  </si>
+  <si>
+    <t>Phase 3 Main Menu integrated into the Game</t>
+  </si>
+  <si>
+    <t>Phase 3 Upgrades Shop integrated into the Game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phase 3 </t>
+  </si>
+  <si>
+    <t>Brainstorming Ideas</t>
+  </si>
+  <si>
+    <t>Deciding main concept and story</t>
+  </si>
+  <si>
+    <t>Detailing the shop and game items</t>
+  </si>
+  <si>
+    <t>2 page summary</t>
+  </si>
+  <si>
+    <t>Understanding version control</t>
+  </si>
+  <si>
+    <t>Phase 1 Creating Github Project and adding collaborators</t>
+  </si>
+  <si>
+    <t>Phase 1 Read and watch tutorials on QT, focusing on Qpaint</t>
+  </si>
+  <si>
+    <t>Phase 1 Drawing objects in QT</t>
+  </si>
+  <si>
+    <t>Phase 1 Inheritance and classes</t>
+  </si>
+  <si>
+    <t>Phase 1 Alien and sky created</t>
+  </si>
+  <si>
+    <t>Phase 2 Demo Main Menu developed</t>
+  </si>
+  <si>
+    <t>Phase 2 Demo Upgrades Shop developed</t>
+  </si>
+  <si>
+    <t>Phase 2 Single Flying Object added (plane)</t>
+  </si>
+  <si>
+    <t>Phase 2 More Flying Objects added (moving in different directions)</t>
+  </si>
+  <si>
+    <t>Phase 2 Collision Detection with Flying Objects added</t>
+  </si>
+  <si>
+    <t>09/13</t>
+  </si>
+  <si>
+    <t>09/16</t>
+  </si>
+  <si>
+    <t>09/20</t>
+  </si>
+  <si>
+    <t>09/30</t>
+  </si>
+  <si>
+    <t>10/07</t>
+  </si>
+  <si>
+    <t>10/14</t>
+  </si>
+  <si>
+    <t>10/29</t>
+  </si>
+  <si>
+    <t>10/21</t>
+  </si>
+  <si>
+    <t>10/25</t>
+  </si>
+  <si>
+    <t>11/05</t>
+  </si>
+  <si>
+    <t>11/13</t>
+  </si>
+  <si>
+    <t>First Presentation</t>
+  </si>
+  <si>
+    <t>11/19</t>
+  </si>
+  <si>
+    <t>11/22</t>
+  </si>
+  <si>
+    <t>11/26</t>
+  </si>
+  <si>
+    <t>12/03</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Project Completed By: 12/03/13</t>
   </si>
 </sst>
 </file>
@@ -298,12 +297,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="166" formatCode="#,##0.0"/>
-    <numFmt numFmtId="167" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="177" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
-    <numFmt numFmtId="188" formatCode="0000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="166" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
+    <numFmt numFmtId="167" formatCode="0000"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -395,6 +394,20 @@
       <color indexed="57"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFC000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -410,7 +423,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="82">
+  <borders count="83">
     <border>
       <left/>
       <right/>
@@ -1034,13 +1047,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color indexed="22"/>
+      <left style="medium">
+        <color auto="1"/>
       </left>
-      <right style="medium">
+      <right style="hair">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="hair">
         <color auto="1"/>
       </top>
       <bottom style="medium">
@@ -1049,40 +1062,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="hair">
         <color auto="1"/>
       </left>
       <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="hair">
@@ -1129,19 +1112,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color indexed="22"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -1166,19 +1136,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color indexed="22"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color auto="1"/>
       </left>
@@ -1277,19 +1234,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -1390,43 +1334,65 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="hair">
         <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
         <color auto="1"/>
       </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -1439,9 +1405,7 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -1449,38 +1413,78 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="hair">
         <color auto="1"/>
       </right>
       <top style="medium">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
+      <left/>
+      <right style="hair">
+        <color indexed="22"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
-      <top style="medium">
-        <color auto="1"/>
+      <top style="hair">
+        <color theme="0" tint="-0.24994659260841701"/>
       </top>
       <bottom style="hair">
-        <color auto="1"/>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="hair">
+        <color theme="0" tint="-0.24994659260841701"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
@@ -1509,25 +1513,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1556,14 +1545,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1573,18 +1554,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1632,18 +1601,11 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyProtection="1"/>
@@ -1656,10 +1618,6 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1673,16 +1631,12 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="188" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1720,16 +1674,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1756,10 +1706,6 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1786,10 +1732,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1856,9 +1798,6 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1895,29 +1834,16 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="2" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="2" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1940,7 +1866,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="81" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -1959,16 +1885,33 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="68" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1979,15 +1922,15 @@
       <alignment horizontal="center" vertical="top" textRotation="90"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="70" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="65" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="71" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="66" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="72" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1999,133 +1942,252 @@
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="55" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="56" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="57" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="68" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="69" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="70" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="58" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="71" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="72" xfId="2" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="73" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="17" fontId="5" fillId="0" borderId="59" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="60" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="61" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="73" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="74" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="75" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="76" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="77" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="64" xfId="2" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="73" xfId="2" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="2" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="77" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="79" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="56" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="57" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="73" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="79" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="80" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="80" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="64" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="2" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="66" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="2" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="81" xfId="2" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="81" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="56" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="62" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="63" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="64" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="81" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="82" xfId="2" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2135,7 +2197,487 @@
     <cellStyle name="Normal_Project Matrix" xfId="2"/>
     <cellStyle name="Normal_Project Matrix Collection II" xfId="3"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="72">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2440,6 +2982,11 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2483,7 +3030,7 @@
           <a:tailEnd/>
         </a:ln>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
@@ -2539,7 +3086,7 @@
           <a:tailEnd/>
         </a:ln>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
@@ -2595,7 +3142,7 @@
           <a:tailEnd/>
         </a:ln>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
@@ -2796,7 +3343,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>749111</xdr:colOff>
+      <xdr:colOff>653861</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2809,8 +3356,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4814570" y="5577840"/>
-          <a:ext cx="1166941" cy="975360"/>
+          <a:off x="4327853" y="5955862"/>
+          <a:ext cx="792905" cy="974397"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3257,47 +3804,44 @@
   <sheetPr codeName="Sheet13" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AC57"/>
+  <dimension ref="A1:AD57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="125" zoomScaleNormal="96" zoomScaleSheetLayoutView="73" zoomScalePageLayoutView="96" workbookViewId="0">
-      <selection activeCell="X36" sqref="X36:X41"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="87" zoomScaleNormal="87" zoomScaleSheetLayoutView="73" zoomScalePageLayoutView="96" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="1" customWidth="1"/>
-    <col min="2" max="6" width="3.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="1" customWidth="1"/>
-    <col min="10" max="21" width="5" style="1" customWidth="1"/>
-    <col min="22" max="24" width="4.140625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="4.42578125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="2.5703125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
+    <col min="2" max="6" width="3.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.625" style="1" customWidth="1"/>
+    <col min="10" max="26" width="5" style="1" customWidth="1"/>
+    <col min="27" max="27" width="4.125" style="2" customWidth="1"/>
+    <col min="28" max="29" width="4.125" style="3" customWidth="1"/>
+    <col min="30" max="30" width="4.125" style="1" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="13" thickBot="1">
-      <c r="A1" s="60"/>
+    <row r="1" spans="1:30" ht="13.5" thickBot="1">
+      <c r="A1" s="47"/>
     </row>
-    <row r="2" spans="1:29" s="4" customFormat="1" ht="17">
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
+    <row r="2" spans="1:30" s="4" customFormat="1" ht="18">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
       <c r="E2" s="6"/>
       <c r="F2" s="5"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="K2" s="7"/>
       <c r="L2" s="8" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
@@ -3311,2019 +3855,2355 @@
       <c r="V2" s="11"/>
       <c r="W2" s="11"/>
       <c r="X2" s="11"/>
-      <c r="Y2" s="12" t="s">
+      <c r="Y2" s="167"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD2" s="173"/>
+    </row>
+    <row r="3" spans="1:30" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="B3" s="59"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="147" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="148"/>
+      <c r="O3" s="148"/>
+      <c r="P3" s="148"/>
+      <c r="Q3" s="148"/>
+      <c r="R3" s="148"/>
+      <c r="S3" s="148"/>
+      <c r="T3" s="148"/>
+      <c r="U3" s="148"/>
+      <c r="V3" s="148"/>
+      <c r="W3" s="148"/>
+      <c r="X3" s="148"/>
+      <c r="Y3" s="148"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="171"/>
+      <c r="AB3" s="172"/>
+      <c r="AC3" s="172"/>
+      <c r="AD3" s="174"/>
+    </row>
+    <row r="4" spans="1:30" s="12" customFormat="1" ht="15.75" thickBot="1">
+      <c r="B4" s="57"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="150"/>
+      <c r="I4" s="150"/>
+      <c r="J4" s="150"/>
+      <c r="K4" s="150"/>
+      <c r="L4" s="150"/>
+      <c r="M4" s="150"/>
+      <c r="N4" s="150"/>
+      <c r="O4" s="150"/>
+      <c r="P4" s="150"/>
+      <c r="Q4" s="150"/>
+      <c r="R4" s="150"/>
+      <c r="S4" s="150"/>
+      <c r="T4" s="150"/>
+      <c r="U4" s="150"/>
+      <c r="V4" s="150"/>
+      <c r="W4" s="150"/>
+      <c r="X4" s="150"/>
+      <c r="Y4" s="150"/>
+      <c r="Z4" s="58"/>
+      <c r="AA4" s="175"/>
+      <c r="AB4" s="176"/>
+      <c r="AC4" s="176"/>
+      <c r="AD4" s="177"/>
+    </row>
+    <row r="5" spans="1:30" s="13" customFormat="1" ht="13.5" thickBot="1">
+      <c r="B5" s="129" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="195" t="s">
+        <v>82</v>
+      </c>
+      <c r="K5" s="196"/>
+      <c r="L5" s="196"/>
+      <c r="M5" s="196"/>
+      <c r="N5" s="196"/>
+      <c r="O5" s="196"/>
+      <c r="P5" s="196"/>
+      <c r="Q5" s="196"/>
+      <c r="R5" s="196"/>
+      <c r="S5" s="196"/>
+      <c r="T5" s="196"/>
+      <c r="U5" s="196"/>
+      <c r="V5" s="178"/>
+      <c r="W5" s="178"/>
+      <c r="X5" s="178"/>
+      <c r="Y5" s="178"/>
+      <c r="Z5" s="179"/>
+      <c r="AA5" s="168" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="169"/>
+      <c r="AC5" s="169"/>
+      <c r="AD5" s="170"/>
+    </row>
+    <row r="6" spans="1:30" s="18" customFormat="1">
+      <c r="B6" s="86" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="98">
+        <v>1</v>
+      </c>
+      <c r="G6" s="119" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="100"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="114" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="82"/>
+      <c r="P6" s="82"/>
+      <c r="Q6" s="82"/>
+      <c r="R6" s="82"/>
+      <c r="S6" s="82"/>
+      <c r="T6" s="160"/>
+      <c r="U6" s="82"/>
+      <c r="V6" s="84"/>
+      <c r="W6" s="84"/>
+      <c r="X6" s="84"/>
+      <c r="Y6" s="84"/>
+      <c r="Z6" s="84"/>
+      <c r="AA6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB6" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC6" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD6" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" s="18" customFormat="1">
+      <c r="B7" s="89" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="99">
+        <v>2</v>
+      </c>
+      <c r="G7" s="120" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="101"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="84"/>
+      <c r="M7" s="84"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="84"/>
+      <c r="R7" s="84"/>
+      <c r="S7" s="84"/>
+      <c r="T7" s="161"/>
+      <c r="U7" s="84"/>
+      <c r="V7" s="84"/>
+      <c r="W7" s="84"/>
+      <c r="X7" s="84"/>
+      <c r="Y7" s="84"/>
+      <c r="Z7" s="84"/>
+      <c r="AA7" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB7" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC7" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD7" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" s="18" customFormat="1">
+      <c r="B8" s="89" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="99">
+        <v>3</v>
+      </c>
+      <c r="G8" s="120" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="101"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="84"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="84"/>
+      <c r="Q8" s="84"/>
+      <c r="R8" s="84"/>
+      <c r="S8" s="84"/>
+      <c r="T8" s="161"/>
+      <c r="U8" s="84"/>
+      <c r="V8" s="84"/>
+      <c r="W8" s="84"/>
+      <c r="X8" s="84"/>
+      <c r="Y8" s="84"/>
+      <c r="Z8" s="84"/>
+      <c r="AA8" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB8" s="122" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC8" s="122" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD8" s="123" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" s="18" customFormat="1">
+      <c r="B9" s="89" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="99">
+        <v>4</v>
+      </c>
+      <c r="G9" s="120" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="101"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="84"/>
+      <c r="M9" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="84"/>
+      <c r="P9" s="84"/>
+      <c r="Q9" s="84"/>
+      <c r="R9" s="84"/>
+      <c r="S9" s="84"/>
+      <c r="T9" s="161"/>
+      <c r="U9" s="84"/>
+      <c r="V9" s="84"/>
+      <c r="W9" s="84"/>
+      <c r="X9" s="84"/>
+      <c r="Y9" s="84"/>
+      <c r="Z9" s="84"/>
+      <c r="AA9" s="193" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB9" s="122" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC9" s="122" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD9" s="123" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" s="18" customFormat="1">
+      <c r="B10" s="89" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="90"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="99">
+        <v>5</v>
+      </c>
+      <c r="G10" s="120" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="101"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="116"/>
+      <c r="N10" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="84"/>
+      <c r="P10" s="84"/>
+      <c r="Q10" s="84"/>
+      <c r="R10" s="84"/>
+      <c r="S10" s="84"/>
+      <c r="T10" s="161"/>
+      <c r="U10" s="84"/>
+      <c r="V10" s="84"/>
+      <c r="W10" s="84"/>
+      <c r="X10" s="84"/>
+      <c r="Y10" s="84"/>
+      <c r="Z10" s="84"/>
+      <c r="AA10" s="193" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB10" s="122" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC10" s="122" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD10" s="123" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" s="18" customFormat="1">
+      <c r="B11" s="89"/>
+      <c r="C11" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="90"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="99">
+        <v>6</v>
+      </c>
+      <c r="G11" s="120" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="101"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" s="84"/>
+      <c r="P11" s="84"/>
+      <c r="Q11" s="84"/>
+      <c r="R11" s="84"/>
+      <c r="S11" s="84"/>
+      <c r="T11" s="161"/>
+      <c r="U11" s="84"/>
+      <c r="V11" s="84"/>
+      <c r="W11" s="84"/>
+      <c r="X11" s="84"/>
+      <c r="Y11" s="84"/>
+      <c r="Z11" s="84"/>
+      <c r="AA11" s="193" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB11" s="122" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC11" s="122" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD11" s="123" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" s="18" customFormat="1">
+      <c r="B12" s="89"/>
+      <c r="C12" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="90"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="99">
+        <v>7</v>
+      </c>
+      <c r="G12" s="120" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="101"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="83"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="84"/>
+      <c r="M12" s="84"/>
+      <c r="O12" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="P12" s="84"/>
+      <c r="Q12" s="84"/>
+      <c r="R12" s="84"/>
+      <c r="S12" s="84"/>
+      <c r="T12" s="161"/>
+      <c r="U12" s="84"/>
+      <c r="V12" s="84"/>
+      <c r="W12" s="84"/>
+      <c r="X12" s="84"/>
+      <c r="Y12" s="84"/>
+      <c r="Z12" s="84"/>
+      <c r="AA12" s="193" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB12" s="122" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC12" s="122" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD12" s="123" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" s="18" customFormat="1">
+      <c r="B13" s="89"/>
+      <c r="C13" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="90"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="99">
+        <v>8</v>
+      </c>
+      <c r="G13" s="120" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="101"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="84"/>
+      <c r="N13" s="84"/>
+      <c r="O13" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="P13" s="84"/>
+      <c r="Q13" s="84"/>
+      <c r="R13" s="84"/>
+      <c r="S13" s="84"/>
+      <c r="T13" s="161"/>
+      <c r="U13" s="84"/>
+      <c r="V13" s="84"/>
+      <c r="W13" s="84"/>
+      <c r="X13" s="84"/>
+      <c r="Y13" s="84"/>
+      <c r="Z13" s="84"/>
+      <c r="AA13" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB13" s="23"/>
+      <c r="AC13" s="23"/>
+      <c r="AD13" s="24"/>
+    </row>
+    <row r="14" spans="1:30" s="18" customFormat="1">
+      <c r="B14" s="89"/>
+      <c r="C14" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="90"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="99">
+        <v>9</v>
+      </c>
+      <c r="G14" s="120" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="101"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="84"/>
+      <c r="N14" s="84"/>
+      <c r="O14" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="P14" s="84"/>
+      <c r="Q14" s="84"/>
+      <c r="R14" s="84"/>
+      <c r="S14" s="84"/>
+      <c r="T14" s="161"/>
+      <c r="U14" s="84"/>
+      <c r="V14" s="84"/>
+      <c r="W14" s="84"/>
+      <c r="X14" s="84"/>
+      <c r="Y14" s="84"/>
+      <c r="Z14" s="84"/>
+      <c r="AA14" s="193" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB14" s="23"/>
+      <c r="AC14" s="23"/>
+      <c r="AD14" s="24"/>
+    </row>
+    <row r="15" spans="1:30" s="18" customFormat="1">
+      <c r="B15" s="89"/>
+      <c r="C15" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="90"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="99">
+        <v>10</v>
+      </c>
+      <c r="G15" s="120" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="101"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="84"/>
+      <c r="N15" s="84"/>
+      <c r="O15" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="84"/>
+      <c r="Q15" s="84"/>
+      <c r="R15" s="84"/>
+      <c r="S15" s="84"/>
+      <c r="T15" s="161"/>
+      <c r="U15" s="84"/>
+      <c r="V15" s="84"/>
+      <c r="W15" s="84"/>
+      <c r="X15" s="84"/>
+      <c r="Y15" s="84"/>
+      <c r="Z15" s="84"/>
+      <c r="AA15" s="22"/>
+      <c r="AB15" s="122" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC15" s="122" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD15" s="24"/>
+    </row>
+    <row r="16" spans="1:30" s="18" customFormat="1">
+      <c r="B16" s="89"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="91"/>
+      <c r="F16" s="99">
+        <v>11</v>
+      </c>
+      <c r="G16" s="120" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="101"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="84"/>
+      <c r="N16" s="84"/>
+      <c r="O16" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="P16" s="84"/>
+      <c r="Q16" s="84"/>
+      <c r="R16" s="84"/>
+      <c r="S16" s="84"/>
+      <c r="T16" s="161"/>
+      <c r="U16" s="84"/>
+      <c r="V16" s="84"/>
+      <c r="W16" s="84"/>
+      <c r="X16" s="84"/>
+      <c r="Y16" s="84"/>
+      <c r="Z16" s="84"/>
+      <c r="AA16" s="193"/>
+      <c r="AB16" s="23"/>
+      <c r="AC16" s="122" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD16" s="24"/>
+    </row>
+    <row r="17" spans="2:30" s="18" customFormat="1">
+      <c r="B17" s="89"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="91"/>
+      <c r="F17" s="99">
+        <v>12</v>
+      </c>
+      <c r="G17" s="120" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="101"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="84"/>
+      <c r="N17" s="84"/>
+      <c r="O17" s="84"/>
+      <c r="P17" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q17" s="84"/>
+      <c r="R17" s="84"/>
+      <c r="S17" s="84"/>
+      <c r="T17" s="161"/>
+      <c r="U17" s="84"/>
+      <c r="V17" s="84"/>
+      <c r="W17" s="84"/>
+      <c r="X17" s="84"/>
+      <c r="Y17" s="84"/>
+      <c r="Z17" s="84"/>
+      <c r="AA17" s="22"/>
+      <c r="AB17" s="23"/>
+      <c r="AC17" s="122" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD17" s="24"/>
+    </row>
+    <row r="18" spans="2:30" s="18" customFormat="1">
+      <c r="B18" s="89"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="91"/>
+      <c r="F18" s="99">
+        <v>13</v>
+      </c>
+      <c r="G18" s="120" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="101"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="84"/>
+      <c r="N18" s="84"/>
+      <c r="O18" s="84"/>
+      <c r="P18" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="84"/>
+      <c r="R18" s="84"/>
+      <c r="S18" s="84"/>
+      <c r="T18" s="161"/>
+      <c r="U18" s="84"/>
+      <c r="V18" s="84"/>
+      <c r="W18" s="84"/>
+      <c r="X18" s="84"/>
+      <c r="Y18" s="84"/>
+      <c r="Z18" s="84"/>
+      <c r="AA18" s="22"/>
+      <c r="AB18" s="122" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC18" s="23"/>
+      <c r="AD18" s="24"/>
+    </row>
+    <row r="19" spans="2:30" s="18" customFormat="1">
+      <c r="B19" s="89"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="91"/>
+      <c r="F19" s="99">
+        <v>14</v>
+      </c>
+      <c r="G19" s="120" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="101"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="84"/>
+      <c r="L19" s="84"/>
+      <c r="M19" s="84"/>
+      <c r="N19" s="84"/>
+      <c r="O19" s="84"/>
+      <c r="P19" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q19" s="84"/>
+      <c r="R19" s="84"/>
+      <c r="S19" s="84"/>
+      <c r="T19" s="161"/>
+      <c r="U19" s="84"/>
+      <c r="V19" s="84"/>
+      <c r="W19" s="84"/>
+      <c r="X19" s="84"/>
+      <c r="Y19" s="84"/>
+      <c r="Z19" s="84"/>
+      <c r="AA19" s="193" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB19" s="23"/>
+      <c r="AC19" s="23"/>
+      <c r="AD19" s="24"/>
+    </row>
+    <row r="20" spans="2:30" s="18" customFormat="1">
+      <c r="B20" s="89"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="90"/>
+      <c r="F20" s="99">
+        <v>15</v>
+      </c>
+      <c r="G20" s="120" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" s="102"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="84"/>
+      <c r="N20" s="84"/>
+      <c r="O20" s="84"/>
+      <c r="P20" s="84"/>
+      <c r="Q20" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="R20" s="84"/>
+      <c r="S20" s="84"/>
+      <c r="T20" s="161"/>
+      <c r="U20" s="84"/>
+      <c r="V20" s="84"/>
+      <c r="W20" s="84"/>
+      <c r="X20" s="84"/>
+      <c r="Y20" s="84"/>
+      <c r="Z20" s="84"/>
+      <c r="AA20" s="22"/>
+      <c r="AB20" s="23"/>
+      <c r="AC20" s="122" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD20" s="24"/>
+    </row>
+    <row r="21" spans="2:30" s="18" customFormat="1">
+      <c r="B21" s="89"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="90"/>
+      <c r="F21" s="99">
+        <v>16</v>
+      </c>
+      <c r="G21" s="120" t="s">
         <v>63</v>
       </c>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="84"/>
+      <c r="L21" s="84"/>
+      <c r="M21" s="84"/>
+      <c r="N21" s="84"/>
+      <c r="O21" s="84"/>
+      <c r="P21" s="84"/>
+      <c r="Q21" s="84"/>
+      <c r="R21" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="S21" s="84"/>
+      <c r="T21" s="161"/>
+      <c r="U21" s="84"/>
+      <c r="V21" s="84"/>
+      <c r="W21" s="84"/>
+      <c r="X21" s="84"/>
+      <c r="Y21" s="84"/>
+      <c r="Z21" s="84"/>
+      <c r="AA21" s="22"/>
+      <c r="AB21" s="23"/>
+      <c r="AC21" s="122" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD21" s="24"/>
     </row>
-    <row r="3" spans="1:29" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="B3" s="73"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="178" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="179"/>
-      <c r="H3" s="179"/>
-      <c r="I3" s="179"/>
-      <c r="J3" s="179"/>
-      <c r="K3" s="179"/>
-      <c r="L3" s="179"/>
-      <c r="M3" s="179"/>
-      <c r="N3" s="179"/>
-      <c r="O3" s="179"/>
-      <c r="P3" s="179"/>
-      <c r="Q3" s="179"/>
-      <c r="R3" s="179"/>
-      <c r="S3" s="179"/>
-      <c r="T3" s="179"/>
-      <c r="U3" s="179"/>
-      <c r="V3" s="179"/>
-      <c r="W3" s="179"/>
-      <c r="X3" s="179"/>
-      <c r="Y3" s="180"/>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="14"/>
+    <row r="22" spans="2:30" s="18" customFormat="1">
+      <c r="B22" s="89"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="90"/>
+      <c r="F22" s="99">
+        <v>17</v>
+      </c>
+      <c r="G22" s="120" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="102"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="84"/>
+      <c r="L22" s="84"/>
+      <c r="M22" s="84"/>
+      <c r="N22" s="84"/>
+      <c r="O22" s="84"/>
+      <c r="P22" s="84"/>
+      <c r="Q22" s="84"/>
+      <c r="R22" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="S22" s="84"/>
+      <c r="T22" s="161"/>
+      <c r="U22" s="84"/>
+      <c r="V22" s="84"/>
+      <c r="W22" s="84"/>
+      <c r="X22" s="84"/>
+      <c r="Y22" s="84"/>
+      <c r="Z22" s="84"/>
+      <c r="AA22" s="22"/>
+      <c r="AB22" s="23"/>
+      <c r="AC22" s="122" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD22" s="24"/>
     </row>
-    <row r="4" spans="1:29" s="15" customFormat="1" ht="16" thickBot="1">
-      <c r="B4" s="71"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="182"/>
-      <c r="H4" s="182"/>
-      <c r="I4" s="182"/>
-      <c r="J4" s="182"/>
-      <c r="K4" s="182"/>
-      <c r="L4" s="182"/>
-      <c r="M4" s="182"/>
-      <c r="N4" s="182"/>
-      <c r="O4" s="182"/>
-      <c r="P4" s="182"/>
-      <c r="Q4" s="182"/>
-      <c r="R4" s="182"/>
-      <c r="S4" s="182"/>
-      <c r="T4" s="182"/>
-      <c r="U4" s="182"/>
-      <c r="V4" s="182"/>
-      <c r="W4" s="182"/>
-      <c r="X4" s="182"/>
-      <c r="Y4" s="183"/>
-      <c r="AA4" s="16"/>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="17"/>
+    <row r="23" spans="2:30" s="18" customFormat="1">
+      <c r="B23" s="89"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="99">
+        <v>18</v>
+      </c>
+      <c r="G23" s="120" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="102"/>
+      <c r="I23" s="106"/>
+      <c r="J23" s="83"/>
+      <c r="K23" s="84"/>
+      <c r="L23" s="84"/>
+      <c r="M23" s="84"/>
+      <c r="N23" s="84"/>
+      <c r="O23" s="84"/>
+      <c r="P23" s="84"/>
+      <c r="Q23" s="84"/>
+      <c r="R23" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="S23" s="84"/>
+      <c r="T23" s="161"/>
+      <c r="U23" s="84"/>
+      <c r="V23" s="84"/>
+      <c r="W23" s="84"/>
+      <c r="X23" s="84"/>
+      <c r="Y23" s="84"/>
+      <c r="Z23" s="84"/>
+      <c r="AA23" s="22"/>
+      <c r="AB23" s="23"/>
+      <c r="AC23" s="122" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD23" s="24"/>
     </row>
-    <row r="5" spans="1:29" s="18" customFormat="1" ht="14" thickBot="1">
-      <c r="B5" s="147" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="148"/>
-      <c r="D5" s="148"/>
-      <c r="E5" s="149"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="77" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="163" t="s">
+    <row r="24" spans="2:30" s="18" customFormat="1">
+      <c r="B24" s="89"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="99">
+        <v>19</v>
+      </c>
+      <c r="G24" s="120" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="102"/>
+      <c r="I24" s="106"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="84"/>
+      <c r="L24" s="84"/>
+      <c r="M24" s="84"/>
+      <c r="N24" s="84"/>
+      <c r="O24" s="84"/>
+      <c r="P24" s="84"/>
+      <c r="Q24" s="84"/>
+      <c r="R24" s="124" t="s">
+        <v>19</v>
+      </c>
+      <c r="S24" s="84"/>
+      <c r="T24" s="161"/>
+      <c r="U24" s="84"/>
+      <c r="V24" s="84"/>
+      <c r="W24" s="84"/>
+      <c r="X24" s="84"/>
+      <c r="Y24" s="84"/>
+      <c r="Z24" s="84"/>
+      <c r="AA24" s="22"/>
+      <c r="AB24" s="23"/>
+      <c r="AC24" s="23"/>
+      <c r="AD24" s="24"/>
+    </row>
+    <row r="25" spans="2:30" s="18" customFormat="1">
+      <c r="B25" s="89"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="99">
+        <v>20</v>
+      </c>
+      <c r="G25" s="120" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" s="102"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="83"/>
+      <c r="K25" s="84"/>
+      <c r="L25" s="84"/>
+      <c r="M25" s="84"/>
+      <c r="N25" s="84"/>
+      <c r="O25" s="84"/>
+      <c r="P25" s="84"/>
+      <c r="Q25" s="84"/>
+      <c r="R25" s="84"/>
+      <c r="S25" s="124" t="s">
+        <v>19</v>
+      </c>
+      <c r="T25" s="161"/>
+      <c r="U25" s="84"/>
+      <c r="V25" s="84"/>
+      <c r="W25" s="84"/>
+      <c r="X25" s="84"/>
+      <c r="Y25" s="84"/>
+      <c r="Z25" s="84"/>
+      <c r="AA25" s="22"/>
+      <c r="AB25" s="23"/>
+      <c r="AC25" s="23"/>
+      <c r="AD25" s="24"/>
+    </row>
+    <row r="26" spans="2:30" s="18" customFormat="1">
+      <c r="B26" s="89"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="99">
+        <v>21</v>
+      </c>
+      <c r="G26" s="120" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" s="102"/>
+      <c r="I26" s="106"/>
+      <c r="J26" s="83"/>
+      <c r="K26" s="84"/>
+      <c r="L26" s="84"/>
+      <c r="M26" s="116"/>
+      <c r="N26" s="84"/>
+      <c r="O26" s="84"/>
+      <c r="P26" s="84"/>
+      <c r="Q26" s="84"/>
+      <c r="S26" s="84"/>
+      <c r="T26" s="162" t="s">
+        <v>19</v>
+      </c>
+      <c r="U26" s="84"/>
+      <c r="V26" s="116"/>
+      <c r="W26" s="116"/>
+      <c r="X26" s="116"/>
+      <c r="Y26" s="116"/>
+      <c r="Z26" s="116"/>
+      <c r="AA26" s="22"/>
+      <c r="AB26" s="23"/>
+      <c r="AC26" s="23"/>
+      <c r="AD26" s="123" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="2:30" s="18" customFormat="1">
+      <c r="B27" s="89"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="99">
+        <v>22</v>
+      </c>
+      <c r="G27" s="120" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" s="102"/>
+      <c r="I27" s="106"/>
+      <c r="J27" s="83"/>
+      <c r="K27" s="84"/>
+      <c r="L27" s="84"/>
+      <c r="M27" s="84"/>
+      <c r="N27" s="84"/>
+      <c r="O27" s="84"/>
+      <c r="P27" s="84"/>
+      <c r="Q27" s="84"/>
+      <c r="R27" s="84"/>
+      <c r="S27" s="124" t="s">
+        <v>19</v>
+      </c>
+      <c r="T27" s="161"/>
+      <c r="U27" s="84"/>
+      <c r="V27" s="84"/>
+      <c r="W27" s="84"/>
+      <c r="X27" s="84"/>
+      <c r="Y27" s="84"/>
+      <c r="Z27" s="84"/>
+      <c r="AA27" s="22"/>
+      <c r="AB27" s="122" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC27" s="23"/>
+      <c r="AD27" s="24"/>
+    </row>
+    <row r="28" spans="2:30" s="18" customFormat="1">
+      <c r="B28" s="89"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="99">
+        <v>23</v>
+      </c>
+      <c r="G28" s="120" t="s">
+        <v>48</v>
+      </c>
+      <c r="H28" s="102"/>
+      <c r="I28" s="106"/>
+      <c r="J28" s="83"/>
+      <c r="K28" s="116"/>
+      <c r="L28" s="84"/>
+      <c r="M28" s="84"/>
+      <c r="N28" s="84"/>
+      <c r="O28" s="84"/>
+      <c r="P28" s="84"/>
+      <c r="R28" s="84"/>
+      <c r="S28" s="84"/>
+      <c r="T28" s="162" t="s">
+        <v>19</v>
+      </c>
+      <c r="U28" s="84"/>
+      <c r="V28" s="84"/>
+      <c r="W28" s="84"/>
+      <c r="X28" s="84"/>
+      <c r="Y28" s="84"/>
+      <c r="Z28" s="84"/>
+      <c r="AA28" s="194" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB28" s="76"/>
+      <c r="AC28" s="76"/>
+      <c r="AD28" s="77"/>
+    </row>
+    <row r="29" spans="2:30" s="18" customFormat="1">
+      <c r="B29" s="89"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="99">
+        <v>24</v>
+      </c>
+      <c r="G29" s="120" t="s">
+        <v>49</v>
+      </c>
+      <c r="H29" s="102"/>
+      <c r="I29" s="106"/>
+      <c r="J29" s="83"/>
+      <c r="K29" s="84"/>
+      <c r="L29" s="84"/>
+      <c r="M29" s="84"/>
+      <c r="O29" s="84"/>
+      <c r="P29" s="84"/>
+      <c r="Q29" s="84"/>
+      <c r="R29" s="84"/>
+      <c r="S29" s="84"/>
+      <c r="U29" s="84"/>
+      <c r="V29" s="84"/>
+      <c r="W29" s="84"/>
+      <c r="X29" s="84"/>
+      <c r="Y29" s="84"/>
+      <c r="Z29" s="84"/>
+      <c r="AA29" s="25"/>
+      <c r="AB29" s="26"/>
+      <c r="AC29" s="26"/>
+      <c r="AD29" s="27"/>
+    </row>
+    <row r="30" spans="2:30" s="18" customFormat="1">
+      <c r="B30" s="89"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="99">
+        <v>25</v>
+      </c>
+      <c r="G30" s="120" t="s">
+        <v>76</v>
+      </c>
+      <c r="H30" s="102"/>
+      <c r="I30" s="106"/>
+      <c r="J30" s="83"/>
+      <c r="K30" s="84"/>
+      <c r="L30" s="84"/>
+      <c r="M30" s="84"/>
+      <c r="N30" s="84"/>
+      <c r="O30" s="84"/>
+      <c r="P30" s="84"/>
+      <c r="Q30" s="84"/>
+      <c r="R30" s="84"/>
+      <c r="T30" s="84"/>
+      <c r="U30" s="84"/>
+      <c r="V30" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="W30" s="84"/>
+      <c r="X30" s="84"/>
+      <c r="Y30" s="84"/>
+      <c r="Z30" s="84"/>
+      <c r="AA30" s="193" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB30" s="122" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC30" s="122" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD30" s="123" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="2:30" s="18" customFormat="1">
+      <c r="B31" s="89" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="90"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="91"/>
+      <c r="F31" s="99">
+        <v>26</v>
+      </c>
+      <c r="G31" s="121" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" s="102"/>
+      <c r="I31" s="106"/>
+      <c r="J31" s="83"/>
+      <c r="K31" s="84"/>
+      <c r="L31" s="84"/>
+      <c r="M31" s="117"/>
+      <c r="N31" s="84"/>
+      <c r="O31" s="84"/>
+      <c r="P31" s="84"/>
+      <c r="Q31" s="84"/>
+      <c r="R31" s="84"/>
+      <c r="S31" s="84"/>
+      <c r="T31" s="84"/>
+      <c r="U31" s="126" t="s">
+        <v>19</v>
+      </c>
+      <c r="V31" s="111"/>
+      <c r="W31" s="111"/>
+      <c r="X31" s="111"/>
+      <c r="Y31" s="111"/>
+      <c r="Z31" s="111"/>
+      <c r="AA31" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="164"/>
-      <c r="L5" s="164"/>
-      <c r="M5" s="164"/>
-      <c r="N5" s="164"/>
-      <c r="O5" s="164"/>
-      <c r="P5" s="164"/>
-      <c r="Q5" s="164"/>
-      <c r="R5" s="164"/>
-      <c r="S5" s="165"/>
-      <c r="T5" s="165"/>
-      <c r="U5" s="166"/>
-      <c r="V5" s="167" t="s">
-        <v>1</v>
-      </c>
-      <c r="W5" s="164"/>
-      <c r="X5" s="164"/>
-      <c r="Y5" s="166"/>
-      <c r="AA5" s="21"/>
-      <c r="AB5" s="22"/>
-      <c r="AC5" s="22"/>
+      <c r="AB31" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC31" s="122" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD31" s="123" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="6" spans="1:29" s="23" customFormat="1">
-      <c r="B6" s="103" t="s">
+    <row r="32" spans="2:30" s="18" customFormat="1">
+      <c r="B32" s="89" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="90"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="91"/>
+      <c r="F32" s="99">
+        <v>27</v>
+      </c>
+      <c r="G32" s="121" t="s">
+        <v>43</v>
+      </c>
+      <c r="H32" s="102"/>
+      <c r="I32" s="106"/>
+      <c r="J32" s="83"/>
+      <c r="K32" s="84"/>
+      <c r="L32" s="118"/>
+      <c r="M32" s="84"/>
+      <c r="N32" s="84"/>
+      <c r="O32" s="84"/>
+      <c r="P32" s="84"/>
+      <c r="Q32" s="84"/>
+      <c r="R32" s="84"/>
+      <c r="S32" s="84"/>
+      <c r="T32" s="84"/>
+      <c r="U32" s="126" t="s">
+        <v>19</v>
+      </c>
+      <c r="V32" s="180"/>
+      <c r="W32" s="126" t="s">
+        <v>19</v>
+      </c>
+      <c r="X32" s="180"/>
+      <c r="Y32" s="180"/>
+      <c r="Z32" s="180"/>
+      <c r="AA32" s="193"/>
+      <c r="AB32" s="23"/>
+      <c r="AC32" s="122"/>
+      <c r="AD32" s="123" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" s="18" customFormat="1">
+      <c r="B33" s="89" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="90"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="91"/>
+      <c r="F33" s="99">
+        <v>28</v>
+      </c>
+      <c r="G33" s="121" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" s="103"/>
+      <c r="I33" s="107"/>
+      <c r="J33" s="110"/>
+      <c r="K33" s="111"/>
+      <c r="L33" s="111"/>
+      <c r="M33" s="111"/>
+      <c r="N33" s="111"/>
+      <c r="O33" s="111"/>
+      <c r="P33" s="111"/>
+      <c r="Q33" s="111"/>
+      <c r="R33" s="111"/>
+      <c r="S33" s="111"/>
+      <c r="T33" s="111"/>
+      <c r="U33" s="111"/>
+      <c r="V33" s="181"/>
+      <c r="W33" s="84"/>
+      <c r="X33" s="84"/>
+      <c r="Y33" s="84"/>
+      <c r="Z33" s="85"/>
+      <c r="AA33" s="193" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB33" s="122" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC33" s="122" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD33" s="123" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" s="18" customFormat="1" ht="13.5" thickBot="1">
+      <c r="B34" s="92" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="93"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="95">
+        <v>29</v>
+      </c>
+      <c r="G34" s="121" t="s">
+        <v>29</v>
+      </c>
+      <c r="H34" s="96"/>
+      <c r="I34" s="97"/>
+      <c r="J34" s="112"/>
+      <c r="K34" s="113"/>
+      <c r="L34" s="113"/>
+      <c r="M34" s="113"/>
+      <c r="N34" s="113"/>
+      <c r="O34" s="113"/>
+      <c r="P34" s="113"/>
+      <c r="Q34" s="113"/>
+      <c r="R34" s="113"/>
+      <c r="S34" s="113"/>
+      <c r="T34" s="163"/>
+      <c r="U34" s="113"/>
+      <c r="V34" s="187"/>
+      <c r="W34" s="187"/>
+      <c r="X34" s="187"/>
+      <c r="Z34" s="164" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA34" s="214" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB34" s="215" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC34" s="215" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD34" s="216" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" s="18" customFormat="1" ht="13.5" thickBot="1">
+      <c r="B35" s="48"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="79"/>
+      <c r="H35" s="80"/>
+      <c r="I35" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="108"/>
+      <c r="K35" s="109"/>
+      <c r="L35" s="109"/>
+      <c r="M35" s="109"/>
+      <c r="N35" s="109"/>
+      <c r="O35" s="109"/>
+      <c r="P35" s="109"/>
+      <c r="Q35" s="109"/>
+      <c r="R35" s="109"/>
+      <c r="S35" s="109"/>
+      <c r="T35" s="109"/>
+      <c r="U35" s="188"/>
+      <c r="V35" s="189"/>
+      <c r="W35" s="190"/>
+      <c r="X35" s="190"/>
+      <c r="Y35" s="190"/>
+      <c r="Z35" s="192"/>
+      <c r="AA35" s="191"/>
+      <c r="AB35" s="51"/>
+      <c r="AC35" s="51"/>
+      <c r="AD35" s="74"/>
+    </row>
+    <row r="36" spans="2:30" ht="12.75" customHeight="1">
+      <c r="B36" s="145" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="127" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="127" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="132" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="115">
-        <v>1</v>
-      </c>
-      <c r="G6" s="141" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" s="118"/>
-      <c r="I6" s="122"/>
-      <c r="J6" s="136" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
-      <c r="N6" s="98"/>
-      <c r="O6" s="98"/>
-      <c r="P6" s="98"/>
-      <c r="Q6" s="98"/>
-      <c r="R6" s="98"/>
-      <c r="S6" s="98"/>
-      <c r="T6" s="98"/>
-      <c r="U6" s="99"/>
-      <c r="V6" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="W6" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="X6" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y6" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA6" s="27"/>
-      <c r="AB6" s="28"/>
-      <c r="AC6" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="142" t="s">
+        <v>65</v>
+      </c>
+      <c r="K36" s="139" t="s">
+        <v>66</v>
+      </c>
+      <c r="L36" s="139" t="s">
+        <v>67</v>
+      </c>
+      <c r="M36" s="139" t="s">
+        <v>23</v>
+      </c>
+      <c r="N36" s="139" t="s">
+        <v>68</v>
+      </c>
+      <c r="O36" s="139" t="s">
+        <v>69</v>
+      </c>
+      <c r="P36" s="139" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q36" s="139" t="s">
+        <v>72</v>
+      </c>
+      <c r="R36" s="139" t="s">
+        <v>73</v>
+      </c>
+      <c r="S36" s="139" t="s">
+        <v>71</v>
+      </c>
+      <c r="T36" s="139" t="s">
+        <v>74</v>
+      </c>
+      <c r="U36" s="139" t="s">
+        <v>38</v>
+      </c>
+      <c r="V36" s="182" t="s">
+        <v>75</v>
+      </c>
+      <c r="W36" s="139" t="s">
+        <v>77</v>
+      </c>
+      <c r="X36" s="139" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y36" s="139" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z36" s="155" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA36" s="137" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB36" s="137" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC36" s="156" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD36" s="134" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:29" s="23" customFormat="1">
-      <c r="B7" s="106" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="116">
+    <row r="37" spans="2:30" ht="12.75" customHeight="1">
+      <c r="B37" s="145"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="127"/>
+      <c r="E37" s="132"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="143"/>
+      <c r="K37" s="140"/>
+      <c r="L37" s="140"/>
+      <c r="M37" s="140"/>
+      <c r="N37" s="140"/>
+      <c r="O37" s="140"/>
+      <c r="P37" s="140"/>
+      <c r="Q37" s="140"/>
+      <c r="R37" s="140"/>
+      <c r="S37" s="140"/>
+      <c r="T37" s="140"/>
+      <c r="U37" s="185"/>
+      <c r="V37" s="183"/>
+      <c r="W37" s="140"/>
+      <c r="X37" s="140"/>
+      <c r="Y37" s="140"/>
+      <c r="Z37" s="165"/>
+      <c r="AA37" s="137"/>
+      <c r="AB37" s="137"/>
+      <c r="AC37" s="156"/>
+      <c r="AD37" s="135"/>
+    </row>
+    <row r="38" spans="2:30" ht="12.75" customHeight="1">
+      <c r="B38" s="145"/>
+      <c r="C38" s="127"/>
+      <c r="D38" s="127"/>
+      <c r="E38" s="132"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="143"/>
+      <c r="K38" s="140"/>
+      <c r="L38" s="140"/>
+      <c r="M38" s="140"/>
+      <c r="N38" s="140"/>
+      <c r="O38" s="140"/>
+      <c r="P38" s="140"/>
+      <c r="Q38" s="140"/>
+      <c r="R38" s="140"/>
+      <c r="S38" s="140"/>
+      <c r="T38" s="140"/>
+      <c r="U38" s="185"/>
+      <c r="V38" s="183"/>
+      <c r="W38" s="140"/>
+      <c r="X38" s="140"/>
+      <c r="Y38" s="140"/>
+      <c r="Z38" s="165"/>
+      <c r="AA38" s="137"/>
+      <c r="AB38" s="137"/>
+      <c r="AC38" s="156"/>
+      <c r="AD38" s="135"/>
+    </row>
+    <row r="39" spans="2:30" ht="12.75" customHeight="1">
+      <c r="B39" s="145"/>
+      <c r="C39" s="127"/>
+      <c r="D39" s="127"/>
+      <c r="E39" s="132"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="143"/>
+      <c r="K39" s="140"/>
+      <c r="L39" s="140"/>
+      <c r="M39" s="140"/>
+      <c r="N39" s="140"/>
+      <c r="O39" s="140"/>
+      <c r="P39" s="140"/>
+      <c r="Q39" s="140"/>
+      <c r="R39" s="140"/>
+      <c r="S39" s="140"/>
+      <c r="T39" s="140"/>
+      <c r="U39" s="185"/>
+      <c r="V39" s="183"/>
+      <c r="W39" s="140"/>
+      <c r="X39" s="140"/>
+      <c r="Y39" s="140"/>
+      <c r="Z39" s="165"/>
+      <c r="AA39" s="137"/>
+      <c r="AB39" s="137"/>
+      <c r="AC39" s="156"/>
+      <c r="AD39" s="135"/>
+    </row>
+    <row r="40" spans="2:30" ht="12.75" customHeight="1">
+      <c r="B40" s="145"/>
+      <c r="C40" s="127"/>
+      <c r="D40" s="127"/>
+      <c r="E40" s="132"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="143"/>
+      <c r="K40" s="140"/>
+      <c r="L40" s="140"/>
+      <c r="M40" s="140"/>
+      <c r="N40" s="140"/>
+      <c r="O40" s="140"/>
+      <c r="P40" s="140"/>
+      <c r="Q40" s="140"/>
+      <c r="R40" s="140"/>
+      <c r="S40" s="140"/>
+      <c r="T40" s="140"/>
+      <c r="U40" s="185"/>
+      <c r="V40" s="183"/>
+      <c r="W40" s="140"/>
+      <c r="X40" s="140"/>
+      <c r="Y40" s="140"/>
+      <c r="Z40" s="165"/>
+      <c r="AA40" s="137"/>
+      <c r="AB40" s="137"/>
+      <c r="AC40" s="156"/>
+      <c r="AD40" s="135"/>
+    </row>
+    <row r="41" spans="2:30" ht="12" customHeight="1" thickBot="1">
+      <c r="B41" s="145"/>
+      <c r="C41" s="127"/>
+      <c r="D41" s="127"/>
+      <c r="E41" s="132"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="144"/>
+      <c r="K41" s="141"/>
+      <c r="L41" s="141"/>
+      <c r="M41" s="141"/>
+      <c r="N41" s="141"/>
+      <c r="O41" s="141"/>
+      <c r="P41" s="141"/>
+      <c r="Q41" s="141"/>
+      <c r="R41" s="141"/>
+      <c r="S41" s="141"/>
+      <c r="T41" s="141"/>
+      <c r="U41" s="186"/>
+      <c r="V41" s="184"/>
+      <c r="W41" s="141"/>
+      <c r="X41" s="141"/>
+      <c r="Y41" s="141"/>
+      <c r="Z41" s="166"/>
+      <c r="AA41" s="138"/>
+      <c r="AB41" s="138"/>
+      <c r="AC41" s="157"/>
+      <c r="AD41" s="136"/>
+    </row>
+    <row r="42" spans="2:30">
+      <c r="B42" s="145"/>
+      <c r="C42" s="127"/>
+      <c r="D42" s="127"/>
+      <c r="E42" s="132"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="36"/>
+      <c r="P42" s="36"/>
+      <c r="Q42" s="36"/>
+      <c r="R42" s="36"/>
+      <c r="S42" s="36"/>
+      <c r="T42" s="36"/>
+      <c r="U42" s="36"/>
+      <c r="V42" s="36"/>
+      <c r="W42" s="36"/>
+      <c r="X42" s="36"/>
+      <c r="Y42" s="39"/>
+      <c r="Z42" s="197"/>
+      <c r="AA42" s="197"/>
+      <c r="AB42" s="197"/>
+      <c r="AC42" s="197"/>
+      <c r="AD42" s="198"/>
+    </row>
+    <row r="43" spans="2:30" ht="15.75" customHeight="1">
+      <c r="B43" s="145"/>
+      <c r="C43" s="127"/>
+      <c r="D43" s="127"/>
+      <c r="E43" s="132"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="39"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="39"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q43" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="R43" s="39"/>
+      <c r="S43" s="39"/>
+      <c r="T43" s="39"/>
+      <c r="U43" s="39"/>
+      <c r="V43" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="W43" s="39"/>
+      <c r="X43" s="39"/>
+      <c r="Y43" s="39"/>
+      <c r="Z43" s="34"/>
+      <c r="AA43" s="66"/>
+      <c r="AB43" s="67"/>
+      <c r="AC43" s="67"/>
+      <c r="AD43" s="199"/>
+    </row>
+    <row r="44" spans="2:30" ht="12.75" customHeight="1">
+      <c r="B44" s="145"/>
+      <c r="C44" s="127"/>
+      <c r="D44" s="127"/>
+      <c r="E44" s="132"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="39"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="39"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="71" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q44" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="R44" s="39"/>
+      <c r="S44" s="39"/>
+      <c r="T44" s="39"/>
+      <c r="U44" s="39"/>
+      <c r="V44" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="W44" s="39"/>
+      <c r="X44" s="39"/>
+      <c r="Y44" s="39"/>
+      <c r="Z44" s="34"/>
+      <c r="AA44" s="66"/>
+      <c r="AB44" s="68"/>
+      <c r="AC44" s="68"/>
+      <c r="AD44" s="199"/>
+    </row>
+    <row r="45" spans="2:30" ht="15.75">
+      <c r="B45" s="145"/>
+      <c r="C45" s="127"/>
+      <c r="D45" s="127"/>
+      <c r="E45" s="132"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="39"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="39"/>
+      <c r="O45" s="39"/>
+      <c r="P45" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q45" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="R45" s="39"/>
+      <c r="S45" s="39"/>
+      <c r="T45" s="39"/>
+      <c r="U45" s="39"/>
+      <c r="V45" s="39"/>
+      <c r="W45" s="39"/>
+      <c r="X45" s="39"/>
+      <c r="Y45" s="39"/>
+      <c r="Z45" s="34"/>
+      <c r="AA45" s="66"/>
+      <c r="AB45" s="68"/>
+      <c r="AC45" s="69"/>
+      <c r="AD45" s="199"/>
+    </row>
+    <row r="46" spans="2:30">
+      <c r="B46" s="145"/>
+      <c r="C46" s="127"/>
+      <c r="D46" s="127"/>
+      <c r="E46" s="132"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="39"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="39"/>
+      <c r="O46" s="39"/>
+      <c r="P46" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q46" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="R46" s="39"/>
+      <c r="S46" s="39"/>
+      <c r="T46" s="39"/>
+      <c r="U46" s="39"/>
+      <c r="V46" s="39"/>
+      <c r="W46" s="39"/>
+      <c r="X46" s="39"/>
+      <c r="Y46" s="39"/>
+      <c r="Z46" s="34"/>
+      <c r="AA46" s="66"/>
+      <c r="AB46" s="68"/>
+      <c r="AC46" s="68"/>
+      <c r="AD46" s="199"/>
+    </row>
+    <row r="47" spans="2:30" ht="15.75">
+      <c r="B47" s="145"/>
+      <c r="C47" s="127"/>
+      <c r="D47" s="127"/>
+      <c r="E47" s="132"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="39"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="39"/>
+      <c r="O47" s="39"/>
+      <c r="P47" s="39"/>
+      <c r="Q47" s="39"/>
+      <c r="R47" s="39"/>
+      <c r="S47" s="39"/>
+      <c r="T47" s="39"/>
+      <c r="U47" s="39"/>
+      <c r="V47" s="39"/>
+      <c r="W47" s="39"/>
+      <c r="X47" s="39"/>
+      <c r="Y47" s="39"/>
+      <c r="Z47" s="34"/>
+      <c r="AA47" s="66"/>
+      <c r="AB47" s="200"/>
+      <c r="AC47" s="201"/>
+      <c r="AD47" s="199"/>
+    </row>
+    <row r="48" spans="2:30" ht="13.5" thickBot="1">
+      <c r="B48" s="145"/>
+      <c r="C48" s="127"/>
+      <c r="D48" s="127"/>
+      <c r="E48" s="132"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="45"/>
+      <c r="K48" s="46"/>
+      <c r="L48" s="46"/>
+      <c r="M48" s="46"/>
+      <c r="N48" s="46"/>
+      <c r="O48" s="46"/>
+      <c r="P48" s="46"/>
+      <c r="Q48" s="46"/>
+      <c r="R48" s="46"/>
+      <c r="S48" s="46"/>
+      <c r="T48" s="46"/>
+      <c r="U48" s="46"/>
+      <c r="V48" s="46"/>
+      <c r="W48" s="46"/>
+      <c r="X48" s="46"/>
+      <c r="Y48" s="46"/>
+      <c r="Z48" s="44"/>
+      <c r="AA48" s="202"/>
+      <c r="AB48" s="203"/>
+      <c r="AC48" s="203"/>
+      <c r="AD48" s="204"/>
+    </row>
+    <row r="49" spans="2:30">
+      <c r="B49" s="145"/>
+      <c r="C49" s="127"/>
+      <c r="D49" s="127"/>
+      <c r="E49" s="132"/>
+      <c r="F49" s="158" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" s="159"/>
+      <c r="H49" s="159"/>
+      <c r="I49" s="159"/>
+      <c r="J49" s="159"/>
+      <c r="K49" s="159"/>
+      <c r="L49" s="159"/>
+      <c r="M49" s="159"/>
+      <c r="N49" s="159"/>
+      <c r="O49" s="159"/>
+      <c r="P49" s="159"/>
+      <c r="Q49" s="159"/>
+      <c r="R49" s="159"/>
+      <c r="S49" s="159"/>
+      <c r="T49" s="159"/>
+      <c r="U49" s="159"/>
+      <c r="V49" s="159"/>
+      <c r="W49" s="159"/>
+      <c r="X49" s="159"/>
+      <c r="Y49" s="159"/>
+      <c r="Z49" s="197"/>
+      <c r="AA49" s="205"/>
+      <c r="AB49" s="206"/>
+      <c r="AC49" s="206"/>
+      <c r="AD49" s="198"/>
+    </row>
+    <row r="50" spans="2:30">
+      <c r="B50" s="145"/>
+      <c r="C50" s="127"/>
+      <c r="D50" s="127"/>
+      <c r="E50" s="132"/>
+      <c r="F50" s="151"/>
+      <c r="G50" s="152"/>
+      <c r="H50" s="152"/>
+      <c r="I50" s="152"/>
+      <c r="J50" s="152"/>
+      <c r="K50" s="152"/>
+      <c r="L50" s="152"/>
+      <c r="M50" s="152"/>
+      <c r="N50" s="152"/>
+      <c r="O50" s="152"/>
+      <c r="P50" s="152"/>
+      <c r="Q50" s="152"/>
+      <c r="R50" s="152"/>
+      <c r="S50" s="152"/>
+      <c r="T50" s="152"/>
+      <c r="U50" s="152"/>
+      <c r="V50" s="152"/>
+      <c r="W50" s="152"/>
+      <c r="X50" s="152"/>
+      <c r="Y50" s="152"/>
+      <c r="Z50" s="210"/>
+      <c r="AA50" s="211"/>
+      <c r="AB50" s="212"/>
+      <c r="AC50" s="212"/>
+      <c r="AD50" s="213"/>
+    </row>
+    <row r="51" spans="2:30">
+      <c r="B51" s="145"/>
+      <c r="C51" s="127"/>
+      <c r="D51" s="127"/>
+      <c r="E51" s="132"/>
+      <c r="F51" s="151"/>
+      <c r="G51" s="152"/>
+      <c r="H51" s="152"/>
+      <c r="I51" s="152"/>
+      <c r="J51" s="152"/>
+      <c r="K51" s="152"/>
+      <c r="L51" s="152"/>
+      <c r="M51" s="152"/>
+      <c r="N51" s="152"/>
+      <c r="O51" s="152"/>
+      <c r="P51" s="152"/>
+      <c r="Q51" s="152"/>
+      <c r="R51" s="152"/>
+      <c r="S51" s="152"/>
+      <c r="T51" s="152"/>
+      <c r="U51" s="152"/>
+      <c r="V51" s="152"/>
+      <c r="W51" s="152"/>
+      <c r="X51" s="152"/>
+      <c r="Y51" s="152"/>
+      <c r="Z51" s="210"/>
+      <c r="AA51" s="210"/>
+      <c r="AB51" s="212"/>
+      <c r="AC51" s="212"/>
+      <c r="AD51" s="213"/>
+    </row>
+    <row r="52" spans="2:30" s="13" customFormat="1" ht="13.5" thickBot="1">
+      <c r="B52" s="146"/>
+      <c r="C52" s="128"/>
+      <c r="D52" s="128"/>
+      <c r="E52" s="133"/>
+      <c r="F52" s="153"/>
+      <c r="G52" s="154"/>
+      <c r="H52" s="154"/>
+      <c r="I52" s="154"/>
+      <c r="J52" s="154"/>
+      <c r="K52" s="154"/>
+      <c r="L52" s="154"/>
+      <c r="M52" s="154"/>
+      <c r="N52" s="154"/>
+      <c r="O52" s="154"/>
+      <c r="P52" s="154"/>
+      <c r="Q52" s="154"/>
+      <c r="R52" s="154"/>
+      <c r="S52" s="154"/>
+      <c r="T52" s="154"/>
+      <c r="U52" s="154"/>
+      <c r="V52" s="154"/>
+      <c r="W52" s="154"/>
+      <c r="X52" s="154"/>
+      <c r="Y52" s="154"/>
+      <c r="Z52" s="43"/>
+      <c r="AA52" s="207"/>
+      <c r="AB52" s="208"/>
+      <c r="AC52" s="208"/>
+      <c r="AD52" s="209"/>
+    </row>
+    <row r="53" spans="2:30" s="13" customFormat="1">
+      <c r="B53" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="142" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" s="119"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="137" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
-      <c r="N7" s="101"/>
-      <c r="O7" s="101"/>
-      <c r="P7" s="101"/>
-      <c r="Q7" s="101"/>
-      <c r="R7" s="101"/>
-      <c r="S7" s="101"/>
-      <c r="T7" s="101"/>
-      <c r="U7" s="102"/>
-      <c r="V7" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="W7" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="X7" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y7" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA7" s="27"/>
-      <c r="AB7" s="28"/>
-      <c r="AC7" s="28"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="47"/>
+      <c r="K53" s="47"/>
+      <c r="L53" s="47"/>
+      <c r="AA53" s="16"/>
+      <c r="AB53" s="17"/>
+      <c r="AC53" s="17"/>
     </row>
-    <row r="8" spans="1:29" s="23" customFormat="1">
-      <c r="B8" s="106"/>
-      <c r="C8" s="107" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="107"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="116">
-        <v>3</v>
-      </c>
-      <c r="G8" s="142" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" s="119"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="137" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" s="101"/>
-      <c r="N8" s="101"/>
-      <c r="O8" s="101"/>
-      <c r="P8" s="101"/>
-      <c r="Q8" s="101"/>
-      <c r="R8" s="101"/>
-      <c r="S8" s="101"/>
-      <c r="T8" s="101"/>
-      <c r="U8" s="102"/>
-      <c r="V8" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="W8" s="144" t="s">
-        <v>60</v>
-      </c>
-      <c r="X8" s="144" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y8" s="145" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA8" s="27"/>
-      <c r="AB8" s="28"/>
-      <c r="AC8" s="28"/>
+    <row r="54" spans="2:30">
+      <c r="I54" s="52"/>
+      <c r="J54" s="52"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="53"/>
+      <c r="M54" s="53"/>
+      <c r="N54" s="65"/>
+      <c r="O54" s="65"/>
+      <c r="P54" s="53"/>
+      <c r="Q54" s="53"/>
+      <c r="R54" s="53"/>
+      <c r="S54" s="53"/>
+      <c r="T54" s="53"/>
+      <c r="U54" s="53"/>
+      <c r="V54" s="53"/>
+      <c r="W54" s="53"/>
+      <c r="X54" s="53"/>
+      <c r="Y54" s="53"/>
+      <c r="Z54" s="53"/>
+      <c r="AA54" s="53"/>
+      <c r="AB54" s="53"/>
+      <c r="AC54" s="53"/>
     </row>
-    <row r="9" spans="1:29" s="23" customFormat="1">
-      <c r="B9" s="106"/>
-      <c r="C9" s="107" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="107"/>
-      <c r="E9" s="108"/>
-      <c r="F9" s="116">
-        <v>4</v>
-      </c>
-      <c r="G9" s="142" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="119"/>
-      <c r="I9" s="123"/>
-      <c r="J9" s="100"/>
-      <c r="K9" s="101"/>
-      <c r="M9" s="101"/>
-      <c r="O9" s="101"/>
-      <c r="P9" s="101"/>
-      <c r="Q9" s="101"/>
-      <c r="R9" s="101"/>
-      <c r="S9" s="101"/>
-      <c r="T9" s="101"/>
-      <c r="U9" s="102"/>
-      <c r="V9" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="31"/>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="28"/>
-      <c r="AC9" s="28"/>
+    <row r="55" spans="2:30">
+      <c r="I55" s="52"/>
+      <c r="J55" s="52"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="54"/>
+      <c r="M55" s="54"/>
+      <c r="N55" s="54"/>
+      <c r="O55" s="54"/>
+      <c r="P55" s="54"/>
+      <c r="Q55" s="54"/>
+      <c r="R55" s="54"/>
+      <c r="S55" s="54"/>
+      <c r="T55" s="54"/>
+      <c r="U55" s="54"/>
+      <c r="V55" s="54"/>
+      <c r="W55" s="54"/>
+      <c r="X55" s="54"/>
+      <c r="Y55" s="54"/>
+      <c r="Z55" s="54"/>
+      <c r="AA55" s="54"/>
+      <c r="AB55" s="54"/>
+      <c r="AC55" s="54"/>
     </row>
-    <row r="10" spans="1:29" s="23" customFormat="1">
-      <c r="B10" s="106"/>
-      <c r="C10" s="107" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="108"/>
-      <c r="F10" s="116">
-        <v>5</v>
-      </c>
-      <c r="G10" s="142" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="119"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="101"/>
-      <c r="L10" s="101"/>
-      <c r="M10" s="138" t="s">
-        <v>26</v>
-      </c>
-      <c r="N10" s="101"/>
-      <c r="O10" s="101"/>
-      <c r="P10" s="101"/>
-      <c r="Q10" s="101"/>
-      <c r="R10" s="101"/>
-      <c r="S10" s="101"/>
-      <c r="T10" s="101"/>
-      <c r="U10" s="102"/>
-      <c r="V10" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="W10" s="30"/>
-      <c r="X10" s="30"/>
-      <c r="Y10" s="31"/>
-      <c r="AA10" s="84"/>
-      <c r="AB10" s="78"/>
-      <c r="AC10" s="28"/>
+    <row r="56" spans="2:30">
+      <c r="B56" s="47"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="52"/>
+      <c r="J56" s="52"/>
+      <c r="K56" s="52"/>
+      <c r="L56" s="52"/>
+      <c r="M56" s="52"/>
+      <c r="N56" s="52"/>
+      <c r="O56" s="52"/>
+      <c r="P56" s="52"/>
+      <c r="Q56" s="52"/>
+      <c r="R56" s="52"/>
+      <c r="S56" s="52"/>
+      <c r="T56" s="52"/>
+      <c r="U56" s="52"/>
+      <c r="V56" s="52"/>
+      <c r="W56" s="52"/>
+      <c r="X56" s="52"/>
+      <c r="Y56" s="52"/>
+      <c r="Z56" s="52"/>
+      <c r="AA56" s="52"/>
+      <c r="AB56" s="52"/>
+      <c r="AC56" s="52"/>
     </row>
-    <row r="11" spans="1:29" s="23" customFormat="1">
-      <c r="B11" s="106"/>
-      <c r="D11" s="107" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="108"/>
-      <c r="F11" s="116">
-        <v>6</v>
-      </c>
-      <c r="G11" s="142" t="s">
-        <v>69</v>
-      </c>
-      <c r="H11" s="119"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="139" t="s">
-        <v>26</v>
-      </c>
-      <c r="O11" s="101"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="101"/>
-      <c r="R11" s="101"/>
-      <c r="S11" s="101"/>
-      <c r="T11" s="101"/>
-      <c r="U11" s="102"/>
-      <c r="V11" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="31"/>
-      <c r="AA11" s="84"/>
-      <c r="AB11" s="78"/>
-      <c r="AC11" s="28"/>
-    </row>
-    <row r="12" spans="1:29" s="23" customFormat="1">
-      <c r="B12" s="106"/>
-      <c r="D12" s="107" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="108"/>
-      <c r="F12" s="116">
-        <v>7</v>
-      </c>
-      <c r="G12" s="142" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" s="119"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="101"/>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101"/>
-      <c r="O12" s="138" t="s">
-        <v>26</v>
-      </c>
-      <c r="P12" s="101"/>
-      <c r="Q12" s="101"/>
-      <c r="R12" s="101"/>
-      <c r="S12" s="101"/>
-      <c r="T12" s="101"/>
-      <c r="U12" s="102"/>
-      <c r="V12" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="31"/>
-      <c r="AA12" s="84"/>
-      <c r="AB12" s="78"/>
-      <c r="AC12" s="28"/>
-    </row>
-    <row r="13" spans="1:29" s="23" customFormat="1">
-      <c r="B13" s="106"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="108"/>
-      <c r="F13" s="116">
-        <v>8</v>
-      </c>
-      <c r="G13" s="142" t="s">
-        <v>71</v>
-      </c>
-      <c r="H13" s="119"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="137" t="s">
-        <v>26</v>
-      </c>
-      <c r="P13" s="101"/>
-      <c r="Q13" s="101"/>
-      <c r="R13" s="101"/>
-      <c r="S13" s="101"/>
-      <c r="T13" s="101"/>
-      <c r="U13" s="102"/>
-      <c r="V13" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="W13" s="30"/>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="31"/>
-      <c r="AA13" s="84"/>
-      <c r="AB13" s="78"/>
-      <c r="AC13" s="28"/>
-    </row>
-    <row r="14" spans="1:29" s="23" customFormat="1">
-      <c r="B14" s="106"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="107" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="108"/>
-      <c r="F14" s="116">
-        <v>9</v>
-      </c>
-      <c r="G14" s="142" t="s">
-        <v>72</v>
-      </c>
-      <c r="H14" s="119"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="137" t="s">
-        <v>26</v>
-      </c>
-      <c r="P14" s="101"/>
-      <c r="Q14" s="101"/>
-      <c r="R14" s="101"/>
-      <c r="S14" s="101"/>
-      <c r="T14" s="101"/>
-      <c r="U14" s="102"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="X14" s="30"/>
-      <c r="Y14" s="31"/>
-      <c r="AA14" s="27"/>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="28"/>
-    </row>
-    <row r="15" spans="1:29" s="23" customFormat="1">
-      <c r="B15" s="106"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="107" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="108"/>
-      <c r="F15" s="116">
-        <v>10</v>
-      </c>
-      <c r="G15" s="142" t="s">
-        <v>73</v>
-      </c>
-      <c r="H15" s="119"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="100"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="137" t="s">
-        <v>26</v>
-      </c>
-      <c r="P15" s="101"/>
-      <c r="Q15" s="101"/>
-      <c r="R15" s="101"/>
-      <c r="S15" s="101"/>
-      <c r="T15" s="101"/>
-      <c r="U15" s="102"/>
-      <c r="V15" s="29"/>
-      <c r="W15" s="30"/>
-      <c r="X15" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y15" s="31"/>
-      <c r="AA15" s="27"/>
-      <c r="AB15" s="28"/>
-      <c r="AC15" s="28"/>
-    </row>
-    <row r="16" spans="1:29" s="23" customFormat="1">
-      <c r="B16" s="106"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="108"/>
-      <c r="F16" s="116">
-        <v>11</v>
-      </c>
-      <c r="G16" s="142" t="s">
-        <v>74</v>
-      </c>
-      <c r="H16" s="119"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="137" t="s">
-        <v>26</v>
-      </c>
-      <c r="P16" s="101"/>
-      <c r="Q16" s="101"/>
-      <c r="R16" s="101"/>
-      <c r="S16" s="101"/>
-      <c r="T16" s="101"/>
-      <c r="U16" s="102"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA16" s="27"/>
-      <c r="AB16" s="28"/>
-      <c r="AC16" s="28"/>
-    </row>
-    <row r="17" spans="2:29" s="23" customFormat="1">
-      <c r="B17" s="106"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="108"/>
-      <c r="F17" s="116">
-        <v>12</v>
-      </c>
-      <c r="G17" s="142" t="s">
-        <v>75</v>
-      </c>
-      <c r="H17" s="119"/>
-      <c r="I17" s="123"/>
-      <c r="J17" s="100"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="101"/>
-      <c r="P17" s="137" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q17" s="101"/>
-      <c r="R17" s="101"/>
-      <c r="S17" s="101"/>
-      <c r="T17" s="101"/>
-      <c r="U17" s="102"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="X17" s="30"/>
-      <c r="Y17" s="31"/>
-      <c r="AA17" s="27"/>
-      <c r="AB17" s="28"/>
-      <c r="AC17" s="28"/>
-    </row>
-    <row r="18" spans="2:29" s="23" customFormat="1">
-      <c r="B18" s="106"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="108"/>
-      <c r="F18" s="116">
-        <v>13</v>
-      </c>
-      <c r="G18" s="142" t="s">
-        <v>54</v>
-      </c>
-      <c r="H18" s="119"/>
-      <c r="I18" s="123"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="101"/>
-      <c r="L18" s="101"/>
-      <c r="M18" s="101"/>
-      <c r="N18" s="101"/>
-      <c r="O18" s="101"/>
-      <c r="P18" s="139" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q18" s="101"/>
-      <c r="R18" s="101"/>
-      <c r="S18" s="101"/>
-      <c r="T18" s="101"/>
-      <c r="U18" s="102"/>
-      <c r="V18" s="29"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y18" s="31"/>
-      <c r="AA18" s="27"/>
-      <c r="AB18" s="28"/>
-      <c r="AC18" s="28"/>
-    </row>
-    <row r="19" spans="2:29" s="23" customFormat="1">
-      <c r="B19" s="106"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="107" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="108"/>
-      <c r="F19" s="116">
-        <v>14</v>
-      </c>
-      <c r="G19" s="142" t="s">
-        <v>55</v>
-      </c>
-      <c r="H19" s="119"/>
-      <c r="I19" s="123"/>
-      <c r="J19" s="100"/>
-      <c r="K19" s="101"/>
-      <c r="L19" s="101"/>
-      <c r="M19" s="101"/>
-      <c r="N19" s="101"/>
-      <c r="O19" s="101"/>
-      <c r="P19" s="139" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q19" s="101"/>
-      <c r="R19" s="101"/>
-      <c r="S19" s="101"/>
-      <c r="T19" s="101"/>
-      <c r="U19" s="102"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="30"/>
-      <c r="Y19" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA19" s="27"/>
-      <c r="AB19" s="28"/>
-      <c r="AC19" s="28"/>
-    </row>
-    <row r="20" spans="2:29" s="23" customFormat="1">
-      <c r="B20" s="106"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="107" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="116">
-        <v>15</v>
-      </c>
-      <c r="G20" s="142" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" s="120"/>
-      <c r="I20" s="124"/>
-      <c r="J20" s="100"/>
-      <c r="K20" s="101"/>
-      <c r="L20" s="101"/>
-      <c r="M20" s="101"/>
-      <c r="N20" s="101"/>
-      <c r="O20" s="101"/>
-      <c r="P20" s="101"/>
-      <c r="Q20" s="101" t="s">
-        <v>26</v>
-      </c>
-      <c r="R20" s="101"/>
-      <c r="S20" s="101"/>
-      <c r="T20" s="101"/>
-      <c r="U20" s="102"/>
-      <c r="V20" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="W20" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="X20" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y20" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA20" s="27"/>
-      <c r="AB20" s="28"/>
-      <c r="AC20" s="28"/>
-    </row>
-    <row r="21" spans="2:29" s="23" customFormat="1">
-      <c r="B21" s="106"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="107" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="116">
-        <v>16</v>
-      </c>
-      <c r="G21" s="142" t="s">
-        <v>48</v>
-      </c>
-      <c r="H21" s="120"/>
-      <c r="I21" s="124"/>
-      <c r="J21" s="100"/>
-      <c r="K21" s="101"/>
-      <c r="L21" s="101"/>
-      <c r="M21" s="101"/>
-      <c r="N21" s="101"/>
-      <c r="O21" s="101"/>
-      <c r="P21" s="101"/>
-      <c r="Q21" s="101"/>
-      <c r="R21" s="101" t="s">
-        <v>26</v>
-      </c>
-      <c r="S21" s="101"/>
-      <c r="T21" s="101"/>
-      <c r="U21" s="102"/>
-      <c r="V21" s="29"/>
-      <c r="W21" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="X21" s="30"/>
-      <c r="Y21" s="31"/>
-      <c r="AA21" s="27"/>
-      <c r="AB21" s="28"/>
-      <c r="AC21" s="28"/>
-    </row>
-    <row r="22" spans="2:29" s="23" customFormat="1">
-      <c r="B22" s="106"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="107" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="116">
-        <v>17</v>
-      </c>
-      <c r="G22" s="142" t="s">
-        <v>49</v>
-      </c>
-      <c r="H22" s="120"/>
-      <c r="I22" s="124"/>
-      <c r="J22" s="100"/>
-      <c r="K22" s="101"/>
-      <c r="L22" s="101"/>
-      <c r="M22" s="101"/>
-      <c r="N22" s="101"/>
-      <c r="O22" s="101"/>
-      <c r="P22" s="101"/>
-      <c r="Q22" s="101"/>
-      <c r="R22" s="101" t="s">
-        <v>26</v>
-      </c>
-      <c r="S22" s="101"/>
-      <c r="T22" s="101"/>
-      <c r="U22" s="102"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="30"/>
-      <c r="X22" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y22" s="31"/>
-      <c r="AA22" s="27"/>
-      <c r="AB22" s="28"/>
-      <c r="AC22" s="28"/>
-    </row>
-    <row r="23" spans="2:29" s="23" customFormat="1">
-      <c r="B23" s="106"/>
-      <c r="C23" s="107"/>
-      <c r="D23" s="107"/>
-      <c r="E23" s="107" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="116">
-        <v>18</v>
-      </c>
-      <c r="G23" s="142" t="s">
-        <v>50</v>
-      </c>
-      <c r="H23" s="120"/>
-      <c r="I23" s="124"/>
-      <c r="J23" s="100"/>
-      <c r="K23" s="101"/>
-      <c r="L23" s="101"/>
-      <c r="M23" s="101"/>
-      <c r="N23" s="101"/>
-      <c r="O23" s="101"/>
-      <c r="P23" s="101"/>
-      <c r="Q23" s="101"/>
-      <c r="R23" s="101" t="s">
-        <v>26</v>
-      </c>
-      <c r="S23" s="101"/>
-      <c r="T23" s="101"/>
-      <c r="U23" s="102"/>
-      <c r="V23" s="29"/>
-      <c r="W23" s="30"/>
-      <c r="X23" s="30"/>
-      <c r="Y23" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA23" s="27"/>
-      <c r="AB23" s="28"/>
-      <c r="AC23" s="28"/>
-    </row>
-    <row r="24" spans="2:29" s="23" customFormat="1">
-      <c r="B24" s="106"/>
-      <c r="C24" s="107"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="107" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="116">
-        <v>19</v>
-      </c>
-      <c r="G24" s="142" t="s">
-        <v>51</v>
-      </c>
-      <c r="H24" s="120"/>
-      <c r="I24" s="124"/>
-      <c r="J24" s="100"/>
-      <c r="K24" s="101"/>
-      <c r="L24" s="101"/>
-      <c r="M24" s="101"/>
-      <c r="N24" s="101"/>
-      <c r="O24" s="101"/>
-      <c r="P24" s="101"/>
-      <c r="Q24" s="101"/>
-      <c r="R24" s="101" t="s">
-        <v>26</v>
-      </c>
-      <c r="S24" s="101"/>
-      <c r="T24" s="101"/>
-      <c r="U24" s="102"/>
-      <c r="V24" s="29"/>
-      <c r="W24" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="X24" s="30"/>
-      <c r="Y24" s="31"/>
-      <c r="AA24" s="27"/>
-      <c r="AB24" s="28"/>
-      <c r="AC24" s="28"/>
-    </row>
-    <row r="25" spans="2:29" s="23" customFormat="1">
-      <c r="B25" s="106"/>
-      <c r="C25" s="107"/>
-      <c r="D25" s="107"/>
-      <c r="E25" s="107" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="116">
-        <v>20</v>
-      </c>
-      <c r="G25" s="142" t="s">
-        <v>52</v>
-      </c>
-      <c r="H25" s="120"/>
-      <c r="I25" s="124"/>
-      <c r="J25" s="100"/>
-      <c r="K25" s="101"/>
-      <c r="L25" s="101"/>
-      <c r="M25" s="101"/>
-      <c r="N25" s="101"/>
-      <c r="O25" s="101"/>
-      <c r="P25" s="101"/>
-      <c r="Q25" s="101"/>
-      <c r="R25" s="101"/>
-      <c r="S25" s="101" t="s">
-        <v>26</v>
-      </c>
-      <c r="T25" s="101"/>
-      <c r="U25" s="102"/>
-      <c r="V25" s="29"/>
-      <c r="W25" s="30"/>
-      <c r="X25" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y25" s="31"/>
-      <c r="AA25" s="27"/>
-      <c r="AB25" s="28"/>
-      <c r="AC25" s="28"/>
-    </row>
-    <row r="26" spans="2:29" s="23" customFormat="1">
-      <c r="B26" s="106"/>
-      <c r="C26" s="107"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="108" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" s="116">
-        <v>21</v>
-      </c>
-      <c r="G26" s="142" t="s">
-        <v>53</v>
-      </c>
-      <c r="H26" s="120"/>
-      <c r="I26" s="124"/>
-      <c r="J26" s="100"/>
-      <c r="K26" s="101"/>
-      <c r="L26" s="101"/>
-      <c r="M26" s="138"/>
-      <c r="N26" s="101"/>
-      <c r="O26" s="101"/>
-      <c r="P26" s="101"/>
-      <c r="Q26" s="101"/>
-      <c r="S26" s="101"/>
-      <c r="T26" s="101" t="s">
-        <v>26</v>
-      </c>
-      <c r="U26" s="102"/>
-      <c r="V26" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W26" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="X26" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y26" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA26" s="27"/>
-      <c r="AB26" s="28"/>
-      <c r="AC26" s="28"/>
-    </row>
-    <row r="27" spans="2:29" s="23" customFormat="1">
-      <c r="B27" s="106"/>
-      <c r="C27" s="107"/>
-      <c r="D27" s="107"/>
-      <c r="E27" s="108" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" s="116">
-        <v>22</v>
-      </c>
-      <c r="G27" s="142" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" s="120"/>
-      <c r="I27" s="124"/>
-      <c r="J27" s="100"/>
-      <c r="K27" s="101"/>
-      <c r="L27" s="101"/>
-      <c r="M27" s="101"/>
-      <c r="N27" s="101"/>
-      <c r="O27" s="101"/>
-      <c r="P27" s="101"/>
-      <c r="Q27" s="101"/>
-      <c r="R27" s="101"/>
-      <c r="S27" s="101" t="s">
-        <v>26</v>
-      </c>
-      <c r="T27" s="101"/>
-      <c r="U27" s="102"/>
-      <c r="V27" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="W27" s="30"/>
-      <c r="X27" s="30"/>
-      <c r="Y27" s="31"/>
-      <c r="AA27" s="27"/>
-      <c r="AB27" s="28"/>
-      <c r="AC27" s="28"/>
-    </row>
-    <row r="28" spans="2:29" s="23" customFormat="1">
-      <c r="B28" s="106"/>
-      <c r="C28" s="107"/>
-      <c r="D28" s="107"/>
-      <c r="E28" s="108" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="116">
-        <v>23</v>
-      </c>
-      <c r="G28" s="142" t="s">
-        <v>47</v>
-      </c>
-      <c r="H28" s="120"/>
-      <c r="I28" s="124"/>
-      <c r="J28" s="100"/>
-      <c r="K28" s="138"/>
-      <c r="L28" s="101"/>
-      <c r="M28" s="101"/>
-      <c r="N28" s="101"/>
-      <c r="O28" s="101"/>
-      <c r="P28" s="101"/>
-      <c r="R28" s="101"/>
-      <c r="S28" s="101"/>
-      <c r="T28" s="101" t="s">
-        <v>26</v>
-      </c>
-      <c r="U28" s="102"/>
-      <c r="V28" s="91" t="s">
-        <v>18</v>
-      </c>
-      <c r="W28" s="92"/>
-      <c r="X28" s="92"/>
-      <c r="Y28" s="93"/>
-      <c r="AA28" s="27"/>
-      <c r="AB28" s="28"/>
-      <c r="AC28" s="28"/>
-    </row>
-    <row r="29" spans="2:29" s="23" customFormat="1">
-      <c r="B29" s="106" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="107"/>
-      <c r="D29" s="107"/>
-      <c r="E29" s="108"/>
-      <c r="F29" s="116">
-        <v>24</v>
-      </c>
-      <c r="G29" s="143" t="s">
-        <v>56</v>
-      </c>
-      <c r="H29" s="120"/>
-      <c r="I29" s="124"/>
-      <c r="J29" s="100"/>
-      <c r="K29" s="101"/>
-      <c r="L29" s="101"/>
-      <c r="M29" s="101"/>
-      <c r="O29" s="101"/>
-      <c r="P29" s="101"/>
-      <c r="Q29" s="101"/>
-      <c r="R29" s="101"/>
-      <c r="S29" s="101" t="s">
-        <v>26</v>
-      </c>
-      <c r="U29" s="102"/>
-      <c r="V29" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="W29" s="36"/>
-      <c r="X29" s="36"/>
-      <c r="Y29" s="37"/>
-      <c r="AA29" s="27"/>
-      <c r="AB29" s="28"/>
-      <c r="AC29" s="28"/>
-    </row>
-    <row r="30" spans="2:29" s="23" customFormat="1">
-      <c r="B30" s="106" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="107"/>
-      <c r="D30" s="107"/>
-      <c r="E30" s="108"/>
-      <c r="F30" s="116">
-        <v>25</v>
-      </c>
-      <c r="G30" s="143" t="s">
-        <v>57</v>
-      </c>
-      <c r="H30" s="120"/>
-      <c r="I30" s="124"/>
-      <c r="J30" s="100"/>
-      <c r="K30" s="101"/>
-      <c r="L30" s="101"/>
-      <c r="M30" s="101"/>
-      <c r="N30" s="101"/>
-      <c r="O30" s="101"/>
-      <c r="P30" s="101"/>
-      <c r="Q30" s="101"/>
-      <c r="R30" s="101"/>
-      <c r="T30" s="101"/>
-      <c r="U30" s="101" t="s">
-        <v>26</v>
-      </c>
-      <c r="V30" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="W30" s="30"/>
-      <c r="X30" s="30"/>
-      <c r="Y30" s="31"/>
-      <c r="AA30" s="27"/>
-      <c r="AB30" s="28"/>
-      <c r="AC30" s="28"/>
-    </row>
-    <row r="31" spans="2:29" s="23" customFormat="1">
-      <c r="B31" s="106" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="107"/>
-      <c r="D31" s="107"/>
-      <c r="E31" s="108"/>
-      <c r="F31" s="116">
-        <v>26</v>
-      </c>
-      <c r="G31" s="143" t="s">
-        <v>58</v>
-      </c>
-      <c r="H31" s="120"/>
-      <c r="I31" s="124"/>
-      <c r="J31" s="100"/>
-      <c r="K31" s="101"/>
-      <c r="L31" s="101"/>
-      <c r="M31" s="139"/>
-      <c r="N31" s="101"/>
-      <c r="O31" s="101"/>
-      <c r="P31" s="101"/>
-      <c r="Q31" s="101"/>
-      <c r="R31" s="101"/>
-      <c r="S31" s="101"/>
-      <c r="T31" s="101" t="s">
-        <v>26</v>
-      </c>
-      <c r="U31" s="102"/>
-      <c r="V31" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="W31" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="X31" s="30"/>
-      <c r="Y31" s="31"/>
-      <c r="AA31" s="27"/>
-      <c r="AB31" s="28"/>
-      <c r="AC31" s="28"/>
-    </row>
-    <row r="32" spans="2:29" s="23" customFormat="1">
-      <c r="B32" s="106" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="107"/>
-      <c r="D32" s="107"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="116">
-        <v>27</v>
-      </c>
-      <c r="G32" s="143" t="s">
-        <v>59</v>
-      </c>
-      <c r="H32" s="120"/>
-      <c r="I32" s="124"/>
-      <c r="J32" s="100"/>
-      <c r="K32" s="101"/>
-      <c r="L32" s="140"/>
-      <c r="M32" s="101"/>
-      <c r="N32" s="101"/>
-      <c r="O32" s="101"/>
-      <c r="P32" s="101"/>
-      <c r="Q32" s="101"/>
-      <c r="R32" s="101"/>
-      <c r="S32" s="101"/>
-      <c r="T32" s="101"/>
-      <c r="U32" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="V32" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="W32" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="X32" s="30"/>
-      <c r="Y32" s="31"/>
-      <c r="AA32" s="27"/>
-      <c r="AB32" s="28"/>
-      <c r="AC32" s="28"/>
-    </row>
-    <row r="33" spans="2:29" s="23" customFormat="1">
-      <c r="B33" s="106"/>
-      <c r="C33" s="107"/>
-      <c r="D33" s="107"/>
-      <c r="E33" s="108"/>
-      <c r="F33" s="116">
-        <v>28</v>
-      </c>
-      <c r="G33" s="117"/>
-      <c r="H33" s="121"/>
-      <c r="I33" s="125"/>
-      <c r="J33" s="129"/>
-      <c r="K33" s="130"/>
-      <c r="L33" s="130"/>
-      <c r="M33" s="130"/>
-      <c r="N33" s="130"/>
-      <c r="O33" s="130"/>
-      <c r="P33" s="130"/>
-      <c r="Q33" s="130"/>
-      <c r="R33" s="130"/>
-      <c r="S33" s="130"/>
-      <c r="T33" s="130"/>
-      <c r="V33" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="W33" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="X33" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y33" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA33" s="27"/>
-      <c r="AB33" s="28"/>
-      <c r="AC33" s="28"/>
-    </row>
-    <row r="34" spans="2:29" s="23" customFormat="1" ht="13" thickBot="1">
-      <c r="B34" s="109"/>
-      <c r="C34" s="110"/>
-      <c r="D34" s="110"/>
-      <c r="E34" s="111"/>
-      <c r="F34" s="112">
-        <v>29</v>
-      </c>
-      <c r="G34" s="135"/>
-      <c r="H34" s="113"/>
-      <c r="I34" s="114"/>
-      <c r="J34" s="132"/>
-      <c r="K34" s="133"/>
-      <c r="L34" s="133"/>
-      <c r="M34" s="133"/>
-      <c r="N34" s="133"/>
-      <c r="O34" s="133"/>
-      <c r="P34" s="133"/>
-      <c r="Q34" s="133"/>
-      <c r="R34" s="133"/>
-      <c r="S34" s="133"/>
-      <c r="T34" s="133"/>
-      <c r="U34" s="134"/>
-      <c r="V34" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="W34" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="X34" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y34" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA34" s="27"/>
-      <c r="AB34" s="28"/>
-      <c r="AC34" s="28"/>
-    </row>
-    <row r="35" spans="2:29" s="23" customFormat="1" ht="13" thickBot="1">
-      <c r="B35" s="61"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="94"/>
-      <c r="G35" s="95"/>
-      <c r="H35" s="96"/>
-      <c r="I35" s="97" t="s">
-        <v>5</v>
-      </c>
-      <c r="J35" s="126"/>
-      <c r="K35" s="127"/>
-      <c r="L35" s="127"/>
-      <c r="M35" s="127"/>
-      <c r="N35" s="127"/>
-      <c r="O35" s="127"/>
-      <c r="P35" s="127"/>
-      <c r="Q35" s="127"/>
-      <c r="R35" s="127"/>
-      <c r="S35" s="127"/>
-      <c r="T35" s="127"/>
-      <c r="U35" s="128"/>
-      <c r="V35" s="64"/>
-      <c r="W35" s="65"/>
-      <c r="X35" s="65"/>
-      <c r="Y35" s="89"/>
-      <c r="AA35" s="27"/>
-      <c r="AB35" s="28"/>
-      <c r="AC35" s="28"/>
-    </row>
-    <row r="36" spans="2:29" ht="12.75" customHeight="1">
-      <c r="B36" s="168" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" s="170" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="170" t="s">
-        <v>43</v>
-      </c>
-      <c r="E36" s="150" t="s">
-        <v>44</v>
-      </c>
-      <c r="F36" s="38"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="160" t="s">
-        <v>30</v>
-      </c>
-      <c r="K36" s="157" t="s">
-        <v>31</v>
-      </c>
-      <c r="L36" s="157" t="s">
-        <v>32</v>
-      </c>
-      <c r="M36" s="157" t="s">
-        <v>33</v>
-      </c>
-      <c r="N36" s="157" t="s">
-        <v>34</v>
-      </c>
-      <c r="O36" s="157" t="s">
-        <v>35</v>
-      </c>
-      <c r="P36" s="157" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q36" s="157" t="s">
-        <v>37</v>
-      </c>
-      <c r="R36" s="157" t="s">
-        <v>38</v>
-      </c>
-      <c r="S36" s="157" t="s">
-        <v>39</v>
-      </c>
-      <c r="T36" s="157" t="s">
-        <v>40</v>
-      </c>
-      <c r="U36" s="187" t="s">
-        <v>41</v>
-      </c>
-      <c r="V36" s="155" t="s">
-        <v>77</v>
-      </c>
-      <c r="W36" s="155" t="s">
-        <v>78</v>
-      </c>
-      <c r="X36" s="190" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y36" s="152" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA36" s="27"/>
-      <c r="AB36" s="28"/>
-      <c r="AC36" s="28"/>
-    </row>
-    <row r="37" spans="2:29" ht="12.75" customHeight="1">
-      <c r="B37" s="168"/>
-      <c r="C37" s="170"/>
-      <c r="D37" s="170"/>
-      <c r="E37" s="150"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="161"/>
-      <c r="K37" s="158"/>
-      <c r="L37" s="158"/>
-      <c r="M37" s="158"/>
-      <c r="N37" s="158"/>
-      <c r="O37" s="158"/>
-      <c r="P37" s="158"/>
-      <c r="Q37" s="158"/>
-      <c r="R37" s="158"/>
-      <c r="S37" s="158"/>
-      <c r="T37" s="158"/>
-      <c r="U37" s="188"/>
-      <c r="V37" s="155"/>
-      <c r="W37" s="155"/>
-      <c r="X37" s="190"/>
-      <c r="Y37" s="153"/>
-      <c r="AA37" s="27"/>
-      <c r="AB37" s="28"/>
-      <c r="AC37" s="28"/>
-    </row>
-    <row r="38" spans="2:29" ht="12.75" customHeight="1">
-      <c r="B38" s="168"/>
-      <c r="C38" s="170"/>
-      <c r="D38" s="170"/>
-      <c r="E38" s="150"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="161"/>
-      <c r="K38" s="158"/>
-      <c r="L38" s="158"/>
-      <c r="M38" s="158"/>
-      <c r="N38" s="158"/>
-      <c r="O38" s="158"/>
-      <c r="P38" s="158"/>
-      <c r="Q38" s="158"/>
-      <c r="R38" s="158"/>
-      <c r="S38" s="158"/>
-      <c r="T38" s="158"/>
-      <c r="U38" s="188"/>
-      <c r="V38" s="155"/>
-      <c r="W38" s="155"/>
-      <c r="X38" s="190"/>
-      <c r="Y38" s="153"/>
-      <c r="AA38" s="27"/>
-      <c r="AB38" s="28"/>
-      <c r="AC38" s="28"/>
-    </row>
-    <row r="39" spans="2:29" ht="12.75" customHeight="1">
-      <c r="B39" s="168"/>
-      <c r="C39" s="170"/>
-      <c r="D39" s="170"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="161"/>
-      <c r="K39" s="158"/>
-      <c r="L39" s="158"/>
-      <c r="M39" s="158"/>
-      <c r="N39" s="158"/>
-      <c r="O39" s="158"/>
-      <c r="P39" s="158"/>
-      <c r="Q39" s="158"/>
-      <c r="R39" s="158"/>
-      <c r="S39" s="158"/>
-      <c r="T39" s="158"/>
-      <c r="U39" s="188"/>
-      <c r="V39" s="155"/>
-      <c r="W39" s="155"/>
-      <c r="X39" s="190"/>
-      <c r="Y39" s="153"/>
-      <c r="AB39" s="28"/>
-      <c r="AC39" s="28"/>
-    </row>
-    <row r="40" spans="2:29" ht="12.75" customHeight="1">
-      <c r="B40" s="168"/>
-      <c r="C40" s="170"/>
-      <c r="D40" s="170"/>
-      <c r="E40" s="150"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="161"/>
-      <c r="K40" s="158"/>
-      <c r="L40" s="158"/>
-      <c r="M40" s="158"/>
-      <c r="N40" s="158"/>
-      <c r="O40" s="158"/>
-      <c r="P40" s="158"/>
-      <c r="Q40" s="158"/>
-      <c r="R40" s="158"/>
-      <c r="S40" s="158"/>
-      <c r="T40" s="158"/>
-      <c r="U40" s="188"/>
-      <c r="V40" s="155"/>
-      <c r="W40" s="155"/>
-      <c r="X40" s="190"/>
-      <c r="Y40" s="153"/>
-      <c r="AB40" s="28"/>
-      <c r="AC40" s="28"/>
-    </row>
-    <row r="41" spans="2:29" ht="12" customHeight="1" thickBot="1">
-      <c r="B41" s="168"/>
-      <c r="C41" s="170"/>
-      <c r="D41" s="170"/>
-      <c r="E41" s="150"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="162"/>
-      <c r="K41" s="159"/>
-      <c r="L41" s="159"/>
-      <c r="M41" s="159"/>
-      <c r="N41" s="159"/>
-      <c r="O41" s="159"/>
-      <c r="P41" s="159"/>
-      <c r="Q41" s="159"/>
-      <c r="R41" s="159"/>
-      <c r="S41" s="159"/>
-      <c r="T41" s="159"/>
-      <c r="U41" s="189"/>
-      <c r="V41" s="156"/>
-      <c r="W41" s="156"/>
-      <c r="X41" s="191"/>
-      <c r="Y41" s="154"/>
-      <c r="AA41" s="21"/>
-      <c r="AB41" s="21"/>
-      <c r="AC41" s="21"/>
-    </row>
-    <row r="42" spans="2:29">
-      <c r="B42" s="168"/>
-      <c r="C42" s="170"/>
-      <c r="D42" s="170"/>
-      <c r="E42" s="150"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="43"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="46"/>
-      <c r="L42" s="46"/>
-      <c r="M42" s="46"/>
-      <c r="N42" s="46"/>
-      <c r="O42" s="46"/>
-      <c r="P42" s="46"/>
-      <c r="Q42" s="46"/>
-      <c r="R42" s="46"/>
-      <c r="S42" s="46"/>
-      <c r="T42" s="46"/>
-      <c r="U42" s="46"/>
-      <c r="V42" s="46"/>
-      <c r="W42" s="46"/>
-      <c r="X42" s="46"/>
-      <c r="Y42" s="50"/>
-      <c r="AA42" s="80"/>
-      <c r="AB42" s="146"/>
-      <c r="AC42" s="146"/>
-    </row>
-    <row r="43" spans="2:29" ht="15.75" customHeight="1">
-      <c r="B43" s="168"/>
-      <c r="C43" s="170"/>
-      <c r="D43" s="170"/>
-      <c r="E43" s="150"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="48"/>
-      <c r="K43" s="49"/>
-      <c r="L43" s="49"/>
-      <c r="M43" s="49"/>
-      <c r="N43" s="49"/>
-      <c r="O43" s="49"/>
-      <c r="P43" s="85" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q43" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="R43" s="49"/>
-      <c r="S43" s="49"/>
-      <c r="T43" s="49"/>
-      <c r="U43" s="49"/>
-      <c r="V43" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="W43" s="49"/>
-      <c r="X43" s="49"/>
-      <c r="Y43" s="50"/>
-      <c r="AA43" s="80"/>
-      <c r="AB43" s="81"/>
-      <c r="AC43" s="81"/>
-    </row>
-    <row r="44" spans="2:29" ht="12.75" customHeight="1">
-      <c r="B44" s="168"/>
-      <c r="C44" s="170"/>
-      <c r="D44" s="170"/>
-      <c r="E44" s="150"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="48"/>
-      <c r="K44" s="49"/>
-      <c r="L44" s="49"/>
-      <c r="M44" s="49"/>
-      <c r="N44" s="49"/>
-      <c r="O44" s="49"/>
-      <c r="P44" s="86" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q44" s="78" t="s">
-        <v>6</v>
-      </c>
-      <c r="R44" s="49"/>
-      <c r="S44" s="49"/>
-      <c r="T44" s="49"/>
-      <c r="U44" s="49"/>
-      <c r="V44" s="90" t="s">
-        <v>29</v>
-      </c>
-      <c r="W44" s="49"/>
-      <c r="X44" s="49"/>
-      <c r="Y44" s="50"/>
-      <c r="AA44" s="80"/>
-      <c r="AB44" s="82"/>
-      <c r="AC44" s="82"/>
-    </row>
-    <row r="45" spans="2:29" ht="15">
-      <c r="B45" s="168"/>
-      <c r="C45" s="170"/>
-      <c r="D45" s="170"/>
-      <c r="E45" s="150"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="51"/>
-      <c r="J45" s="48"/>
-      <c r="K45" s="49"/>
-      <c r="L45" s="49"/>
-      <c r="M45" s="49"/>
-      <c r="N45" s="49"/>
-      <c r="O45" s="49"/>
-      <c r="P45" s="87" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q45" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="R45" s="49"/>
-      <c r="S45" s="49"/>
-      <c r="T45" s="49"/>
-      <c r="U45" s="49"/>
-      <c r="V45" s="49"/>
-      <c r="W45" s="49"/>
-      <c r="X45" s="49"/>
-      <c r="Y45" s="50"/>
-      <c r="AA45" s="80"/>
-      <c r="AB45" s="82"/>
-      <c r="AC45" s="83"/>
-    </row>
-    <row r="46" spans="2:29">
-      <c r="B46" s="168"/>
-      <c r="C46" s="170"/>
-      <c r="D46" s="170"/>
-      <c r="E46" s="150"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="48"/>
-      <c r="K46" s="49"/>
-      <c r="L46" s="49"/>
-      <c r="M46" s="49"/>
-      <c r="N46" s="49"/>
-      <c r="O46" s="49"/>
-      <c r="P46" s="88" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q46" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="R46" s="49"/>
-      <c r="S46" s="49"/>
-      <c r="T46" s="49"/>
-      <c r="U46" s="49"/>
-      <c r="V46" s="49"/>
-      <c r="W46" s="49"/>
-      <c r="X46" s="49"/>
-      <c r="Y46" s="50"/>
-      <c r="AA46" s="80"/>
-      <c r="AB46" s="82"/>
-      <c r="AC46" s="82"/>
-    </row>
-    <row r="47" spans="2:29" ht="15">
-      <c r="B47" s="168"/>
-      <c r="C47" s="170"/>
-      <c r="D47" s="170"/>
-      <c r="E47" s="150"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="52"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="48"/>
-      <c r="K47" s="49"/>
-      <c r="L47" s="49"/>
-      <c r="M47" s="49"/>
-      <c r="N47" s="49"/>
-      <c r="O47" s="49"/>
-      <c r="P47" s="49"/>
-      <c r="Q47" s="49"/>
-      <c r="R47" s="49"/>
-      <c r="S47" s="49"/>
-      <c r="T47" s="49"/>
-      <c r="U47" s="49"/>
-      <c r="V47" s="49"/>
-      <c r="W47" s="49"/>
-      <c r="X47" s="49"/>
-      <c r="Y47" s="50"/>
-      <c r="AA47" s="21"/>
-      <c r="AB47" s="53"/>
-    </row>
-    <row r="48" spans="2:29" ht="13" thickBot="1">
-      <c r="B48" s="168"/>
-      <c r="C48" s="170"/>
-      <c r="D48" s="170"/>
-      <c r="E48" s="150"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="56"/>
-      <c r="I48" s="56"/>
-      <c r="J48" s="57"/>
-      <c r="K48" s="58"/>
-      <c r="L48" s="58"/>
-      <c r="M48" s="58"/>
-      <c r="N48" s="58"/>
-      <c r="O48" s="58"/>
-      <c r="P48" s="58"/>
-      <c r="Q48" s="58"/>
-      <c r="R48" s="58"/>
-      <c r="S48" s="58"/>
-      <c r="T48" s="58"/>
-      <c r="U48" s="58"/>
-      <c r="V48" s="58"/>
-      <c r="W48" s="58"/>
-      <c r="X48" s="58"/>
-      <c r="Y48" s="59"/>
-      <c r="AB48" s="53"/>
-      <c r="AC48" s="53"/>
-    </row>
-    <row r="49" spans="2:29">
-      <c r="B49" s="168"/>
-      <c r="C49" s="170"/>
-      <c r="D49" s="170"/>
-      <c r="E49" s="150"/>
-      <c r="F49" s="172" t="s">
-        <v>27</v>
-      </c>
-      <c r="G49" s="173"/>
-      <c r="H49" s="173"/>
-      <c r="I49" s="173"/>
-      <c r="J49" s="173"/>
-      <c r="K49" s="173"/>
-      <c r="L49" s="173"/>
-      <c r="M49" s="173"/>
-      <c r="N49" s="173"/>
-      <c r="O49" s="173"/>
-      <c r="P49" s="173"/>
-      <c r="Q49" s="173"/>
-      <c r="R49" s="173"/>
-      <c r="S49" s="173"/>
-      <c r="T49" s="173"/>
-      <c r="U49" s="173"/>
-      <c r="V49" s="173"/>
-      <c r="W49" s="173"/>
-      <c r="X49" s="173"/>
-      <c r="Y49" s="174"/>
-    </row>
-    <row r="50" spans="2:29">
-      <c r="B50" s="168"/>
-      <c r="C50" s="170"/>
-      <c r="D50" s="170"/>
-      <c r="E50" s="150"/>
-      <c r="F50" s="175"/>
-      <c r="G50" s="176"/>
-      <c r="H50" s="176"/>
-      <c r="I50" s="176"/>
-      <c r="J50" s="176"/>
-      <c r="K50" s="176"/>
-      <c r="L50" s="176"/>
-      <c r="M50" s="176"/>
-      <c r="N50" s="176"/>
-      <c r="O50" s="176"/>
-      <c r="P50" s="176"/>
-      <c r="Q50" s="176"/>
-      <c r="R50" s="176"/>
-      <c r="S50" s="176"/>
-      <c r="T50" s="176"/>
-      <c r="U50" s="176"/>
-      <c r="V50" s="176"/>
-      <c r="W50" s="176"/>
-      <c r="X50" s="176"/>
-      <c r="Y50" s="177"/>
-    </row>
-    <row r="51" spans="2:29">
-      <c r="B51" s="168"/>
-      <c r="C51" s="170"/>
-      <c r="D51" s="170"/>
-      <c r="E51" s="150"/>
-      <c r="F51" s="175"/>
-      <c r="G51" s="176"/>
-      <c r="H51" s="176"/>
-      <c r="I51" s="176"/>
-      <c r="J51" s="176"/>
-      <c r="K51" s="176"/>
-      <c r="L51" s="176"/>
-      <c r="M51" s="176"/>
-      <c r="N51" s="176"/>
-      <c r="O51" s="176"/>
-      <c r="P51" s="176"/>
-      <c r="Q51" s="176"/>
-      <c r="R51" s="176"/>
-      <c r="S51" s="176"/>
-      <c r="T51" s="176"/>
-      <c r="U51" s="176"/>
-      <c r="V51" s="176"/>
-      <c r="W51" s="176"/>
-      <c r="X51" s="176"/>
-      <c r="Y51" s="177"/>
-    </row>
-    <row r="52" spans="2:29" s="18" customFormat="1" ht="13" thickBot="1">
-      <c r="B52" s="169"/>
-      <c r="C52" s="171"/>
-      <c r="D52" s="171"/>
-      <c r="E52" s="151"/>
-      <c r="F52" s="184"/>
-      <c r="G52" s="185"/>
-      <c r="H52" s="185"/>
-      <c r="I52" s="185"/>
-      <c r="J52" s="185"/>
-      <c r="K52" s="185"/>
-      <c r="L52" s="185"/>
-      <c r="M52" s="185"/>
-      <c r="N52" s="185"/>
-      <c r="O52" s="185"/>
-      <c r="P52" s="185"/>
-      <c r="Q52" s="185"/>
-      <c r="R52" s="185"/>
-      <c r="S52" s="185"/>
-      <c r="T52" s="185"/>
-      <c r="U52" s="185"/>
-      <c r="V52" s="185"/>
-      <c r="W52" s="185"/>
-      <c r="X52" s="185"/>
-      <c r="Y52" s="186"/>
-      <c r="AA52" s="21"/>
-      <c r="AB52" s="22"/>
-      <c r="AC52" s="22"/>
-    </row>
-    <row r="53" spans="2:29" s="18" customFormat="1">
-      <c r="B53" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="I53" s="60"/>
-      <c r="J53" s="60"/>
-      <c r="K53" s="60"/>
-      <c r="L53" s="60"/>
-      <c r="AA53" s="21"/>
-      <c r="AB53" s="22"/>
-      <c r="AC53" s="22"/>
-    </row>
-    <row r="54" spans="2:29">
-      <c r="I54" s="66"/>
-      <c r="J54" s="66"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="67"/>
-      <c r="M54" s="67"/>
-      <c r="N54" s="79"/>
-      <c r="O54" s="79"/>
-      <c r="P54" s="67"/>
-      <c r="Q54" s="67"/>
-      <c r="R54" s="67"/>
-      <c r="S54" s="67"/>
-      <c r="T54" s="67"/>
-      <c r="U54" s="67"/>
-      <c r="V54" s="67"/>
-      <c r="W54" s="67"/>
-      <c r="X54" s="67"/>
-      <c r="Y54" s="67"/>
-      <c r="Z54" s="67"/>
-      <c r="AA54" s="67"/>
-      <c r="AB54" s="67"/>
-      <c r="AC54" s="67"/>
-    </row>
-    <row r="55" spans="2:29">
-      <c r="I55" s="66"/>
-      <c r="J55" s="66"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="68"/>
-      <c r="M55" s="68"/>
-      <c r="N55" s="68"/>
-      <c r="O55" s="68"/>
-      <c r="P55" s="68"/>
-      <c r="Q55" s="68"/>
-      <c r="R55" s="68"/>
-      <c r="S55" s="68"/>
-      <c r="T55" s="68"/>
-      <c r="U55" s="68"/>
-      <c r="V55" s="68"/>
-      <c r="W55" s="68"/>
-      <c r="X55" s="68"/>
-      <c r="Y55" s="68"/>
-      <c r="Z55" s="68"/>
-      <c r="AA55" s="68"/>
-      <c r="AB55" s="68"/>
-      <c r="AC55" s="68"/>
-    </row>
-    <row r="56" spans="2:29">
-      <c r="B56" s="60"/>
-      <c r="C56" s="60"/>
-      <c r="D56" s="60"/>
-      <c r="E56" s="60"/>
-      <c r="F56" s="60"/>
-      <c r="G56" s="60"/>
-      <c r="H56" s="60"/>
-      <c r="I56" s="66"/>
-      <c r="J56" s="66"/>
-      <c r="K56" s="66"/>
-      <c r="L56" s="66"/>
-      <c r="M56" s="66"/>
-      <c r="N56" s="66"/>
-      <c r="O56" s="66"/>
-      <c r="P56" s="66"/>
-      <c r="Q56" s="66"/>
-      <c r="R56" s="66"/>
-      <c r="S56" s="66"/>
-      <c r="T56" s="66"/>
-      <c r="U56" s="66"/>
-      <c r="V56" s="66"/>
-      <c r="W56" s="66"/>
-      <c r="X56" s="66"/>
-      <c r="Y56" s="66"/>
-      <c r="Z56" s="66"/>
-      <c r="AA56" s="66"/>
-      <c r="AB56" s="66"/>
-      <c r="AC56" s="66"/>
-    </row>
-    <row r="57" spans="2:29">
-      <c r="B57" s="60"/>
-      <c r="C57" s="60"/>
-      <c r="D57" s="60"/>
-      <c r="E57" s="60"/>
-      <c r="F57" s="60"/>
-      <c r="G57" s="60"/>
-      <c r="H57" s="60"/>
-      <c r="I57" s="60"/>
-      <c r="J57" s="60"/>
-      <c r="K57" s="60"/>
-      <c r="L57" s="60"/>
-      <c r="M57" s="60"/>
-      <c r="N57" s="60"/>
-      <c r="O57" s="60"/>
-      <c r="P57" s="60"/>
-      <c r="Q57" s="60"/>
-      <c r="R57" s="60"/>
-      <c r="S57" s="60"/>
-      <c r="T57" s="60"/>
-      <c r="U57" s="60"/>
-      <c r="V57" s="60"/>
-      <c r="W57" s="60"/>
-      <c r="X57" s="60"/>
-      <c r="Y57" s="60"/>
-      <c r="Z57" s="60"/>
-      <c r="AA57" s="60"/>
-      <c r="AB57" s="60"/>
-      <c r="AC57" s="60"/>
+    <row r="57" spans="2:30">
+      <c r="B57" s="47"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="47"/>
+      <c r="H57" s="47"/>
+      <c r="I57" s="47"/>
+      <c r="J57" s="47"/>
+      <c r="K57" s="47"/>
+      <c r="L57" s="47"/>
+      <c r="M57" s="47"/>
+      <c r="N57" s="47"/>
+      <c r="O57" s="47"/>
+      <c r="P57" s="47"/>
+      <c r="Q57" s="47"/>
+      <c r="R57" s="47"/>
+      <c r="S57" s="47"/>
+      <c r="T57" s="47"/>
+      <c r="U57" s="47"/>
+      <c r="V57" s="47"/>
+      <c r="W57" s="47"/>
+      <c r="X57" s="47"/>
+      <c r="Y57" s="47"/>
+      <c r="Z57" s="47"/>
+      <c r="AA57" s="47"/>
+      <c r="AB57" s="47"/>
+      <c r="AC57" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="D36:D52"/>
+  <mergeCells count="33">
+    <mergeCell ref="V36:V41"/>
+    <mergeCell ref="W36:W41"/>
+    <mergeCell ref="X36:X41"/>
+    <mergeCell ref="Y36:Y41"/>
+    <mergeCell ref="Z36:Z41"/>
     <mergeCell ref="F3:Y4"/>
     <mergeCell ref="F51:Y51"/>
     <mergeCell ref="F52:Y52"/>
     <mergeCell ref="R36:R41"/>
-    <mergeCell ref="W36:W41"/>
+    <mergeCell ref="AB36:AB41"/>
     <mergeCell ref="T36:T41"/>
     <mergeCell ref="U36:U41"/>
-    <mergeCell ref="X36:X41"/>
+    <mergeCell ref="AC36:AC41"/>
+    <mergeCell ref="M36:M41"/>
+    <mergeCell ref="Q36:Q41"/>
+    <mergeCell ref="F49:Y49"/>
+    <mergeCell ref="F50:Y50"/>
+    <mergeCell ref="O36:O41"/>
+    <mergeCell ref="D36:D52"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="E36:E52"/>
+    <mergeCell ref="AD36:AD41"/>
+    <mergeCell ref="AA36:AA41"/>
+    <mergeCell ref="P36:P41"/>
+    <mergeCell ref="J36:J41"/>
+    <mergeCell ref="J5:U5"/>
+    <mergeCell ref="AA5:AD5"/>
+    <mergeCell ref="B36:B52"/>
     <mergeCell ref="C36:C52"/>
     <mergeCell ref="K36:K41"/>
     <mergeCell ref="L36:L41"/>
     <mergeCell ref="S36:S41"/>
     <mergeCell ref="N36:N41"/>
-    <mergeCell ref="O36:O41"/>
-    <mergeCell ref="M36:M41"/>
-    <mergeCell ref="Q36:Q41"/>
-    <mergeCell ref="F49:Y49"/>
-    <mergeCell ref="F50:Y50"/>
-    <mergeCell ref="AB42:AC42"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="E36:E52"/>
-    <mergeCell ref="Y36:Y41"/>
-    <mergeCell ref="V36:V41"/>
-    <mergeCell ref="P36:P41"/>
-    <mergeCell ref="J36:J41"/>
-    <mergeCell ref="J5:U5"/>
-    <mergeCell ref="V5:Y5"/>
-    <mergeCell ref="B36:B52"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I55:J55 N55:AC55">
-    <cfRule type="cellIs" dxfId="23" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="86" stopIfTrue="1" operator="equal">
       <formula>"G"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="87" stopIfTrue="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="88" stopIfTrue="1" operator="equal">
       <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6:U8 J35:U35 J32:T32 J31:S31 U31 J30:R30 J29:M29 J13:N13 O9:U9 J10:L10 N10:U10 J9:K9 M9:M10 M11:U11 J11:K12 M12 J14:L16 N15:U16 N14 P14:U14 O12:U13 J18:M19 O18:U19 J17:U17 J20:U25 J27:U27 J26:Q26 S26:U26 J28:P28 R28:U28 T30:U30 U29 O29:S29">
-    <cfRule type="cellIs" dxfId="20" priority="29" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="J35:U35 J32:T32 J31:S31 J30:R30 J29:M29 J13:N13 O9:T9 J10:L10 J9:K9 J11:K12 M12 J14:L16 N15:T16 N14 P14:T14 J18:M19 J17:T17 J27:T27 J26:Q26 S26:T26 J28:P28 R28:T28 T30 O29:S29 M9:M10 O12:T13 O18:T19 J20:T25 N10:T10 M11:T11 J6:T8 W33:Z33">
+    <cfRule type="cellIs" dxfId="68" priority="89" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="90" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="91" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T31">
-    <cfRule type="cellIs" dxfId="17" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="76" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="77" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="78" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14:M16">
+    <cfRule type="cellIs" dxfId="62" priority="73" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="74" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="75" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L12">
+    <cfRule type="cellIs" dxfId="59" priority="70" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="71" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="72" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L11">
+    <cfRule type="cellIs" dxfId="56" priority="67" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="68" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="69" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O14">
+    <cfRule type="cellIs" dxfId="53" priority="64" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="65" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="66" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N18:N19">
+    <cfRule type="cellIs" dxfId="50" priority="61" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="62" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="63" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U32">
+    <cfRule type="cellIs" dxfId="47" priority="58" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="59" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="60" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U31">
+    <cfRule type="cellIs" dxfId="44" priority="55" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="56" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="57" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U23">
+    <cfRule type="cellIs" dxfId="41" priority="37" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="38" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="39" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U25">
+    <cfRule type="cellIs" dxfId="38" priority="31" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="32" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="33" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U30">
+    <cfRule type="cellIs" dxfId="35" priority="16" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="17" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="18" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U6:U22">
+    <cfRule type="cellIs" dxfId="32" priority="40" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="41" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="42" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U24">
+    <cfRule type="cellIs" dxfId="29" priority="34" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="35" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="36" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U26">
+    <cfRule type="cellIs" dxfId="26" priority="28" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="29" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="30" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U27">
+    <cfRule type="cellIs" dxfId="23" priority="25" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="26" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="27" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U28">
+    <cfRule type="cellIs" dxfId="20" priority="22" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="23" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="24" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U29">
+    <cfRule type="cellIs" dxfId="17" priority="19" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="20" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="21" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V6:Z29 W30:Z30">
     <cfRule type="cellIs" dxfId="14" priority="13" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
@@ -5334,7 +6214,7 @@
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L12">
+  <conditionalFormatting sqref="V34:X34 Z34">
     <cfRule type="cellIs" dxfId="11" priority="10" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
@@ -5345,7 +6225,7 @@
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L11">
+  <conditionalFormatting sqref="V30">
     <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
@@ -5356,7 +6236,7 @@
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O14">
+  <conditionalFormatting sqref="W35:Z35">
     <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
@@ -5367,7 +6247,7 @@
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N18:N19">
+  <conditionalFormatting sqref="W32">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
@@ -5379,11 +6259,11 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.5" right="0.5" top="0.65" bottom="0.35" header="0.4" footer="0.2"/>
-  <pageSetup scale="72" orientation="landscape"/>
+  <pageSetup scale="72" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;8&amp;F  &amp;A  &amp;D  &amp;T&amp;R&amp;8Copyright OC Tanner 2007</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/OPPM.xlsx
+++ b/OPPM.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="84">
   <si>
     <t>A = primary owner</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,9 +42,6 @@
     <t>Major Tasks</t>
   </si>
   <si>
-    <t xml:space="preserve"># People working on the project: </t>
-  </si>
-  <si>
     <t>no progress or stuck</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -262,9 +259,6 @@
     <t>10/21</t>
   </si>
   <si>
-    <t>10/25</t>
-  </si>
-  <si>
     <t>11/05</t>
   </si>
   <si>
@@ -290,6 +284,15 @@
   </si>
   <si>
     <t>Project Completed By: 12/03/13</t>
+  </si>
+  <si>
+    <t># People working on the project: 4</t>
+  </si>
+  <si>
+    <t>11/08</t>
+  </si>
+  <si>
+    <t>10/26</t>
   </si>
 </sst>
 </file>
@@ -423,7 +426,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="83">
+  <borders count="86">
     <border>
       <left/>
       <right/>
@@ -1477,6 +1480,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1484,7 +1518,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="217">
+  <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
@@ -1724,10 +1758,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1740,10 +1770,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1897,131 +1923,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="65" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="66" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="55" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="56" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="57" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="68" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="69" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="70" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="58" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="71" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2041,25 +1942,8 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="59" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="60" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="76" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -2084,26 +1968,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="2" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="77" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="79" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="56" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="57" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="73" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2134,12 +1998,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyProtection="1"/>
@@ -2188,6 +2046,190 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="55" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="56" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="57" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="56" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="57" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="77" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="79" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="83" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="84" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="85" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="58" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="59" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="65" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="66" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="68" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="69" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="70" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="76" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2197,7 +2239,367 @@
     <cellStyle name="Normal_Project Matrix" xfId="2"/>
     <cellStyle name="Normal_Project Matrix Collection II" xfId="3"/>
   </cellStyles>
-  <dxfs count="72">
+  <dxfs count="108">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -3804,10 +4206,10 @@
   <sheetPr codeName="Sheet13" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AD57"/>
+  <dimension ref="A1:AE57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="87" zoomScaleNormal="87" zoomScaleSheetLayoutView="73" zoomScalePageLayoutView="96" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="73" zoomScalePageLayoutView="96" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -3818,16 +4220,16 @@
     <col min="8" max="8" width="21.375" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.625" style="1" customWidth="1"/>
     <col min="10" max="26" width="5" style="1" customWidth="1"/>
-    <col min="27" max="27" width="4.125" style="2" customWidth="1"/>
+    <col min="27" max="27" width="5" style="2" customWidth="1"/>
     <col min="28" max="29" width="4.125" style="3" customWidth="1"/>
-    <col min="30" max="30" width="4.125" style="1" customWidth="1"/>
-    <col min="31" max="16384" width="9" style="1"/>
+    <col min="30" max="31" width="4.125" style="1" customWidth="1"/>
+    <col min="32" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="13.5" thickBot="1">
+    <row r="1" spans="1:31" ht="13.5" thickBot="1">
       <c r="A1" s="47"/>
     </row>
-    <row r="2" spans="1:30" s="4" customFormat="1" ht="18">
+    <row r="2" spans="1:31" s="4" customFormat="1" ht="18">
       <c r="B2" s="55"/>
       <c r="C2" s="56"/>
       <c r="D2" s="56"/>
@@ -3837,11 +4239,11 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K2" s="7"/>
       <c r="L2" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
@@ -3855,1359 +4257,1404 @@
       <c r="V2" s="11"/>
       <c r="W2" s="11"/>
       <c r="X2" s="11"/>
-      <c r="Y2" s="167"/>
+      <c r="Y2" s="130"/>
       <c r="Z2" s="56"/>
       <c r="AA2" s="9"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD2" s="173"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE2" s="133"/>
     </row>
-    <row r="3" spans="1:30" s="4" customFormat="1" ht="18" customHeight="1">
+    <row r="3" spans="1:31" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="B3" s="59"/>
       <c r="C3" s="60"/>
       <c r="D3" s="60"/>
       <c r="E3" s="61"/>
-      <c r="F3" s="147" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="148"/>
-      <c r="N3" s="148"/>
-      <c r="O3" s="148"/>
-      <c r="P3" s="148"/>
-      <c r="Q3" s="148"/>
-      <c r="R3" s="148"/>
-      <c r="S3" s="148"/>
-      <c r="T3" s="148"/>
-      <c r="U3" s="148"/>
-      <c r="V3" s="148"/>
-      <c r="W3" s="148"/>
-      <c r="X3" s="148"/>
-      <c r="Y3" s="148"/>
+      <c r="F3" s="171" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="172"/>
+      <c r="H3" s="172"/>
+      <c r="I3" s="172"/>
+      <c r="J3" s="172"/>
+      <c r="K3" s="172"/>
+      <c r="L3" s="172"/>
+      <c r="M3" s="172"/>
+      <c r="N3" s="172"/>
+      <c r="O3" s="172"/>
+      <c r="P3" s="172"/>
+      <c r="Q3" s="172"/>
+      <c r="R3" s="172"/>
+      <c r="S3" s="172"/>
+      <c r="T3" s="172"/>
+      <c r="U3" s="172"/>
+      <c r="V3" s="172"/>
+      <c r="W3" s="172"/>
+      <c r="X3" s="172"/>
+      <c r="Y3" s="172"/>
       <c r="Z3" s="60"/>
-      <c r="AA3" s="171"/>
-      <c r="AB3" s="172"/>
-      <c r="AC3" s="172"/>
-      <c r="AD3" s="174"/>
+      <c r="AA3" s="131"/>
+      <c r="AB3" s="132"/>
+      <c r="AC3" s="132"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="134"/>
     </row>
-    <row r="4" spans="1:30" s="12" customFormat="1" ht="15.75" thickBot="1">
+    <row r="4" spans="1:31" s="12" customFormat="1" ht="15.75" thickBot="1">
       <c r="B4" s="57"/>
       <c r="C4" s="58"/>
       <c r="D4" s="58"/>
       <c r="E4" s="58"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="150"/>
-      <c r="I4" s="150"/>
-      <c r="J4" s="150"/>
-      <c r="K4" s="150"/>
-      <c r="L4" s="150"/>
-      <c r="M4" s="150"/>
-      <c r="N4" s="150"/>
-      <c r="O4" s="150"/>
-      <c r="P4" s="150"/>
-      <c r="Q4" s="150"/>
-      <c r="R4" s="150"/>
-      <c r="S4" s="150"/>
-      <c r="T4" s="150"/>
-      <c r="U4" s="150"/>
-      <c r="V4" s="150"/>
-      <c r="W4" s="150"/>
-      <c r="X4" s="150"/>
-      <c r="Y4" s="150"/>
+      <c r="F4" s="173"/>
+      <c r="G4" s="174"/>
+      <c r="H4" s="174"/>
+      <c r="I4" s="174"/>
+      <c r="J4" s="174"/>
+      <c r="K4" s="174"/>
+      <c r="L4" s="174"/>
+      <c r="M4" s="174"/>
+      <c r="N4" s="174"/>
+      <c r="O4" s="174"/>
+      <c r="P4" s="174"/>
+      <c r="Q4" s="174"/>
+      <c r="R4" s="174"/>
+      <c r="S4" s="174"/>
+      <c r="T4" s="174"/>
+      <c r="U4" s="174"/>
+      <c r="V4" s="174"/>
+      <c r="W4" s="174"/>
+      <c r="X4" s="174"/>
+      <c r="Y4" s="174"/>
       <c r="Z4" s="58"/>
-      <c r="AA4" s="175"/>
-      <c r="AB4" s="176"/>
-      <c r="AC4" s="176"/>
-      <c r="AD4" s="177"/>
+      <c r="AA4" s="135"/>
+      <c r="AB4" s="136"/>
+      <c r="AC4" s="136"/>
+      <c r="AD4" s="58"/>
+      <c r="AE4" s="137"/>
     </row>
-    <row r="5" spans="1:30" s="13" customFormat="1" ht="13.5" thickBot="1">
-      <c r="B5" s="129" t="s">
+    <row r="5" spans="1:31" s="13" customFormat="1" ht="13.5" thickBot="1">
+      <c r="B5" s="199" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="131"/>
+      <c r="C5" s="200"/>
+      <c r="D5" s="200"/>
+      <c r="E5" s="201"/>
       <c r="F5" s="14"/>
       <c r="G5" s="63" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
-      <c r="J5" s="195" t="s">
-        <v>82</v>
-      </c>
-      <c r="K5" s="196"/>
-      <c r="L5" s="196"/>
-      <c r="M5" s="196"/>
-      <c r="N5" s="196"/>
-      <c r="O5" s="196"/>
-      <c r="P5" s="196"/>
-      <c r="Q5" s="196"/>
-      <c r="R5" s="196"/>
-      <c r="S5" s="196"/>
-      <c r="T5" s="196"/>
-      <c r="U5" s="196"/>
-      <c r="V5" s="178"/>
-      <c r="W5" s="178"/>
-      <c r="X5" s="178"/>
-      <c r="Y5" s="178"/>
-      <c r="Z5" s="179"/>
-      <c r="AA5" s="168" t="s">
+      <c r="J5" s="210" t="s">
+        <v>80</v>
+      </c>
+      <c r="K5" s="211"/>
+      <c r="L5" s="211"/>
+      <c r="M5" s="211"/>
+      <c r="N5" s="211"/>
+      <c r="O5" s="211"/>
+      <c r="P5" s="211"/>
+      <c r="Q5" s="211"/>
+      <c r="R5" s="211"/>
+      <c r="S5" s="211"/>
+      <c r="T5" s="211"/>
+      <c r="U5" s="211"/>
+      <c r="V5" s="138"/>
+      <c r="W5" s="138"/>
+      <c r="X5" s="138"/>
+      <c r="Y5" s="138"/>
+      <c r="Z5" s="138"/>
+      <c r="AA5" s="139"/>
+      <c r="AB5" s="212" t="s">
         <v>1</v>
       </c>
-      <c r="AB5" s="169"/>
-      <c r="AC5" s="169"/>
-      <c r="AD5" s="170"/>
+      <c r="AC5" s="213"/>
+      <c r="AD5" s="213"/>
+      <c r="AE5" s="214"/>
     </row>
-    <row r="6" spans="1:30" s="18" customFormat="1">
-      <c r="B6" s="86" t="s">
+    <row r="6" spans="1:31" s="18" customFormat="1">
+      <c r="B6" s="84" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="96">
+        <v>1</v>
+      </c>
+      <c r="G6" s="117" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="98"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="112" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="81"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="81"/>
+      <c r="P6" s="81"/>
+      <c r="Q6" s="81"/>
+      <c r="R6" s="81"/>
+      <c r="S6" s="81"/>
+      <c r="T6" s="125"/>
+      <c r="U6" s="81"/>
+      <c r="V6" s="83"/>
+      <c r="W6" s="83"/>
+      <c r="X6" s="83"/>
+      <c r="Y6" s="83"/>
+      <c r="Z6" s="83"/>
+      <c r="AA6" s="83"/>
+      <c r="AB6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC6" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD6" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE6" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" s="18" customFormat="1">
+      <c r="B7" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="97">
+        <v>2</v>
+      </c>
+      <c r="G7" s="118" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="99"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="113" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="83"/>
+      <c r="P7" s="83"/>
+      <c r="Q7" s="83"/>
+      <c r="R7" s="83"/>
+      <c r="S7" s="83"/>
+      <c r="T7" s="126"/>
+      <c r="U7" s="83"/>
+      <c r="V7" s="83"/>
+      <c r="W7" s="83"/>
+      <c r="X7" s="83"/>
+      <c r="Y7" s="83"/>
+      <c r="Z7" s="83"/>
+      <c r="AA7" s="83"/>
+      <c r="AB7" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC7" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD7" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE7" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" s="18" customFormat="1">
+      <c r="B8" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="97">
+        <v>3</v>
+      </c>
+      <c r="G8" s="118" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="99"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="113" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="83"/>
+      <c r="N8" s="83"/>
+      <c r="O8" s="83"/>
+      <c r="P8" s="83"/>
+      <c r="Q8" s="83"/>
+      <c r="R8" s="83"/>
+      <c r="S8" s="83"/>
+      <c r="T8" s="126"/>
+      <c r="U8" s="83"/>
+      <c r="V8" s="83"/>
+      <c r="W8" s="83"/>
+      <c r="X8" s="83"/>
+      <c r="Y8" s="83"/>
+      <c r="Z8" s="83"/>
+      <c r="AA8" s="83"/>
+      <c r="AB8" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC8" s="120" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD8" s="120" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE8" s="121" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" s="18" customFormat="1">
+      <c r="B9" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="97">
+        <v>4</v>
+      </c>
+      <c r="G9" s="118" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="99"/>
+      <c r="I9" s="103"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="83"/>
+      <c r="M9" s="113" t="s">
+        <v>18</v>
+      </c>
+      <c r="O9" s="83"/>
+      <c r="P9" s="83"/>
+      <c r="Q9" s="83"/>
+      <c r="R9" s="83"/>
+      <c r="S9" s="83"/>
+      <c r="T9" s="126"/>
+      <c r="U9" s="83"/>
+      <c r="V9" s="83"/>
+      <c r="W9" s="83"/>
+      <c r="X9" s="83"/>
+      <c r="Y9" s="83"/>
+      <c r="Z9" s="83"/>
+      <c r="AA9" s="83"/>
+      <c r="AB9" s="148" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC9" s="120" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD9" s="120" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE9" s="121" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" s="18" customFormat="1">
+      <c r="B10" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="88"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="97">
+        <v>5</v>
+      </c>
+      <c r="G10" s="118" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="99"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="114"/>
+      <c r="N10" s="113" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" s="83"/>
+      <c r="P10" s="83"/>
+      <c r="Q10" s="83"/>
+      <c r="R10" s="83"/>
+      <c r="S10" s="83"/>
+      <c r="T10" s="126"/>
+      <c r="U10" s="83"/>
+      <c r="V10" s="83"/>
+      <c r="W10" s="83"/>
+      <c r="X10" s="83"/>
+      <c r="Y10" s="83"/>
+      <c r="Z10" s="83"/>
+      <c r="AA10" s="83"/>
+      <c r="AB10" s="148" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC10" s="120" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD10" s="120" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE10" s="121" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" s="18" customFormat="1">
+      <c r="B11" s="87"/>
+      <c r="C11" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="88"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="97">
+        <v>6</v>
+      </c>
+      <c r="G11" s="118" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="99"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="113" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11" s="83"/>
+      <c r="P11" s="83"/>
+      <c r="Q11" s="83"/>
+      <c r="R11" s="83"/>
+      <c r="S11" s="83"/>
+      <c r="T11" s="126"/>
+      <c r="U11" s="83"/>
+      <c r="V11" s="83"/>
+      <c r="W11" s="83"/>
+      <c r="X11" s="83"/>
+      <c r="Y11" s="83"/>
+      <c r="Z11" s="83"/>
+      <c r="AA11" s="83"/>
+      <c r="AB11" s="148" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC11" s="120" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD11" s="120" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE11" s="121" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" s="18" customFormat="1">
+      <c r="B12" s="87"/>
+      <c r="C12" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="88"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="97">
+        <v>7</v>
+      </c>
+      <c r="G12" s="118" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="99"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="83"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="83"/>
+      <c r="O12" s="113" t="s">
+        <v>18</v>
+      </c>
+      <c r="P12" s="83"/>
+      <c r="Q12" s="83"/>
+      <c r="R12" s="83"/>
+      <c r="S12" s="83"/>
+      <c r="T12" s="126"/>
+      <c r="U12" s="83"/>
+      <c r="V12" s="83"/>
+      <c r="W12" s="83"/>
+      <c r="X12" s="83"/>
+      <c r="Y12" s="83"/>
+      <c r="Z12" s="83"/>
+      <c r="AA12" s="83"/>
+      <c r="AB12" s="148" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC12" s="120" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD12" s="120" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE12" s="121" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" s="18" customFormat="1">
+      <c r="B13" s="87"/>
+      <c r="C13" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="88"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="97">
+        <v>8</v>
+      </c>
+      <c r="G13" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="99"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="83"/>
+      <c r="O13" s="113" t="s">
+        <v>18</v>
+      </c>
+      <c r="P13" s="83"/>
+      <c r="Q13" s="83"/>
+      <c r="R13" s="83"/>
+      <c r="S13" s="83"/>
+      <c r="T13" s="126"/>
+      <c r="U13" s="83"/>
+      <c r="V13" s="83"/>
+      <c r="W13" s="83"/>
+      <c r="X13" s="83"/>
+      <c r="Y13" s="83"/>
+      <c r="Z13" s="83"/>
+      <c r="AA13" s="83"/>
+      <c r="AB13" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC13" s="23"/>
+      <c r="AD13" s="23"/>
+      <c r="AE13" s="24"/>
+    </row>
+    <row r="14" spans="1:31" s="18" customFormat="1">
+      <c r="B14" s="87"/>
+      <c r="C14" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="88"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="97">
+        <v>9</v>
+      </c>
+      <c r="G14" s="118" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="99"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="83"/>
+      <c r="O14" s="113" t="s">
+        <v>18</v>
+      </c>
+      <c r="P14" s="83"/>
+      <c r="Q14" s="83"/>
+      <c r="R14" s="83"/>
+      <c r="S14" s="83"/>
+      <c r="T14" s="126"/>
+      <c r="U14" s="83"/>
+      <c r="V14" s="83"/>
+      <c r="W14" s="83"/>
+      <c r="X14" s="83"/>
+      <c r="Y14" s="83"/>
+      <c r="Z14" s="83"/>
+      <c r="AA14" s="83"/>
+      <c r="AB14" s="148" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC14" s="23"/>
+      <c r="AD14" s="23"/>
+      <c r="AE14" s="24"/>
+    </row>
+    <row r="15" spans="1:31" s="18" customFormat="1">
+      <c r="B15" s="87"/>
+      <c r="C15" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="88"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="97">
+        <v>10</v>
+      </c>
+      <c r="G15" s="118" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="99"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="83"/>
+      <c r="L15" s="83"/>
+      <c r="M15" s="83"/>
+      <c r="N15" s="83"/>
+      <c r="O15" s="113" t="s">
+        <v>18</v>
+      </c>
+      <c r="P15" s="83"/>
+      <c r="Q15" s="83"/>
+      <c r="R15" s="83"/>
+      <c r="S15" s="83"/>
+      <c r="T15" s="126"/>
+      <c r="U15" s="83"/>
+      <c r="V15" s="83"/>
+      <c r="W15" s="83"/>
+      <c r="X15" s="83"/>
+      <c r="Y15" s="83"/>
+      <c r="Z15" s="83"/>
+      <c r="AA15" s="83"/>
+      <c r="AB15" s="22"/>
+      <c r="AC15" s="120" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD15" s="120" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE15" s="24"/>
+    </row>
+    <row r="16" spans="1:31" s="18" customFormat="1">
+      <c r="B16" s="87"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="89"/>
+      <c r="F16" s="97">
+        <v>11</v>
+      </c>
+      <c r="G16" s="118" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="99"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="83"/>
+      <c r="L16" s="83"/>
+      <c r="M16" s="83"/>
+      <c r="N16" s="83"/>
+      <c r="O16" s="113" t="s">
+        <v>18</v>
+      </c>
+      <c r="P16" s="83"/>
+      <c r="Q16" s="83"/>
+      <c r="R16" s="83"/>
+      <c r="S16" s="83"/>
+      <c r="T16" s="126"/>
+      <c r="U16" s="83"/>
+      <c r="V16" s="83"/>
+      <c r="W16" s="83"/>
+      <c r="X16" s="83"/>
+      <c r="Y16" s="83"/>
+      <c r="Z16" s="83"/>
+      <c r="AA16" s="83"/>
+      <c r="AB16" s="148"/>
+      <c r="AC16" s="23"/>
+      <c r="AD16" s="120" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE16" s="24"/>
+    </row>
+    <row r="17" spans="2:31" s="18" customFormat="1">
+      <c r="B17" s="87"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="89"/>
+      <c r="F17" s="97">
+        <v>12</v>
+      </c>
+      <c r="G17" s="118" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="99"/>
+      <c r="I17" s="103"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="83"/>
+      <c r="L17" s="83"/>
+      <c r="M17" s="83"/>
+      <c r="N17" s="83"/>
+      <c r="O17" s="83"/>
+      <c r="P17" s="113" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17" s="83"/>
+      <c r="R17" s="83"/>
+      <c r="S17" s="83"/>
+      <c r="T17" s="126"/>
+      <c r="U17" s="83"/>
+      <c r="V17" s="83"/>
+      <c r="W17" s="83"/>
+      <c r="X17" s="83"/>
+      <c r="Y17" s="83"/>
+      <c r="Z17" s="83"/>
+      <c r="AA17" s="83"/>
+      <c r="AB17" s="22"/>
+      <c r="AC17" s="23"/>
+      <c r="AD17" s="120" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE17" s="24"/>
+    </row>
+    <row r="18" spans="2:31" s="18" customFormat="1">
+      <c r="B18" s="87"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="89"/>
+      <c r="F18" s="97">
+        <v>13</v>
+      </c>
+      <c r="G18" s="118" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" s="99"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="83"/>
+      <c r="L18" s="83"/>
+      <c r="M18" s="83"/>
+      <c r="N18" s="83"/>
+      <c r="O18" s="83"/>
+      <c r="P18" s="113" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="83"/>
+      <c r="R18" s="83"/>
+      <c r="S18" s="83"/>
+      <c r="T18" s="126"/>
+      <c r="U18" s="83"/>
+      <c r="V18" s="83"/>
+      <c r="W18" s="83"/>
+      <c r="X18" s="83"/>
+      <c r="Y18" s="83"/>
+      <c r="Z18" s="83"/>
+      <c r="AA18" s="83"/>
+      <c r="AB18" s="22"/>
+      <c r="AC18" s="120" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD18" s="23"/>
+      <c r="AE18" s="24"/>
+    </row>
+    <row r="19" spans="2:31" s="18" customFormat="1">
+      <c r="B19" s="87"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="89"/>
+      <c r="F19" s="97">
+        <v>14</v>
+      </c>
+      <c r="G19" s="118" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" s="99"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="83"/>
+      <c r="N19" s="83"/>
+      <c r="O19" s="83"/>
+      <c r="P19" s="113" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q19" s="83"/>
+      <c r="R19" s="83"/>
+      <c r="S19" s="83"/>
+      <c r="T19" s="126"/>
+      <c r="U19" s="83"/>
+      <c r="V19" s="83"/>
+      <c r="W19" s="83"/>
+      <c r="X19" s="83"/>
+      <c r="Y19" s="83"/>
+      <c r="Z19" s="83"/>
+      <c r="AA19" s="83"/>
+      <c r="AB19" s="148" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC19" s="23"/>
+      <c r="AD19" s="23"/>
+      <c r="AE19" s="24"/>
+    </row>
+    <row r="20" spans="2:31" s="18" customFormat="1">
+      <c r="B20" s="87"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="88"/>
+      <c r="F20" s="97">
+        <v>15</v>
+      </c>
+      <c r="G20" s="118" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" s="100"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="83"/>
+      <c r="L20" s="83"/>
+      <c r="M20" s="83"/>
+      <c r="N20" s="83"/>
+      <c r="O20" s="83"/>
+      <c r="P20" s="83"/>
+      <c r="Q20" s="113"/>
+      <c r="R20" s="113" t="s">
+        <v>18</v>
+      </c>
+      <c r="S20" s="83"/>
+      <c r="T20" s="126"/>
+      <c r="U20" s="83"/>
+      <c r="V20" s="83"/>
+      <c r="W20" s="83"/>
+      <c r="X20" s="83"/>
+      <c r="Y20" s="83"/>
+      <c r="Z20" s="83"/>
+      <c r="AA20" s="83"/>
+      <c r="AB20" s="22"/>
+      <c r="AC20" s="23"/>
+      <c r="AD20" s="120" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE20" s="24"/>
+    </row>
+    <row r="21" spans="2:31" s="18" customFormat="1">
+      <c r="B21" s="87"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="88"/>
+      <c r="F21" s="97">
+        <v>16</v>
+      </c>
+      <c r="G21" s="118" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="100"/>
+      <c r="I21" s="104"/>
+      <c r="J21" s="82"/>
+      <c r="K21" s="83"/>
+      <c r="L21" s="83"/>
+      <c r="M21" s="83"/>
+      <c r="N21" s="83"/>
+      <c r="O21" s="83"/>
+      <c r="P21" s="83"/>
+      <c r="Q21" s="83"/>
+      <c r="R21" s="113"/>
+      <c r="S21" s="113" t="s">
+        <v>18</v>
+      </c>
+      <c r="T21" s="126"/>
+      <c r="U21" s="83"/>
+      <c r="V21" s="83"/>
+      <c r="W21" s="83"/>
+      <c r="X21" s="83"/>
+      <c r="Y21" s="83"/>
+      <c r="Z21" s="83"/>
+      <c r="AA21" s="83"/>
+      <c r="AB21" s="22"/>
+      <c r="AC21" s="23"/>
+      <c r="AD21" s="120" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE21" s="24"/>
+    </row>
+    <row r="22" spans="2:31" s="18" customFormat="1">
+      <c r="B22" s="87"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="88"/>
+      <c r="F22" s="97">
+        <v>17</v>
+      </c>
+      <c r="G22" s="118" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" s="100"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="83"/>
+      <c r="L22" s="83"/>
+      <c r="M22" s="83"/>
+      <c r="N22" s="83"/>
+      <c r="O22" s="83"/>
+      <c r="P22" s="83"/>
+      <c r="Q22" s="83"/>
+      <c r="R22" s="113"/>
+      <c r="S22" s="83"/>
+      <c r="T22" s="113" t="s">
+        <v>18</v>
+      </c>
+      <c r="U22" s="83"/>
+      <c r="V22" s="83"/>
+      <c r="W22" s="83"/>
+      <c r="X22" s="83"/>
+      <c r="Y22" s="83"/>
+      <c r="Z22" s="83"/>
+      <c r="AA22" s="83"/>
+      <c r="AB22" s="22"/>
+      <c r="AC22" s="23"/>
+      <c r="AD22" s="120" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE22" s="24"/>
+    </row>
+    <row r="23" spans="2:31" s="18" customFormat="1">
+      <c r="B23" s="87"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="97">
+        <v>18</v>
+      </c>
+      <c r="G23" s="118" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="100"/>
+      <c r="I23" s="104"/>
+      <c r="J23" s="82"/>
+      <c r="K23" s="83"/>
+      <c r="L23" s="83"/>
+      <c r="M23" s="83"/>
+      <c r="N23" s="83"/>
+      <c r="O23" s="83"/>
+      <c r="P23" s="83"/>
+      <c r="Q23" s="83"/>
+      <c r="R23" s="113"/>
+      <c r="S23" s="83"/>
+      <c r="T23" s="126"/>
+      <c r="U23" s="113" t="s">
+        <v>18</v>
+      </c>
+      <c r="V23" s="83"/>
+      <c r="W23" s="83"/>
+      <c r="X23" s="83"/>
+      <c r="Y23" s="83"/>
+      <c r="Z23" s="83"/>
+      <c r="AA23" s="83"/>
+      <c r="AB23" s="22"/>
+      <c r="AC23" s="23"/>
+      <c r="AD23" s="120" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE23" s="24"/>
+    </row>
+    <row r="24" spans="2:31" s="18" customFormat="1">
+      <c r="B24" s="87"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="97">
         <v>19</v>
       </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="98">
-        <v>1</v>
-      </c>
-      <c r="G6" s="119" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="100"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="114" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="82"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="82"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="82"/>
-      <c r="Q6" s="82"/>
-      <c r="R6" s="82"/>
-      <c r="S6" s="82"/>
-      <c r="T6" s="160"/>
-      <c r="U6" s="82"/>
-      <c r="V6" s="84"/>
-      <c r="W6" s="84"/>
-      <c r="X6" s="84"/>
-      <c r="Y6" s="84"/>
-      <c r="Z6" s="84"/>
-      <c r="AA6" s="19" t="s">
+      <c r="G24" s="118" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" s="100"/>
+      <c r="I24" s="104"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="83"/>
+      <c r="L24" s="83"/>
+      <c r="M24" s="83"/>
+      <c r="N24" s="83"/>
+      <c r="O24" s="83"/>
+      <c r="P24" s="83"/>
+      <c r="Q24" s="83"/>
+      <c r="R24" s="122"/>
+      <c r="S24" s="83"/>
+      <c r="T24" s="126"/>
+      <c r="U24" s="83"/>
+      <c r="V24" s="83"/>
+      <c r="W24" s="83"/>
+      <c r="X24" s="122" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y24" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z24" s="83"/>
+      <c r="AA24" s="83"/>
+      <c r="AB24" s="22"/>
+      <c r="AC24" s="23"/>
+      <c r="AD24" s="23"/>
+      <c r="AE24" s="24"/>
+    </row>
+    <row r="25" spans="2:31" s="18" customFormat="1">
+      <c r="B25" s="87"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="97">
+        <v>20</v>
+      </c>
+      <c r="G25" s="118" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="100"/>
+      <c r="I25" s="104"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="83"/>
+      <c r="L25" s="83"/>
+      <c r="M25" s="83"/>
+      <c r="N25" s="83"/>
+      <c r="O25" s="83"/>
+      <c r="P25" s="83"/>
+      <c r="Q25" s="83"/>
+      <c r="R25" s="83"/>
+      <c r="S25" s="122"/>
+      <c r="T25" s="126"/>
+      <c r="U25" s="83"/>
+      <c r="V25" s="83"/>
+      <c r="W25" s="83"/>
+      <c r="X25" s="122" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y25" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z25" s="83"/>
+      <c r="AA25" s="83"/>
+      <c r="AB25" s="22"/>
+      <c r="AC25" s="23"/>
+      <c r="AD25" s="23"/>
+      <c r="AE25" s="24"/>
+    </row>
+    <row r="26" spans="2:31" s="18" customFormat="1">
+      <c r="B26" s="87"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="97">
+        <v>21</v>
+      </c>
+      <c r="G26" s="118" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" s="100"/>
+      <c r="I26" s="104"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="83"/>
+      <c r="L26" s="83"/>
+      <c r="M26" s="114"/>
+      <c r="N26" s="83"/>
+      <c r="O26" s="83"/>
+      <c r="P26" s="83"/>
+      <c r="Q26" s="83"/>
+      <c r="S26" s="83"/>
+      <c r="T26" s="127"/>
+      <c r="U26" s="83"/>
+      <c r="V26" s="114"/>
+      <c r="W26" s="114"/>
+      <c r="X26" s="122" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y26" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z26" s="114"/>
+      <c r="AA26" s="114"/>
+      <c r="AB26" s="22"/>
+      <c r="AC26" s="23"/>
+      <c r="AD26" s="23"/>
+      <c r="AE26" s="121" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="2:31" s="18" customFormat="1">
+      <c r="B27" s="87"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="97">
+        <v>22</v>
+      </c>
+      <c r="G27" s="118" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" s="100"/>
+      <c r="I27" s="104"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="83"/>
+      <c r="L27" s="83"/>
+      <c r="M27" s="83"/>
+      <c r="N27" s="83"/>
+      <c r="O27" s="83"/>
+      <c r="P27" s="83"/>
+      <c r="Q27" s="83"/>
+      <c r="R27" s="83"/>
+      <c r="S27" s="122"/>
+      <c r="T27" s="126"/>
+      <c r="U27" s="83"/>
+      <c r="V27" s="83"/>
+      <c r="W27" s="83"/>
+      <c r="X27" s="122" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y27" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z27" s="83"/>
+      <c r="AA27" s="83"/>
+      <c r="AB27" s="22"/>
+      <c r="AC27" s="120" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD27" s="23"/>
+      <c r="AE27" s="24"/>
+    </row>
+    <row r="28" spans="2:31" s="18" customFormat="1">
+      <c r="B28" s="87"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="97">
+        <v>23</v>
+      </c>
+      <c r="G28" s="118" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28" s="100"/>
+      <c r="I28" s="104"/>
+      <c r="J28" s="82"/>
+      <c r="K28" s="114"/>
+      <c r="L28" s="83"/>
+      <c r="M28" s="83"/>
+      <c r="N28" s="83"/>
+      <c r="O28" s="83"/>
+      <c r="P28" s="83"/>
+      <c r="R28" s="83"/>
+      <c r="S28" s="83"/>
+      <c r="T28" s="127"/>
+      <c r="U28" s="83"/>
+      <c r="V28" s="83"/>
+      <c r="W28" s="83"/>
+      <c r="X28" s="122" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y28" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z28" s="83"/>
+      <c r="AA28" s="83"/>
+      <c r="AB28" s="149" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC28" s="76"/>
+      <c r="AD28" s="76"/>
+      <c r="AE28" s="77"/>
+    </row>
+    <row r="29" spans="2:31" s="18" customFormat="1">
+      <c r="B29" s="87"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="97">
+        <v>24</v>
+      </c>
+      <c r="G29" s="118" t="s">
+        <v>48</v>
+      </c>
+      <c r="H29" s="100"/>
+      <c r="I29" s="104"/>
+      <c r="J29" s="82"/>
+      <c r="K29" s="83"/>
+      <c r="L29" s="83"/>
+      <c r="M29" s="83"/>
+      <c r="O29" s="83"/>
+      <c r="P29" s="83"/>
+      <c r="Q29" s="83"/>
+      <c r="R29" s="83"/>
+      <c r="S29" s="83"/>
+      <c r="U29" s="83"/>
+      <c r="V29" s="83"/>
+      <c r="W29" s="83"/>
+      <c r="X29" s="83"/>
+      <c r="Y29" s="83"/>
+      <c r="Z29" s="83"/>
+      <c r="AA29" s="83"/>
+      <c r="AB29" s="25"/>
+      <c r="AC29" s="26"/>
+      <c r="AD29" s="26"/>
+      <c r="AE29" s="27"/>
+    </row>
+    <row r="30" spans="2:31" s="18" customFormat="1">
+      <c r="B30" s="87"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="97">
+        <v>25</v>
+      </c>
+      <c r="G30" s="118" t="s">
+        <v>74</v>
+      </c>
+      <c r="H30" s="100"/>
+      <c r="I30" s="104"/>
+      <c r="J30" s="82"/>
+      <c r="K30" s="83"/>
+      <c r="L30" s="83"/>
+      <c r="M30" s="83"/>
+      <c r="N30" s="83"/>
+      <c r="O30" s="83"/>
+      <c r="P30" s="83"/>
+      <c r="Q30" s="83"/>
+      <c r="R30" s="83"/>
+      <c r="T30" s="83"/>
+      <c r="U30" s="83"/>
+      <c r="V30" s="113"/>
+      <c r="W30" s="113" t="s">
+        <v>18</v>
+      </c>
+      <c r="X30" s="83"/>
+      <c r="Y30" s="83"/>
+      <c r="Z30" s="83"/>
+      <c r="AA30" s="83"/>
+      <c r="AB30" s="148" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC30" s="120" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD30" s="120" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE30" s="121" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="2:31" s="18" customFormat="1">
+      <c r="B31" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="88"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="97">
+        <v>26</v>
+      </c>
+      <c r="G31" s="119" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="100"/>
+      <c r="I31" s="104"/>
+      <c r="J31" s="82"/>
+      <c r="K31" s="83"/>
+      <c r="L31" s="83"/>
+      <c r="M31" s="115"/>
+      <c r="N31" s="83"/>
+      <c r="O31" s="83"/>
+      <c r="P31" s="83"/>
+      <c r="Q31" s="83"/>
+      <c r="R31" s="83"/>
+      <c r="S31" s="83"/>
+      <c r="T31" s="83"/>
+      <c r="U31" s="124"/>
+      <c r="V31" s="124" t="s">
+        <v>18</v>
+      </c>
+      <c r="W31" s="109"/>
+      <c r="X31" s="109"/>
+      <c r="Y31" s="109"/>
+      <c r="Z31" s="109"/>
+      <c r="AA31" s="109"/>
+      <c r="AB31" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC31" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="AB6" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC6" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD6" s="21" t="s">
-        <v>15</v>
+      <c r="AD31" s="120" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE31" s="121" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="18" customFormat="1">
-      <c r="B7" s="89" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="99">
-        <v>2</v>
-      </c>
-      <c r="G7" s="120" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="101"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="115" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="84"/>
-      <c r="M7" s="84"/>
-      <c r="N7" s="84"/>
-      <c r="O7" s="84"/>
-      <c r="P7" s="84"/>
-      <c r="Q7" s="84"/>
-      <c r="R7" s="84"/>
-      <c r="S7" s="84"/>
-      <c r="T7" s="161"/>
-      <c r="U7" s="84"/>
-      <c r="V7" s="84"/>
-      <c r="W7" s="84"/>
-      <c r="X7" s="84"/>
-      <c r="Y7" s="84"/>
-      <c r="Z7" s="84"/>
-      <c r="AA7" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB7" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC7" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD7" s="24" t="s">
-        <v>15</v>
+    <row r="32" spans="2:31" s="18" customFormat="1">
+      <c r="B32" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="97">
+        <v>27</v>
+      </c>
+      <c r="G32" s="119" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" s="100"/>
+      <c r="I32" s="104"/>
+      <c r="J32" s="82"/>
+      <c r="K32" s="83"/>
+      <c r="L32" s="116"/>
+      <c r="M32" s="83"/>
+      <c r="N32" s="83"/>
+      <c r="O32" s="83"/>
+      <c r="P32" s="83"/>
+      <c r="Q32" s="83"/>
+      <c r="R32" s="83"/>
+      <c r="S32" s="83"/>
+      <c r="T32" s="83"/>
+      <c r="U32" s="124"/>
+      <c r="V32" s="124" t="s">
+        <v>18</v>
+      </c>
+      <c r="W32" s="124"/>
+      <c r="X32" s="124" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y32" s="140"/>
+      <c r="Z32" s="140"/>
+      <c r="AA32" s="140"/>
+      <c r="AB32" s="148"/>
+      <c r="AC32" s="23"/>
+      <c r="AD32" s="120"/>
+      <c r="AE32" s="121" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="18" customFormat="1">
-      <c r="B8" s="89" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="99">
-        <v>3</v>
-      </c>
-      <c r="G8" s="120" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="101"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="115" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="84"/>
-      <c r="N8" s="84"/>
-      <c r="O8" s="84"/>
-      <c r="P8" s="84"/>
-      <c r="Q8" s="84"/>
-      <c r="R8" s="84"/>
-      <c r="S8" s="84"/>
-      <c r="T8" s="161"/>
-      <c r="U8" s="84"/>
-      <c r="V8" s="84"/>
-      <c r="W8" s="84"/>
-      <c r="X8" s="84"/>
-      <c r="Y8" s="84"/>
-      <c r="Z8" s="84"/>
-      <c r="AA8" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB8" s="122" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC8" s="122" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD8" s="123" t="s">
-        <v>30</v>
+    <row r="33" spans="2:31" s="18" customFormat="1">
+      <c r="B33" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="88"/>
+      <c r="D33" s="88"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="97">
+        <v>28</v>
+      </c>
+      <c r="G33" s="119" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" s="101"/>
+      <c r="I33" s="105"/>
+      <c r="J33" s="108"/>
+      <c r="K33" s="109"/>
+      <c r="L33" s="109"/>
+      <c r="M33" s="109"/>
+      <c r="N33" s="109"/>
+      <c r="O33" s="109"/>
+      <c r="P33" s="109"/>
+      <c r="Q33" s="109"/>
+      <c r="R33" s="109"/>
+      <c r="S33" s="109"/>
+      <c r="T33" s="109"/>
+      <c r="U33" s="109"/>
+      <c r="V33" s="141"/>
+      <c r="W33" s="83"/>
+      <c r="X33" s="83"/>
+      <c r="Y33" s="83"/>
+      <c r="Z33" s="126" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA33" s="109"/>
+      <c r="AB33" s="148" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC33" s="120" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD33" s="120" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE33" s="121" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:30" s="18" customFormat="1">
-      <c r="B9" s="89" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="99">
-        <v>4</v>
-      </c>
-      <c r="G9" s="120" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="101"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="84"/>
-      <c r="M9" s="115" t="s">
-        <v>19</v>
-      </c>
-      <c r="O9" s="84"/>
-      <c r="P9" s="84"/>
-      <c r="Q9" s="84"/>
-      <c r="R9" s="84"/>
-      <c r="S9" s="84"/>
-      <c r="T9" s="161"/>
-      <c r="U9" s="84"/>
-      <c r="V9" s="84"/>
-      <c r="W9" s="84"/>
-      <c r="X9" s="84"/>
-      <c r="Y9" s="84"/>
-      <c r="Z9" s="84"/>
-      <c r="AA9" s="193" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB9" s="122" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC9" s="122" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD9" s="123" t="s">
-        <v>30</v>
+    <row r="34" spans="2:31" s="18" customFormat="1" ht="13.5" thickBot="1">
+      <c r="B34" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="91"/>
+      <c r="D34" s="91"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="93">
+        <v>29</v>
+      </c>
+      <c r="G34" s="119" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" s="94"/>
+      <c r="I34" s="95"/>
+      <c r="J34" s="110"/>
+      <c r="K34" s="111"/>
+      <c r="L34" s="111"/>
+      <c r="M34" s="111"/>
+      <c r="N34" s="111"/>
+      <c r="O34" s="111"/>
+      <c r="P34" s="111"/>
+      <c r="Q34" s="111"/>
+      <c r="R34" s="111"/>
+      <c r="S34" s="111"/>
+      <c r="T34" s="128"/>
+      <c r="U34" s="111"/>
+      <c r="V34" s="142"/>
+      <c r="W34" s="142"/>
+      <c r="X34" s="142"/>
+      <c r="Z34" s="129"/>
+      <c r="AA34" s="129" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB34" s="167" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC34" s="168" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD34" s="168" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE34" s="169" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:30" s="18" customFormat="1">
-      <c r="B10" s="89" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="90"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="99">
-        <v>5</v>
-      </c>
-      <c r="G10" s="120" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="101"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="115" t="s">
-        <v>19</v>
-      </c>
-      <c r="O10" s="84"/>
-      <c r="P10" s="84"/>
-      <c r="Q10" s="84"/>
-      <c r="R10" s="84"/>
-      <c r="S10" s="84"/>
-      <c r="T10" s="161"/>
-      <c r="U10" s="84"/>
-      <c r="V10" s="84"/>
-      <c r="W10" s="84"/>
-      <c r="X10" s="84"/>
-      <c r="Y10" s="84"/>
-      <c r="Z10" s="84"/>
-      <c r="AA10" s="193" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB10" s="122" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC10" s="122" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD10" s="123" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" s="18" customFormat="1">
-      <c r="B11" s="89"/>
-      <c r="C11" s="90" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="90"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="99">
-        <v>6</v>
-      </c>
-      <c r="G11" s="120" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="101"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="84"/>
-      <c r="N11" s="115" t="s">
-        <v>19</v>
-      </c>
-      <c r="O11" s="84"/>
-      <c r="P11" s="84"/>
-      <c r="Q11" s="84"/>
-      <c r="R11" s="84"/>
-      <c r="S11" s="84"/>
-      <c r="T11" s="161"/>
-      <c r="U11" s="84"/>
-      <c r="V11" s="84"/>
-      <c r="W11" s="84"/>
-      <c r="X11" s="84"/>
-      <c r="Y11" s="84"/>
-      <c r="Z11" s="84"/>
-      <c r="AA11" s="193" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB11" s="122" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC11" s="122" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD11" s="123" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" s="18" customFormat="1">
-      <c r="B12" s="89"/>
-      <c r="C12" s="90" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="90"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="99">
-        <v>7</v>
-      </c>
-      <c r="G12" s="120" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="101"/>
-      <c r="I12" s="105"/>
-      <c r="J12" s="83"/>
-      <c r="K12" s="84"/>
-      <c r="L12" s="84"/>
-      <c r="M12" s="84"/>
-      <c r="O12" s="115" t="s">
-        <v>19</v>
-      </c>
-      <c r="P12" s="84"/>
-      <c r="Q12" s="84"/>
-      <c r="R12" s="84"/>
-      <c r="S12" s="84"/>
-      <c r="T12" s="161"/>
-      <c r="U12" s="84"/>
-      <c r="V12" s="84"/>
-      <c r="W12" s="84"/>
-      <c r="X12" s="84"/>
-      <c r="Y12" s="84"/>
-      <c r="Z12" s="84"/>
-      <c r="AA12" s="193" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB12" s="122" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC12" s="122" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD12" s="123" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" s="18" customFormat="1">
-      <c r="B13" s="89"/>
-      <c r="C13" s="90" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="90"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="99">
-        <v>8</v>
-      </c>
-      <c r="G13" s="120" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="101"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="84"/>
-      <c r="N13" s="84"/>
-      <c r="O13" s="115" t="s">
-        <v>19</v>
-      </c>
-      <c r="P13" s="84"/>
-      <c r="Q13" s="84"/>
-      <c r="R13" s="84"/>
-      <c r="S13" s="84"/>
-      <c r="T13" s="161"/>
-      <c r="U13" s="84"/>
-      <c r="V13" s="84"/>
-      <c r="W13" s="84"/>
-      <c r="X13" s="84"/>
-      <c r="Y13" s="84"/>
-      <c r="Z13" s="84"/>
-      <c r="AA13" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB13" s="23"/>
-      <c r="AC13" s="23"/>
-      <c r="AD13" s="24"/>
-    </row>
-    <row r="14" spans="1:30" s="18" customFormat="1">
-      <c r="B14" s="89"/>
-      <c r="C14" s="90" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="90"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="99">
-        <v>9</v>
-      </c>
-      <c r="G14" s="120" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="101"/>
-      <c r="I14" s="105"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="84"/>
-      <c r="N14" s="84"/>
-      <c r="O14" s="115" t="s">
-        <v>19</v>
-      </c>
-      <c r="P14" s="84"/>
-      <c r="Q14" s="84"/>
-      <c r="R14" s="84"/>
-      <c r="S14" s="84"/>
-      <c r="T14" s="161"/>
-      <c r="U14" s="84"/>
-      <c r="V14" s="84"/>
-      <c r="W14" s="84"/>
-      <c r="X14" s="84"/>
-      <c r="Y14" s="84"/>
-      <c r="Z14" s="84"/>
-      <c r="AA14" s="193" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB14" s="23"/>
-      <c r="AC14" s="23"/>
-      <c r="AD14" s="24"/>
-    </row>
-    <row r="15" spans="1:30" s="18" customFormat="1">
-      <c r="B15" s="89"/>
-      <c r="C15" s="90" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="90"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="99">
-        <v>10</v>
-      </c>
-      <c r="G15" s="120" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="101"/>
-      <c r="I15" s="105"/>
-      <c r="J15" s="83"/>
-      <c r="K15" s="84"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="84"/>
-      <c r="N15" s="84"/>
-      <c r="O15" s="115" t="s">
-        <v>19</v>
-      </c>
-      <c r="P15" s="84"/>
-      <c r="Q15" s="84"/>
-      <c r="R15" s="84"/>
-      <c r="S15" s="84"/>
-      <c r="T15" s="161"/>
-      <c r="U15" s="84"/>
-      <c r="V15" s="84"/>
-      <c r="W15" s="84"/>
-      <c r="X15" s="84"/>
-      <c r="Y15" s="84"/>
-      <c r="Z15" s="84"/>
-      <c r="AA15" s="22"/>
-      <c r="AB15" s="122" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC15" s="122" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD15" s="24"/>
-    </row>
-    <row r="16" spans="1:30" s="18" customFormat="1">
-      <c r="B16" s="89"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="91"/>
-      <c r="F16" s="99">
-        <v>11</v>
-      </c>
-      <c r="G16" s="120" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" s="101"/>
-      <c r="I16" s="105"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="84"/>
-      <c r="N16" s="84"/>
-      <c r="O16" s="115" t="s">
-        <v>19</v>
-      </c>
-      <c r="P16" s="84"/>
-      <c r="Q16" s="84"/>
-      <c r="R16" s="84"/>
-      <c r="S16" s="84"/>
-      <c r="T16" s="161"/>
-      <c r="U16" s="84"/>
-      <c r="V16" s="84"/>
-      <c r="W16" s="84"/>
-      <c r="X16" s="84"/>
-      <c r="Y16" s="84"/>
-      <c r="Z16" s="84"/>
-      <c r="AA16" s="193"/>
-      <c r="AB16" s="23"/>
-      <c r="AC16" s="122" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD16" s="24"/>
-    </row>
-    <row r="17" spans="2:30" s="18" customFormat="1">
-      <c r="B17" s="89"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="91"/>
-      <c r="F17" s="99">
-        <v>12</v>
-      </c>
-      <c r="G17" s="120" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" s="101"/>
-      <c r="I17" s="105"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="84"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="84"/>
-      <c r="N17" s="84"/>
-      <c r="O17" s="84"/>
-      <c r="P17" s="115" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q17" s="84"/>
-      <c r="R17" s="84"/>
-      <c r="S17" s="84"/>
-      <c r="T17" s="161"/>
-      <c r="U17" s="84"/>
-      <c r="V17" s="84"/>
-      <c r="W17" s="84"/>
-      <c r="X17" s="84"/>
-      <c r="Y17" s="84"/>
-      <c r="Z17" s="84"/>
-      <c r="AA17" s="22"/>
-      <c r="AB17" s="23"/>
-      <c r="AC17" s="122" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD17" s="24"/>
-    </row>
-    <row r="18" spans="2:30" s="18" customFormat="1">
-      <c r="B18" s="89"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="91"/>
-      <c r="F18" s="99">
-        <v>13</v>
-      </c>
-      <c r="G18" s="120" t="s">
-        <v>60</v>
-      </c>
-      <c r="H18" s="101"/>
-      <c r="I18" s="105"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="84"/>
-      <c r="N18" s="84"/>
-      <c r="O18" s="84"/>
-      <c r="P18" s="115" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q18" s="84"/>
-      <c r="R18" s="84"/>
-      <c r="S18" s="84"/>
-      <c r="T18" s="161"/>
-      <c r="U18" s="84"/>
-      <c r="V18" s="84"/>
-      <c r="W18" s="84"/>
-      <c r="X18" s="84"/>
-      <c r="Y18" s="84"/>
-      <c r="Z18" s="84"/>
-      <c r="AA18" s="22"/>
-      <c r="AB18" s="122" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC18" s="23"/>
-      <c r="AD18" s="24"/>
-    </row>
-    <row r="19" spans="2:30" s="18" customFormat="1">
-      <c r="B19" s="89"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="91"/>
-      <c r="F19" s="99">
-        <v>14</v>
-      </c>
-      <c r="G19" s="120" t="s">
-        <v>61</v>
-      </c>
-      <c r="H19" s="101"/>
-      <c r="I19" s="105"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="84"/>
-      <c r="L19" s="84"/>
-      <c r="M19" s="84"/>
-      <c r="N19" s="84"/>
-      <c r="O19" s="84"/>
-      <c r="P19" s="115" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q19" s="84"/>
-      <c r="R19" s="84"/>
-      <c r="S19" s="84"/>
-      <c r="T19" s="161"/>
-      <c r="U19" s="84"/>
-      <c r="V19" s="84"/>
-      <c r="W19" s="84"/>
-      <c r="X19" s="84"/>
-      <c r="Y19" s="84"/>
-      <c r="Z19" s="84"/>
-      <c r="AA19" s="193" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB19" s="23"/>
-      <c r="AC19" s="23"/>
-      <c r="AD19" s="24"/>
-    </row>
-    <row r="20" spans="2:30" s="18" customFormat="1">
-      <c r="B20" s="89"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="90"/>
-      <c r="F20" s="99">
-        <v>15</v>
-      </c>
-      <c r="G20" s="120" t="s">
-        <v>62</v>
-      </c>
-      <c r="H20" s="102"/>
-      <c r="I20" s="106"/>
-      <c r="J20" s="83"/>
-      <c r="K20" s="84"/>
-      <c r="L20" s="84"/>
-      <c r="M20" s="84"/>
-      <c r="N20" s="84"/>
-      <c r="O20" s="84"/>
-      <c r="P20" s="84"/>
-      <c r="Q20" s="115" t="s">
-        <v>19</v>
-      </c>
-      <c r="R20" s="84"/>
-      <c r="S20" s="84"/>
-      <c r="T20" s="161"/>
-      <c r="U20" s="84"/>
-      <c r="V20" s="84"/>
-      <c r="W20" s="84"/>
-      <c r="X20" s="84"/>
-      <c r="Y20" s="84"/>
-      <c r="Z20" s="84"/>
-      <c r="AA20" s="22"/>
-      <c r="AB20" s="23"/>
-      <c r="AC20" s="122" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD20" s="24"/>
-    </row>
-    <row r="21" spans="2:30" s="18" customFormat="1">
-      <c r="B21" s="89"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="90"/>
-      <c r="F21" s="99">
-        <v>16</v>
-      </c>
-      <c r="G21" s="120" t="s">
-        <v>63</v>
-      </c>
-      <c r="H21" s="102"/>
-      <c r="I21" s="106"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="84"/>
-      <c r="L21" s="84"/>
-      <c r="M21" s="84"/>
-      <c r="N21" s="84"/>
-      <c r="O21" s="84"/>
-      <c r="P21" s="84"/>
-      <c r="Q21" s="84"/>
-      <c r="R21" s="115" t="s">
-        <v>19</v>
-      </c>
-      <c r="S21" s="84"/>
-      <c r="T21" s="161"/>
-      <c r="U21" s="84"/>
-      <c r="V21" s="84"/>
-      <c r="W21" s="84"/>
-      <c r="X21" s="84"/>
-      <c r="Y21" s="84"/>
-      <c r="Z21" s="84"/>
-      <c r="AA21" s="22"/>
-      <c r="AB21" s="23"/>
-      <c r="AC21" s="122" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD21" s="24"/>
-    </row>
-    <row r="22" spans="2:30" s="18" customFormat="1">
-      <c r="B22" s="89"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="90"/>
-      <c r="F22" s="99">
-        <v>17</v>
-      </c>
-      <c r="G22" s="120" t="s">
-        <v>64</v>
-      </c>
-      <c r="H22" s="102"/>
-      <c r="I22" s="106"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="84"/>
-      <c r="L22" s="84"/>
-      <c r="M22" s="84"/>
-      <c r="N22" s="84"/>
-      <c r="O22" s="84"/>
-      <c r="P22" s="84"/>
-      <c r="Q22" s="84"/>
-      <c r="R22" s="115" t="s">
-        <v>19</v>
-      </c>
-      <c r="S22" s="84"/>
-      <c r="T22" s="161"/>
-      <c r="U22" s="84"/>
-      <c r="V22" s="84"/>
-      <c r="W22" s="84"/>
-      <c r="X22" s="84"/>
-      <c r="Y22" s="84"/>
-      <c r="Z22" s="84"/>
-      <c r="AA22" s="22"/>
-      <c r="AB22" s="23"/>
-      <c r="AC22" s="122" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD22" s="24"/>
-    </row>
-    <row r="23" spans="2:30" s="18" customFormat="1">
-      <c r="B23" s="89"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="99">
-        <v>18</v>
-      </c>
-      <c r="G23" s="120" t="s">
-        <v>39</v>
-      </c>
-      <c r="H23" s="102"/>
-      <c r="I23" s="106"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="84"/>
-      <c r="L23" s="84"/>
-      <c r="M23" s="84"/>
-      <c r="N23" s="84"/>
-      <c r="O23" s="84"/>
-      <c r="P23" s="84"/>
-      <c r="Q23" s="84"/>
-      <c r="R23" s="115" t="s">
-        <v>19</v>
-      </c>
-      <c r="S23" s="84"/>
-      <c r="T23" s="161"/>
-      <c r="U23" s="84"/>
-      <c r="V23" s="84"/>
-      <c r="W23" s="84"/>
-      <c r="X23" s="84"/>
-      <c r="Y23" s="84"/>
-      <c r="Z23" s="84"/>
-      <c r="AA23" s="22"/>
-      <c r="AB23" s="23"/>
-      <c r="AC23" s="122" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD23" s="24"/>
-    </row>
-    <row r="24" spans="2:30" s="18" customFormat="1">
-      <c r="B24" s="89"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="99">
-        <v>19</v>
-      </c>
-      <c r="G24" s="120" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24" s="102"/>
-      <c r="I24" s="106"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="84"/>
-      <c r="L24" s="84"/>
-      <c r="M24" s="84"/>
-      <c r="N24" s="84"/>
-      <c r="O24" s="84"/>
-      <c r="P24" s="84"/>
-      <c r="Q24" s="84"/>
-      <c r="R24" s="124" t="s">
-        <v>19</v>
-      </c>
-      <c r="S24" s="84"/>
-      <c r="T24" s="161"/>
-      <c r="U24" s="84"/>
-      <c r="V24" s="84"/>
-      <c r="W24" s="84"/>
-      <c r="X24" s="84"/>
-      <c r="Y24" s="84"/>
-      <c r="Z24" s="84"/>
-      <c r="AA24" s="22"/>
-      <c r="AB24" s="23"/>
-      <c r="AC24" s="23"/>
-      <c r="AD24" s="24"/>
-    </row>
-    <row r="25" spans="2:30" s="18" customFormat="1">
-      <c r="B25" s="89"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" s="99">
-        <v>20</v>
-      </c>
-      <c r="G25" s="120" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" s="102"/>
-      <c r="I25" s="106"/>
-      <c r="J25" s="83"/>
-      <c r="K25" s="84"/>
-      <c r="L25" s="84"/>
-      <c r="M25" s="84"/>
-      <c r="N25" s="84"/>
-      <c r="O25" s="84"/>
-      <c r="P25" s="84"/>
-      <c r="Q25" s="84"/>
-      <c r="R25" s="84"/>
-      <c r="S25" s="124" t="s">
-        <v>19</v>
-      </c>
-      <c r="T25" s="161"/>
-      <c r="U25" s="84"/>
-      <c r="V25" s="84"/>
-      <c r="W25" s="84"/>
-      <c r="X25" s="84"/>
-      <c r="Y25" s="84"/>
-      <c r="Z25" s="84"/>
-      <c r="AA25" s="22"/>
-      <c r="AB25" s="23"/>
-      <c r="AC25" s="23"/>
-      <c r="AD25" s="24"/>
-    </row>
-    <row r="26" spans="2:30" s="18" customFormat="1">
-      <c r="B26" s="89"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="90" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="99">
-        <v>21</v>
-      </c>
-      <c r="G26" s="120" t="s">
-        <v>45</v>
-      </c>
-      <c r="H26" s="102"/>
-      <c r="I26" s="106"/>
-      <c r="J26" s="83"/>
-      <c r="K26" s="84"/>
-      <c r="L26" s="84"/>
-      <c r="M26" s="116"/>
-      <c r="N26" s="84"/>
-      <c r="O26" s="84"/>
-      <c r="P26" s="84"/>
-      <c r="Q26" s="84"/>
-      <c r="S26" s="84"/>
-      <c r="T26" s="162" t="s">
-        <v>19</v>
-      </c>
-      <c r="U26" s="84"/>
-      <c r="V26" s="116"/>
-      <c r="W26" s="116"/>
-      <c r="X26" s="116"/>
-      <c r="Y26" s="116"/>
-      <c r="Z26" s="116"/>
-      <c r="AA26" s="22"/>
-      <c r="AB26" s="23"/>
-      <c r="AC26" s="23"/>
-      <c r="AD26" s="123" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="2:30" s="18" customFormat="1">
-      <c r="B27" s="89"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="90" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="99">
-        <v>22</v>
-      </c>
-      <c r="G27" s="120" t="s">
-        <v>47</v>
-      </c>
-      <c r="H27" s="102"/>
-      <c r="I27" s="106"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="84"/>
-      <c r="L27" s="84"/>
-      <c r="M27" s="84"/>
-      <c r="N27" s="84"/>
-      <c r="O27" s="84"/>
-      <c r="P27" s="84"/>
-      <c r="Q27" s="84"/>
-      <c r="R27" s="84"/>
-      <c r="S27" s="124" t="s">
-        <v>19</v>
-      </c>
-      <c r="T27" s="161"/>
-      <c r="U27" s="84"/>
-      <c r="V27" s="84"/>
-      <c r="W27" s="84"/>
-      <c r="X27" s="84"/>
-      <c r="Y27" s="84"/>
-      <c r="Z27" s="84"/>
-      <c r="AA27" s="22"/>
-      <c r="AB27" s="122" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC27" s="23"/>
-      <c r="AD27" s="24"/>
-    </row>
-    <row r="28" spans="2:30" s="18" customFormat="1">
-      <c r="B28" s="89"/>
-      <c r="C28" s="90"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="90" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="99">
-        <v>23</v>
-      </c>
-      <c r="G28" s="120" t="s">
-        <v>48</v>
-      </c>
-      <c r="H28" s="102"/>
-      <c r="I28" s="106"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="116"/>
-      <c r="L28" s="84"/>
-      <c r="M28" s="84"/>
-      <c r="N28" s="84"/>
-      <c r="O28" s="84"/>
-      <c r="P28" s="84"/>
-      <c r="R28" s="84"/>
-      <c r="S28" s="84"/>
-      <c r="T28" s="162" t="s">
-        <v>19</v>
-      </c>
-      <c r="U28" s="84"/>
-      <c r="V28" s="84"/>
-      <c r="W28" s="84"/>
-      <c r="X28" s="84"/>
-      <c r="Y28" s="84"/>
-      <c r="Z28" s="84"/>
-      <c r="AA28" s="194" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB28" s="76"/>
-      <c r="AC28" s="76"/>
-      <c r="AD28" s="77"/>
-    </row>
-    <row r="29" spans="2:30" s="18" customFormat="1">
-      <c r="B29" s="89"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" s="99">
-        <v>24</v>
-      </c>
-      <c r="G29" s="120" t="s">
-        <v>49</v>
-      </c>
-      <c r="H29" s="102"/>
-      <c r="I29" s="106"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="84"/>
-      <c r="L29" s="84"/>
-      <c r="M29" s="84"/>
-      <c r="O29" s="84"/>
-      <c r="P29" s="84"/>
-      <c r="Q29" s="84"/>
-      <c r="R29" s="84"/>
-      <c r="S29" s="84"/>
-      <c r="U29" s="84"/>
-      <c r="V29" s="84"/>
-      <c r="W29" s="84"/>
-      <c r="X29" s="84"/>
-      <c r="Y29" s="84"/>
-      <c r="Z29" s="84"/>
-      <c r="AA29" s="25"/>
-      <c r="AB29" s="26"/>
-      <c r="AC29" s="26"/>
-      <c r="AD29" s="27"/>
-    </row>
-    <row r="30" spans="2:30" s="18" customFormat="1">
-      <c r="B30" s="89"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="90" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" s="99">
-        <v>25</v>
-      </c>
-      <c r="G30" s="120" t="s">
-        <v>76</v>
-      </c>
-      <c r="H30" s="102"/>
-      <c r="I30" s="106"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="84"/>
-      <c r="L30" s="84"/>
-      <c r="M30" s="84"/>
-      <c r="N30" s="84"/>
-      <c r="O30" s="84"/>
-      <c r="P30" s="84"/>
-      <c r="Q30" s="84"/>
-      <c r="R30" s="84"/>
-      <c r="T30" s="84"/>
-      <c r="U30" s="84"/>
-      <c r="V30" s="115" t="s">
-        <v>19</v>
-      </c>
-      <c r="W30" s="84"/>
-      <c r="X30" s="84"/>
-      <c r="Y30" s="84"/>
-      <c r="Z30" s="84"/>
-      <c r="AA30" s="193" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB30" s="122" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC30" s="122" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD30" s="123" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="2:30" s="18" customFormat="1">
-      <c r="B31" s="89" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="90"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="91"/>
-      <c r="F31" s="99">
-        <v>26</v>
-      </c>
-      <c r="G31" s="121" t="s">
-        <v>27</v>
-      </c>
-      <c r="H31" s="102"/>
-      <c r="I31" s="106"/>
-      <c r="J31" s="83"/>
-      <c r="K31" s="84"/>
-      <c r="L31" s="84"/>
-      <c r="M31" s="117"/>
-      <c r="N31" s="84"/>
-      <c r="O31" s="84"/>
-      <c r="P31" s="84"/>
-      <c r="Q31" s="84"/>
-      <c r="R31" s="84"/>
-      <c r="S31" s="84"/>
-      <c r="T31" s="84"/>
-      <c r="U31" s="126" t="s">
-        <v>19</v>
-      </c>
-      <c r="V31" s="111"/>
-      <c r="W31" s="111"/>
-      <c r="X31" s="111"/>
-      <c r="Y31" s="111"/>
-      <c r="Z31" s="111"/>
-      <c r="AA31" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB31" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC31" s="122" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD31" s="123" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="2:30" s="18" customFormat="1">
-      <c r="B32" s="89" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="90"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="91"/>
-      <c r="F32" s="99">
-        <v>27</v>
-      </c>
-      <c r="G32" s="121" t="s">
-        <v>43</v>
-      </c>
-      <c r="H32" s="102"/>
-      <c r="I32" s="106"/>
-      <c r="J32" s="83"/>
-      <c r="K32" s="84"/>
-      <c r="L32" s="118"/>
-      <c r="M32" s="84"/>
-      <c r="N32" s="84"/>
-      <c r="O32" s="84"/>
-      <c r="P32" s="84"/>
-      <c r="Q32" s="84"/>
-      <c r="R32" s="84"/>
-      <c r="S32" s="84"/>
-      <c r="T32" s="84"/>
-      <c r="U32" s="126" t="s">
-        <v>19</v>
-      </c>
-      <c r="V32" s="180"/>
-      <c r="W32" s="126" t="s">
-        <v>19</v>
-      </c>
-      <c r="X32" s="180"/>
-      <c r="Y32" s="180"/>
-      <c r="Z32" s="180"/>
-      <c r="AA32" s="193"/>
-      <c r="AB32" s="23"/>
-      <c r="AC32" s="122"/>
-      <c r="AD32" s="123" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="2:30" s="18" customFormat="1">
-      <c r="B33" s="89" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="90"/>
-      <c r="D33" s="90"/>
-      <c r="E33" s="91"/>
-      <c r="F33" s="99">
-        <v>28</v>
-      </c>
-      <c r="G33" s="121" t="s">
-        <v>28</v>
-      </c>
-      <c r="H33" s="103"/>
-      <c r="I33" s="107"/>
-      <c r="J33" s="110"/>
-      <c r="K33" s="111"/>
-      <c r="L33" s="111"/>
-      <c r="M33" s="111"/>
-      <c r="N33" s="111"/>
-      <c r="O33" s="111"/>
-      <c r="P33" s="111"/>
-      <c r="Q33" s="111"/>
-      <c r="R33" s="111"/>
-      <c r="S33" s="111"/>
-      <c r="T33" s="111"/>
-      <c r="U33" s="111"/>
-      <c r="V33" s="181"/>
-      <c r="W33" s="84"/>
-      <c r="X33" s="84"/>
-      <c r="Y33" s="84"/>
-      <c r="Z33" s="85"/>
-      <c r="AA33" s="193" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB33" s="122" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC33" s="122" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD33" s="123" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="2:30" s="18" customFormat="1" ht="13.5" thickBot="1">
-      <c r="B34" s="92" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="93"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="94"/>
-      <c r="F34" s="95">
-        <v>29</v>
-      </c>
-      <c r="G34" s="121" t="s">
-        <v>29</v>
-      </c>
-      <c r="H34" s="96"/>
-      <c r="I34" s="97"/>
-      <c r="J34" s="112"/>
-      <c r="K34" s="113"/>
-      <c r="L34" s="113"/>
-      <c r="M34" s="113"/>
-      <c r="N34" s="113"/>
-      <c r="O34" s="113"/>
-      <c r="P34" s="113"/>
-      <c r="Q34" s="113"/>
-      <c r="R34" s="113"/>
-      <c r="S34" s="113"/>
-      <c r="T34" s="163"/>
-      <c r="U34" s="113"/>
-      <c r="V34" s="187"/>
-      <c r="W34" s="187"/>
-      <c r="X34" s="187"/>
-      <c r="Z34" s="164" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA34" s="214" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB34" s="215" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC34" s="215" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD34" s="216" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="2:30" s="18" customFormat="1" ht="13.5" thickBot="1">
+    <row r="35" spans="2:31" s="18" customFormat="1" ht="13.5" thickBot="1">
       <c r="B35" s="48"/>
       <c r="C35" s="49"/>
       <c r="D35" s="62"/>
@@ -5215,272 +5662,281 @@
       <c r="F35" s="78"/>
       <c r="G35" s="79"/>
       <c r="H35" s="80"/>
-      <c r="I35" s="81" t="s">
-        <v>5</v>
-      </c>
-      <c r="J35" s="108"/>
-      <c r="K35" s="109"/>
-      <c r="L35" s="109"/>
-      <c r="M35" s="109"/>
-      <c r="N35" s="109"/>
-      <c r="O35" s="109"/>
-      <c r="P35" s="109"/>
-      <c r="Q35" s="109"/>
-      <c r="R35" s="109"/>
-      <c r="S35" s="109"/>
-      <c r="T35" s="109"/>
-      <c r="U35" s="188"/>
-      <c r="V35" s="189"/>
-      <c r="W35" s="190"/>
-      <c r="X35" s="190"/>
-      <c r="Y35" s="190"/>
-      <c r="Z35" s="192"/>
-      <c r="AA35" s="191"/>
-      <c r="AB35" s="51"/>
+      <c r="I35" s="170" t="s">
+        <v>81</v>
+      </c>
+      <c r="J35" s="106"/>
+      <c r="K35" s="107"/>
+      <c r="L35" s="107"/>
+      <c r="M35" s="107"/>
+      <c r="N35" s="107"/>
+      <c r="O35" s="107"/>
+      <c r="P35" s="107"/>
+      <c r="Q35" s="107"/>
+      <c r="R35" s="107"/>
+      <c r="S35" s="107"/>
+      <c r="T35" s="107"/>
+      <c r="U35" s="143"/>
+      <c r="V35" s="144"/>
+      <c r="W35" s="145"/>
+      <c r="X35" s="145"/>
+      <c r="Y35" s="145"/>
+      <c r="Z35" s="145"/>
+      <c r="AA35" s="147"/>
+      <c r="AB35" s="146"/>
       <c r="AC35" s="51"/>
-      <c r="AD35" s="74"/>
+      <c r="AD35" s="51"/>
+      <c r="AE35" s="74"/>
     </row>
-    <row r="36" spans="2:30" ht="12.75" customHeight="1">
-      <c r="B36" s="145" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" s="127" t="s">
+    <row r="36" spans="2:31" ht="12.75" customHeight="1">
+      <c r="B36" s="215" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="197" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="197" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="127" t="s">
+      <c r="E36" s="202" t="s">
         <v>25</v>
-      </c>
-      <c r="E36" s="132" t="s">
-        <v>26</v>
       </c>
       <c r="F36" s="28"/>
       <c r="G36" s="29"/>
       <c r="H36" s="30"/>
       <c r="I36" s="30"/>
-      <c r="J36" s="142" t="s">
+      <c r="J36" s="207" t="s">
+        <v>64</v>
+      </c>
+      <c r="K36" s="179" t="s">
         <v>65</v>
       </c>
-      <c r="K36" s="139" t="s">
+      <c r="L36" s="179" t="s">
         <v>66</v>
       </c>
-      <c r="L36" s="139" t="s">
+      <c r="M36" s="179" t="s">
+        <v>22</v>
+      </c>
+      <c r="N36" s="179" t="s">
         <v>67</v>
       </c>
-      <c r="M36" s="139" t="s">
-        <v>23</v>
-      </c>
-      <c r="N36" s="139" t="s">
+      <c r="O36" s="179" t="s">
         <v>68</v>
       </c>
-      <c r="O36" s="139" t="s">
+      <c r="P36" s="179" t="s">
         <v>69</v>
       </c>
-      <c r="P36" s="139" t="s">
+      <c r="Q36" s="179" t="s">
+        <v>71</v>
+      </c>
+      <c r="R36" s="179" t="s">
+        <v>83</v>
+      </c>
+      <c r="S36" s="179" t="s">
         <v>70</v>
       </c>
-      <c r="Q36" s="139" t="s">
+      <c r="T36" s="179" t="s">
         <v>72</v>
       </c>
-      <c r="R36" s="139" t="s">
+      <c r="U36" s="179" t="s">
+        <v>82</v>
+      </c>
+      <c r="V36" s="186" t="s">
+        <v>37</v>
+      </c>
+      <c r="W36" s="179" t="s">
         <v>73</v>
       </c>
-      <c r="S36" s="139" t="s">
-        <v>71</v>
-      </c>
-      <c r="T36" s="139" t="s">
-        <v>74</v>
-      </c>
-      <c r="U36" s="139" t="s">
-        <v>38</v>
-      </c>
-      <c r="V36" s="182" t="s">
+      <c r="X36" s="179" t="s">
         <v>75</v>
       </c>
-      <c r="W36" s="139" t="s">
+      <c r="Y36" s="179" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z36" s="189" t="s">
         <v>77</v>
       </c>
-      <c r="X36" s="139" t="s">
+      <c r="AA36" s="192" t="s">
         <v>78</v>
       </c>
-      <c r="Y36" s="139" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z36" s="155" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA36" s="137" t="s">
+      <c r="AB36" s="182" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC36" s="182" t="s">
         <v>32</v>
       </c>
-      <c r="AB36" s="137" t="s">
+      <c r="AD36" s="217" t="s">
         <v>33</v>
       </c>
-      <c r="AC36" s="156" t="s">
+      <c r="AE36" s="204" t="s">
         <v>34</v>
       </c>
-      <c r="AD36" s="134" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="37" spans="2:30" ht="12.75" customHeight="1">
-      <c r="B37" s="145"/>
-      <c r="C37" s="127"/>
-      <c r="D37" s="127"/>
-      <c r="E37" s="132"/>
+    <row r="37" spans="2:31" ht="12.75" customHeight="1">
+      <c r="B37" s="215"/>
+      <c r="C37" s="197"/>
+      <c r="D37" s="197"/>
+      <c r="E37" s="202"/>
       <c r="F37" s="28"/>
       <c r="G37" s="31"/>
       <c r="H37" s="30"/>
       <c r="I37" s="30"/>
-      <c r="J37" s="143"/>
-      <c r="K37" s="140"/>
-      <c r="L37" s="140"/>
-      <c r="M37" s="140"/>
-      <c r="N37" s="140"/>
-      <c r="O37" s="140"/>
-      <c r="P37" s="140"/>
-      <c r="Q37" s="140"/>
-      <c r="R37" s="140"/>
-      <c r="S37" s="140"/>
-      <c r="T37" s="140"/>
-      <c r="U37" s="185"/>
-      <c r="V37" s="183"/>
-      <c r="W37" s="140"/>
-      <c r="X37" s="140"/>
-      <c r="Y37" s="140"/>
-      <c r="Z37" s="165"/>
-      <c r="AA37" s="137"/>
-      <c r="AB37" s="137"/>
-      <c r="AC37" s="156"/>
-      <c r="AD37" s="135"/>
+      <c r="J37" s="208"/>
+      <c r="K37" s="180"/>
+      <c r="L37" s="180"/>
+      <c r="M37" s="180"/>
+      <c r="N37" s="180"/>
+      <c r="O37" s="180"/>
+      <c r="P37" s="180"/>
+      <c r="Q37" s="180"/>
+      <c r="R37" s="180"/>
+      <c r="S37" s="180"/>
+      <c r="T37" s="180"/>
+      <c r="U37" s="184"/>
+      <c r="V37" s="187"/>
+      <c r="W37" s="180"/>
+      <c r="X37" s="180"/>
+      <c r="Y37" s="180"/>
+      <c r="Z37" s="190"/>
+      <c r="AA37" s="193"/>
+      <c r="AB37" s="182"/>
+      <c r="AC37" s="182"/>
+      <c r="AD37" s="217"/>
+      <c r="AE37" s="205"/>
     </row>
-    <row r="38" spans="2:30" ht="12.75" customHeight="1">
-      <c r="B38" s="145"/>
-      <c r="C38" s="127"/>
-      <c r="D38" s="127"/>
-      <c r="E38" s="132"/>
+    <row r="38" spans="2:31" ht="12.75" customHeight="1">
+      <c r="B38" s="215"/>
+      <c r="C38" s="197"/>
+      <c r="D38" s="197"/>
+      <c r="E38" s="202"/>
       <c r="F38" s="28"/>
       <c r="G38" s="31"/>
       <c r="H38" s="30"/>
       <c r="I38" s="30"/>
-      <c r="J38" s="143"/>
-      <c r="K38" s="140"/>
-      <c r="L38" s="140"/>
-      <c r="M38" s="140"/>
-      <c r="N38" s="140"/>
-      <c r="O38" s="140"/>
-      <c r="P38" s="140"/>
-      <c r="Q38" s="140"/>
-      <c r="R38" s="140"/>
-      <c r="S38" s="140"/>
-      <c r="T38" s="140"/>
-      <c r="U38" s="185"/>
-      <c r="V38" s="183"/>
-      <c r="W38" s="140"/>
-      <c r="X38" s="140"/>
-      <c r="Y38" s="140"/>
-      <c r="Z38" s="165"/>
-      <c r="AA38" s="137"/>
-      <c r="AB38" s="137"/>
-      <c r="AC38" s="156"/>
-      <c r="AD38" s="135"/>
+      <c r="J38" s="208"/>
+      <c r="K38" s="180"/>
+      <c r="L38" s="180"/>
+      <c r="M38" s="180"/>
+      <c r="N38" s="180"/>
+      <c r="O38" s="180"/>
+      <c r="P38" s="180"/>
+      <c r="Q38" s="180"/>
+      <c r="R38" s="180"/>
+      <c r="S38" s="180"/>
+      <c r="T38" s="180"/>
+      <c r="U38" s="184"/>
+      <c r="V38" s="187"/>
+      <c r="W38" s="180"/>
+      <c r="X38" s="180"/>
+      <c r="Y38" s="180"/>
+      <c r="Z38" s="190"/>
+      <c r="AA38" s="193"/>
+      <c r="AB38" s="182"/>
+      <c r="AC38" s="182"/>
+      <c r="AD38" s="217"/>
+      <c r="AE38" s="205"/>
     </row>
-    <row r="39" spans="2:30" ht="12.75" customHeight="1">
-      <c r="B39" s="145"/>
-      <c r="C39" s="127"/>
-      <c r="D39" s="127"/>
-      <c r="E39" s="132"/>
+    <row r="39" spans="2:31" ht="12.75" customHeight="1">
+      <c r="B39" s="215"/>
+      <c r="C39" s="197"/>
+      <c r="D39" s="197"/>
+      <c r="E39" s="202"/>
       <c r="F39" s="28"/>
       <c r="G39" s="32"/>
       <c r="H39" s="30"/>
       <c r="I39" s="30"/>
-      <c r="J39" s="143"/>
-      <c r="K39" s="140"/>
-      <c r="L39" s="140"/>
-      <c r="M39" s="140"/>
-      <c r="N39" s="140"/>
-      <c r="O39" s="140"/>
-      <c r="P39" s="140"/>
-      <c r="Q39" s="140"/>
-      <c r="R39" s="140"/>
-      <c r="S39" s="140"/>
-      <c r="T39" s="140"/>
-      <c r="U39" s="185"/>
-      <c r="V39" s="183"/>
-      <c r="W39" s="140"/>
-      <c r="X39" s="140"/>
-      <c r="Y39" s="140"/>
-      <c r="Z39" s="165"/>
-      <c r="AA39" s="137"/>
-      <c r="AB39" s="137"/>
-      <c r="AC39" s="156"/>
-      <c r="AD39" s="135"/>
+      <c r="J39" s="208"/>
+      <c r="K39" s="180"/>
+      <c r="L39" s="180"/>
+      <c r="M39" s="180"/>
+      <c r="N39" s="180"/>
+      <c r="O39" s="180"/>
+      <c r="P39" s="180"/>
+      <c r="Q39" s="180"/>
+      <c r="R39" s="180"/>
+      <c r="S39" s="180"/>
+      <c r="T39" s="180"/>
+      <c r="U39" s="184"/>
+      <c r="V39" s="187"/>
+      <c r="W39" s="180"/>
+      <c r="X39" s="180"/>
+      <c r="Y39" s="180"/>
+      <c r="Z39" s="190"/>
+      <c r="AA39" s="193"/>
+      <c r="AB39" s="182"/>
+      <c r="AC39" s="182"/>
+      <c r="AD39" s="217"/>
+      <c r="AE39" s="205"/>
     </row>
-    <row r="40" spans="2:30" ht="12.75" customHeight="1">
-      <c r="B40" s="145"/>
-      <c r="C40" s="127"/>
-      <c r="D40" s="127"/>
-      <c r="E40" s="132"/>
+    <row r="40" spans="2:31" ht="12.75" customHeight="1">
+      <c r="B40" s="215"/>
+      <c r="C40" s="197"/>
+      <c r="D40" s="197"/>
+      <c r="E40" s="202"/>
       <c r="F40" s="28"/>
       <c r="G40" s="29"/>
       <c r="H40" s="30"/>
       <c r="I40" s="30"/>
-      <c r="J40" s="143"/>
-      <c r="K40" s="140"/>
-      <c r="L40" s="140"/>
-      <c r="M40" s="140"/>
-      <c r="N40" s="140"/>
-      <c r="O40" s="140"/>
-      <c r="P40" s="140"/>
-      <c r="Q40" s="140"/>
-      <c r="R40" s="140"/>
-      <c r="S40" s="140"/>
-      <c r="T40" s="140"/>
-      <c r="U40" s="185"/>
-      <c r="V40" s="183"/>
-      <c r="W40" s="140"/>
-      <c r="X40" s="140"/>
-      <c r="Y40" s="140"/>
-      <c r="Z40" s="165"/>
-      <c r="AA40" s="137"/>
-      <c r="AB40" s="137"/>
-      <c r="AC40" s="156"/>
-      <c r="AD40" s="135"/>
+      <c r="J40" s="208"/>
+      <c r="K40" s="180"/>
+      <c r="L40" s="180"/>
+      <c r="M40" s="180"/>
+      <c r="N40" s="180"/>
+      <c r="O40" s="180"/>
+      <c r="P40" s="180"/>
+      <c r="Q40" s="180"/>
+      <c r="R40" s="180"/>
+      <c r="S40" s="180"/>
+      <c r="T40" s="180"/>
+      <c r="U40" s="184"/>
+      <c r="V40" s="187"/>
+      <c r="W40" s="180"/>
+      <c r="X40" s="180"/>
+      <c r="Y40" s="180"/>
+      <c r="Z40" s="190"/>
+      <c r="AA40" s="193"/>
+      <c r="AB40" s="182"/>
+      <c r="AC40" s="182"/>
+      <c r="AD40" s="217"/>
+      <c r="AE40" s="205"/>
     </row>
-    <row r="41" spans="2:30" ht="12" customHeight="1" thickBot="1">
-      <c r="B41" s="145"/>
-      <c r="C41" s="127"/>
-      <c r="D41" s="127"/>
-      <c r="E41" s="132"/>
+    <row r="41" spans="2:31" ht="12" customHeight="1" thickBot="1">
+      <c r="B41" s="215"/>
+      <c r="C41" s="197"/>
+      <c r="D41" s="197"/>
+      <c r="E41" s="202"/>
       <c r="F41" s="28"/>
       <c r="G41" s="33"/>
       <c r="H41" s="30"/>
       <c r="I41" s="30"/>
-      <c r="J41" s="144"/>
-      <c r="K41" s="141"/>
-      <c r="L41" s="141"/>
-      <c r="M41" s="141"/>
-      <c r="N41" s="141"/>
-      <c r="O41" s="141"/>
-      <c r="P41" s="141"/>
-      <c r="Q41" s="141"/>
-      <c r="R41" s="141"/>
-      <c r="S41" s="141"/>
-      <c r="T41" s="141"/>
-      <c r="U41" s="186"/>
-      <c r="V41" s="184"/>
-      <c r="W41" s="141"/>
-      <c r="X41" s="141"/>
-      <c r="Y41" s="141"/>
-      <c r="Z41" s="166"/>
-      <c r="AA41" s="138"/>
-      <c r="AB41" s="138"/>
-      <c r="AC41" s="157"/>
-      <c r="AD41" s="136"/>
+      <c r="J41" s="209"/>
+      <c r="K41" s="181"/>
+      <c r="L41" s="181"/>
+      <c r="M41" s="181"/>
+      <c r="N41" s="181"/>
+      <c r="O41" s="181"/>
+      <c r="P41" s="181"/>
+      <c r="Q41" s="181"/>
+      <c r="R41" s="181"/>
+      <c r="S41" s="181"/>
+      <c r="T41" s="181"/>
+      <c r="U41" s="185"/>
+      <c r="V41" s="188"/>
+      <c r="W41" s="181"/>
+      <c r="X41" s="181"/>
+      <c r="Y41" s="181"/>
+      <c r="Z41" s="191"/>
+      <c r="AA41" s="194"/>
+      <c r="AB41" s="183"/>
+      <c r="AC41" s="183"/>
+      <c r="AD41" s="218"/>
+      <c r="AE41" s="206"/>
     </row>
-    <row r="42" spans="2:30">
-      <c r="B42" s="145"/>
-      <c r="C42" s="127"/>
-      <c r="D42" s="127"/>
-      <c r="E42" s="132"/>
+    <row r="42" spans="2:31">
+      <c r="B42" s="215"/>
+      <c r="C42" s="197"/>
+      <c r="D42" s="197"/>
+      <c r="E42" s="202"/>
       <c r="F42" s="34"/>
       <c r="G42" s="33"/>
       <c r="H42" s="33"/>
@@ -5501,17 +5957,18 @@
       <c r="W42" s="36"/>
       <c r="X42" s="36"/>
       <c r="Y42" s="39"/>
-      <c r="Z42" s="197"/>
-      <c r="AA42" s="197"/>
-      <c r="AB42" s="197"/>
-      <c r="AC42" s="197"/>
-      <c r="AD42" s="198"/>
+      <c r="Z42" s="150"/>
+      <c r="AA42" s="150"/>
+      <c r="AB42" s="150"/>
+      <c r="AC42" s="150"/>
+      <c r="AD42" s="150"/>
+      <c r="AE42" s="151"/>
     </row>
-    <row r="43" spans="2:30" ht="15.75" customHeight="1">
-      <c r="B43" s="145"/>
-      <c r="C43" s="127"/>
-      <c r="D43" s="127"/>
-      <c r="E43" s="132"/>
+    <row r="43" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B43" s="215"/>
+      <c r="C43" s="197"/>
+      <c r="D43" s="197"/>
+      <c r="E43" s="202"/>
       <c r="F43" s="37"/>
       <c r="G43" s="33"/>
       <c r="H43" s="31"/>
@@ -5523,10 +5980,10 @@
       <c r="N43" s="39"/>
       <c r="O43" s="39"/>
       <c r="P43" s="70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q43" s="64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R43" s="39"/>
       <c r="S43" s="39"/>
@@ -5542,13 +5999,14 @@
       <c r="AA43" s="66"/>
       <c r="AB43" s="67"/>
       <c r="AC43" s="67"/>
-      <c r="AD43" s="199"/>
+      <c r="AD43" s="34"/>
+      <c r="AE43" s="152"/>
     </row>
-    <row r="44" spans="2:30" ht="12.75" customHeight="1">
-      <c r="B44" s="145"/>
-      <c r="C44" s="127"/>
-      <c r="D44" s="127"/>
-      <c r="E44" s="132"/>
+    <row r="44" spans="2:31" ht="12.75" customHeight="1">
+      <c r="B44" s="215"/>
+      <c r="C44" s="197"/>
+      <c r="D44" s="197"/>
+      <c r="E44" s="202"/>
       <c r="F44" s="34"/>
       <c r="G44" s="29"/>
       <c r="H44" s="31"/>
@@ -5560,17 +6018,17 @@
       <c r="N44" s="39"/>
       <c r="O44" s="39"/>
       <c r="P44" s="71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q44" s="64" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R44" s="39"/>
       <c r="S44" s="39"/>
       <c r="T44" s="39"/>
       <c r="U44" s="39"/>
       <c r="V44" s="75" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W44" s="39"/>
       <c r="X44" s="39"/>
@@ -5579,13 +6037,14 @@
       <c r="AA44" s="66"/>
       <c r="AB44" s="68"/>
       <c r="AC44" s="68"/>
-      <c r="AD44" s="199"/>
+      <c r="AD44" s="34"/>
+      <c r="AE44" s="152"/>
     </row>
-    <row r="45" spans="2:30" ht="15.75">
-      <c r="B45" s="145"/>
-      <c r="C45" s="127"/>
-      <c r="D45" s="127"/>
-      <c r="E45" s="132"/>
+    <row r="45" spans="2:31" ht="15.75">
+      <c r="B45" s="215"/>
+      <c r="C45" s="197"/>
+      <c r="D45" s="197"/>
+      <c r="E45" s="202"/>
       <c r="F45" s="34"/>
       <c r="G45" s="29"/>
       <c r="H45" s="31"/>
@@ -5597,10 +6056,10 @@
       <c r="N45" s="39"/>
       <c r="O45" s="39"/>
       <c r="P45" s="72" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q45" s="64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R45" s="39"/>
       <c r="S45" s="39"/>
@@ -5614,13 +6073,14 @@
       <c r="AA45" s="66"/>
       <c r="AB45" s="68"/>
       <c r="AC45" s="69"/>
-      <c r="AD45" s="199"/>
+      <c r="AD45" s="34"/>
+      <c r="AE45" s="152"/>
     </row>
-    <row r="46" spans="2:30">
-      <c r="B46" s="145"/>
-      <c r="C46" s="127"/>
-      <c r="D46" s="127"/>
-      <c r="E46" s="132"/>
+    <row r="46" spans="2:31">
+      <c r="B46" s="215"/>
+      <c r="C46" s="197"/>
+      <c r="D46" s="197"/>
+      <c r="E46" s="202"/>
       <c r="F46" s="34"/>
       <c r="G46" s="29"/>
       <c r="H46" s="29"/>
@@ -5632,10 +6092,10 @@
       <c r="N46" s="39"/>
       <c r="O46" s="39"/>
       <c r="P46" s="73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q46" s="64" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R46" s="39"/>
       <c r="S46" s="39"/>
@@ -5649,13 +6109,14 @@
       <c r="AA46" s="66"/>
       <c r="AB46" s="68"/>
       <c r="AC46" s="68"/>
-      <c r="AD46" s="199"/>
+      <c r="AD46" s="34"/>
+      <c r="AE46" s="152"/>
     </row>
-    <row r="47" spans="2:30" ht="15.75">
-      <c r="B47" s="145"/>
-      <c r="C47" s="127"/>
-      <c r="D47" s="127"/>
-      <c r="E47" s="132"/>
+    <row r="47" spans="2:31" ht="15.75">
+      <c r="B47" s="215"/>
+      <c r="C47" s="197"/>
+      <c r="D47" s="197"/>
+      <c r="E47" s="202"/>
       <c r="F47" s="34"/>
       <c r="G47" s="41"/>
       <c r="H47" s="34"/>
@@ -5678,15 +6139,16 @@
       <c r="Y47" s="39"/>
       <c r="Z47" s="34"/>
       <c r="AA47" s="66"/>
-      <c r="AB47" s="200"/>
-      <c r="AC47" s="201"/>
-      <c r="AD47" s="199"/>
+      <c r="AB47" s="153"/>
+      <c r="AC47" s="154"/>
+      <c r="AD47" s="34"/>
+      <c r="AE47" s="152"/>
     </row>
-    <row r="48" spans="2:30" ht="13.5" thickBot="1">
-      <c r="B48" s="145"/>
-      <c r="C48" s="127"/>
-      <c r="D48" s="127"/>
-      <c r="E48" s="132"/>
+    <row r="48" spans="2:31" ht="13.5" thickBot="1">
+      <c r="B48" s="215"/>
+      <c r="C48" s="197"/>
+      <c r="D48" s="197"/>
+      <c r="E48" s="202"/>
       <c r="F48" s="42"/>
       <c r="G48" s="43"/>
       <c r="H48" s="44"/>
@@ -5708,138 +6170,143 @@
       <c r="X48" s="46"/>
       <c r="Y48" s="46"/>
       <c r="Z48" s="44"/>
-      <c r="AA48" s="202"/>
-      <c r="AB48" s="203"/>
-      <c r="AC48" s="203"/>
-      <c r="AD48" s="204"/>
+      <c r="AA48" s="155"/>
+      <c r="AB48" s="156"/>
+      <c r="AC48" s="156"/>
+      <c r="AD48" s="44"/>
+      <c r="AE48" s="157"/>
     </row>
-    <row r="49" spans="2:30">
-      <c r="B49" s="145"/>
-      <c r="C49" s="127"/>
-      <c r="D49" s="127"/>
-      <c r="E49" s="132"/>
-      <c r="F49" s="158" t="s">
-        <v>20</v>
-      </c>
-      <c r="G49" s="159"/>
-      <c r="H49" s="159"/>
-      <c r="I49" s="159"/>
-      <c r="J49" s="159"/>
-      <c r="K49" s="159"/>
-      <c r="L49" s="159"/>
-      <c r="M49" s="159"/>
-      <c r="N49" s="159"/>
-      <c r="O49" s="159"/>
-      <c r="P49" s="159"/>
-      <c r="Q49" s="159"/>
-      <c r="R49" s="159"/>
-      <c r="S49" s="159"/>
-      <c r="T49" s="159"/>
-      <c r="U49" s="159"/>
-      <c r="V49" s="159"/>
-      <c r="W49" s="159"/>
-      <c r="X49" s="159"/>
-      <c r="Y49" s="159"/>
-      <c r="Z49" s="197"/>
-      <c r="AA49" s="205"/>
-      <c r="AB49" s="206"/>
-      <c r="AC49" s="206"/>
-      <c r="AD49" s="198"/>
+    <row r="49" spans="2:31">
+      <c r="B49" s="215"/>
+      <c r="C49" s="197"/>
+      <c r="D49" s="197"/>
+      <c r="E49" s="202"/>
+      <c r="F49" s="195" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49" s="196"/>
+      <c r="H49" s="196"/>
+      <c r="I49" s="196"/>
+      <c r="J49" s="196"/>
+      <c r="K49" s="196"/>
+      <c r="L49" s="196"/>
+      <c r="M49" s="196"/>
+      <c r="N49" s="196"/>
+      <c r="O49" s="196"/>
+      <c r="P49" s="196"/>
+      <c r="Q49" s="196"/>
+      <c r="R49" s="196"/>
+      <c r="S49" s="196"/>
+      <c r="T49" s="196"/>
+      <c r="U49" s="196"/>
+      <c r="V49" s="196"/>
+      <c r="W49" s="196"/>
+      <c r="X49" s="196"/>
+      <c r="Y49" s="196"/>
+      <c r="Z49" s="150"/>
+      <c r="AA49" s="158"/>
+      <c r="AB49" s="159"/>
+      <c r="AC49" s="159"/>
+      <c r="AD49" s="150"/>
+      <c r="AE49" s="151"/>
     </row>
-    <row r="50" spans="2:30">
-      <c r="B50" s="145"/>
-      <c r="C50" s="127"/>
-      <c r="D50" s="127"/>
-      <c r="E50" s="132"/>
-      <c r="F50" s="151"/>
-      <c r="G50" s="152"/>
-      <c r="H50" s="152"/>
-      <c r="I50" s="152"/>
-      <c r="J50" s="152"/>
-      <c r="K50" s="152"/>
-      <c r="L50" s="152"/>
-      <c r="M50" s="152"/>
-      <c r="N50" s="152"/>
-      <c r="O50" s="152"/>
-      <c r="P50" s="152"/>
-      <c r="Q50" s="152"/>
-      <c r="R50" s="152"/>
-      <c r="S50" s="152"/>
-      <c r="T50" s="152"/>
-      <c r="U50" s="152"/>
-      <c r="V50" s="152"/>
-      <c r="W50" s="152"/>
-      <c r="X50" s="152"/>
-      <c r="Y50" s="152"/>
-      <c r="Z50" s="210"/>
-      <c r="AA50" s="211"/>
-      <c r="AB50" s="212"/>
-      <c r="AC50" s="212"/>
-      <c r="AD50" s="213"/>
+    <row r="50" spans="2:31">
+      <c r="B50" s="215"/>
+      <c r="C50" s="197"/>
+      <c r="D50" s="197"/>
+      <c r="E50" s="202"/>
+      <c r="F50" s="175"/>
+      <c r="G50" s="176"/>
+      <c r="H50" s="176"/>
+      <c r="I50" s="176"/>
+      <c r="J50" s="176"/>
+      <c r="K50" s="176"/>
+      <c r="L50" s="176"/>
+      <c r="M50" s="176"/>
+      <c r="N50" s="176"/>
+      <c r="O50" s="176"/>
+      <c r="P50" s="176"/>
+      <c r="Q50" s="176"/>
+      <c r="R50" s="176"/>
+      <c r="S50" s="176"/>
+      <c r="T50" s="176"/>
+      <c r="U50" s="176"/>
+      <c r="V50" s="176"/>
+      <c r="W50" s="176"/>
+      <c r="X50" s="176"/>
+      <c r="Y50" s="176"/>
+      <c r="Z50" s="163"/>
+      <c r="AA50" s="164"/>
+      <c r="AB50" s="165"/>
+      <c r="AC50" s="165"/>
+      <c r="AD50" s="163"/>
+      <c r="AE50" s="166"/>
     </row>
-    <row r="51" spans="2:30">
-      <c r="B51" s="145"/>
-      <c r="C51" s="127"/>
-      <c r="D51" s="127"/>
-      <c r="E51" s="132"/>
-      <c r="F51" s="151"/>
-      <c r="G51" s="152"/>
-      <c r="H51" s="152"/>
-      <c r="I51" s="152"/>
-      <c r="J51" s="152"/>
-      <c r="K51" s="152"/>
-      <c r="L51" s="152"/>
-      <c r="M51" s="152"/>
-      <c r="N51" s="152"/>
-      <c r="O51" s="152"/>
-      <c r="P51" s="152"/>
-      <c r="Q51" s="152"/>
-      <c r="R51" s="152"/>
-      <c r="S51" s="152"/>
-      <c r="T51" s="152"/>
-      <c r="U51" s="152"/>
-      <c r="V51" s="152"/>
-      <c r="W51" s="152"/>
-      <c r="X51" s="152"/>
-      <c r="Y51" s="152"/>
-      <c r="Z51" s="210"/>
-      <c r="AA51" s="210"/>
-      <c r="AB51" s="212"/>
-      <c r="AC51" s="212"/>
-      <c r="AD51" s="213"/>
+    <row r="51" spans="2:31">
+      <c r="B51" s="215"/>
+      <c r="C51" s="197"/>
+      <c r="D51" s="197"/>
+      <c r="E51" s="202"/>
+      <c r="F51" s="175"/>
+      <c r="G51" s="176"/>
+      <c r="H51" s="176"/>
+      <c r="I51" s="176"/>
+      <c r="J51" s="176"/>
+      <c r="K51" s="176"/>
+      <c r="L51" s="176"/>
+      <c r="M51" s="176"/>
+      <c r="N51" s="176"/>
+      <c r="O51" s="176"/>
+      <c r="P51" s="176"/>
+      <c r="Q51" s="176"/>
+      <c r="R51" s="176"/>
+      <c r="S51" s="176"/>
+      <c r="T51" s="176"/>
+      <c r="U51" s="176"/>
+      <c r="V51" s="176"/>
+      <c r="W51" s="176"/>
+      <c r="X51" s="176"/>
+      <c r="Y51" s="176"/>
+      <c r="Z51" s="163"/>
+      <c r="AA51" s="163"/>
+      <c r="AB51" s="165"/>
+      <c r="AC51" s="165"/>
+      <c r="AD51" s="163"/>
+      <c r="AE51" s="166"/>
     </row>
-    <row r="52" spans="2:30" s="13" customFormat="1" ht="13.5" thickBot="1">
-      <c r="B52" s="146"/>
-      <c r="C52" s="128"/>
-      <c r="D52" s="128"/>
-      <c r="E52" s="133"/>
-      <c r="F52" s="153"/>
-      <c r="G52" s="154"/>
-      <c r="H52" s="154"/>
-      <c r="I52" s="154"/>
-      <c r="J52" s="154"/>
-      <c r="K52" s="154"/>
-      <c r="L52" s="154"/>
-      <c r="M52" s="154"/>
-      <c r="N52" s="154"/>
-      <c r="O52" s="154"/>
-      <c r="P52" s="154"/>
-      <c r="Q52" s="154"/>
-      <c r="R52" s="154"/>
-      <c r="S52" s="154"/>
-      <c r="T52" s="154"/>
-      <c r="U52" s="154"/>
-      <c r="V52" s="154"/>
-      <c r="W52" s="154"/>
-      <c r="X52" s="154"/>
-      <c r="Y52" s="154"/>
+    <row r="52" spans="2:31" s="13" customFormat="1" ht="13.5" thickBot="1">
+      <c r="B52" s="216"/>
+      <c r="C52" s="198"/>
+      <c r="D52" s="198"/>
+      <c r="E52" s="203"/>
+      <c r="F52" s="177"/>
+      <c r="G52" s="178"/>
+      <c r="H52" s="178"/>
+      <c r="I52" s="178"/>
+      <c r="J52" s="178"/>
+      <c r="K52" s="178"/>
+      <c r="L52" s="178"/>
+      <c r="M52" s="178"/>
+      <c r="N52" s="178"/>
+      <c r="O52" s="178"/>
+      <c r="P52" s="178"/>
+      <c r="Q52" s="178"/>
+      <c r="R52" s="178"/>
+      <c r="S52" s="178"/>
+      <c r="T52" s="178"/>
+      <c r="U52" s="178"/>
+      <c r="V52" s="178"/>
+      <c r="W52" s="178"/>
+      <c r="X52" s="178"/>
+      <c r="Y52" s="178"/>
       <c r="Z52" s="43"/>
-      <c r="AA52" s="207"/>
-      <c r="AB52" s="208"/>
-      <c r="AC52" s="208"/>
-      <c r="AD52" s="209"/>
+      <c r="AA52" s="160"/>
+      <c r="AB52" s="161"/>
+      <c r="AC52" s="161"/>
+      <c r="AD52" s="43"/>
+      <c r="AE52" s="162"/>
     </row>
-    <row r="53" spans="2:30" s="13" customFormat="1">
+    <row r="53" spans="2:31" s="13" customFormat="1">
       <c r="B53" s="13" t="s">
         <v>2</v>
       </c>
@@ -5851,7 +6318,7 @@
       <c r="AB53" s="17"/>
       <c r="AC53" s="17"/>
     </row>
-    <row r="54" spans="2:30">
+    <row r="54" spans="2:31">
       <c r="I54" s="52"/>
       <c r="J54" s="52"/>
       <c r="K54" s="3"/>
@@ -5874,7 +6341,7 @@
       <c r="AB54" s="53"/>
       <c r="AC54" s="53"/>
     </row>
-    <row r="55" spans="2:30">
+    <row r="55" spans="2:31">
       <c r="I55" s="52"/>
       <c r="J55" s="52"/>
       <c r="K55" s="3"/>
@@ -5897,7 +6364,7 @@
       <c r="AB55" s="54"/>
       <c r="AC55" s="54"/>
     </row>
-    <row r="56" spans="2:30">
+    <row r="56" spans="2:31">
       <c r="B56" s="47"/>
       <c r="C56" s="47"/>
       <c r="D56" s="47"/>
@@ -5927,7 +6394,7 @@
       <c r="AB56" s="52"/>
       <c r="AC56" s="52"/>
     </row>
-    <row r="57" spans="2:30">
+    <row r="57" spans="2:31">
       <c r="B57" s="47"/>
       <c r="C57" s="47"/>
       <c r="D57" s="47"/>
@@ -5958,65 +6425,198 @@
       <c r="AC57" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="34">
+    <mergeCell ref="AE36:AE41"/>
+    <mergeCell ref="AB36:AB41"/>
+    <mergeCell ref="P36:P41"/>
+    <mergeCell ref="J36:J41"/>
+    <mergeCell ref="J5:U5"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="K36:K41"/>
+    <mergeCell ref="L36:L41"/>
+    <mergeCell ref="S36:S41"/>
+    <mergeCell ref="N36:N41"/>
+    <mergeCell ref="AD36:AD41"/>
+    <mergeCell ref="F50:Y50"/>
+    <mergeCell ref="O36:O41"/>
+    <mergeCell ref="D36:D52"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="E36:E52"/>
+    <mergeCell ref="B36:B52"/>
+    <mergeCell ref="C36:C52"/>
+    <mergeCell ref="F3:Y4"/>
+    <mergeCell ref="F51:Y51"/>
+    <mergeCell ref="F52:Y52"/>
+    <mergeCell ref="R36:R41"/>
+    <mergeCell ref="AC36:AC41"/>
+    <mergeCell ref="T36:T41"/>
+    <mergeCell ref="U36:U41"/>
     <mergeCell ref="V36:V41"/>
     <mergeCell ref="W36:W41"/>
     <mergeCell ref="X36:X41"/>
     <mergeCell ref="Y36:Y41"/>
     <mergeCell ref="Z36:Z41"/>
-    <mergeCell ref="F3:Y4"/>
-    <mergeCell ref="F51:Y51"/>
-    <mergeCell ref="F52:Y52"/>
-    <mergeCell ref="R36:R41"/>
-    <mergeCell ref="AB36:AB41"/>
-    <mergeCell ref="T36:T41"/>
-    <mergeCell ref="U36:U41"/>
-    <mergeCell ref="AC36:AC41"/>
+    <mergeCell ref="AA36:AA41"/>
     <mergeCell ref="M36:M41"/>
     <mergeCell ref="Q36:Q41"/>
     <mergeCell ref="F49:Y49"/>
-    <mergeCell ref="F50:Y50"/>
-    <mergeCell ref="O36:O41"/>
-    <mergeCell ref="D36:D52"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="E36:E52"/>
-    <mergeCell ref="AD36:AD41"/>
-    <mergeCell ref="AA36:AA41"/>
-    <mergeCell ref="P36:P41"/>
-    <mergeCell ref="J36:J41"/>
-    <mergeCell ref="J5:U5"/>
-    <mergeCell ref="AA5:AD5"/>
-    <mergeCell ref="B36:B52"/>
-    <mergeCell ref="C36:C52"/>
-    <mergeCell ref="K36:K41"/>
-    <mergeCell ref="L36:L41"/>
-    <mergeCell ref="S36:S41"/>
-    <mergeCell ref="N36:N41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I55:J55 N55:AC55">
-    <cfRule type="cellIs" dxfId="71" priority="86" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="128" stopIfTrue="1" operator="equal">
       <formula>"G"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="87" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="129" stopIfTrue="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="88" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="130" stopIfTrue="1" operator="equal">
       <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J35:U35 J32:T32 J31:S31 J30:R30 J29:M29 J13:N13 O9:T9 J10:L10 J9:K9 J11:K12 M12 J14:L16 N15:T16 N14 P14:T14 J18:M19 J17:T17 J27:T27 J26:Q26 S26:T26 J28:P28 R28:T28 T30 O29:S29 M9:M10 O12:T13 O18:T19 J20:T25 N10:T10 M11:T11 J6:T8 W33:Z33">
-    <cfRule type="cellIs" dxfId="68" priority="89" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="J35:U35 J32:T32 J31:S31 J30:R30 J29:M29 J13:N13 O9:T9 J10:L10 J9:K9 J11:K12 M12 J14:L16 N15:T16 N14 P14:T14 J18:M19 J17:T17 J27:T27 J26:Q26 S26:T26 J28:P28 R28:T28 T30 O29:S29 M9:M10 O12:T13 O18:T19 N10:T10 M11:T11 J6:T8 W33:Z33 J20:T25">
+    <cfRule type="cellIs" dxfId="104" priority="131" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="90" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="132" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="91" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="133" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T31">
+    <cfRule type="cellIs" dxfId="101" priority="118" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="119" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="99" priority="120" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14:M16">
+    <cfRule type="cellIs" dxfId="98" priority="115" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="116" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="117" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L12">
+    <cfRule type="cellIs" dxfId="95" priority="112" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="113" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="114" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L11">
+    <cfRule type="cellIs" dxfId="92" priority="109" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="110" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="111" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O14">
+    <cfRule type="cellIs" dxfId="89" priority="106" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="107" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="108" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N18:N19">
+    <cfRule type="cellIs" dxfId="86" priority="103" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="104" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="105" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U32">
+    <cfRule type="cellIs" dxfId="83" priority="100" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="101" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="102" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U31">
+    <cfRule type="cellIs" dxfId="80" priority="97" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="98" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="99" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V30">
+    <cfRule type="cellIs" dxfId="77" priority="49" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="50" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="51" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U25">
+    <cfRule type="cellIs" dxfId="74" priority="73" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="74" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="75" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U30">
+    <cfRule type="cellIs" dxfId="71" priority="58" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="59" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="60" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U6:U22">
+    <cfRule type="cellIs" dxfId="68" priority="82" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="83" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="84" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U24">
     <cfRule type="cellIs" dxfId="65" priority="76" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
@@ -6027,183 +6627,183 @@
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M14:M16">
-    <cfRule type="cellIs" dxfId="62" priority="73" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="U26">
+    <cfRule type="cellIs" dxfId="62" priority="70" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="74" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="71" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="75" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="72" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="59" priority="70" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="U27">
+    <cfRule type="cellIs" dxfId="59" priority="67" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="71" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="68" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="72" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="69" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="56" priority="67" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="U28">
+    <cfRule type="cellIs" dxfId="56" priority="64" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="68" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="65" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="69" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="66" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O14">
-    <cfRule type="cellIs" dxfId="53" priority="64" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="U29">
+    <cfRule type="cellIs" dxfId="53" priority="61" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="65" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="62" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="66" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="63" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N18:N19">
-    <cfRule type="cellIs" dxfId="50" priority="61" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="V6:Z23 X30:Z30 V29:Z29 V24:W28 Y24:Z28">
+    <cfRule type="cellIs" dxfId="50" priority="55" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="62" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="56" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="63" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="57" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U32">
-    <cfRule type="cellIs" dxfId="47" priority="58" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="V34:X34 Z34">
+    <cfRule type="cellIs" dxfId="47" priority="52" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="53" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="60" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="54" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U31">
-    <cfRule type="cellIs" dxfId="44" priority="55" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="W35:Z35">
+    <cfRule type="cellIs" dxfId="44" priority="46" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="47" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="48" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W32">
+    <cfRule type="cellIs" dxfId="41" priority="43" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="44" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="45" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA6:AA30">
+    <cfRule type="cellIs" dxfId="38" priority="37" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="38" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="39" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA34">
+    <cfRule type="cellIs" dxfId="35" priority="34" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="35" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="36" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA35">
+    <cfRule type="cellIs" dxfId="32" priority="31" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="32" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="33" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U23">
-    <cfRule type="cellIs" dxfId="41" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="28" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="29" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="30" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U25">
-    <cfRule type="cellIs" dxfId="38" priority="31" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="X24">
+    <cfRule type="cellIs" dxfId="26" priority="25" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="26" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="27" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U30">
-    <cfRule type="cellIs" dxfId="35" priority="16" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="X25">
+    <cfRule type="cellIs" dxfId="23" priority="22" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="23" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="24" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U6:U22">
-    <cfRule type="cellIs" dxfId="32" priority="40" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="X26">
+    <cfRule type="cellIs" dxfId="20" priority="19" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="21" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U24">
-    <cfRule type="cellIs" dxfId="29" priority="34" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="X27">
+    <cfRule type="cellIs" dxfId="17" priority="16" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="18" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U26">
-    <cfRule type="cellIs" dxfId="26" priority="28" stopIfTrue="1" operator="equal">
-      <formula>"S"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="29" stopIfTrue="1" operator="equal">
-      <formula>"C"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="30" stopIfTrue="1" operator="equal">
-      <formula>"D"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U27">
-    <cfRule type="cellIs" dxfId="23" priority="25" stopIfTrue="1" operator="equal">
-      <formula>"S"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="26" stopIfTrue="1" operator="equal">
-      <formula>"C"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="27" stopIfTrue="1" operator="equal">
-      <formula>"D"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U28">
-    <cfRule type="cellIs" dxfId="20" priority="22" stopIfTrue="1" operator="equal">
-      <formula>"S"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="23" stopIfTrue="1" operator="equal">
-      <formula>"C"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="24" stopIfTrue="1" operator="equal">
-      <formula>"D"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U29">
-    <cfRule type="cellIs" dxfId="17" priority="19" stopIfTrue="1" operator="equal">
-      <formula>"S"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="20" stopIfTrue="1" operator="equal">
-      <formula>"C"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="21" stopIfTrue="1" operator="equal">
-      <formula>"D"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V6:Z29 W30:Z30">
+  <conditionalFormatting sqref="X28">
     <cfRule type="cellIs" dxfId="14" priority="13" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
@@ -6214,7 +6814,7 @@
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V34:X34 Z34">
+  <conditionalFormatting sqref="W30">
     <cfRule type="cellIs" dxfId="11" priority="10" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
@@ -6225,7 +6825,7 @@
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V30">
+  <conditionalFormatting sqref="V31">
     <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
@@ -6236,7 +6836,7 @@
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W35:Z35">
+  <conditionalFormatting sqref="V32">
     <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
@@ -6247,7 +6847,7 @@
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W32">
+  <conditionalFormatting sqref="X32">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>

--- a/OPPM.xlsx
+++ b/OPPM.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="84">
   <si>
     <t>A = primary owner</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1872,10 +1872,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2052,6 +2048,114 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="65" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="66" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="55" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="56" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="57" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="68" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="69" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="70" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="76" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2064,14 +2168,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -2080,26 +2176,6 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="55" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="56" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="57" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="17" fontId="5" fillId="0" borderId="56" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
       <protection locked="0"/>
@@ -2152,84 +2228,8 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="65" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="66" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="68" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="69" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="70" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="76" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="73" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2239,7 +2239,547 @@
     <cellStyle name="Normal_Project Matrix" xfId="2"/>
     <cellStyle name="Normal_Project Matrix Collection II" xfId="3"/>
   </cellStyles>
-  <dxfs count="108">
+  <dxfs count="162">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -4208,8 +4748,8 @@
   </sheetPr>
   <dimension ref="A1:AE57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="73" zoomScalePageLayoutView="96" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="73" zoomScalePageLayoutView="96" workbookViewId="0">
+      <selection activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -4257,7 +4797,7 @@
       <c r="V2" s="11"/>
       <c r="W2" s="11"/>
       <c r="X2" s="11"/>
-      <c r="Y2" s="130"/>
+      <c r="Y2" s="129"/>
       <c r="Z2" s="56"/>
       <c r="AA2" s="9"/>
       <c r="AB2" s="10"/>
@@ -4265,113 +4805,113 @@
       <c r="AD2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AE2" s="133"/>
+      <c r="AE2" s="132"/>
     </row>
     <row r="3" spans="1:31" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="B3" s="59"/>
       <c r="C3" s="60"/>
       <c r="D3" s="60"/>
       <c r="E3" s="61"/>
-      <c r="F3" s="171" t="s">
+      <c r="F3" s="199" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="172"/>
-      <c r="H3" s="172"/>
-      <c r="I3" s="172"/>
-      <c r="J3" s="172"/>
-      <c r="K3" s="172"/>
-      <c r="L3" s="172"/>
-      <c r="M3" s="172"/>
-      <c r="N3" s="172"/>
-      <c r="O3" s="172"/>
-      <c r="P3" s="172"/>
-      <c r="Q3" s="172"/>
-      <c r="R3" s="172"/>
-      <c r="S3" s="172"/>
-      <c r="T3" s="172"/>
-      <c r="U3" s="172"/>
-      <c r="V3" s="172"/>
-      <c r="W3" s="172"/>
-      <c r="X3" s="172"/>
-      <c r="Y3" s="172"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="200"/>
+      <c r="I3" s="200"/>
+      <c r="J3" s="200"/>
+      <c r="K3" s="200"/>
+      <c r="L3" s="200"/>
+      <c r="M3" s="200"/>
+      <c r="N3" s="200"/>
+      <c r="O3" s="200"/>
+      <c r="P3" s="200"/>
+      <c r="Q3" s="200"/>
+      <c r="R3" s="200"/>
+      <c r="S3" s="200"/>
+      <c r="T3" s="200"/>
+      <c r="U3" s="200"/>
+      <c r="V3" s="200"/>
+      <c r="W3" s="200"/>
+      <c r="X3" s="200"/>
+      <c r="Y3" s="200"/>
       <c r="Z3" s="60"/>
-      <c r="AA3" s="131"/>
-      <c r="AB3" s="132"/>
-      <c r="AC3" s="132"/>
+      <c r="AA3" s="130"/>
+      <c r="AB3" s="131"/>
+      <c r="AC3" s="131"/>
       <c r="AD3" s="60"/>
-      <c r="AE3" s="134"/>
+      <c r="AE3" s="133"/>
     </row>
     <row r="4" spans="1:31" s="12" customFormat="1" ht="15.75" thickBot="1">
       <c r="B4" s="57"/>
       <c r="C4" s="58"/>
       <c r="D4" s="58"/>
       <c r="E4" s="58"/>
-      <c r="F4" s="173"/>
-      <c r="G4" s="174"/>
-      <c r="H4" s="174"/>
-      <c r="I4" s="174"/>
-      <c r="J4" s="174"/>
-      <c r="K4" s="174"/>
-      <c r="L4" s="174"/>
-      <c r="M4" s="174"/>
-      <c r="N4" s="174"/>
-      <c r="O4" s="174"/>
-      <c r="P4" s="174"/>
-      <c r="Q4" s="174"/>
-      <c r="R4" s="174"/>
-      <c r="S4" s="174"/>
-      <c r="T4" s="174"/>
-      <c r="U4" s="174"/>
-      <c r="V4" s="174"/>
-      <c r="W4" s="174"/>
-      <c r="X4" s="174"/>
-      <c r="Y4" s="174"/>
+      <c r="F4" s="201"/>
+      <c r="G4" s="202"/>
+      <c r="H4" s="202"/>
+      <c r="I4" s="202"/>
+      <c r="J4" s="202"/>
+      <c r="K4" s="202"/>
+      <c r="L4" s="202"/>
+      <c r="M4" s="202"/>
+      <c r="N4" s="202"/>
+      <c r="O4" s="202"/>
+      <c r="P4" s="202"/>
+      <c r="Q4" s="202"/>
+      <c r="R4" s="202"/>
+      <c r="S4" s="202"/>
+      <c r="T4" s="202"/>
+      <c r="U4" s="202"/>
+      <c r="V4" s="202"/>
+      <c r="W4" s="202"/>
+      <c r="X4" s="202"/>
+      <c r="Y4" s="202"/>
       <c r="Z4" s="58"/>
-      <c r="AA4" s="135"/>
-      <c r="AB4" s="136"/>
-      <c r="AC4" s="136"/>
+      <c r="AA4" s="134"/>
+      <c r="AB4" s="135"/>
+      <c r="AC4" s="135"/>
       <c r="AD4" s="58"/>
-      <c r="AE4" s="137"/>
+      <c r="AE4" s="136"/>
     </row>
     <row r="5" spans="1:31" s="13" customFormat="1" ht="13.5" thickBot="1">
-      <c r="B5" s="199" t="s">
+      <c r="B5" s="192" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="200"/>
-      <c r="D5" s="200"/>
-      <c r="E5" s="201"/>
+      <c r="C5" s="193"/>
+      <c r="D5" s="193"/>
+      <c r="E5" s="194"/>
       <c r="F5" s="14"/>
       <c r="G5" s="63" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
-      <c r="J5" s="210" t="s">
+      <c r="J5" s="181" t="s">
         <v>80</v>
       </c>
-      <c r="K5" s="211"/>
-      <c r="L5" s="211"/>
-      <c r="M5" s="211"/>
-      <c r="N5" s="211"/>
-      <c r="O5" s="211"/>
-      <c r="P5" s="211"/>
-      <c r="Q5" s="211"/>
-      <c r="R5" s="211"/>
-      <c r="S5" s="211"/>
-      <c r="T5" s="211"/>
-      <c r="U5" s="211"/>
-      <c r="V5" s="138"/>
-      <c r="W5" s="138"/>
-      <c r="X5" s="138"/>
-      <c r="Y5" s="138"/>
-      <c r="Z5" s="138"/>
-      <c r="AA5" s="139"/>
-      <c r="AB5" s="212" t="s">
+      <c r="K5" s="182"/>
+      <c r="L5" s="182"/>
+      <c r="M5" s="182"/>
+      <c r="N5" s="182"/>
+      <c r="O5" s="182"/>
+      <c r="P5" s="182"/>
+      <c r="Q5" s="182"/>
+      <c r="R5" s="182"/>
+      <c r="S5" s="182"/>
+      <c r="T5" s="182"/>
+      <c r="U5" s="182"/>
+      <c r="V5" s="137"/>
+      <c r="W5" s="137"/>
+      <c r="X5" s="137"/>
+      <c r="Y5" s="137"/>
+      <c r="Z5" s="137"/>
+      <c r="AA5" s="138"/>
+      <c r="AB5" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="AC5" s="213"/>
-      <c r="AD5" s="213"/>
-      <c r="AE5" s="214"/>
+      <c r="AC5" s="184"/>
+      <c r="AD5" s="184"/>
+      <c r="AE5" s="185"/>
     </row>
     <row r="6" spans="1:31" s="18" customFormat="1">
       <c r="B6" s="84" t="s">
@@ -4383,15 +4923,17 @@
       <c r="F6" s="96">
         <v>1</v>
       </c>
-      <c r="G6" s="117" t="s">
+      <c r="G6" s="116" t="s">
         <v>49</v>
       </c>
       <c r="H6" s="98"/>
       <c r="I6" s="102"/>
-      <c r="J6" s="112" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="81"/>
+      <c r="J6" s="123" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="112" t="s">
+        <v>18</v>
+      </c>
       <c r="L6" s="81"/>
       <c r="M6" s="81"/>
       <c r="N6" s="81"/>
@@ -4400,7 +4942,7 @@
       <c r="Q6" s="81"/>
       <c r="R6" s="81"/>
       <c r="S6" s="81"/>
-      <c r="T6" s="125"/>
+      <c r="T6" s="124"/>
       <c r="U6" s="81"/>
       <c r="V6" s="83"/>
       <c r="W6" s="83"/>
@@ -4431,13 +4973,13 @@
       <c r="F7" s="97">
         <v>2</v>
       </c>
-      <c r="G7" s="118" t="s">
+      <c r="G7" s="117" t="s">
         <v>50</v>
       </c>
       <c r="H7" s="99"/>
       <c r="I7" s="103"/>
       <c r="J7" s="82"/>
-      <c r="K7" s="113" t="s">
+      <c r="K7" s="112" t="s">
         <v>18</v>
       </c>
       <c r="L7" s="83"/>
@@ -4448,7 +4990,7 @@
       <c r="Q7" s="83"/>
       <c r="R7" s="83"/>
       <c r="S7" s="83"/>
-      <c r="T7" s="126"/>
+      <c r="T7" s="125"/>
       <c r="U7" s="83"/>
       <c r="V7" s="83"/>
       <c r="W7" s="83"/>
@@ -4479,14 +5021,14 @@
       <c r="F8" s="97">
         <v>3</v>
       </c>
-      <c r="G8" s="118" t="s">
+      <c r="G8" s="117" t="s">
         <v>51</v>
       </c>
       <c r="H8" s="99"/>
       <c r="I8" s="103"/>
       <c r="J8" s="82"/>
       <c r="K8" s="83"/>
-      <c r="L8" s="113" t="s">
+      <c r="L8" s="112" t="s">
         <v>18</v>
       </c>
       <c r="M8" s="83"/>
@@ -4496,7 +5038,7 @@
       <c r="Q8" s="83"/>
       <c r="R8" s="83"/>
       <c r="S8" s="83"/>
-      <c r="T8" s="126"/>
+      <c r="T8" s="125"/>
       <c r="U8" s="83"/>
       <c r="V8" s="83"/>
       <c r="W8" s="83"/>
@@ -4507,13 +5049,13 @@
       <c r="AB8" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="AC8" s="120" t="s">
+      <c r="AC8" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="AD8" s="120" t="s">
+      <c r="AD8" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="AE8" s="121" t="s">
+      <c r="AE8" s="120" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4527,14 +5069,17 @@
       <c r="F9" s="97">
         <v>4</v>
       </c>
-      <c r="G9" s="118" t="s">
+      <c r="G9" s="117" t="s">
         <v>52</v>
       </c>
       <c r="H9" s="99"/>
       <c r="I9" s="103"/>
       <c r="J9" s="82"/>
       <c r="K9" s="83"/>
-      <c r="M9" s="113" t="s">
+      <c r="L9" s="123" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="112" t="s">
         <v>18</v>
       </c>
       <c r="O9" s="83"/>
@@ -4542,7 +5087,7 @@
       <c r="Q9" s="83"/>
       <c r="R9" s="83"/>
       <c r="S9" s="83"/>
-      <c r="T9" s="126"/>
+      <c r="T9" s="125"/>
       <c r="U9" s="83"/>
       <c r="V9" s="83"/>
       <c r="W9" s="83"/>
@@ -4550,16 +5095,16 @@
       <c r="Y9" s="83"/>
       <c r="Z9" s="83"/>
       <c r="AA9" s="83"/>
-      <c r="AB9" s="148" t="s">
+      <c r="AB9" s="147" t="s">
         <v>29</v>
       </c>
-      <c r="AC9" s="120" t="s">
+      <c r="AC9" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="AD9" s="120" t="s">
+      <c r="AD9" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="AE9" s="121" t="s">
+      <c r="AE9" s="120" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4568,12 +5113,12 @@
         <v>18</v>
       </c>
       <c r="C10" s="88"/>
-      <c r="D10" s="123"/>
+      <c r="D10" s="122"/>
       <c r="E10" s="89"/>
       <c r="F10" s="97">
         <v>5</v>
       </c>
-      <c r="G10" s="118" t="s">
+      <c r="G10" s="117" t="s">
         <v>53</v>
       </c>
       <c r="H10" s="99"/>
@@ -4581,8 +5126,8 @@
       <c r="J10" s="82"/>
       <c r="K10" s="83"/>
       <c r="L10" s="83"/>
-      <c r="M10" s="114"/>
-      <c r="N10" s="113" t="s">
+      <c r="M10" s="113"/>
+      <c r="N10" s="112" t="s">
         <v>18</v>
       </c>
       <c r="O10" s="83"/>
@@ -4590,7 +5135,7 @@
       <c r="Q10" s="83"/>
       <c r="R10" s="83"/>
       <c r="S10" s="83"/>
-      <c r="T10" s="126"/>
+      <c r="T10" s="125"/>
       <c r="U10" s="83"/>
       <c r="V10" s="83"/>
       <c r="W10" s="83"/>
@@ -4598,16 +5143,16 @@
       <c r="Y10" s="83"/>
       <c r="Z10" s="83"/>
       <c r="AA10" s="83"/>
-      <c r="AB10" s="148" t="s">
+      <c r="AB10" s="147" t="s">
         <v>29</v>
       </c>
-      <c r="AC10" s="120" t="s">
+      <c r="AC10" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="AD10" s="120" t="s">
+      <c r="AD10" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="AE10" s="121" t="s">
+      <c r="AE10" s="120" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4621,7 +5166,7 @@
       <c r="F11" s="97">
         <v>6</v>
       </c>
-      <c r="G11" s="118" t="s">
+      <c r="G11" s="117" t="s">
         <v>54</v>
       </c>
       <c r="H11" s="99"/>
@@ -4630,7 +5175,7 @@
       <c r="K11" s="83"/>
       <c r="L11" s="83"/>
       <c r="M11" s="83"/>
-      <c r="N11" s="113" t="s">
+      <c r="N11" s="112" t="s">
         <v>18</v>
       </c>
       <c r="O11" s="83"/>
@@ -4638,7 +5183,7 @@
       <c r="Q11" s="83"/>
       <c r="R11" s="83"/>
       <c r="S11" s="83"/>
-      <c r="T11" s="126"/>
+      <c r="T11" s="125"/>
       <c r="U11" s="83"/>
       <c r="V11" s="83"/>
       <c r="W11" s="83"/>
@@ -4646,16 +5191,16 @@
       <c r="Y11" s="83"/>
       <c r="Z11" s="83"/>
       <c r="AA11" s="83"/>
-      <c r="AB11" s="148" t="s">
+      <c r="AB11" s="147" t="s">
         <v>79</v>
       </c>
-      <c r="AC11" s="120" t="s">
+      <c r="AC11" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="AD11" s="120" t="s">
+      <c r="AD11" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="AE11" s="121" t="s">
+      <c r="AE11" s="120" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4669,7 +5214,7 @@
       <c r="F12" s="97">
         <v>7</v>
       </c>
-      <c r="G12" s="118" t="s">
+      <c r="G12" s="117" t="s">
         <v>55</v>
       </c>
       <c r="H12" s="99"/>
@@ -4678,14 +5223,17 @@
       <c r="K12" s="83"/>
       <c r="L12" s="83"/>
       <c r="M12" s="83"/>
-      <c r="O12" s="113" t="s">
+      <c r="N12" s="123" t="s">
+        <v>18</v>
+      </c>
+      <c r="O12" s="112" t="s">
         <v>18</v>
       </c>
       <c r="P12" s="83"/>
       <c r="Q12" s="83"/>
       <c r="R12" s="83"/>
       <c r="S12" s="83"/>
-      <c r="T12" s="126"/>
+      <c r="T12" s="125"/>
       <c r="U12" s="83"/>
       <c r="V12" s="83"/>
       <c r="W12" s="83"/>
@@ -4693,16 +5241,16 @@
       <c r="Y12" s="83"/>
       <c r="Z12" s="83"/>
       <c r="AA12" s="83"/>
-      <c r="AB12" s="148" t="s">
+      <c r="AB12" s="147" t="s">
         <v>29</v>
       </c>
-      <c r="AC12" s="120" t="s">
+      <c r="AC12" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="AD12" s="120" t="s">
+      <c r="AD12" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="AE12" s="121" t="s">
+      <c r="AE12" s="120" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4716,7 +5264,7 @@
       <c r="F13" s="97">
         <v>8</v>
       </c>
-      <c r="G13" s="118" t="s">
+      <c r="G13" s="117" t="s">
         <v>56</v>
       </c>
       <c r="H13" s="99"/>
@@ -4726,14 +5274,14 @@
       <c r="L13" s="83"/>
       <c r="M13" s="83"/>
       <c r="N13" s="83"/>
-      <c r="O13" s="113" t="s">
+      <c r="O13" s="112" t="s">
         <v>18</v>
       </c>
       <c r="P13" s="83"/>
       <c r="Q13" s="83"/>
       <c r="R13" s="83"/>
       <c r="S13" s="83"/>
-      <c r="T13" s="126"/>
+      <c r="T13" s="125"/>
       <c r="U13" s="83"/>
       <c r="V13" s="83"/>
       <c r="W13" s="83"/>
@@ -4758,7 +5306,7 @@
       <c r="F14" s="97">
         <v>9</v>
       </c>
-      <c r="G14" s="118" t="s">
+      <c r="G14" s="117" t="s">
         <v>57</v>
       </c>
       <c r="H14" s="99"/>
@@ -4768,14 +5316,14 @@
       <c r="L14" s="83"/>
       <c r="M14" s="83"/>
       <c r="N14" s="83"/>
-      <c r="O14" s="113" t="s">
+      <c r="O14" s="112" t="s">
         <v>18</v>
       </c>
       <c r="P14" s="83"/>
       <c r="Q14" s="83"/>
       <c r="R14" s="83"/>
       <c r="S14" s="83"/>
-      <c r="T14" s="126"/>
+      <c r="T14" s="125"/>
       <c r="U14" s="83"/>
       <c r="V14" s="83"/>
       <c r="W14" s="83"/>
@@ -4783,7 +5331,7 @@
       <c r="Y14" s="83"/>
       <c r="Z14" s="83"/>
       <c r="AA14" s="83"/>
-      <c r="AB14" s="148" t="s">
+      <c r="AB14" s="147" t="s">
         <v>79</v>
       </c>
       <c r="AC14" s="23"/>
@@ -4800,7 +5348,7 @@
       <c r="F15" s="97">
         <v>10</v>
       </c>
-      <c r="G15" s="118" t="s">
+      <c r="G15" s="117" t="s">
         <v>58</v>
       </c>
       <c r="H15" s="99"/>
@@ -4810,14 +5358,14 @@
       <c r="L15" s="83"/>
       <c r="M15" s="83"/>
       <c r="N15" s="83"/>
-      <c r="O15" s="113" t="s">
+      <c r="O15" s="112" t="s">
         <v>18</v>
       </c>
       <c r="P15" s="83"/>
       <c r="Q15" s="83"/>
       <c r="R15" s="83"/>
       <c r="S15" s="83"/>
-      <c r="T15" s="126"/>
+      <c r="T15" s="125"/>
       <c r="U15" s="83"/>
       <c r="V15" s="83"/>
       <c r="W15" s="83"/>
@@ -4826,10 +5374,10 @@
       <c r="Z15" s="83"/>
       <c r="AA15" s="83"/>
       <c r="AB15" s="22"/>
-      <c r="AC15" s="120" t="s">
+      <c r="AC15" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="AD15" s="120" t="s">
+      <c r="AD15" s="119" t="s">
         <v>29</v>
       </c>
       <c r="AE15" s="24"/>
@@ -4844,7 +5392,7 @@
       <c r="F16" s="97">
         <v>11</v>
       </c>
-      <c r="G16" s="118" t="s">
+      <c r="G16" s="117" t="s">
         <v>35</v>
       </c>
       <c r="H16" s="99"/>
@@ -4854,14 +5402,14 @@
       <c r="L16" s="83"/>
       <c r="M16" s="83"/>
       <c r="N16" s="83"/>
-      <c r="O16" s="113" t="s">
-        <v>18</v>
-      </c>
-      <c r="P16" s="83"/>
+      <c r="O16" s="112"/>
+      <c r="P16" s="112" t="s">
+        <v>18</v>
+      </c>
       <c r="Q16" s="83"/>
       <c r="R16" s="83"/>
       <c r="S16" s="83"/>
-      <c r="T16" s="126"/>
+      <c r="T16" s="125"/>
       <c r="U16" s="83"/>
       <c r="V16" s="83"/>
       <c r="W16" s="83"/>
@@ -4869,9 +5417,9 @@
       <c r="Y16" s="83"/>
       <c r="Z16" s="83"/>
       <c r="AA16" s="83"/>
-      <c r="AB16" s="148"/>
+      <c r="AB16" s="147"/>
       <c r="AC16" s="23"/>
-      <c r="AD16" s="120" t="s">
+      <c r="AD16" s="119" t="s">
         <v>79</v>
       </c>
       <c r="AE16" s="24"/>
@@ -4886,7 +5434,7 @@
       <c r="F17" s="97">
         <v>12</v>
       </c>
-      <c r="G17" s="118" t="s">
+      <c r="G17" s="117" t="s">
         <v>36</v>
       </c>
       <c r="H17" s="99"/>
@@ -4897,13 +5445,13 @@
       <c r="M17" s="83"/>
       <c r="N17" s="83"/>
       <c r="O17" s="83"/>
-      <c r="P17" s="113" t="s">
+      <c r="P17" s="112" t="s">
         <v>18</v>
       </c>
       <c r="Q17" s="83"/>
       <c r="R17" s="83"/>
       <c r="S17" s="83"/>
-      <c r="T17" s="126"/>
+      <c r="T17" s="125"/>
       <c r="U17" s="83"/>
       <c r="V17" s="83"/>
       <c r="W17" s="83"/>
@@ -4913,7 +5461,7 @@
       <c r="AA17" s="83"/>
       <c r="AB17" s="22"/>
       <c r="AC17" s="23"/>
-      <c r="AD17" s="120" t="s">
+      <c r="AD17" s="119" t="s">
         <v>79</v>
       </c>
       <c r="AE17" s="24"/>
@@ -4928,7 +5476,7 @@
       <c r="F18" s="97">
         <v>13</v>
       </c>
-      <c r="G18" s="118" t="s">
+      <c r="G18" s="117" t="s">
         <v>59</v>
       </c>
       <c r="H18" s="99"/>
@@ -4939,14 +5487,22 @@
       <c r="M18" s="83"/>
       <c r="N18" s="83"/>
       <c r="O18" s="83"/>
-      <c r="P18" s="113" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="83"/>
-      <c r="R18" s="83"/>
-      <c r="S18" s="83"/>
-      <c r="T18" s="126"/>
-      <c r="U18" s="83"/>
+      <c r="P18" s="112"/>
+      <c r="Q18" s="123" t="s">
+        <v>18</v>
+      </c>
+      <c r="R18" s="123" t="s">
+        <v>18</v>
+      </c>
+      <c r="S18" s="123" t="s">
+        <v>18</v>
+      </c>
+      <c r="T18" s="123" t="s">
+        <v>18</v>
+      </c>
+      <c r="U18" s="123" t="s">
+        <v>18</v>
+      </c>
       <c r="V18" s="83"/>
       <c r="W18" s="83"/>
       <c r="X18" s="83"/>
@@ -4954,7 +5510,7 @@
       <c r="Z18" s="83"/>
       <c r="AA18" s="83"/>
       <c r="AB18" s="22"/>
-      <c r="AC18" s="120" t="s">
+      <c r="AC18" s="119" t="s">
         <v>79</v>
       </c>
       <c r="AD18" s="23"/>
@@ -4970,7 +5526,7 @@
       <c r="F19" s="97">
         <v>14</v>
       </c>
-      <c r="G19" s="118" t="s">
+      <c r="G19" s="117" t="s">
         <v>60</v>
       </c>
       <c r="H19" s="99"/>
@@ -4981,21 +5537,29 @@
       <c r="M19" s="83"/>
       <c r="N19" s="83"/>
       <c r="O19" s="83"/>
-      <c r="P19" s="113" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q19" s="83"/>
-      <c r="R19" s="83"/>
-      <c r="S19" s="83"/>
-      <c r="T19" s="126"/>
-      <c r="U19" s="83"/>
+      <c r="P19" s="112"/>
+      <c r="Q19" s="123" t="s">
+        <v>18</v>
+      </c>
+      <c r="R19" s="123" t="s">
+        <v>18</v>
+      </c>
+      <c r="S19" s="123" t="s">
+        <v>18</v>
+      </c>
+      <c r="T19" s="123" t="s">
+        <v>18</v>
+      </c>
+      <c r="U19" s="123" t="s">
+        <v>18</v>
+      </c>
       <c r="V19" s="83"/>
       <c r="W19" s="83"/>
       <c r="X19" s="83"/>
       <c r="Y19" s="83"/>
       <c r="Z19" s="83"/>
       <c r="AA19" s="83"/>
-      <c r="AB19" s="148" t="s">
+      <c r="AB19" s="147" t="s">
         <v>79</v>
       </c>
       <c r="AC19" s="23"/>
@@ -5012,7 +5576,7 @@
       <c r="F20" s="97">
         <v>15</v>
       </c>
-      <c r="G20" s="118" t="s">
+      <c r="G20" s="117" t="s">
         <v>61</v>
       </c>
       <c r="H20" s="100"/>
@@ -5024,12 +5588,12 @@
       <c r="N20" s="83"/>
       <c r="O20" s="83"/>
       <c r="P20" s="83"/>
-      <c r="Q20" s="113"/>
-      <c r="R20" s="113" t="s">
+      <c r="Q20" s="112"/>
+      <c r="R20" s="112" t="s">
         <v>18</v>
       </c>
       <c r="S20" s="83"/>
-      <c r="T20" s="126"/>
+      <c r="T20" s="125"/>
       <c r="U20" s="83"/>
       <c r="V20" s="83"/>
       <c r="W20" s="83"/>
@@ -5039,7 +5603,7 @@
       <c r="AA20" s="83"/>
       <c r="AB20" s="22"/>
       <c r="AC20" s="23"/>
-      <c r="AD20" s="120" t="s">
+      <c r="AD20" s="119" t="s">
         <v>79</v>
       </c>
       <c r="AE20" s="24"/>
@@ -5054,7 +5618,7 @@
       <c r="F21" s="97">
         <v>16</v>
       </c>
-      <c r="G21" s="118" t="s">
+      <c r="G21" s="117" t="s">
         <v>62</v>
       </c>
       <c r="H21" s="100"/>
@@ -5067,11 +5631,11 @@
       <c r="O21" s="83"/>
       <c r="P21" s="83"/>
       <c r="Q21" s="83"/>
-      <c r="R21" s="113"/>
-      <c r="S21" s="113" t="s">
-        <v>18</v>
-      </c>
-      <c r="T21" s="126"/>
+      <c r="R21" s="112"/>
+      <c r="S21" s="112" t="s">
+        <v>18</v>
+      </c>
+      <c r="T21" s="125"/>
       <c r="U21" s="83"/>
       <c r="V21" s="83"/>
       <c r="W21" s="83"/>
@@ -5081,7 +5645,7 @@
       <c r="AA21" s="83"/>
       <c r="AB21" s="22"/>
       <c r="AC21" s="23"/>
-      <c r="AD21" s="120" t="s">
+      <c r="AD21" s="119" t="s">
         <v>79</v>
       </c>
       <c r="AE21" s="24"/>
@@ -5096,7 +5660,7 @@
       <c r="F22" s="97">
         <v>17</v>
       </c>
-      <c r="G22" s="118" t="s">
+      <c r="G22" s="117" t="s">
         <v>63</v>
       </c>
       <c r="H22" s="100"/>
@@ -5109,9 +5673,9 @@
       <c r="O22" s="83"/>
       <c r="P22" s="83"/>
       <c r="Q22" s="83"/>
-      <c r="R22" s="113"/>
+      <c r="R22" s="112"/>
       <c r="S22" s="83"/>
-      <c r="T22" s="113" t="s">
+      <c r="T22" s="112" t="s">
         <v>18</v>
       </c>
       <c r="U22" s="83"/>
@@ -5123,7 +5687,7 @@
       <c r="AA22" s="83"/>
       <c r="AB22" s="22"/>
       <c r="AC22" s="23"/>
-      <c r="AD22" s="120" t="s">
+      <c r="AD22" s="119" t="s">
         <v>79</v>
       </c>
       <c r="AE22" s="24"/>
@@ -5138,7 +5702,7 @@
       <c r="F23" s="97">
         <v>18</v>
       </c>
-      <c r="G23" s="118" t="s">
+      <c r="G23" s="117" t="s">
         <v>38</v>
       </c>
       <c r="H23" s="100"/>
@@ -5151,10 +5715,10 @@
       <c r="O23" s="83"/>
       <c r="P23" s="83"/>
       <c r="Q23" s="83"/>
-      <c r="R23" s="113"/>
+      <c r="R23" s="112"/>
       <c r="S23" s="83"/>
-      <c r="T23" s="126"/>
-      <c r="U23" s="113" t="s">
+      <c r="T23" s="125"/>
+      <c r="U23" s="112" t="s">
         <v>18</v>
       </c>
       <c r="V23" s="83"/>
@@ -5165,7 +5729,7 @@
       <c r="AA23" s="83"/>
       <c r="AB23" s="22"/>
       <c r="AC23" s="23"/>
-      <c r="AD23" s="120" t="s">
+      <c r="AD23" s="119" t="s">
         <v>79</v>
       </c>
       <c r="AE23" s="24"/>
@@ -5180,7 +5744,7 @@
       <c r="F24" s="97">
         <v>19</v>
       </c>
-      <c r="G24" s="118" t="s">
+      <c r="G24" s="117" t="s">
         <v>43</v>
       </c>
       <c r="H24" s="100"/>
@@ -5193,13 +5757,13 @@
       <c r="O24" s="83"/>
       <c r="P24" s="83"/>
       <c r="Q24" s="83"/>
-      <c r="R24" s="122"/>
+      <c r="R24" s="121"/>
       <c r="S24" s="83"/>
-      <c r="T24" s="126"/>
+      <c r="T24" s="125"/>
       <c r="U24" s="83"/>
       <c r="V24" s="83"/>
       <c r="W24" s="83"/>
-      <c r="X24" s="122" t="s">
+      <c r="X24" s="121" t="s">
         <v>18</v>
       </c>
       <c r="Y24" s="83" t="s">
@@ -5222,7 +5786,7 @@
       <c r="F25" s="97">
         <v>20</v>
       </c>
-      <c r="G25" s="118" t="s">
+      <c r="G25" s="117" t="s">
         <v>45</v>
       </c>
       <c r="H25" s="100"/>
@@ -5236,12 +5800,12 @@
       <c r="P25" s="83"/>
       <c r="Q25" s="83"/>
       <c r="R25" s="83"/>
-      <c r="S25" s="122"/>
-      <c r="T25" s="126"/>
+      <c r="S25" s="121"/>
+      <c r="T25" s="125"/>
       <c r="U25" s="83"/>
       <c r="V25" s="83"/>
       <c r="W25" s="83"/>
-      <c r="X25" s="122" t="s">
+      <c r="X25" s="121" t="s">
         <v>18</v>
       </c>
       <c r="Y25" s="83" t="s">
@@ -5264,7 +5828,7 @@
       <c r="F26" s="97">
         <v>21</v>
       </c>
-      <c r="G26" s="118" t="s">
+      <c r="G26" s="117" t="s">
         <v>44</v>
       </c>
       <c r="H26" s="100"/>
@@ -5272,28 +5836,28 @@
       <c r="J26" s="82"/>
       <c r="K26" s="83"/>
       <c r="L26" s="83"/>
-      <c r="M26" s="114"/>
+      <c r="M26" s="113"/>
       <c r="N26" s="83"/>
       <c r="O26" s="83"/>
       <c r="P26" s="83"/>
       <c r="Q26" s="83"/>
       <c r="S26" s="83"/>
-      <c r="T26" s="127"/>
+      <c r="T26" s="126"/>
       <c r="U26" s="83"/>
-      <c r="V26" s="114"/>
-      <c r="W26" s="114"/>
-      <c r="X26" s="122" t="s">
+      <c r="V26" s="113"/>
+      <c r="W26" s="113"/>
+      <c r="X26" s="121" t="s">
         <v>18</v>
       </c>
       <c r="Y26" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="Z26" s="114"/>
-      <c r="AA26" s="114"/>
+      <c r="Z26" s="113"/>
+      <c r="AA26" s="113"/>
       <c r="AB26" s="22"/>
       <c r="AC26" s="23"/>
       <c r="AD26" s="23"/>
-      <c r="AE26" s="121" t="s">
+      <c r="AE26" s="120" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5307,7 +5871,7 @@
       <c r="F27" s="97">
         <v>22</v>
       </c>
-      <c r="G27" s="118" t="s">
+      <c r="G27" s="117" t="s">
         <v>46</v>
       </c>
       <c r="H27" s="100"/>
@@ -5321,12 +5885,12 @@
       <c r="P27" s="83"/>
       <c r="Q27" s="83"/>
       <c r="R27" s="83"/>
-      <c r="S27" s="122"/>
-      <c r="T27" s="126"/>
+      <c r="S27" s="121"/>
+      <c r="T27" s="125"/>
       <c r="U27" s="83"/>
       <c r="V27" s="83"/>
       <c r="W27" s="83"/>
-      <c r="X27" s="122" t="s">
+      <c r="X27" s="121" t="s">
         <v>18</v>
       </c>
       <c r="Y27" s="83" t="s">
@@ -5335,7 +5899,7 @@
       <c r="Z27" s="83"/>
       <c r="AA27" s="83"/>
       <c r="AB27" s="22"/>
-      <c r="AC27" s="120" t="s">
+      <c r="AC27" s="119" t="s">
         <v>79</v>
       </c>
       <c r="AD27" s="23"/>
@@ -5351,13 +5915,13 @@
       <c r="F28" s="97">
         <v>23</v>
       </c>
-      <c r="G28" s="118" t="s">
+      <c r="G28" s="117" t="s">
         <v>47</v>
       </c>
       <c r="H28" s="100"/>
       <c r="I28" s="104"/>
       <c r="J28" s="82"/>
-      <c r="K28" s="114"/>
+      <c r="K28" s="113"/>
       <c r="L28" s="83"/>
       <c r="M28" s="83"/>
       <c r="N28" s="83"/>
@@ -5365,11 +5929,11 @@
       <c r="P28" s="83"/>
       <c r="R28" s="83"/>
       <c r="S28" s="83"/>
-      <c r="T28" s="127"/>
+      <c r="T28" s="126"/>
       <c r="U28" s="83"/>
       <c r="V28" s="83"/>
       <c r="W28" s="83"/>
-      <c r="X28" s="122" t="s">
+      <c r="X28" s="121" t="s">
         <v>18</v>
       </c>
       <c r="Y28" s="83" t="s">
@@ -5377,7 +5941,7 @@
       </c>
       <c r="Z28" s="83"/>
       <c r="AA28" s="83"/>
-      <c r="AB28" s="149" t="s">
+      <c r="AB28" s="148" t="s">
         <v>79</v>
       </c>
       <c r="AC28" s="76"/>
@@ -5394,7 +5958,7 @@
       <c r="F29" s="97">
         <v>24</v>
       </c>
-      <c r="G29" s="118" t="s">
+      <c r="G29" s="117" t="s">
         <v>48</v>
       </c>
       <c r="H29" s="100"/>
@@ -5421,16 +5985,16 @@
       <c r="AE29" s="27"/>
     </row>
     <row r="30" spans="2:31" s="18" customFormat="1">
-      <c r="B30" s="87"/>
+      <c r="B30" s="87" t="s">
+        <v>18</v>
+      </c>
       <c r="C30" s="88"/>
       <c r="D30" s="88"/>
-      <c r="E30" s="88" t="s">
-        <v>18</v>
-      </c>
+      <c r="E30" s="88"/>
       <c r="F30" s="97">
         <v>25</v>
       </c>
-      <c r="G30" s="118" t="s">
+      <c r="G30" s="117" t="s">
         <v>74</v>
       </c>
       <c r="H30" s="100"/>
@@ -5446,24 +6010,24 @@
       <c r="R30" s="83"/>
       <c r="T30" s="83"/>
       <c r="U30" s="83"/>
-      <c r="V30" s="113"/>
-      <c r="W30" s="113" t="s">
+      <c r="V30" s="112"/>
+      <c r="W30" s="112" t="s">
         <v>18</v>
       </c>
       <c r="X30" s="83"/>
       <c r="Y30" s="83"/>
       <c r="Z30" s="83"/>
       <c r="AA30" s="83"/>
-      <c r="AB30" s="148" t="s">
+      <c r="AB30" s="147" t="s">
         <v>29</v>
       </c>
-      <c r="AC30" s="120" t="s">
+      <c r="AC30" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="AD30" s="120" t="s">
+      <c r="AD30" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="AE30" s="121" t="s">
+      <c r="AE30" s="120" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5477,7 +6041,7 @@
       <c r="F31" s="97">
         <v>26</v>
       </c>
-      <c r="G31" s="119" t="s">
+      <c r="G31" s="118" t="s">
         <v>26</v>
       </c>
       <c r="H31" s="100"/>
@@ -5485,7 +6049,7 @@
       <c r="J31" s="82"/>
       <c r="K31" s="83"/>
       <c r="L31" s="83"/>
-      <c r="M31" s="115"/>
+      <c r="M31" s="114"/>
       <c r="N31" s="83"/>
       <c r="O31" s="83"/>
       <c r="P31" s="83"/>
@@ -5493,8 +6057,8 @@
       <c r="R31" s="83"/>
       <c r="S31" s="83"/>
       <c r="T31" s="83"/>
-      <c r="U31" s="124"/>
-      <c r="V31" s="124" t="s">
+      <c r="U31" s="123"/>
+      <c r="V31" s="123" t="s">
         <v>18</v>
       </c>
       <c r="W31" s="109"/>
@@ -5508,10 +6072,10 @@
       <c r="AC31" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="AD31" s="120" t="s">
+      <c r="AD31" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="AE31" s="121" t="s">
+      <c r="AE31" s="120" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5525,14 +6089,14 @@
       <c r="F32" s="97">
         <v>27</v>
       </c>
-      <c r="G32" s="119" t="s">
+      <c r="G32" s="118" t="s">
         <v>42</v>
       </c>
       <c r="H32" s="100"/>
       <c r="I32" s="104"/>
       <c r="J32" s="82"/>
       <c r="K32" s="83"/>
-      <c r="L32" s="116"/>
+      <c r="L32" s="115"/>
       <c r="M32" s="83"/>
       <c r="N32" s="83"/>
       <c r="O32" s="83"/>
@@ -5541,21 +6105,25 @@
       <c r="R32" s="83"/>
       <c r="S32" s="83"/>
       <c r="T32" s="83"/>
-      <c r="U32" s="124"/>
-      <c r="V32" s="124" t="s">
-        <v>18</v>
-      </c>
-      <c r="W32" s="124"/>
-      <c r="X32" s="124" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y32" s="140"/>
-      <c r="Z32" s="140"/>
-      <c r="AA32" s="140"/>
-      <c r="AB32" s="148"/>
+      <c r="U32" s="123"/>
+      <c r="V32" s="123" t="s">
+        <v>18</v>
+      </c>
+      <c r="W32" s="123"/>
+      <c r="X32" s="123" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y32" s="218" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z32" s="218" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA32" s="139"/>
+      <c r="AB32" s="147"/>
       <c r="AC32" s="23"/>
-      <c r="AD32" s="120"/>
-      <c r="AE32" s="121" t="s">
+      <c r="AD32" s="119"/>
+      <c r="AE32" s="120" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5569,7 +6137,7 @@
       <c r="F33" s="97">
         <v>28</v>
       </c>
-      <c r="G33" s="119" t="s">
+      <c r="G33" s="118" t="s">
         <v>27</v>
       </c>
       <c r="H33" s="101"/>
@@ -5586,24 +6154,24 @@
       <c r="S33" s="109"/>
       <c r="T33" s="109"/>
       <c r="U33" s="109"/>
-      <c r="V33" s="141"/>
+      <c r="V33" s="140"/>
       <c r="W33" s="83"/>
       <c r="X33" s="83"/>
       <c r="Y33" s="83"/>
-      <c r="Z33" s="126" t="s">
+      <c r="Z33" s="125" t="s">
         <v>18</v>
       </c>
       <c r="AA33" s="109"/>
-      <c r="AB33" s="148" t="s">
+      <c r="AB33" s="147" t="s">
         <v>29</v>
       </c>
-      <c r="AC33" s="120" t="s">
+      <c r="AC33" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="AD33" s="120" t="s">
+      <c r="AD33" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="AE33" s="121" t="s">
+      <c r="AE33" s="120" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5617,7 +6185,7 @@
       <c r="F34" s="93">
         <v>29</v>
       </c>
-      <c r="G34" s="119" t="s">
+      <c r="G34" s="118" t="s">
         <v>28</v>
       </c>
       <c r="H34" s="94"/>
@@ -5632,25 +6200,25 @@
       <c r="Q34" s="111"/>
       <c r="R34" s="111"/>
       <c r="S34" s="111"/>
-      <c r="T34" s="128"/>
+      <c r="T34" s="127"/>
       <c r="U34" s="111"/>
-      <c r="V34" s="142"/>
-      <c r="W34" s="142"/>
-      <c r="X34" s="142"/>
-      <c r="Z34" s="129"/>
-      <c r="AA34" s="129" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB34" s="167" t="s">
+      <c r="V34" s="141"/>
+      <c r="W34" s="141"/>
+      <c r="X34" s="141"/>
+      <c r="Z34" s="128"/>
+      <c r="AA34" s="128" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB34" s="166" t="s">
         <v>29</v>
       </c>
-      <c r="AC34" s="168" t="s">
+      <c r="AC34" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="AD34" s="168" t="s">
+      <c r="AD34" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="AE34" s="169" t="s">
+      <c r="AE34" s="168" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5662,7 +6230,7 @@
       <c r="F35" s="78"/>
       <c r="G35" s="79"/>
       <c r="H35" s="80"/>
-      <c r="I35" s="170" t="s">
+      <c r="I35" s="169" t="s">
         <v>81</v>
       </c>
       <c r="J35" s="106"/>
@@ -5676,267 +6244,267 @@
       <c r="R35" s="107"/>
       <c r="S35" s="107"/>
       <c r="T35" s="107"/>
-      <c r="U35" s="143"/>
-      <c r="V35" s="144"/>
-      <c r="W35" s="145"/>
-      <c r="X35" s="145"/>
-      <c r="Y35" s="145"/>
-      <c r="Z35" s="145"/>
-      <c r="AA35" s="147"/>
-      <c r="AB35" s="146"/>
+      <c r="U35" s="142"/>
+      <c r="V35" s="143"/>
+      <c r="W35" s="144"/>
+      <c r="X35" s="144"/>
+      <c r="Y35" s="144"/>
+      <c r="Z35" s="144"/>
+      <c r="AA35" s="146"/>
+      <c r="AB35" s="145"/>
       <c r="AC35" s="51"/>
       <c r="AD35" s="51"/>
       <c r="AE35" s="74"/>
     </row>
     <row r="36" spans="2:31" ht="12.75" customHeight="1">
-      <c r="B36" s="215" t="s">
+      <c r="B36" s="197" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="197" t="s">
+      <c r="C36" s="190" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="197" t="s">
+      <c r="D36" s="190" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="202" t="s">
+      <c r="E36" s="195" t="s">
         <v>25</v>
       </c>
       <c r="F36" s="28"/>
       <c r="G36" s="29"/>
       <c r="H36" s="30"/>
       <c r="I36" s="30"/>
-      <c r="J36" s="207" t="s">
+      <c r="J36" s="178" t="s">
         <v>64</v>
       </c>
-      <c r="K36" s="179" t="s">
+      <c r="K36" s="175" t="s">
         <v>65</v>
       </c>
-      <c r="L36" s="179" t="s">
+      <c r="L36" s="175" t="s">
         <v>66</v>
       </c>
-      <c r="M36" s="179" t="s">
+      <c r="M36" s="175" t="s">
         <v>22</v>
       </c>
-      <c r="N36" s="179" t="s">
+      <c r="N36" s="175" t="s">
         <v>67</v>
       </c>
-      <c r="O36" s="179" t="s">
+      <c r="O36" s="175" t="s">
         <v>68</v>
       </c>
-      <c r="P36" s="179" t="s">
+      <c r="P36" s="175" t="s">
         <v>69</v>
       </c>
-      <c r="Q36" s="179" t="s">
+      <c r="Q36" s="175" t="s">
         <v>71</v>
       </c>
-      <c r="R36" s="179" t="s">
+      <c r="R36" s="175" t="s">
         <v>83</v>
       </c>
-      <c r="S36" s="179" t="s">
+      <c r="S36" s="175" t="s">
         <v>70</v>
       </c>
-      <c r="T36" s="179" t="s">
+      <c r="T36" s="175" t="s">
         <v>72</v>
       </c>
-      <c r="U36" s="179" t="s">
+      <c r="U36" s="175" t="s">
         <v>82</v>
       </c>
-      <c r="V36" s="186" t="s">
+      <c r="V36" s="207" t="s">
         <v>37</v>
       </c>
-      <c r="W36" s="179" t="s">
+      <c r="W36" s="175" t="s">
         <v>73</v>
       </c>
-      <c r="X36" s="179" t="s">
+      <c r="X36" s="175" t="s">
         <v>75</v>
       </c>
-      <c r="Y36" s="179" t="s">
+      <c r="Y36" s="175" t="s">
         <v>76</v>
       </c>
-      <c r="Z36" s="189" t="s">
+      <c r="Z36" s="210" t="s">
         <v>77</v>
       </c>
-      <c r="AA36" s="192" t="s">
+      <c r="AA36" s="213" t="s">
         <v>78</v>
       </c>
-      <c r="AB36" s="182" t="s">
+      <c r="AB36" s="173" t="s">
         <v>31</v>
       </c>
-      <c r="AC36" s="182" t="s">
+      <c r="AC36" s="173" t="s">
         <v>32</v>
       </c>
-      <c r="AD36" s="217" t="s">
+      <c r="AD36" s="186" t="s">
         <v>33</v>
       </c>
-      <c r="AE36" s="204" t="s">
+      <c r="AE36" s="170" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="37" spans="2:31" ht="12.75" customHeight="1">
-      <c r="B37" s="215"/>
-      <c r="C37" s="197"/>
-      <c r="D37" s="197"/>
-      <c r="E37" s="202"/>
+      <c r="B37" s="197"/>
+      <c r="C37" s="190"/>
+      <c r="D37" s="190"/>
+      <c r="E37" s="195"/>
       <c r="F37" s="28"/>
       <c r="G37" s="31"/>
       <c r="H37" s="30"/>
       <c r="I37" s="30"/>
-      <c r="J37" s="208"/>
-      <c r="K37" s="180"/>
-      <c r="L37" s="180"/>
-      <c r="M37" s="180"/>
-      <c r="N37" s="180"/>
-      <c r="O37" s="180"/>
-      <c r="P37" s="180"/>
-      <c r="Q37" s="180"/>
-      <c r="R37" s="180"/>
-      <c r="S37" s="180"/>
-      <c r="T37" s="180"/>
-      <c r="U37" s="184"/>
-      <c r="V37" s="187"/>
-      <c r="W37" s="180"/>
-      <c r="X37" s="180"/>
-      <c r="Y37" s="180"/>
-      <c r="Z37" s="190"/>
-      <c r="AA37" s="193"/>
-      <c r="AB37" s="182"/>
-      <c r="AC37" s="182"/>
-      <c r="AD37" s="217"/>
-      <c r="AE37" s="205"/>
+      <c r="J37" s="179"/>
+      <c r="K37" s="176"/>
+      <c r="L37" s="176"/>
+      <c r="M37" s="176"/>
+      <c r="N37" s="176"/>
+      <c r="O37" s="176"/>
+      <c r="P37" s="176"/>
+      <c r="Q37" s="176"/>
+      <c r="R37" s="176"/>
+      <c r="S37" s="176"/>
+      <c r="T37" s="176"/>
+      <c r="U37" s="205"/>
+      <c r="V37" s="208"/>
+      <c r="W37" s="176"/>
+      <c r="X37" s="176"/>
+      <c r="Y37" s="176"/>
+      <c r="Z37" s="211"/>
+      <c r="AA37" s="214"/>
+      <c r="AB37" s="173"/>
+      <c r="AC37" s="173"/>
+      <c r="AD37" s="186"/>
+      <c r="AE37" s="171"/>
     </row>
     <row r="38" spans="2:31" ht="12.75" customHeight="1">
-      <c r="B38" s="215"/>
-      <c r="C38" s="197"/>
-      <c r="D38" s="197"/>
-      <c r="E38" s="202"/>
+      <c r="B38" s="197"/>
+      <c r="C38" s="190"/>
+      <c r="D38" s="190"/>
+      <c r="E38" s="195"/>
       <c r="F38" s="28"/>
       <c r="G38" s="31"/>
       <c r="H38" s="30"/>
       <c r="I38" s="30"/>
-      <c r="J38" s="208"/>
-      <c r="K38" s="180"/>
-      <c r="L38" s="180"/>
-      <c r="M38" s="180"/>
-      <c r="N38" s="180"/>
-      <c r="O38" s="180"/>
-      <c r="P38" s="180"/>
-      <c r="Q38" s="180"/>
-      <c r="R38" s="180"/>
-      <c r="S38" s="180"/>
-      <c r="T38" s="180"/>
-      <c r="U38" s="184"/>
-      <c r="V38" s="187"/>
-      <c r="W38" s="180"/>
-      <c r="X38" s="180"/>
-      <c r="Y38" s="180"/>
-      <c r="Z38" s="190"/>
-      <c r="AA38" s="193"/>
-      <c r="AB38" s="182"/>
-      <c r="AC38" s="182"/>
-      <c r="AD38" s="217"/>
-      <c r="AE38" s="205"/>
+      <c r="J38" s="179"/>
+      <c r="K38" s="176"/>
+      <c r="L38" s="176"/>
+      <c r="M38" s="176"/>
+      <c r="N38" s="176"/>
+      <c r="O38" s="176"/>
+      <c r="P38" s="176"/>
+      <c r="Q38" s="176"/>
+      <c r="R38" s="176"/>
+      <c r="S38" s="176"/>
+      <c r="T38" s="176"/>
+      <c r="U38" s="205"/>
+      <c r="V38" s="208"/>
+      <c r="W38" s="176"/>
+      <c r="X38" s="176"/>
+      <c r="Y38" s="176"/>
+      <c r="Z38" s="211"/>
+      <c r="AA38" s="214"/>
+      <c r="AB38" s="173"/>
+      <c r="AC38" s="173"/>
+      <c r="AD38" s="186"/>
+      <c r="AE38" s="171"/>
     </row>
     <row r="39" spans="2:31" ht="12.75" customHeight="1">
-      <c r="B39" s="215"/>
-      <c r="C39" s="197"/>
-      <c r="D39" s="197"/>
-      <c r="E39" s="202"/>
+      <c r="B39" s="197"/>
+      <c r="C39" s="190"/>
+      <c r="D39" s="190"/>
+      <c r="E39" s="195"/>
       <c r="F39" s="28"/>
       <c r="G39" s="32"/>
       <c r="H39" s="30"/>
       <c r="I39" s="30"/>
-      <c r="J39" s="208"/>
-      <c r="K39" s="180"/>
-      <c r="L39" s="180"/>
-      <c r="M39" s="180"/>
-      <c r="N39" s="180"/>
-      <c r="O39" s="180"/>
-      <c r="P39" s="180"/>
-      <c r="Q39" s="180"/>
-      <c r="R39" s="180"/>
-      <c r="S39" s="180"/>
-      <c r="T39" s="180"/>
-      <c r="U39" s="184"/>
-      <c r="V39" s="187"/>
-      <c r="W39" s="180"/>
-      <c r="X39" s="180"/>
-      <c r="Y39" s="180"/>
-      <c r="Z39" s="190"/>
-      <c r="AA39" s="193"/>
-      <c r="AB39" s="182"/>
-      <c r="AC39" s="182"/>
-      <c r="AD39" s="217"/>
-      <c r="AE39" s="205"/>
+      <c r="J39" s="179"/>
+      <c r="K39" s="176"/>
+      <c r="L39" s="176"/>
+      <c r="M39" s="176"/>
+      <c r="N39" s="176"/>
+      <c r="O39" s="176"/>
+      <c r="P39" s="176"/>
+      <c r="Q39" s="176"/>
+      <c r="R39" s="176"/>
+      <c r="S39" s="176"/>
+      <c r="T39" s="176"/>
+      <c r="U39" s="205"/>
+      <c r="V39" s="208"/>
+      <c r="W39" s="176"/>
+      <c r="X39" s="176"/>
+      <c r="Y39" s="176"/>
+      <c r="Z39" s="211"/>
+      <c r="AA39" s="214"/>
+      <c r="AB39" s="173"/>
+      <c r="AC39" s="173"/>
+      <c r="AD39" s="186"/>
+      <c r="AE39" s="171"/>
     </row>
     <row r="40" spans="2:31" ht="12.75" customHeight="1">
-      <c r="B40" s="215"/>
-      <c r="C40" s="197"/>
-      <c r="D40" s="197"/>
-      <c r="E40" s="202"/>
+      <c r="B40" s="197"/>
+      <c r="C40" s="190"/>
+      <c r="D40" s="190"/>
+      <c r="E40" s="195"/>
       <c r="F40" s="28"/>
       <c r="G40" s="29"/>
       <c r="H40" s="30"/>
       <c r="I40" s="30"/>
-      <c r="J40" s="208"/>
-      <c r="K40" s="180"/>
-      <c r="L40" s="180"/>
-      <c r="M40" s="180"/>
-      <c r="N40" s="180"/>
-      <c r="O40" s="180"/>
-      <c r="P40" s="180"/>
-      <c r="Q40" s="180"/>
-      <c r="R40" s="180"/>
-      <c r="S40" s="180"/>
-      <c r="T40" s="180"/>
-      <c r="U40" s="184"/>
-      <c r="V40" s="187"/>
-      <c r="W40" s="180"/>
-      <c r="X40" s="180"/>
-      <c r="Y40" s="180"/>
-      <c r="Z40" s="190"/>
-      <c r="AA40" s="193"/>
-      <c r="AB40" s="182"/>
-      <c r="AC40" s="182"/>
-      <c r="AD40" s="217"/>
-      <c r="AE40" s="205"/>
+      <c r="J40" s="179"/>
+      <c r="K40" s="176"/>
+      <c r="L40" s="176"/>
+      <c r="M40" s="176"/>
+      <c r="N40" s="176"/>
+      <c r="O40" s="176"/>
+      <c r="P40" s="176"/>
+      <c r="Q40" s="176"/>
+      <c r="R40" s="176"/>
+      <c r="S40" s="176"/>
+      <c r="T40" s="176"/>
+      <c r="U40" s="205"/>
+      <c r="V40" s="208"/>
+      <c r="W40" s="176"/>
+      <c r="X40" s="176"/>
+      <c r="Y40" s="176"/>
+      <c r="Z40" s="211"/>
+      <c r="AA40" s="214"/>
+      <c r="AB40" s="173"/>
+      <c r="AC40" s="173"/>
+      <c r="AD40" s="186"/>
+      <c r="AE40" s="171"/>
     </row>
     <row r="41" spans="2:31" ht="12" customHeight="1" thickBot="1">
-      <c r="B41" s="215"/>
-      <c r="C41" s="197"/>
-      <c r="D41" s="197"/>
-      <c r="E41" s="202"/>
+      <c r="B41" s="197"/>
+      <c r="C41" s="190"/>
+      <c r="D41" s="190"/>
+      <c r="E41" s="195"/>
       <c r="F41" s="28"/>
       <c r="G41" s="33"/>
       <c r="H41" s="30"/>
       <c r="I41" s="30"/>
-      <c r="J41" s="209"/>
-      <c r="K41" s="181"/>
-      <c r="L41" s="181"/>
-      <c r="M41" s="181"/>
-      <c r="N41" s="181"/>
-      <c r="O41" s="181"/>
-      <c r="P41" s="181"/>
-      <c r="Q41" s="181"/>
-      <c r="R41" s="181"/>
-      <c r="S41" s="181"/>
-      <c r="T41" s="181"/>
-      <c r="U41" s="185"/>
-      <c r="V41" s="188"/>
-      <c r="W41" s="181"/>
-      <c r="X41" s="181"/>
-      <c r="Y41" s="181"/>
-      <c r="Z41" s="191"/>
-      <c r="AA41" s="194"/>
-      <c r="AB41" s="183"/>
-      <c r="AC41" s="183"/>
-      <c r="AD41" s="218"/>
-      <c r="AE41" s="206"/>
+      <c r="J41" s="180"/>
+      <c r="K41" s="177"/>
+      <c r="L41" s="177"/>
+      <c r="M41" s="177"/>
+      <c r="N41" s="177"/>
+      <c r="O41" s="177"/>
+      <c r="P41" s="177"/>
+      <c r="Q41" s="177"/>
+      <c r="R41" s="177"/>
+      <c r="S41" s="177"/>
+      <c r="T41" s="177"/>
+      <c r="U41" s="206"/>
+      <c r="V41" s="209"/>
+      <c r="W41" s="177"/>
+      <c r="X41" s="177"/>
+      <c r="Y41" s="177"/>
+      <c r="Z41" s="212"/>
+      <c r="AA41" s="215"/>
+      <c r="AB41" s="174"/>
+      <c r="AC41" s="174"/>
+      <c r="AD41" s="187"/>
+      <c r="AE41" s="172"/>
     </row>
     <row r="42" spans="2:31">
-      <c r="B42" s="215"/>
-      <c r="C42" s="197"/>
-      <c r="D42" s="197"/>
-      <c r="E42" s="202"/>
+      <c r="B42" s="197"/>
+      <c r="C42" s="190"/>
+      <c r="D42" s="190"/>
+      <c r="E42" s="195"/>
       <c r="F42" s="34"/>
       <c r="G42" s="33"/>
       <c r="H42" s="33"/>
@@ -5957,18 +6525,18 @@
       <c r="W42" s="36"/>
       <c r="X42" s="36"/>
       <c r="Y42" s="39"/>
-      <c r="Z42" s="150"/>
-      <c r="AA42" s="150"/>
-      <c r="AB42" s="150"/>
-      <c r="AC42" s="150"/>
-      <c r="AD42" s="150"/>
-      <c r="AE42" s="151"/>
+      <c r="Z42" s="149"/>
+      <c r="AA42" s="149"/>
+      <c r="AB42" s="149"/>
+      <c r="AC42" s="149"/>
+      <c r="AD42" s="149"/>
+      <c r="AE42" s="150"/>
     </row>
     <row r="43" spans="2:31" ht="15.75" customHeight="1">
-      <c r="B43" s="215"/>
-      <c r="C43" s="197"/>
-      <c r="D43" s="197"/>
-      <c r="E43" s="202"/>
+      <c r="B43" s="197"/>
+      <c r="C43" s="190"/>
+      <c r="D43" s="190"/>
+      <c r="E43" s="195"/>
       <c r="F43" s="37"/>
       <c r="G43" s="33"/>
       <c r="H43" s="31"/>
@@ -6000,13 +6568,13 @@
       <c r="AB43" s="67"/>
       <c r="AC43" s="67"/>
       <c r="AD43" s="34"/>
-      <c r="AE43" s="152"/>
+      <c r="AE43" s="151"/>
     </row>
     <row r="44" spans="2:31" ht="12.75" customHeight="1">
-      <c r="B44" s="215"/>
-      <c r="C44" s="197"/>
-      <c r="D44" s="197"/>
-      <c r="E44" s="202"/>
+      <c r="B44" s="197"/>
+      <c r="C44" s="190"/>
+      <c r="D44" s="190"/>
+      <c r="E44" s="195"/>
       <c r="F44" s="34"/>
       <c r="G44" s="29"/>
       <c r="H44" s="31"/>
@@ -6038,13 +6606,13 @@
       <c r="AB44" s="68"/>
       <c r="AC44" s="68"/>
       <c r="AD44" s="34"/>
-      <c r="AE44" s="152"/>
+      <c r="AE44" s="151"/>
     </row>
     <row r="45" spans="2:31" ht="15.75">
-      <c r="B45" s="215"/>
-      <c r="C45" s="197"/>
-      <c r="D45" s="197"/>
-      <c r="E45" s="202"/>
+      <c r="B45" s="197"/>
+      <c r="C45" s="190"/>
+      <c r="D45" s="190"/>
+      <c r="E45" s="195"/>
       <c r="F45" s="34"/>
       <c r="G45" s="29"/>
       <c r="H45" s="31"/>
@@ -6074,13 +6642,13 @@
       <c r="AB45" s="68"/>
       <c r="AC45" s="69"/>
       <c r="AD45" s="34"/>
-      <c r="AE45" s="152"/>
+      <c r="AE45" s="151"/>
     </row>
     <row r="46" spans="2:31">
-      <c r="B46" s="215"/>
-      <c r="C46" s="197"/>
-      <c r="D46" s="197"/>
-      <c r="E46" s="202"/>
+      <c r="B46" s="197"/>
+      <c r="C46" s="190"/>
+      <c r="D46" s="190"/>
+      <c r="E46" s="195"/>
       <c r="F46" s="34"/>
       <c r="G46" s="29"/>
       <c r="H46" s="29"/>
@@ -6110,13 +6678,13 @@
       <c r="AB46" s="68"/>
       <c r="AC46" s="68"/>
       <c r="AD46" s="34"/>
-      <c r="AE46" s="152"/>
+      <c r="AE46" s="151"/>
     </row>
     <row r="47" spans="2:31" ht="15.75">
-      <c r="B47" s="215"/>
-      <c r="C47" s="197"/>
-      <c r="D47" s="197"/>
-      <c r="E47" s="202"/>
+      <c r="B47" s="197"/>
+      <c r="C47" s="190"/>
+      <c r="D47" s="190"/>
+      <c r="E47" s="195"/>
       <c r="F47" s="34"/>
       <c r="G47" s="41"/>
       <c r="H47" s="34"/>
@@ -6139,16 +6707,16 @@
       <c r="Y47" s="39"/>
       <c r="Z47" s="34"/>
       <c r="AA47" s="66"/>
-      <c r="AB47" s="153"/>
-      <c r="AC47" s="154"/>
+      <c r="AB47" s="152"/>
+      <c r="AC47" s="153"/>
       <c r="AD47" s="34"/>
-      <c r="AE47" s="152"/>
+      <c r="AE47" s="151"/>
     </row>
     <row r="48" spans="2:31" ht="13.5" thickBot="1">
-      <c r="B48" s="215"/>
-      <c r="C48" s="197"/>
-      <c r="D48" s="197"/>
-      <c r="E48" s="202"/>
+      <c r="B48" s="197"/>
+      <c r="C48" s="190"/>
+      <c r="D48" s="190"/>
+      <c r="E48" s="195"/>
       <c r="F48" s="42"/>
       <c r="G48" s="43"/>
       <c r="H48" s="44"/>
@@ -6170,141 +6738,141 @@
       <c r="X48" s="46"/>
       <c r="Y48" s="46"/>
       <c r="Z48" s="44"/>
-      <c r="AA48" s="155"/>
-      <c r="AB48" s="156"/>
-      <c r="AC48" s="156"/>
+      <c r="AA48" s="154"/>
+      <c r="AB48" s="155"/>
+      <c r="AC48" s="155"/>
       <c r="AD48" s="44"/>
-      <c r="AE48" s="157"/>
+      <c r="AE48" s="156"/>
     </row>
     <row r="49" spans="2:31">
-      <c r="B49" s="215"/>
-      <c r="C49" s="197"/>
-      <c r="D49" s="197"/>
-      <c r="E49" s="202"/>
-      <c r="F49" s="195" t="s">
+      <c r="B49" s="197"/>
+      <c r="C49" s="190"/>
+      <c r="D49" s="190"/>
+      <c r="E49" s="195"/>
+      <c r="F49" s="216" t="s">
         <v>19</v>
       </c>
-      <c r="G49" s="196"/>
-      <c r="H49" s="196"/>
-      <c r="I49" s="196"/>
-      <c r="J49" s="196"/>
-      <c r="K49" s="196"/>
-      <c r="L49" s="196"/>
-      <c r="M49" s="196"/>
-      <c r="N49" s="196"/>
-      <c r="O49" s="196"/>
-      <c r="P49" s="196"/>
-      <c r="Q49" s="196"/>
-      <c r="R49" s="196"/>
-      <c r="S49" s="196"/>
-      <c r="T49" s="196"/>
-      <c r="U49" s="196"/>
-      <c r="V49" s="196"/>
-      <c r="W49" s="196"/>
-      <c r="X49" s="196"/>
-      <c r="Y49" s="196"/>
-      <c r="Z49" s="150"/>
-      <c r="AA49" s="158"/>
-      <c r="AB49" s="159"/>
-      <c r="AC49" s="159"/>
-      <c r="AD49" s="150"/>
-      <c r="AE49" s="151"/>
+      <c r="G49" s="217"/>
+      <c r="H49" s="217"/>
+      <c r="I49" s="217"/>
+      <c r="J49" s="217"/>
+      <c r="K49" s="217"/>
+      <c r="L49" s="217"/>
+      <c r="M49" s="217"/>
+      <c r="N49" s="217"/>
+      <c r="O49" s="217"/>
+      <c r="P49" s="217"/>
+      <c r="Q49" s="217"/>
+      <c r="R49" s="217"/>
+      <c r="S49" s="217"/>
+      <c r="T49" s="217"/>
+      <c r="U49" s="217"/>
+      <c r="V49" s="217"/>
+      <c r="W49" s="217"/>
+      <c r="X49" s="217"/>
+      <c r="Y49" s="217"/>
+      <c r="Z49" s="149"/>
+      <c r="AA49" s="157"/>
+      <c r="AB49" s="158"/>
+      <c r="AC49" s="158"/>
+      <c r="AD49" s="149"/>
+      <c r="AE49" s="150"/>
     </row>
     <row r="50" spans="2:31">
-      <c r="B50" s="215"/>
-      <c r="C50" s="197"/>
-      <c r="D50" s="197"/>
-      <c r="E50" s="202"/>
-      <c r="F50" s="175"/>
-      <c r="G50" s="176"/>
-      <c r="H50" s="176"/>
-      <c r="I50" s="176"/>
-      <c r="J50" s="176"/>
-      <c r="K50" s="176"/>
-      <c r="L50" s="176"/>
-      <c r="M50" s="176"/>
-      <c r="N50" s="176"/>
-      <c r="O50" s="176"/>
-      <c r="P50" s="176"/>
-      <c r="Q50" s="176"/>
-      <c r="R50" s="176"/>
-      <c r="S50" s="176"/>
-      <c r="T50" s="176"/>
-      <c r="U50" s="176"/>
-      <c r="V50" s="176"/>
-      <c r="W50" s="176"/>
-      <c r="X50" s="176"/>
-      <c r="Y50" s="176"/>
-      <c r="Z50" s="163"/>
-      <c r="AA50" s="164"/>
-      <c r="AB50" s="165"/>
-      <c r="AC50" s="165"/>
-      <c r="AD50" s="163"/>
-      <c r="AE50" s="166"/>
+      <c r="B50" s="197"/>
+      <c r="C50" s="190"/>
+      <c r="D50" s="190"/>
+      <c r="E50" s="195"/>
+      <c r="F50" s="188"/>
+      <c r="G50" s="189"/>
+      <c r="H50" s="189"/>
+      <c r="I50" s="189"/>
+      <c r="J50" s="189"/>
+      <c r="K50" s="189"/>
+      <c r="L50" s="189"/>
+      <c r="M50" s="189"/>
+      <c r="N50" s="189"/>
+      <c r="O50" s="189"/>
+      <c r="P50" s="189"/>
+      <c r="Q50" s="189"/>
+      <c r="R50" s="189"/>
+      <c r="S50" s="189"/>
+      <c r="T50" s="189"/>
+      <c r="U50" s="189"/>
+      <c r="V50" s="189"/>
+      <c r="W50" s="189"/>
+      <c r="X50" s="189"/>
+      <c r="Y50" s="189"/>
+      <c r="Z50" s="162"/>
+      <c r="AA50" s="163"/>
+      <c r="AB50" s="164"/>
+      <c r="AC50" s="164"/>
+      <c r="AD50" s="162"/>
+      <c r="AE50" s="165"/>
     </row>
     <row r="51" spans="2:31">
-      <c r="B51" s="215"/>
-      <c r="C51" s="197"/>
-      <c r="D51" s="197"/>
-      <c r="E51" s="202"/>
-      <c r="F51" s="175"/>
-      <c r="G51" s="176"/>
-      <c r="H51" s="176"/>
-      <c r="I51" s="176"/>
-      <c r="J51" s="176"/>
-      <c r="K51" s="176"/>
-      <c r="L51" s="176"/>
-      <c r="M51" s="176"/>
-      <c r="N51" s="176"/>
-      <c r="O51" s="176"/>
-      <c r="P51" s="176"/>
-      <c r="Q51" s="176"/>
-      <c r="R51" s="176"/>
-      <c r="S51" s="176"/>
-      <c r="T51" s="176"/>
-      <c r="U51" s="176"/>
-      <c r="V51" s="176"/>
-      <c r="W51" s="176"/>
-      <c r="X51" s="176"/>
-      <c r="Y51" s="176"/>
-      <c r="Z51" s="163"/>
-      <c r="AA51" s="163"/>
-      <c r="AB51" s="165"/>
-      <c r="AC51" s="165"/>
-      <c r="AD51" s="163"/>
-      <c r="AE51" s="166"/>
+      <c r="B51" s="197"/>
+      <c r="C51" s="190"/>
+      <c r="D51" s="190"/>
+      <c r="E51" s="195"/>
+      <c r="F51" s="188"/>
+      <c r="G51" s="189"/>
+      <c r="H51" s="189"/>
+      <c r="I51" s="189"/>
+      <c r="J51" s="189"/>
+      <c r="K51" s="189"/>
+      <c r="L51" s="189"/>
+      <c r="M51" s="189"/>
+      <c r="N51" s="189"/>
+      <c r="O51" s="189"/>
+      <c r="P51" s="189"/>
+      <c r="Q51" s="189"/>
+      <c r="R51" s="189"/>
+      <c r="S51" s="189"/>
+      <c r="T51" s="189"/>
+      <c r="U51" s="189"/>
+      <c r="V51" s="189"/>
+      <c r="W51" s="189"/>
+      <c r="X51" s="189"/>
+      <c r="Y51" s="189"/>
+      <c r="Z51" s="162"/>
+      <c r="AA51" s="162"/>
+      <c r="AB51" s="164"/>
+      <c r="AC51" s="164"/>
+      <c r="AD51" s="162"/>
+      <c r="AE51" s="165"/>
     </row>
     <row r="52" spans="2:31" s="13" customFormat="1" ht="13.5" thickBot="1">
-      <c r="B52" s="216"/>
-      <c r="C52" s="198"/>
-      <c r="D52" s="198"/>
-      <c r="E52" s="203"/>
-      <c r="F52" s="177"/>
-      <c r="G52" s="178"/>
-      <c r="H52" s="178"/>
-      <c r="I52" s="178"/>
-      <c r="J52" s="178"/>
-      <c r="K52" s="178"/>
-      <c r="L52" s="178"/>
-      <c r="M52" s="178"/>
-      <c r="N52" s="178"/>
-      <c r="O52" s="178"/>
-      <c r="P52" s="178"/>
-      <c r="Q52" s="178"/>
-      <c r="R52" s="178"/>
-      <c r="S52" s="178"/>
-      <c r="T52" s="178"/>
-      <c r="U52" s="178"/>
-      <c r="V52" s="178"/>
-      <c r="W52" s="178"/>
-      <c r="X52" s="178"/>
-      <c r="Y52" s="178"/>
+      <c r="B52" s="198"/>
+      <c r="C52" s="191"/>
+      <c r="D52" s="191"/>
+      <c r="E52" s="196"/>
+      <c r="F52" s="203"/>
+      <c r="G52" s="204"/>
+      <c r="H52" s="204"/>
+      <c r="I52" s="204"/>
+      <c r="J52" s="204"/>
+      <c r="K52" s="204"/>
+      <c r="L52" s="204"/>
+      <c r="M52" s="204"/>
+      <c r="N52" s="204"/>
+      <c r="O52" s="204"/>
+      <c r="P52" s="204"/>
+      <c r="Q52" s="204"/>
+      <c r="R52" s="204"/>
+      <c r="S52" s="204"/>
+      <c r="T52" s="204"/>
+      <c r="U52" s="204"/>
+      <c r="V52" s="204"/>
+      <c r="W52" s="204"/>
+      <c r="X52" s="204"/>
+      <c r="Y52" s="204"/>
       <c r="Z52" s="43"/>
-      <c r="AA52" s="160"/>
-      <c r="AB52" s="161"/>
-      <c r="AC52" s="161"/>
+      <c r="AA52" s="159"/>
+      <c r="AB52" s="160"/>
+      <c r="AC52" s="160"/>
       <c r="AD52" s="43"/>
-      <c r="AE52" s="162"/>
+      <c r="AE52" s="161"/>
     </row>
     <row r="53" spans="2:31" s="13" customFormat="1">
       <c r="B53" s="13" t="s">
@@ -6426,24 +6994,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="AE36:AE41"/>
-    <mergeCell ref="AB36:AB41"/>
-    <mergeCell ref="P36:P41"/>
-    <mergeCell ref="J36:J41"/>
-    <mergeCell ref="J5:U5"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="K36:K41"/>
-    <mergeCell ref="L36:L41"/>
-    <mergeCell ref="S36:S41"/>
-    <mergeCell ref="N36:N41"/>
-    <mergeCell ref="AD36:AD41"/>
-    <mergeCell ref="F50:Y50"/>
-    <mergeCell ref="O36:O41"/>
-    <mergeCell ref="D36:D52"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="E36:E52"/>
-    <mergeCell ref="B36:B52"/>
-    <mergeCell ref="C36:C52"/>
     <mergeCell ref="F3:Y4"/>
     <mergeCell ref="F51:Y51"/>
     <mergeCell ref="F52:Y52"/>
@@ -6460,401 +7010,463 @@
     <mergeCell ref="M36:M41"/>
     <mergeCell ref="Q36:Q41"/>
     <mergeCell ref="F49:Y49"/>
+    <mergeCell ref="F50:Y50"/>
+    <mergeCell ref="O36:O41"/>
+    <mergeCell ref="D36:D52"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="E36:E52"/>
+    <mergeCell ref="B36:B52"/>
+    <mergeCell ref="C36:C52"/>
+    <mergeCell ref="AE36:AE41"/>
+    <mergeCell ref="AB36:AB41"/>
+    <mergeCell ref="P36:P41"/>
+    <mergeCell ref="J36:J41"/>
+    <mergeCell ref="J5:U5"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="K36:K41"/>
+    <mergeCell ref="L36:L41"/>
+    <mergeCell ref="S36:S41"/>
+    <mergeCell ref="N36:N41"/>
+    <mergeCell ref="AD36:AD41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I55:J55 N55:AC55">
-    <cfRule type="cellIs" dxfId="107" priority="128" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="140" stopIfTrue="1" operator="equal">
       <formula>"G"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="129" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="141" stopIfTrue="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="130" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="142" stopIfTrue="1" operator="equal">
       <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J35:U35 J32:T32 J31:S31 J30:R30 J29:M29 J13:N13 O9:T9 J10:L10 J9:K9 J11:K12 M12 J14:L16 N15:T16 N14 P14:T14 J18:M19 J17:T17 J27:T27 J26:Q26 S26:T26 J28:P28 R28:T28 T30 O29:S29 M9:M10 O12:T13 O18:T19 N10:T10 M11:T11 J6:T8 W33:Z33 J20:T25">
-    <cfRule type="cellIs" dxfId="104" priority="131" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="J35:U35 J32:T32 J31:S31 J30:R30 J29:M29 J13:N13 O9:T9 J10:L10 J9:K9 J11:K12 M12 J14:L16 N14 P14:T14 J18:M19 J17:T17 J27:T27 J26:Q26 S26:T26 J28:P28 R28:T28 T30 O29:S29 M9:M10 O12:T13 N10:T10 M11:T11 W33:Z33 J20:T25 N15:T16 J6:T8 O18:T19">
+    <cfRule type="cellIs" dxfId="158" priority="143" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="132" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="144" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="133" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="145" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T31">
-    <cfRule type="cellIs" dxfId="101" priority="118" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="130" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="119" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="131" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="120" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="132" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14:M16">
-    <cfRule type="cellIs" dxfId="98" priority="115" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="127" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="116" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="128" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="117" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="129" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="95" priority="112" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="124" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="113" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="125" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="114" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="126" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="92" priority="109" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="121" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="110" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="122" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="111" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="123" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14">
-    <cfRule type="cellIs" dxfId="89" priority="106" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="118" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="107" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="119" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="108" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="120" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N18:N19">
-    <cfRule type="cellIs" dxfId="86" priority="103" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="115" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="104" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="116" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="105" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="117" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U32">
-    <cfRule type="cellIs" dxfId="83" priority="100" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="112" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="101" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="113" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="102" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="114" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U31">
-    <cfRule type="cellIs" dxfId="80" priority="97" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="109" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="98" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="110" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="99" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="111" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V30">
-    <cfRule type="cellIs" dxfId="77" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="61" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="62" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="63" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U25">
-    <cfRule type="cellIs" dxfId="74" priority="73" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="85" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="74" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="86" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="75" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="87" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U30">
-    <cfRule type="cellIs" dxfId="71" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="70" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="71" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="60" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="72" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U6:U22">
-    <cfRule type="cellIs" dxfId="68" priority="82" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="U6:U17 U20:U22">
+    <cfRule type="cellIs" dxfId="122" priority="94" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="83" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="95" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="84" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="96" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U24">
-    <cfRule type="cellIs" dxfId="65" priority="76" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="88" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="77" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="89" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="78" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="90" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U26">
-    <cfRule type="cellIs" dxfId="62" priority="70" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="82" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="71" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="83" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="72" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="84" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U27">
-    <cfRule type="cellIs" dxfId="59" priority="67" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="79" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="68" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="80" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="69" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="81" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U28">
-    <cfRule type="cellIs" dxfId="56" priority="64" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="76" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="65" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="77" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="66" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="78" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U29">
-    <cfRule type="cellIs" dxfId="53" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="73" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="62" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="74" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="63" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="75" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V6:Z23 X30:Z30 V29:Z29 V24:W28 Y24:Z28">
-    <cfRule type="cellIs" dxfId="50" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="67" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="68" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="69" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V34:X34 Z34">
-    <cfRule type="cellIs" dxfId="47" priority="52" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="64" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="65" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="66" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W35:Z35">
-    <cfRule type="cellIs" dxfId="44" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="58" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="59" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="60" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W32">
-    <cfRule type="cellIs" dxfId="41" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="55" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="56" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="57" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA6:AA30">
-    <cfRule type="cellIs" dxfId="38" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="49" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="50" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="51" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA34">
-    <cfRule type="cellIs" dxfId="35" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="46" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="47" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="48" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA35">
-    <cfRule type="cellIs" dxfId="32" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="43" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="44" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="45" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U23">
-    <cfRule type="cellIs" dxfId="29" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="40" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="41" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="42" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X24">
-    <cfRule type="cellIs" dxfId="26" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="37" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="38" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="39" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X25">
-    <cfRule type="cellIs" dxfId="23" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="34" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="35" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="36" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26">
-    <cfRule type="cellIs" dxfId="20" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="31" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="32" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="33" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X27">
-    <cfRule type="cellIs" dxfId="17" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="28" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="29" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="30" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X28">
-    <cfRule type="cellIs" dxfId="14" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="25" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="26" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="27" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W30">
-    <cfRule type="cellIs" dxfId="11" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="22" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="23" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="24" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V31">
-    <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="19" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="20" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="21" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V32">
-    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="16" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="17" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="18" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X32">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="13" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="14" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="15" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9">
+    <cfRule type="cellIs" dxfId="41" priority="10" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="11" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="12" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N12">
+    <cfRule type="cellIs" dxfId="35" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="8" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="9" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U18">
+    <cfRule type="cellIs" dxfId="26" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U19">
+    <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="2" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="3" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/OPPM.xlsx
+++ b/OPPM.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="84">
   <si>
     <t>A = primary owner</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,9 +187,6 @@
     <t>Phase 3 Upgrades Shop integrated into the Game</t>
   </si>
   <si>
-    <t xml:space="preserve">Phase 3 </t>
-  </si>
-  <si>
     <t>Brainstorming Ideas</t>
   </si>
   <si>
@@ -293,6 +290,9 @@
   </si>
   <si>
     <t>10/26</t>
+  </si>
+  <si>
+    <t>Phase 3 Sky Background Changed (improved look)</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="86">
+  <borders count="87">
     <border>
       <left/>
       <right/>
@@ -1511,6 +1511,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1518,7 +1533,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="219">
+  <cellXfs count="220">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
@@ -2048,6 +2063,143 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="73" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="55" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="56" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="57" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="56" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="57" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="77" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="79" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="83" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="84" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="85" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="58" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="59" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="65" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
       <protection locked="0"/>
@@ -2060,26 +2212,6 @@
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="55" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="56" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="57" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="17" fontId="5" fillId="0" borderId="68" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
       <protection locked="0"/>
@@ -2115,121 +2247,7 @@
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="56" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="57" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="77" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="79" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="83" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="84" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="85" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="58" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="59" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="73" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="86" xfId="2" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2239,7 +2257,7 @@
     <cellStyle name="Normal_Project Matrix" xfId="2"/>
     <cellStyle name="Normal_Project Matrix Collection II" xfId="3"/>
   </cellStyles>
-  <dxfs count="162">
+  <dxfs count="156">
     <dxf>
       <font>
         <b/>
@@ -3591,6 +3609,30 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -3766,90 +3808,6 @@
       <fill>
         <patternFill patternType="mediumGray">
           <fgColor indexed="43"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="mediumGray">
-          <fgColor indexed="10"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="mediumGray">
-          <fgColor indexed="42"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="mediumGray">
-          <fgColor indexed="43"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="mediumGray">
-          <fgColor indexed="10"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="mediumGray">
-          <fgColor indexed="42"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="mediumGray">
-          <fgColor indexed="43"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="mediumGray">
-          <fgColor indexed="10"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="mediumGray">
-          <fgColor indexed="43"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="mediumGray">
-          <fgColor indexed="42"/>
           <bgColor indexed="9"/>
         </patternFill>
       </fill>
@@ -4748,8 +4706,8 @@
   </sheetPr>
   <dimension ref="A1:AE57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="73" zoomScalePageLayoutView="96" workbookViewId="0">
-      <selection activeCell="Z6" sqref="Z6"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="73" zoomScalePageLayoutView="96" workbookViewId="0">
+      <selection activeCell="Y32" sqref="Y32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -4812,28 +4770,28 @@
       <c r="C3" s="60"/>
       <c r="D3" s="60"/>
       <c r="E3" s="61"/>
-      <c r="F3" s="199" t="s">
+      <c r="F3" s="171" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="200"/>
-      <c r="H3" s="200"/>
-      <c r="I3" s="200"/>
-      <c r="J3" s="200"/>
-      <c r="K3" s="200"/>
-      <c r="L3" s="200"/>
-      <c r="M3" s="200"/>
-      <c r="N3" s="200"/>
-      <c r="O3" s="200"/>
-      <c r="P3" s="200"/>
-      <c r="Q3" s="200"/>
-      <c r="R3" s="200"/>
-      <c r="S3" s="200"/>
-      <c r="T3" s="200"/>
-      <c r="U3" s="200"/>
-      <c r="V3" s="200"/>
-      <c r="W3" s="200"/>
-      <c r="X3" s="200"/>
-      <c r="Y3" s="200"/>
+      <c r="G3" s="172"/>
+      <c r="H3" s="172"/>
+      <c r="I3" s="172"/>
+      <c r="J3" s="172"/>
+      <c r="K3" s="172"/>
+      <c r="L3" s="172"/>
+      <c r="M3" s="172"/>
+      <c r="N3" s="172"/>
+      <c r="O3" s="172"/>
+      <c r="P3" s="172"/>
+      <c r="Q3" s="172"/>
+      <c r="R3" s="172"/>
+      <c r="S3" s="172"/>
+      <c r="T3" s="172"/>
+      <c r="U3" s="172"/>
+      <c r="V3" s="172"/>
+      <c r="W3" s="172"/>
+      <c r="X3" s="172"/>
+      <c r="Y3" s="172"/>
       <c r="Z3" s="60"/>
       <c r="AA3" s="130"/>
       <c r="AB3" s="131"/>
@@ -4846,26 +4804,26 @@
       <c r="C4" s="58"/>
       <c r="D4" s="58"/>
       <c r="E4" s="58"/>
-      <c r="F4" s="201"/>
-      <c r="G4" s="202"/>
-      <c r="H4" s="202"/>
-      <c r="I4" s="202"/>
-      <c r="J4" s="202"/>
-      <c r="K4" s="202"/>
-      <c r="L4" s="202"/>
-      <c r="M4" s="202"/>
-      <c r="N4" s="202"/>
-      <c r="O4" s="202"/>
-      <c r="P4" s="202"/>
-      <c r="Q4" s="202"/>
-      <c r="R4" s="202"/>
-      <c r="S4" s="202"/>
-      <c r="T4" s="202"/>
-      <c r="U4" s="202"/>
-      <c r="V4" s="202"/>
-      <c r="W4" s="202"/>
-      <c r="X4" s="202"/>
-      <c r="Y4" s="202"/>
+      <c r="F4" s="173"/>
+      <c r="G4" s="174"/>
+      <c r="H4" s="174"/>
+      <c r="I4" s="174"/>
+      <c r="J4" s="174"/>
+      <c r="K4" s="174"/>
+      <c r="L4" s="174"/>
+      <c r="M4" s="174"/>
+      <c r="N4" s="174"/>
+      <c r="O4" s="174"/>
+      <c r="P4" s="174"/>
+      <c r="Q4" s="174"/>
+      <c r="R4" s="174"/>
+      <c r="S4" s="174"/>
+      <c r="T4" s="174"/>
+      <c r="U4" s="174"/>
+      <c r="V4" s="174"/>
+      <c r="W4" s="174"/>
+      <c r="X4" s="174"/>
+      <c r="Y4" s="174"/>
       <c r="Z4" s="58"/>
       <c r="AA4" s="134"/>
       <c r="AB4" s="135"/>
@@ -4874,44 +4832,44 @@
       <c r="AE4" s="136"/>
     </row>
     <row r="5" spans="1:31" s="13" customFormat="1" ht="13.5" thickBot="1">
-      <c r="B5" s="192" t="s">
+      <c r="B5" s="199" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="193"/>
-      <c r="D5" s="193"/>
-      <c r="E5" s="194"/>
+      <c r="C5" s="200"/>
+      <c r="D5" s="200"/>
+      <c r="E5" s="201"/>
       <c r="F5" s="14"/>
       <c r="G5" s="63" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
-      <c r="J5" s="181" t="s">
-        <v>80</v>
-      </c>
-      <c r="K5" s="182"/>
-      <c r="L5" s="182"/>
-      <c r="M5" s="182"/>
-      <c r="N5" s="182"/>
-      <c r="O5" s="182"/>
-      <c r="P5" s="182"/>
-      <c r="Q5" s="182"/>
-      <c r="R5" s="182"/>
-      <c r="S5" s="182"/>
-      <c r="T5" s="182"/>
-      <c r="U5" s="182"/>
+      <c r="J5" s="212" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" s="213"/>
+      <c r="L5" s="213"/>
+      <c r="M5" s="213"/>
+      <c r="N5" s="213"/>
+      <c r="O5" s="213"/>
+      <c r="P5" s="213"/>
+      <c r="Q5" s="213"/>
+      <c r="R5" s="213"/>
+      <c r="S5" s="213"/>
+      <c r="T5" s="213"/>
+      <c r="U5" s="213"/>
       <c r="V5" s="137"/>
       <c r="W5" s="137"/>
       <c r="X5" s="137"/>
       <c r="Y5" s="137"/>
       <c r="Z5" s="137"/>
       <c r="AA5" s="138"/>
-      <c r="AB5" s="183" t="s">
+      <c r="AB5" s="214" t="s">
         <v>1</v>
       </c>
-      <c r="AC5" s="184"/>
-      <c r="AD5" s="184"/>
-      <c r="AE5" s="185"/>
+      <c r="AC5" s="215"/>
+      <c r="AD5" s="215"/>
+      <c r="AE5" s="216"/>
     </row>
     <row r="6" spans="1:31" s="18" customFormat="1">
       <c r="B6" s="84" t="s">
@@ -4924,7 +4882,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="116" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H6" s="98"/>
       <c r="I6" s="102"/>
@@ -4974,7 +4932,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="117" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H7" s="99"/>
       <c r="I7" s="103"/>
@@ -5022,7 +4980,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="117" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H8" s="99"/>
       <c r="I8" s="103"/>
@@ -5070,7 +5028,7 @@
         <v>4</v>
       </c>
       <c r="G9" s="117" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H9" s="99"/>
       <c r="I9" s="103"/>
@@ -5119,7 +5077,7 @@
         <v>5</v>
       </c>
       <c r="G10" s="117" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H10" s="99"/>
       <c r="I10" s="103"/>
@@ -5167,7 +5125,7 @@
         <v>6</v>
       </c>
       <c r="G11" s="117" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H11" s="99"/>
       <c r="I11" s="103"/>
@@ -5192,7 +5150,7 @@
       <c r="Z11" s="83"/>
       <c r="AA11" s="83"/>
       <c r="AB11" s="147" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC11" s="119" t="s">
         <v>29</v>
@@ -5215,7 +5173,7 @@
         <v>7</v>
       </c>
       <c r="G12" s="117" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H12" s="99"/>
       <c r="I12" s="103"/>
@@ -5265,7 +5223,7 @@
         <v>8</v>
       </c>
       <c r="G13" s="117" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H13" s="99"/>
       <c r="I13" s="103"/>
@@ -5307,7 +5265,7 @@
         <v>9</v>
       </c>
       <c r="G14" s="117" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H14" s="99"/>
       <c r="I14" s="103"/>
@@ -5332,7 +5290,7 @@
       <c r="Z14" s="83"/>
       <c r="AA14" s="83"/>
       <c r="AB14" s="147" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC14" s="23"/>
       <c r="AD14" s="23"/>
@@ -5349,7 +5307,7 @@
         <v>10</v>
       </c>
       <c r="G15" s="117" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H15" s="99"/>
       <c r="I15" s="103"/>
@@ -5375,7 +5333,7 @@
       <c r="AA15" s="83"/>
       <c r="AB15" s="22"/>
       <c r="AC15" s="119" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD15" s="119" t="s">
         <v>29</v>
@@ -5402,7 +5360,9 @@
       <c r="L16" s="83"/>
       <c r="M16" s="83"/>
       <c r="N16" s="83"/>
-      <c r="O16" s="112"/>
+      <c r="O16" s="121" t="s">
+        <v>18</v>
+      </c>
       <c r="P16" s="112" t="s">
         <v>18</v>
       </c>
@@ -5420,7 +5380,7 @@
       <c r="AB16" s="147"/>
       <c r="AC16" s="23"/>
       <c r="AD16" s="119" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE16" s="24"/>
     </row>
@@ -5462,7 +5422,7 @@
       <c r="AB17" s="22"/>
       <c r="AC17" s="23"/>
       <c r="AD17" s="119" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE17" s="24"/>
     </row>
@@ -5477,7 +5437,7 @@
         <v>13</v>
       </c>
       <c r="G18" s="117" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H18" s="99"/>
       <c r="I18" s="103"/>
@@ -5511,7 +5471,7 @@
       <c r="AA18" s="83"/>
       <c r="AB18" s="22"/>
       <c r="AC18" s="119" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD18" s="23"/>
       <c r="AE18" s="24"/>
@@ -5527,7 +5487,7 @@
         <v>14</v>
       </c>
       <c r="G19" s="117" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H19" s="99"/>
       <c r="I19" s="103"/>
@@ -5560,7 +5520,7 @@
       <c r="Z19" s="83"/>
       <c r="AA19" s="83"/>
       <c r="AB19" s="147" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC19" s="23"/>
       <c r="AD19" s="23"/>
@@ -5577,7 +5537,7 @@
         <v>15</v>
       </c>
       <c r="G20" s="117" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H20" s="100"/>
       <c r="I20" s="104"/>
@@ -5604,7 +5564,7 @@
       <c r="AB20" s="22"/>
       <c r="AC20" s="23"/>
       <c r="AD20" s="119" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE20" s="24"/>
     </row>
@@ -5619,7 +5579,7 @@
         <v>16</v>
       </c>
       <c r="G21" s="117" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H21" s="100"/>
       <c r="I21" s="104"/>
@@ -5646,7 +5606,7 @@
       <c r="AB21" s="22"/>
       <c r="AC21" s="23"/>
       <c r="AD21" s="119" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE21" s="24"/>
     </row>
@@ -5661,7 +5621,7 @@
         <v>17</v>
       </c>
       <c r="G22" s="117" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H22" s="100"/>
       <c r="I22" s="104"/>
@@ -5688,7 +5648,7 @@
       <c r="AB22" s="22"/>
       <c r="AC22" s="23"/>
       <c r="AD22" s="119" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE22" s="24"/>
     </row>
@@ -5730,7 +5690,7 @@
       <c r="AB23" s="22"/>
       <c r="AC23" s="23"/>
       <c r="AD23" s="119" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE23" s="24"/>
     </row>
@@ -5744,12 +5704,10 @@
       <c r="F24" s="97">
         <v>19</v>
       </c>
-      <c r="G24" s="117" t="s">
-        <v>43</v>
-      </c>
-      <c r="H24" s="100"/>
-      <c r="I24" s="104"/>
-      <c r="J24" s="82"/>
+      <c r="G24" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="J24" s="219"/>
       <c r="K24" s="83"/>
       <c r="L24" s="83"/>
       <c r="M24" s="83"/>
@@ -5757,16 +5715,14 @@
       <c r="O24" s="83"/>
       <c r="P24" s="83"/>
       <c r="Q24" s="83"/>
-      <c r="R24" s="121"/>
+      <c r="R24" s="83"/>
       <c r="S24" s="83"/>
-      <c r="T24" s="125"/>
+      <c r="T24" s="83"/>
       <c r="U24" s="83"/>
       <c r="V24" s="83"/>
       <c r="W24" s="83"/>
-      <c r="X24" s="121" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y24" s="83" t="s">
+      <c r="X24" s="83"/>
+      <c r="Y24" s="112" t="s">
         <v>18</v>
       </c>
       <c r="Z24" s="83"/>
@@ -5787,7 +5743,7 @@
         <v>20</v>
       </c>
       <c r="G25" s="117" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H25" s="100"/>
       <c r="I25" s="104"/>
@@ -5799,16 +5755,14 @@
       <c r="O25" s="83"/>
       <c r="P25" s="83"/>
       <c r="Q25" s="83"/>
-      <c r="R25" s="83"/>
-      <c r="S25" s="121"/>
+      <c r="R25" s="121"/>
+      <c r="S25" s="83"/>
       <c r="T25" s="125"/>
       <c r="U25" s="83"/>
       <c r="V25" s="83"/>
       <c r="W25" s="83"/>
-      <c r="X25" s="121" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y25" s="83" t="s">
+      <c r="X25" s="121"/>
+      <c r="Y25" s="123" t="s">
         <v>18</v>
       </c>
       <c r="Z25" s="83"/>
@@ -5829,27 +5783,28 @@
         <v>21</v>
       </c>
       <c r="G26" s="117" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H26" s="100"/>
       <c r="I26" s="104"/>
       <c r="J26" s="82"/>
       <c r="K26" s="83"/>
       <c r="L26" s="83"/>
-      <c r="M26" s="113"/>
+      <c r="M26" s="83"/>
       <c r="N26" s="83"/>
       <c r="O26" s="83"/>
       <c r="P26" s="83"/>
       <c r="Q26" s="83"/>
-      <c r="S26" s="83"/>
-      <c r="T26" s="126"/>
+      <c r="R26" s="83"/>
+      <c r="S26" s="121"/>
+      <c r="T26" s="125"/>
       <c r="U26" s="83"/>
-      <c r="V26" s="113"/>
-      <c r="W26" s="113"/>
+      <c r="V26" s="83"/>
+      <c r="W26" s="83"/>
       <c r="X26" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="Y26" s="83" t="s">
+      <c r="Y26" s="123" t="s">
         <v>18</v>
       </c>
       <c r="Z26" s="113"/>
@@ -5858,7 +5813,7 @@
       <c r="AC26" s="23"/>
       <c r="AD26" s="23"/>
       <c r="AE26" s="120" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="2:31" s="18" customFormat="1">
@@ -5872,24 +5827,23 @@
         <v>22</v>
       </c>
       <c r="G27" s="117" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H27" s="100"/>
       <c r="I27" s="104"/>
       <c r="J27" s="82"/>
       <c r="K27" s="83"/>
       <c r="L27" s="83"/>
-      <c r="M27" s="83"/>
+      <c r="M27" s="113"/>
       <c r="N27" s="83"/>
       <c r="O27" s="83"/>
       <c r="P27" s="83"/>
       <c r="Q27" s="83"/>
-      <c r="R27" s="83"/>
-      <c r="S27" s="121"/>
-      <c r="T27" s="125"/>
+      <c r="S27" s="83"/>
+      <c r="T27" s="126"/>
       <c r="U27" s="83"/>
-      <c r="V27" s="83"/>
-      <c r="W27" s="83"/>
+      <c r="V27" s="113"/>
+      <c r="W27" s="113"/>
       <c r="X27" s="121" t="s">
         <v>18</v>
       </c>
@@ -5900,7 +5854,7 @@
       <c r="AA27" s="83"/>
       <c r="AB27" s="22"/>
       <c r="AC27" s="119" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD27" s="23"/>
       <c r="AE27" s="24"/>
@@ -5916,20 +5870,21 @@
         <v>23</v>
       </c>
       <c r="G28" s="117" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" s="100"/>
       <c r="I28" s="104"/>
       <c r="J28" s="82"/>
-      <c r="K28" s="113"/>
+      <c r="K28" s="83"/>
       <c r="L28" s="83"/>
       <c r="M28" s="83"/>
       <c r="N28" s="83"/>
       <c r="O28" s="83"/>
       <c r="P28" s="83"/>
+      <c r="Q28" s="83"/>
       <c r="R28" s="83"/>
-      <c r="S28" s="83"/>
-      <c r="T28" s="126"/>
+      <c r="S28" s="121"/>
+      <c r="T28" s="125"/>
       <c r="U28" s="83"/>
       <c r="V28" s="83"/>
       <c r="W28" s="83"/>
@@ -5942,7 +5897,7 @@
       <c r="Z28" s="83"/>
       <c r="AA28" s="83"/>
       <c r="AB28" s="148" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC28" s="76"/>
       <c r="AD28" s="76"/>
@@ -5959,24 +5914,29 @@
         <v>24</v>
       </c>
       <c r="G29" s="117" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H29" s="100"/>
       <c r="I29" s="104"/>
       <c r="J29" s="82"/>
-      <c r="K29" s="83"/>
+      <c r="K29" s="113"/>
       <c r="L29" s="83"/>
       <c r="M29" s="83"/>
+      <c r="N29" s="83"/>
       <c r="O29" s="83"/>
       <c r="P29" s="83"/>
-      <c r="Q29" s="83"/>
       <c r="R29" s="83"/>
       <c r="S29" s="83"/>
+      <c r="T29" s="126"/>
       <c r="U29" s="83"/>
       <c r="V29" s="83"/>
       <c r="W29" s="83"/>
-      <c r="X29" s="83"/>
-      <c r="Y29" s="83"/>
+      <c r="X29" s="121" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y29" s="83" t="s">
+        <v>18</v>
+      </c>
       <c r="Z29" s="83"/>
       <c r="AA29" s="83"/>
       <c r="AB29" s="25"/>
@@ -5995,7 +5955,7 @@
         <v>25</v>
       </c>
       <c r="G30" s="117" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H30" s="100"/>
       <c r="I30" s="104"/>
@@ -6113,10 +6073,10 @@
       <c r="X32" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="Y32" s="218" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z32" s="218" t="s">
+      <c r="Y32" s="123" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z32" s="170" t="s">
         <v>18</v>
       </c>
       <c r="AA32" s="139"/>
@@ -6124,7 +6084,7 @@
       <c r="AC32" s="23"/>
       <c r="AD32" s="119"/>
       <c r="AE32" s="120" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="2:31" s="18" customFormat="1">
@@ -6231,7 +6191,7 @@
       <c r="G35" s="79"/>
       <c r="H35" s="80"/>
       <c r="I35" s="169" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J35" s="106"/>
       <c r="K35" s="107"/>
@@ -6257,254 +6217,254 @@
       <c r="AE35" s="74"/>
     </row>
     <row r="36" spans="2:31" ht="12.75" customHeight="1">
-      <c r="B36" s="197" t="s">
+      <c r="B36" s="204" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="190" t="s">
+      <c r="C36" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="190" t="s">
+      <c r="D36" s="197" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="195" t="s">
+      <c r="E36" s="202" t="s">
         <v>25</v>
       </c>
       <c r="F36" s="28"/>
       <c r="G36" s="29"/>
       <c r="H36" s="30"/>
       <c r="I36" s="30"/>
-      <c r="J36" s="178" t="s">
+      <c r="J36" s="209" t="s">
+        <v>63</v>
+      </c>
+      <c r="K36" s="179" t="s">
         <v>64</v>
       </c>
-      <c r="K36" s="175" t="s">
+      <c r="L36" s="179" t="s">
         <v>65</v>
       </c>
-      <c r="L36" s="175" t="s">
+      <c r="M36" s="179" t="s">
+        <v>22</v>
+      </c>
+      <c r="N36" s="179" t="s">
         <v>66</v>
       </c>
-      <c r="M36" s="175" t="s">
-        <v>22</v>
-      </c>
-      <c r="N36" s="175" t="s">
+      <c r="O36" s="179" t="s">
         <v>67</v>
       </c>
-      <c r="O36" s="175" t="s">
+      <c r="P36" s="179" t="s">
         <v>68</v>
       </c>
-      <c r="P36" s="175" t="s">
+      <c r="Q36" s="179" t="s">
+        <v>70</v>
+      </c>
+      <c r="R36" s="179" t="s">
+        <v>82</v>
+      </c>
+      <c r="S36" s="179" t="s">
         <v>69</v>
       </c>
-      <c r="Q36" s="175" t="s">
+      <c r="T36" s="179" t="s">
         <v>71</v>
       </c>
-      <c r="R36" s="175" t="s">
-        <v>83</v>
-      </c>
-      <c r="S36" s="175" t="s">
-        <v>70</v>
-      </c>
-      <c r="T36" s="175" t="s">
+      <c r="U36" s="179" t="s">
+        <v>81</v>
+      </c>
+      <c r="V36" s="186" t="s">
+        <v>37</v>
+      </c>
+      <c r="W36" s="179" t="s">
         <v>72</v>
       </c>
-      <c r="U36" s="175" t="s">
-        <v>82</v>
-      </c>
-      <c r="V36" s="207" t="s">
-        <v>37</v>
-      </c>
-      <c r="W36" s="175" t="s">
-        <v>73</v>
-      </c>
-      <c r="X36" s="175" t="s">
+      <c r="X36" s="179" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y36" s="179" t="s">
         <v>75</v>
       </c>
-      <c r="Y36" s="175" t="s">
+      <c r="Z36" s="189" t="s">
         <v>76</v>
       </c>
-      <c r="Z36" s="210" t="s">
+      <c r="AA36" s="192" t="s">
         <v>77</v>
       </c>
-      <c r="AA36" s="213" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB36" s="173" t="s">
+      <c r="AB36" s="182" t="s">
         <v>31</v>
       </c>
-      <c r="AC36" s="173" t="s">
+      <c r="AC36" s="182" t="s">
         <v>32</v>
       </c>
-      <c r="AD36" s="186" t="s">
+      <c r="AD36" s="217" t="s">
         <v>33</v>
       </c>
-      <c r="AE36" s="170" t="s">
+      <c r="AE36" s="206" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="37" spans="2:31" ht="12.75" customHeight="1">
-      <c r="B37" s="197"/>
-      <c r="C37" s="190"/>
-      <c r="D37" s="190"/>
-      <c r="E37" s="195"/>
+      <c r="B37" s="204"/>
+      <c r="C37" s="197"/>
+      <c r="D37" s="197"/>
+      <c r="E37" s="202"/>
       <c r="F37" s="28"/>
       <c r="G37" s="31"/>
       <c r="H37" s="30"/>
       <c r="I37" s="30"/>
-      <c r="J37" s="179"/>
-      <c r="K37" s="176"/>
-      <c r="L37" s="176"/>
-      <c r="M37" s="176"/>
-      <c r="N37" s="176"/>
-      <c r="O37" s="176"/>
-      <c r="P37" s="176"/>
-      <c r="Q37" s="176"/>
-      <c r="R37" s="176"/>
-      <c r="S37" s="176"/>
-      <c r="T37" s="176"/>
-      <c r="U37" s="205"/>
-      <c r="V37" s="208"/>
-      <c r="W37" s="176"/>
-      <c r="X37" s="176"/>
-      <c r="Y37" s="176"/>
-      <c r="Z37" s="211"/>
-      <c r="AA37" s="214"/>
-      <c r="AB37" s="173"/>
-      <c r="AC37" s="173"/>
-      <c r="AD37" s="186"/>
-      <c r="AE37" s="171"/>
+      <c r="J37" s="210"/>
+      <c r="K37" s="180"/>
+      <c r="L37" s="180"/>
+      <c r="M37" s="180"/>
+      <c r="N37" s="180"/>
+      <c r="O37" s="180"/>
+      <c r="P37" s="180"/>
+      <c r="Q37" s="180"/>
+      <c r="R37" s="180"/>
+      <c r="S37" s="180"/>
+      <c r="T37" s="180"/>
+      <c r="U37" s="184"/>
+      <c r="V37" s="187"/>
+      <c r="W37" s="180"/>
+      <c r="X37" s="180"/>
+      <c r="Y37" s="180"/>
+      <c r="Z37" s="190"/>
+      <c r="AA37" s="193"/>
+      <c r="AB37" s="182"/>
+      <c r="AC37" s="182"/>
+      <c r="AD37" s="217"/>
+      <c r="AE37" s="207"/>
     </row>
     <row r="38" spans="2:31" ht="12.75" customHeight="1">
-      <c r="B38" s="197"/>
-      <c r="C38" s="190"/>
-      <c r="D38" s="190"/>
-      <c r="E38" s="195"/>
+      <c r="B38" s="204"/>
+      <c r="C38" s="197"/>
+      <c r="D38" s="197"/>
+      <c r="E38" s="202"/>
       <c r="F38" s="28"/>
       <c r="G38" s="31"/>
       <c r="H38" s="30"/>
       <c r="I38" s="30"/>
-      <c r="J38" s="179"/>
-      <c r="K38" s="176"/>
-      <c r="L38" s="176"/>
-      <c r="M38" s="176"/>
-      <c r="N38" s="176"/>
-      <c r="O38" s="176"/>
-      <c r="P38" s="176"/>
-      <c r="Q38" s="176"/>
-      <c r="R38" s="176"/>
-      <c r="S38" s="176"/>
-      <c r="T38" s="176"/>
-      <c r="U38" s="205"/>
-      <c r="V38" s="208"/>
-      <c r="W38" s="176"/>
-      <c r="X38" s="176"/>
-      <c r="Y38" s="176"/>
-      <c r="Z38" s="211"/>
-      <c r="AA38" s="214"/>
-      <c r="AB38" s="173"/>
-      <c r="AC38" s="173"/>
-      <c r="AD38" s="186"/>
-      <c r="AE38" s="171"/>
+      <c r="J38" s="210"/>
+      <c r="K38" s="180"/>
+      <c r="L38" s="180"/>
+      <c r="M38" s="180"/>
+      <c r="N38" s="180"/>
+      <c r="O38" s="180"/>
+      <c r="P38" s="180"/>
+      <c r="Q38" s="180"/>
+      <c r="R38" s="180"/>
+      <c r="S38" s="180"/>
+      <c r="T38" s="180"/>
+      <c r="U38" s="184"/>
+      <c r="V38" s="187"/>
+      <c r="W38" s="180"/>
+      <c r="X38" s="180"/>
+      <c r="Y38" s="180"/>
+      <c r="Z38" s="190"/>
+      <c r="AA38" s="193"/>
+      <c r="AB38" s="182"/>
+      <c r="AC38" s="182"/>
+      <c r="AD38" s="217"/>
+      <c r="AE38" s="207"/>
     </row>
     <row r="39" spans="2:31" ht="12.75" customHeight="1">
-      <c r="B39" s="197"/>
-      <c r="C39" s="190"/>
-      <c r="D39" s="190"/>
-      <c r="E39" s="195"/>
+      <c r="B39" s="204"/>
+      <c r="C39" s="197"/>
+      <c r="D39" s="197"/>
+      <c r="E39" s="202"/>
       <c r="F39" s="28"/>
       <c r="G39" s="32"/>
       <c r="H39" s="30"/>
       <c r="I39" s="30"/>
-      <c r="J39" s="179"/>
-      <c r="K39" s="176"/>
-      <c r="L39" s="176"/>
-      <c r="M39" s="176"/>
-      <c r="N39" s="176"/>
-      <c r="O39" s="176"/>
-      <c r="P39" s="176"/>
-      <c r="Q39" s="176"/>
-      <c r="R39" s="176"/>
-      <c r="S39" s="176"/>
-      <c r="T39" s="176"/>
-      <c r="U39" s="205"/>
-      <c r="V39" s="208"/>
-      <c r="W39" s="176"/>
-      <c r="X39" s="176"/>
-      <c r="Y39" s="176"/>
-      <c r="Z39" s="211"/>
-      <c r="AA39" s="214"/>
-      <c r="AB39" s="173"/>
-      <c r="AC39" s="173"/>
-      <c r="AD39" s="186"/>
-      <c r="AE39" s="171"/>
+      <c r="J39" s="210"/>
+      <c r="K39" s="180"/>
+      <c r="L39" s="180"/>
+      <c r="M39" s="180"/>
+      <c r="N39" s="180"/>
+      <c r="O39" s="180"/>
+      <c r="P39" s="180"/>
+      <c r="Q39" s="180"/>
+      <c r="R39" s="180"/>
+      <c r="S39" s="180"/>
+      <c r="T39" s="180"/>
+      <c r="U39" s="184"/>
+      <c r="V39" s="187"/>
+      <c r="W39" s="180"/>
+      <c r="X39" s="180"/>
+      <c r="Y39" s="180"/>
+      <c r="Z39" s="190"/>
+      <c r="AA39" s="193"/>
+      <c r="AB39" s="182"/>
+      <c r="AC39" s="182"/>
+      <c r="AD39" s="217"/>
+      <c r="AE39" s="207"/>
     </row>
     <row r="40" spans="2:31" ht="12.75" customHeight="1">
-      <c r="B40" s="197"/>
-      <c r="C40" s="190"/>
-      <c r="D40" s="190"/>
-      <c r="E40" s="195"/>
+      <c r="B40" s="204"/>
+      <c r="C40" s="197"/>
+      <c r="D40" s="197"/>
+      <c r="E40" s="202"/>
       <c r="F40" s="28"/>
       <c r="G40" s="29"/>
       <c r="H40" s="30"/>
       <c r="I40" s="30"/>
-      <c r="J40" s="179"/>
-      <c r="K40" s="176"/>
-      <c r="L40" s="176"/>
-      <c r="M40" s="176"/>
-      <c r="N40" s="176"/>
-      <c r="O40" s="176"/>
-      <c r="P40" s="176"/>
-      <c r="Q40" s="176"/>
-      <c r="R40" s="176"/>
-      <c r="S40" s="176"/>
-      <c r="T40" s="176"/>
-      <c r="U40" s="205"/>
-      <c r="V40" s="208"/>
-      <c r="W40" s="176"/>
-      <c r="X40" s="176"/>
-      <c r="Y40" s="176"/>
-      <c r="Z40" s="211"/>
-      <c r="AA40" s="214"/>
-      <c r="AB40" s="173"/>
-      <c r="AC40" s="173"/>
-      <c r="AD40" s="186"/>
-      <c r="AE40" s="171"/>
+      <c r="J40" s="210"/>
+      <c r="K40" s="180"/>
+      <c r="L40" s="180"/>
+      <c r="M40" s="180"/>
+      <c r="N40" s="180"/>
+      <c r="O40" s="180"/>
+      <c r="P40" s="180"/>
+      <c r="Q40" s="180"/>
+      <c r="R40" s="180"/>
+      <c r="S40" s="180"/>
+      <c r="T40" s="180"/>
+      <c r="U40" s="184"/>
+      <c r="V40" s="187"/>
+      <c r="W40" s="180"/>
+      <c r="X40" s="180"/>
+      <c r="Y40" s="180"/>
+      <c r="Z40" s="190"/>
+      <c r="AA40" s="193"/>
+      <c r="AB40" s="182"/>
+      <c r="AC40" s="182"/>
+      <c r="AD40" s="217"/>
+      <c r="AE40" s="207"/>
     </row>
     <row r="41" spans="2:31" ht="12" customHeight="1" thickBot="1">
-      <c r="B41" s="197"/>
-      <c r="C41" s="190"/>
-      <c r="D41" s="190"/>
-      <c r="E41" s="195"/>
+      <c r="B41" s="204"/>
+      <c r="C41" s="197"/>
+      <c r="D41" s="197"/>
+      <c r="E41" s="202"/>
       <c r="F41" s="28"/>
       <c r="G41" s="33"/>
       <c r="H41" s="30"/>
       <c r="I41" s="30"/>
-      <c r="J41" s="180"/>
-      <c r="K41" s="177"/>
-      <c r="L41" s="177"/>
-      <c r="M41" s="177"/>
-      <c r="N41" s="177"/>
-      <c r="O41" s="177"/>
-      <c r="P41" s="177"/>
-      <c r="Q41" s="177"/>
-      <c r="R41" s="177"/>
-      <c r="S41" s="177"/>
-      <c r="T41" s="177"/>
-      <c r="U41" s="206"/>
-      <c r="V41" s="209"/>
-      <c r="W41" s="177"/>
-      <c r="X41" s="177"/>
-      <c r="Y41" s="177"/>
-      <c r="Z41" s="212"/>
-      <c r="AA41" s="215"/>
-      <c r="AB41" s="174"/>
-      <c r="AC41" s="174"/>
-      <c r="AD41" s="187"/>
-      <c r="AE41" s="172"/>
+      <c r="J41" s="211"/>
+      <c r="K41" s="181"/>
+      <c r="L41" s="181"/>
+      <c r="M41" s="181"/>
+      <c r="N41" s="181"/>
+      <c r="O41" s="181"/>
+      <c r="P41" s="181"/>
+      <c r="Q41" s="181"/>
+      <c r="R41" s="181"/>
+      <c r="S41" s="181"/>
+      <c r="T41" s="181"/>
+      <c r="U41" s="185"/>
+      <c r="V41" s="188"/>
+      <c r="W41" s="181"/>
+      <c r="X41" s="181"/>
+      <c r="Y41" s="181"/>
+      <c r="Z41" s="191"/>
+      <c r="AA41" s="194"/>
+      <c r="AB41" s="183"/>
+      <c r="AC41" s="183"/>
+      <c r="AD41" s="218"/>
+      <c r="AE41" s="208"/>
     </row>
     <row r="42" spans="2:31">
-      <c r="B42" s="197"/>
-      <c r="C42" s="190"/>
-      <c r="D42" s="190"/>
-      <c r="E42" s="195"/>
+      <c r="B42" s="204"/>
+      <c r="C42" s="197"/>
+      <c r="D42" s="197"/>
+      <c r="E42" s="202"/>
       <c r="F42" s="34"/>
       <c r="G42" s="33"/>
       <c r="H42" s="33"/>
@@ -6533,10 +6493,10 @@
       <c r="AE42" s="150"/>
     </row>
     <row r="43" spans="2:31" ht="15.75" customHeight="1">
-      <c r="B43" s="197"/>
-      <c r="C43" s="190"/>
-      <c r="D43" s="190"/>
-      <c r="E43" s="195"/>
+      <c r="B43" s="204"/>
+      <c r="C43" s="197"/>
+      <c r="D43" s="197"/>
+      <c r="E43" s="202"/>
       <c r="F43" s="37"/>
       <c r="G43" s="33"/>
       <c r="H43" s="31"/>
@@ -6571,10 +6531,10 @@
       <c r="AE43" s="151"/>
     </row>
     <row r="44" spans="2:31" ht="12.75" customHeight="1">
-      <c r="B44" s="197"/>
-      <c r="C44" s="190"/>
-      <c r="D44" s="190"/>
-      <c r="E44" s="195"/>
+      <c r="B44" s="204"/>
+      <c r="C44" s="197"/>
+      <c r="D44" s="197"/>
+      <c r="E44" s="202"/>
       <c r="F44" s="34"/>
       <c r="G44" s="29"/>
       <c r="H44" s="31"/>
@@ -6609,10 +6569,10 @@
       <c r="AE44" s="151"/>
     </row>
     <row r="45" spans="2:31" ht="15.75">
-      <c r="B45" s="197"/>
-      <c r="C45" s="190"/>
-      <c r="D45" s="190"/>
-      <c r="E45" s="195"/>
+      <c r="B45" s="204"/>
+      <c r="C45" s="197"/>
+      <c r="D45" s="197"/>
+      <c r="E45" s="202"/>
       <c r="F45" s="34"/>
       <c r="G45" s="29"/>
       <c r="H45" s="31"/>
@@ -6645,10 +6605,10 @@
       <c r="AE45" s="151"/>
     </row>
     <row r="46" spans="2:31">
-      <c r="B46" s="197"/>
-      <c r="C46" s="190"/>
-      <c r="D46" s="190"/>
-      <c r="E46" s="195"/>
+      <c r="B46" s="204"/>
+      <c r="C46" s="197"/>
+      <c r="D46" s="197"/>
+      <c r="E46" s="202"/>
       <c r="F46" s="34"/>
       <c r="G46" s="29"/>
       <c r="H46" s="29"/>
@@ -6681,10 +6641,10 @@
       <c r="AE46" s="151"/>
     </row>
     <row r="47" spans="2:31" ht="15.75">
-      <c r="B47" s="197"/>
-      <c r="C47" s="190"/>
-      <c r="D47" s="190"/>
-      <c r="E47" s="195"/>
+      <c r="B47" s="204"/>
+      <c r="C47" s="197"/>
+      <c r="D47" s="197"/>
+      <c r="E47" s="202"/>
       <c r="F47" s="34"/>
       <c r="G47" s="41"/>
       <c r="H47" s="34"/>
@@ -6713,10 +6673,10 @@
       <c r="AE47" s="151"/>
     </row>
     <row r="48" spans="2:31" ht="13.5" thickBot="1">
-      <c r="B48" s="197"/>
-      <c r="C48" s="190"/>
-      <c r="D48" s="190"/>
-      <c r="E48" s="195"/>
+      <c r="B48" s="204"/>
+      <c r="C48" s="197"/>
+      <c r="D48" s="197"/>
+      <c r="E48" s="202"/>
       <c r="F48" s="42"/>
       <c r="G48" s="43"/>
       <c r="H48" s="44"/>
@@ -6745,32 +6705,32 @@
       <c r="AE48" s="156"/>
     </row>
     <row r="49" spans="2:31">
-      <c r="B49" s="197"/>
-      <c r="C49" s="190"/>
-      <c r="D49" s="190"/>
-      <c r="E49" s="195"/>
-      <c r="F49" s="216" t="s">
+      <c r="B49" s="204"/>
+      <c r="C49" s="197"/>
+      <c r="D49" s="197"/>
+      <c r="E49" s="202"/>
+      <c r="F49" s="195" t="s">
         <v>19</v>
       </c>
-      <c r="G49" s="217"/>
-      <c r="H49" s="217"/>
-      <c r="I49" s="217"/>
-      <c r="J49" s="217"/>
-      <c r="K49" s="217"/>
-      <c r="L49" s="217"/>
-      <c r="M49" s="217"/>
-      <c r="N49" s="217"/>
-      <c r="O49" s="217"/>
-      <c r="P49" s="217"/>
-      <c r="Q49" s="217"/>
-      <c r="R49" s="217"/>
-      <c r="S49" s="217"/>
-      <c r="T49" s="217"/>
-      <c r="U49" s="217"/>
-      <c r="V49" s="217"/>
-      <c r="W49" s="217"/>
-      <c r="X49" s="217"/>
-      <c r="Y49" s="217"/>
+      <c r="G49" s="196"/>
+      <c r="H49" s="196"/>
+      <c r="I49" s="196"/>
+      <c r="J49" s="196"/>
+      <c r="K49" s="196"/>
+      <c r="L49" s="196"/>
+      <c r="M49" s="196"/>
+      <c r="N49" s="196"/>
+      <c r="O49" s="196"/>
+      <c r="P49" s="196"/>
+      <c r="Q49" s="196"/>
+      <c r="R49" s="196"/>
+      <c r="S49" s="196"/>
+      <c r="T49" s="196"/>
+      <c r="U49" s="196"/>
+      <c r="V49" s="196"/>
+      <c r="W49" s="196"/>
+      <c r="X49" s="196"/>
+      <c r="Y49" s="196"/>
       <c r="Z49" s="149"/>
       <c r="AA49" s="157"/>
       <c r="AB49" s="158"/>
@@ -6779,30 +6739,30 @@
       <c r="AE49" s="150"/>
     </row>
     <row r="50" spans="2:31">
-      <c r="B50" s="197"/>
-      <c r="C50" s="190"/>
-      <c r="D50" s="190"/>
-      <c r="E50" s="195"/>
-      <c r="F50" s="188"/>
-      <c r="G50" s="189"/>
-      <c r="H50" s="189"/>
-      <c r="I50" s="189"/>
-      <c r="J50" s="189"/>
-      <c r="K50" s="189"/>
-      <c r="L50" s="189"/>
-      <c r="M50" s="189"/>
-      <c r="N50" s="189"/>
-      <c r="O50" s="189"/>
-      <c r="P50" s="189"/>
-      <c r="Q50" s="189"/>
-      <c r="R50" s="189"/>
-      <c r="S50" s="189"/>
-      <c r="T50" s="189"/>
-      <c r="U50" s="189"/>
-      <c r="V50" s="189"/>
-      <c r="W50" s="189"/>
-      <c r="X50" s="189"/>
-      <c r="Y50" s="189"/>
+      <c r="B50" s="204"/>
+      <c r="C50" s="197"/>
+      <c r="D50" s="197"/>
+      <c r="E50" s="202"/>
+      <c r="F50" s="175"/>
+      <c r="G50" s="176"/>
+      <c r="H50" s="176"/>
+      <c r="I50" s="176"/>
+      <c r="J50" s="176"/>
+      <c r="K50" s="176"/>
+      <c r="L50" s="176"/>
+      <c r="M50" s="176"/>
+      <c r="N50" s="176"/>
+      <c r="O50" s="176"/>
+      <c r="P50" s="176"/>
+      <c r="Q50" s="176"/>
+      <c r="R50" s="176"/>
+      <c r="S50" s="176"/>
+      <c r="T50" s="176"/>
+      <c r="U50" s="176"/>
+      <c r="V50" s="176"/>
+      <c r="W50" s="176"/>
+      <c r="X50" s="176"/>
+      <c r="Y50" s="176"/>
       <c r="Z50" s="162"/>
       <c r="AA50" s="163"/>
       <c r="AB50" s="164"/>
@@ -6811,30 +6771,30 @@
       <c r="AE50" s="165"/>
     </row>
     <row r="51" spans="2:31">
-      <c r="B51" s="197"/>
-      <c r="C51" s="190"/>
-      <c r="D51" s="190"/>
-      <c r="E51" s="195"/>
-      <c r="F51" s="188"/>
-      <c r="G51" s="189"/>
-      <c r="H51" s="189"/>
-      <c r="I51" s="189"/>
-      <c r="J51" s="189"/>
-      <c r="K51" s="189"/>
-      <c r="L51" s="189"/>
-      <c r="M51" s="189"/>
-      <c r="N51" s="189"/>
-      <c r="O51" s="189"/>
-      <c r="P51" s="189"/>
-      <c r="Q51" s="189"/>
-      <c r="R51" s="189"/>
-      <c r="S51" s="189"/>
-      <c r="T51" s="189"/>
-      <c r="U51" s="189"/>
-      <c r="V51" s="189"/>
-      <c r="W51" s="189"/>
-      <c r="X51" s="189"/>
-      <c r="Y51" s="189"/>
+      <c r="B51" s="204"/>
+      <c r="C51" s="197"/>
+      <c r="D51" s="197"/>
+      <c r="E51" s="202"/>
+      <c r="F51" s="175"/>
+      <c r="G51" s="176"/>
+      <c r="H51" s="176"/>
+      <c r="I51" s="176"/>
+      <c r="J51" s="176"/>
+      <c r="K51" s="176"/>
+      <c r="L51" s="176"/>
+      <c r="M51" s="176"/>
+      <c r="N51" s="176"/>
+      <c r="O51" s="176"/>
+      <c r="P51" s="176"/>
+      <c r="Q51" s="176"/>
+      <c r="R51" s="176"/>
+      <c r="S51" s="176"/>
+      <c r="T51" s="176"/>
+      <c r="U51" s="176"/>
+      <c r="V51" s="176"/>
+      <c r="W51" s="176"/>
+      <c r="X51" s="176"/>
+      <c r="Y51" s="176"/>
       <c r="Z51" s="162"/>
       <c r="AA51" s="162"/>
       <c r="AB51" s="164"/>
@@ -6843,30 +6803,30 @@
       <c r="AE51" s="165"/>
     </row>
     <row r="52" spans="2:31" s="13" customFormat="1" ht="13.5" thickBot="1">
-      <c r="B52" s="198"/>
-      <c r="C52" s="191"/>
-      <c r="D52" s="191"/>
-      <c r="E52" s="196"/>
-      <c r="F52" s="203"/>
-      <c r="G52" s="204"/>
-      <c r="H52" s="204"/>
-      <c r="I52" s="204"/>
-      <c r="J52" s="204"/>
-      <c r="K52" s="204"/>
-      <c r="L52" s="204"/>
-      <c r="M52" s="204"/>
-      <c r="N52" s="204"/>
-      <c r="O52" s="204"/>
-      <c r="P52" s="204"/>
-      <c r="Q52" s="204"/>
-      <c r="R52" s="204"/>
-      <c r="S52" s="204"/>
-      <c r="T52" s="204"/>
-      <c r="U52" s="204"/>
-      <c r="V52" s="204"/>
-      <c r="W52" s="204"/>
-      <c r="X52" s="204"/>
-      <c r="Y52" s="204"/>
+      <c r="B52" s="205"/>
+      <c r="C52" s="198"/>
+      <c r="D52" s="198"/>
+      <c r="E52" s="203"/>
+      <c r="F52" s="177"/>
+      <c r="G52" s="178"/>
+      <c r="H52" s="178"/>
+      <c r="I52" s="178"/>
+      <c r="J52" s="178"/>
+      <c r="K52" s="178"/>
+      <c r="L52" s="178"/>
+      <c r="M52" s="178"/>
+      <c r="N52" s="178"/>
+      <c r="O52" s="178"/>
+      <c r="P52" s="178"/>
+      <c r="Q52" s="178"/>
+      <c r="R52" s="178"/>
+      <c r="S52" s="178"/>
+      <c r="T52" s="178"/>
+      <c r="U52" s="178"/>
+      <c r="V52" s="178"/>
+      <c r="W52" s="178"/>
+      <c r="X52" s="178"/>
+      <c r="Y52" s="178"/>
       <c r="Z52" s="43"/>
       <c r="AA52" s="159"/>
       <c r="AB52" s="160"/>
@@ -6918,19 +6878,6 @@
       <c r="N55" s="54"/>
       <c r="O55" s="54"/>
       <c r="P55" s="54"/>
-      <c r="Q55" s="54"/>
-      <c r="R55" s="54"/>
-      <c r="S55" s="54"/>
-      <c r="T55" s="54"/>
-      <c r="U55" s="54"/>
-      <c r="V55" s="54"/>
-      <c r="W55" s="54"/>
-      <c r="X55" s="54"/>
-      <c r="Y55" s="54"/>
-      <c r="Z55" s="54"/>
-      <c r="AA55" s="54"/>
-      <c r="AB55" s="54"/>
-      <c r="AC55" s="54"/>
     </row>
     <row r="56" spans="2:31">
       <c r="B56" s="47"/>
@@ -6994,6 +6941,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="AE36:AE41"/>
+    <mergeCell ref="AB36:AB41"/>
+    <mergeCell ref="P36:P41"/>
+    <mergeCell ref="J36:J41"/>
+    <mergeCell ref="J5:U5"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="K36:K41"/>
+    <mergeCell ref="L36:L41"/>
+    <mergeCell ref="S36:S41"/>
+    <mergeCell ref="N36:N41"/>
+    <mergeCell ref="AD36:AD41"/>
+    <mergeCell ref="F50:Y50"/>
+    <mergeCell ref="O36:O41"/>
+    <mergeCell ref="D36:D52"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="E36:E52"/>
+    <mergeCell ref="B36:B52"/>
+    <mergeCell ref="C36:C52"/>
     <mergeCell ref="F3:Y4"/>
     <mergeCell ref="F51:Y51"/>
     <mergeCell ref="F52:Y52"/>
@@ -7010,463 +6975,500 @@
     <mergeCell ref="M36:M41"/>
     <mergeCell ref="Q36:Q41"/>
     <mergeCell ref="F49:Y49"/>
-    <mergeCell ref="F50:Y50"/>
-    <mergeCell ref="O36:O41"/>
-    <mergeCell ref="D36:D52"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="E36:E52"/>
-    <mergeCell ref="B36:B52"/>
-    <mergeCell ref="C36:C52"/>
-    <mergeCell ref="AE36:AE41"/>
-    <mergeCell ref="AB36:AB41"/>
-    <mergeCell ref="P36:P41"/>
-    <mergeCell ref="J36:J41"/>
-    <mergeCell ref="J5:U5"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="K36:K41"/>
-    <mergeCell ref="L36:L41"/>
-    <mergeCell ref="S36:S41"/>
-    <mergeCell ref="N36:N41"/>
-    <mergeCell ref="AD36:AD41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="I55:J55 N55:AC55">
-    <cfRule type="cellIs" dxfId="161" priority="140" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="I55:J55 N55:P55">
+    <cfRule type="cellIs" dxfId="137" priority="158" stopIfTrue="1" operator="equal">
       <formula>"G"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="141" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="159" stopIfTrue="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="142" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="160" stopIfTrue="1" operator="equal">
       <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J35:U35 J32:T32 J31:S31 J30:R30 J29:M29 J13:N13 O9:T9 J10:L10 J9:K9 J11:K12 M12 J14:L16 N14 P14:T14 J18:M19 J17:T17 J27:T27 J26:Q26 S26:T26 J28:P28 R28:T28 T30 O29:S29 M9:M10 O12:T13 N10:T10 M11:T11 W33:Z33 J20:T25 N15:T16 J6:T8 O18:T19">
-    <cfRule type="cellIs" dxfId="158" priority="143" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="J35:U35 J32:T32 J31:S31 J30:R30 J13:N13 O9:T9 J10:L10 J9:K9 J11:K12 M12 J14:L16 N14 P14:T14 J18:M19 J17:T17 J28:T28 J27:Q27 S27:T27 J29:P29 R29:T29 T30 M9:M10 O12:T13 N10:T10 M11:T11 W33:Z33 N15:T15 J6:T8 O18:T19 N16 P16:T16 V25:W29 Z26:Z28 Y27:Y29 J20:T23 J25:T26">
+    <cfRule type="cellIs" dxfId="134" priority="161" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="144" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="162" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="145" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="163" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T31">
-    <cfRule type="cellIs" dxfId="155" priority="130" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="148" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="131" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="149" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="132" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="150" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14:M16">
-    <cfRule type="cellIs" dxfId="152" priority="127" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="145" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="128" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="146" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="129" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="147" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="149" priority="124" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="142" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="125" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="143" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="126" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="144" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="146" priority="121" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="139" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="122" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="140" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="123" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="141" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14">
-    <cfRule type="cellIs" dxfId="143" priority="118" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="136" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="119" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="137" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="120" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="138" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N18:N19">
-    <cfRule type="cellIs" dxfId="140" priority="115" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="133" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="116" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="134" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="117" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="135" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U32">
-    <cfRule type="cellIs" dxfId="137" priority="112" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="130" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="113" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="131" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="114" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="132" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U31">
-    <cfRule type="cellIs" dxfId="134" priority="109" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="127" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="110" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="128" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="111" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="129" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V30">
-    <cfRule type="cellIs" dxfId="131" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="79" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="62" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="80" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="63" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="81" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U26">
+    <cfRule type="cellIs" dxfId="104" priority="103" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="103" priority="104" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="105" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U30">
+    <cfRule type="cellIs" dxfId="101" priority="88" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="89" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="99" priority="90" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U6:U17 U20:U22">
+    <cfRule type="cellIs" dxfId="98" priority="112" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="113" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="114" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U25">
-    <cfRule type="cellIs" dxfId="128" priority="85" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="106" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="86" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="107" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="87" stopIfTrue="1" operator="equal">
-      <formula>"D"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U30">
-    <cfRule type="cellIs" dxfId="125" priority="70" stopIfTrue="1" operator="equal">
-      <formula>"S"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="71" stopIfTrue="1" operator="equal">
-      <formula>"C"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="72" stopIfTrue="1" operator="equal">
-      <formula>"D"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U6:U17 U20:U22">
-    <cfRule type="cellIs" dxfId="122" priority="94" stopIfTrue="1" operator="equal">
-      <formula>"S"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="95" stopIfTrue="1" operator="equal">
-      <formula>"C"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="96" stopIfTrue="1" operator="equal">
-      <formula>"D"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U24">
-    <cfRule type="cellIs" dxfId="119" priority="88" stopIfTrue="1" operator="equal">
-      <formula>"S"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="89" stopIfTrue="1" operator="equal">
-      <formula>"C"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="90" stopIfTrue="1" operator="equal">
-      <formula>"D"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U26">
-    <cfRule type="cellIs" dxfId="116" priority="82" stopIfTrue="1" operator="equal">
-      <formula>"S"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="83" stopIfTrue="1" operator="equal">
-      <formula>"C"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="84" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="108" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U27">
-    <cfRule type="cellIs" dxfId="113" priority="79" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="100" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="80" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="101" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="81" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="102" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U28">
-    <cfRule type="cellIs" dxfId="110" priority="76" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="97" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="77" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="98" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="78" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="99" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U29">
-    <cfRule type="cellIs" dxfId="107" priority="73" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="94" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="74" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="95" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="75" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="96" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V6:Z23 X30:Z30 V29:Z29 V24:W28 Y24:Z28">
-    <cfRule type="cellIs" dxfId="104" priority="67" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="V6:Z23 X30:Z30 Z29 Z24:Z25">
+    <cfRule type="cellIs" dxfId="83" priority="85" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="68" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="86" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="69" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="87" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V34:X34 Z34">
-    <cfRule type="cellIs" dxfId="101" priority="64" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="82" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="65" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="83" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="66" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="84" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W35:Z35">
-    <cfRule type="cellIs" dxfId="98" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="76" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="77" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="60" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="78" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W32">
-    <cfRule type="cellIs" dxfId="95" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="73" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="74" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="75" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA6:AA30">
-    <cfRule type="cellIs" dxfId="92" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="67" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="68" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="69" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA34">
-    <cfRule type="cellIs" dxfId="89" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="64" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="65" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="66" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA35">
-    <cfRule type="cellIs" dxfId="86" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="61" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="62" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="63" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U23">
-    <cfRule type="cellIs" dxfId="83" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="58" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="59" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="42" stopIfTrue="1" operator="equal">
-      <formula>"D"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X24">
-    <cfRule type="cellIs" dxfId="80" priority="37" stopIfTrue="1" operator="equal">
-      <formula>"S"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="38" stopIfTrue="1" operator="equal">
-      <formula>"C"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="60" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X25">
-    <cfRule type="cellIs" dxfId="77" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="55" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="56" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="57" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26">
-    <cfRule type="cellIs" dxfId="74" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="52" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="53" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="54" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X27">
-    <cfRule type="cellIs" dxfId="71" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="49" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="50" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="51" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X28">
-    <cfRule type="cellIs" dxfId="68" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="46" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="47" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="48" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X29">
+    <cfRule type="cellIs" dxfId="47" priority="43" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="44" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="45" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W30">
-    <cfRule type="cellIs" dxfId="65" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="40" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="41" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="42" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V31">
-    <cfRule type="cellIs" dxfId="62" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="37" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="38" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="39" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V32">
-    <cfRule type="cellIs" dxfId="59" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="34" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="35" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="36" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X32">
-    <cfRule type="cellIs" dxfId="56" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="31" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="32" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="33" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9">
-    <cfRule type="cellIs" dxfId="41" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="28" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="29" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="30" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12">
-    <cfRule type="cellIs" dxfId="35" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="25" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="26" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="27" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U18">
-    <cfRule type="cellIs" dxfId="26" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="22" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="23" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="24" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U19">
-    <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="19" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="20" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="21" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y25">
+    <cfRule type="cellIs" dxfId="20" priority="16" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="17" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="18" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y26">
+    <cfRule type="cellIs" dxfId="17" priority="13" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="14" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="15" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O16">
+    <cfRule type="cellIs" dxfId="14" priority="10" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="11" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="12" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24:X24">
+    <cfRule type="cellIs" dxfId="11" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="8" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="9" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y24">
+    <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y32">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/OPPM.xlsx
+++ b/OPPM.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="84">
   <si>
     <t>A = primary owner</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,10 +97,6 @@
     <t>O</t>
   </si>
   <si>
-    <t>Version 03/19/2010 of the OPPM sheet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Project: </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -160,9 +156,6 @@
     <t>Phase 3 Limited Number of Lives implemented utilizing Collision</t>
   </si>
   <si>
-    <t>Date: 11/19/2013</t>
-  </si>
-  <si>
     <t>CS 340 Project</t>
   </si>
   <si>
@@ -293,6 +286,12 @@
   </si>
   <si>
     <t>Phase 3 Sky Background Changed (improved look)</t>
+  </si>
+  <si>
+    <t>Version 03/19/2010 of the OPPM sheet</t>
+  </si>
+  <si>
+    <t>Date: 11/26/2013</t>
   </si>
 </sst>
 </file>
@@ -2067,6 +2066,117 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="86" xfId="2" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="65" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="66" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="55" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="56" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="57" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="68" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="69" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="70" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="76" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2079,14 +2189,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -2095,26 +2197,6 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="55" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="56" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="57" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="17" fontId="5" fillId="0" borderId="56" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
       <protection locked="0"/>
@@ -2165,89 +2247,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="65" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="66" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="68" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="69" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="70" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="76" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="86" xfId="2" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2257,7 +2256,7 @@
     <cellStyle name="Normal_Project Matrix" xfId="2"/>
     <cellStyle name="Normal_Project Matrix Collection II" xfId="3"/>
   </cellStyles>
-  <dxfs count="156">
+  <dxfs count="162">
     <dxf>
       <font>
         <b/>
@@ -3609,30 +3608,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="mediumGray">
-          <fgColor indexed="10"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="mediumGray">
-          <fgColor indexed="43"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="mediumGray">
-          <fgColor indexed="42"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -3808,6 +3783,90 @@
       <fill>
         <patternFill patternType="mediumGray">
           <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
           <bgColor indexed="9"/>
         </patternFill>
       </fill>
@@ -4706,8 +4765,8 @@
   </sheetPr>
   <dimension ref="A1:AE57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="73" zoomScalePageLayoutView="96" workbookViewId="0">
-      <selection activeCell="Y32" sqref="Y32"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="73" zoomScalePageLayoutView="96" workbookViewId="0">
+      <selection activeCell="AD3" sqref="AD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -4737,11 +4796,11 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K2" s="7"/>
       <c r="L2" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
@@ -4761,7 +4820,7 @@
       <c r="AB2" s="10"/>
       <c r="AC2" s="10"/>
       <c r="AD2" s="10" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="AE2" s="132"/>
     </row>
@@ -4770,28 +4829,28 @@
       <c r="C3" s="60"/>
       <c r="D3" s="60"/>
       <c r="E3" s="61"/>
-      <c r="F3" s="171" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="172"/>
-      <c r="H3" s="172"/>
-      <c r="I3" s="172"/>
-      <c r="J3" s="172"/>
-      <c r="K3" s="172"/>
-      <c r="L3" s="172"/>
-      <c r="M3" s="172"/>
-      <c r="N3" s="172"/>
-      <c r="O3" s="172"/>
-      <c r="P3" s="172"/>
-      <c r="Q3" s="172"/>
-      <c r="R3" s="172"/>
-      <c r="S3" s="172"/>
-      <c r="T3" s="172"/>
-      <c r="U3" s="172"/>
-      <c r="V3" s="172"/>
-      <c r="W3" s="172"/>
-      <c r="X3" s="172"/>
-      <c r="Y3" s="172"/>
+      <c r="F3" s="201" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="202"/>
+      <c r="J3" s="202"/>
+      <c r="K3" s="202"/>
+      <c r="L3" s="202"/>
+      <c r="M3" s="202"/>
+      <c r="N3" s="202"/>
+      <c r="O3" s="202"/>
+      <c r="P3" s="202"/>
+      <c r="Q3" s="202"/>
+      <c r="R3" s="202"/>
+      <c r="S3" s="202"/>
+      <c r="T3" s="202"/>
+      <c r="U3" s="202"/>
+      <c r="V3" s="202"/>
+      <c r="W3" s="202"/>
+      <c r="X3" s="202"/>
+      <c r="Y3" s="202"/>
       <c r="Z3" s="60"/>
       <c r="AA3" s="130"/>
       <c r="AB3" s="131"/>
@@ -4804,26 +4863,26 @@
       <c r="C4" s="58"/>
       <c r="D4" s="58"/>
       <c r="E4" s="58"/>
-      <c r="F4" s="173"/>
-      <c r="G4" s="174"/>
-      <c r="H4" s="174"/>
-      <c r="I4" s="174"/>
-      <c r="J4" s="174"/>
-      <c r="K4" s="174"/>
-      <c r="L4" s="174"/>
-      <c r="M4" s="174"/>
-      <c r="N4" s="174"/>
-      <c r="O4" s="174"/>
-      <c r="P4" s="174"/>
-      <c r="Q4" s="174"/>
-      <c r="R4" s="174"/>
-      <c r="S4" s="174"/>
-      <c r="T4" s="174"/>
-      <c r="U4" s="174"/>
-      <c r="V4" s="174"/>
-      <c r="W4" s="174"/>
-      <c r="X4" s="174"/>
-      <c r="Y4" s="174"/>
+      <c r="F4" s="203"/>
+      <c r="G4" s="204"/>
+      <c r="H4" s="204"/>
+      <c r="I4" s="204"/>
+      <c r="J4" s="204"/>
+      <c r="K4" s="204"/>
+      <c r="L4" s="204"/>
+      <c r="M4" s="204"/>
+      <c r="N4" s="204"/>
+      <c r="O4" s="204"/>
+      <c r="P4" s="204"/>
+      <c r="Q4" s="204"/>
+      <c r="R4" s="204"/>
+      <c r="S4" s="204"/>
+      <c r="T4" s="204"/>
+      <c r="U4" s="204"/>
+      <c r="V4" s="204"/>
+      <c r="W4" s="204"/>
+      <c r="X4" s="204"/>
+      <c r="Y4" s="204"/>
       <c r="Z4" s="58"/>
       <c r="AA4" s="134"/>
       <c r="AB4" s="135"/>
@@ -4832,44 +4891,44 @@
       <c r="AE4" s="136"/>
     </row>
     <row r="5" spans="1:31" s="13" customFormat="1" ht="13.5" thickBot="1">
-      <c r="B5" s="199" t="s">
+      <c r="B5" s="194" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="200"/>
-      <c r="D5" s="200"/>
-      <c r="E5" s="201"/>
+      <c r="C5" s="195"/>
+      <c r="D5" s="195"/>
+      <c r="E5" s="196"/>
       <c r="F5" s="14"/>
       <c r="G5" s="63" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
-      <c r="J5" s="212" t="s">
-        <v>79</v>
-      </c>
-      <c r="K5" s="213"/>
-      <c r="L5" s="213"/>
-      <c r="M5" s="213"/>
-      <c r="N5" s="213"/>
-      <c r="O5" s="213"/>
-      <c r="P5" s="213"/>
-      <c r="Q5" s="213"/>
-      <c r="R5" s="213"/>
-      <c r="S5" s="213"/>
-      <c r="T5" s="213"/>
-      <c r="U5" s="213"/>
+      <c r="J5" s="183" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" s="184"/>
+      <c r="L5" s="184"/>
+      <c r="M5" s="184"/>
+      <c r="N5" s="184"/>
+      <c r="O5" s="184"/>
+      <c r="P5" s="184"/>
+      <c r="Q5" s="184"/>
+      <c r="R5" s="184"/>
+      <c r="S5" s="184"/>
+      <c r="T5" s="184"/>
+      <c r="U5" s="184"/>
       <c r="V5" s="137"/>
       <c r="W5" s="137"/>
       <c r="X5" s="137"/>
       <c r="Y5" s="137"/>
       <c r="Z5" s="137"/>
       <c r="AA5" s="138"/>
-      <c r="AB5" s="214" t="s">
+      <c r="AB5" s="185" t="s">
         <v>1</v>
       </c>
-      <c r="AC5" s="215"/>
-      <c r="AD5" s="215"/>
-      <c r="AE5" s="216"/>
+      <c r="AC5" s="186"/>
+      <c r="AD5" s="186"/>
+      <c r="AE5" s="187"/>
     </row>
     <row r="6" spans="1:31" s="18" customFormat="1">
       <c r="B6" s="84" t="s">
@@ -4882,7 +4941,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="116" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H6" s="98"/>
       <c r="I6" s="102"/>
@@ -4932,7 +4991,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="117" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H7" s="99"/>
       <c r="I7" s="103"/>
@@ -4980,7 +5039,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="117" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H8" s="99"/>
       <c r="I8" s="103"/>
@@ -5008,13 +5067,13 @@
         <v>16</v>
       </c>
       <c r="AC8" s="119" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AD8" s="119" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE8" s="120" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:31" s="18" customFormat="1">
@@ -5028,7 +5087,7 @@
         <v>4</v>
       </c>
       <c r="G9" s="117" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H9" s="99"/>
       <c r="I9" s="103"/>
@@ -5054,16 +5113,16 @@
       <c r="Z9" s="83"/>
       <c r="AA9" s="83"/>
       <c r="AB9" s="147" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC9" s="119" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AD9" s="119" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE9" s="120" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:31" s="18" customFormat="1">
@@ -5077,7 +5136,7 @@
         <v>5</v>
       </c>
       <c r="G10" s="117" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H10" s="99"/>
       <c r="I10" s="103"/>
@@ -5102,16 +5161,16 @@
       <c r="Z10" s="83"/>
       <c r="AA10" s="83"/>
       <c r="AB10" s="147" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC10" s="119" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AD10" s="119" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE10" s="120" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:31" s="18" customFormat="1">
@@ -5125,7 +5184,7 @@
         <v>6</v>
       </c>
       <c r="G11" s="117" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H11" s="99"/>
       <c r="I11" s="103"/>
@@ -5150,16 +5209,16 @@
       <c r="Z11" s="83"/>
       <c r="AA11" s="83"/>
       <c r="AB11" s="147" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AC11" s="119" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AD11" s="119" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE11" s="120" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:31" s="18" customFormat="1">
@@ -5173,7 +5232,7 @@
         <v>7</v>
       </c>
       <c r="G12" s="117" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H12" s="99"/>
       <c r="I12" s="103"/>
@@ -5200,16 +5259,16 @@
       <c r="Z12" s="83"/>
       <c r="AA12" s="83"/>
       <c r="AB12" s="147" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC12" s="119" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AD12" s="119" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE12" s="120" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:31" s="18" customFormat="1">
@@ -5223,7 +5282,7 @@
         <v>8</v>
       </c>
       <c r="G13" s="117" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H13" s="99"/>
       <c r="I13" s="103"/>
@@ -5265,7 +5324,7 @@
         <v>9</v>
       </c>
       <c r="G14" s="117" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H14" s="99"/>
       <c r="I14" s="103"/>
@@ -5290,7 +5349,7 @@
       <c r="Z14" s="83"/>
       <c r="AA14" s="83"/>
       <c r="AB14" s="147" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AC14" s="23"/>
       <c r="AD14" s="23"/>
@@ -5307,7 +5366,7 @@
         <v>10</v>
       </c>
       <c r="G15" s="117" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H15" s="99"/>
       <c r="I15" s="103"/>
@@ -5333,10 +5392,10 @@
       <c r="AA15" s="83"/>
       <c r="AB15" s="22"/>
       <c r="AC15" s="119" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AD15" s="119" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE15" s="24"/>
     </row>
@@ -5351,7 +5410,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="117" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H16" s="99"/>
       <c r="I16" s="103"/>
@@ -5380,7 +5439,7 @@
       <c r="AB16" s="147"/>
       <c r="AC16" s="23"/>
       <c r="AD16" s="119" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AE16" s="24"/>
     </row>
@@ -5395,7 +5454,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="117" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H17" s="99"/>
       <c r="I17" s="103"/>
@@ -5422,7 +5481,7 @@
       <c r="AB17" s="22"/>
       <c r="AC17" s="23"/>
       <c r="AD17" s="119" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AE17" s="24"/>
     </row>
@@ -5437,7 +5496,7 @@
         <v>13</v>
       </c>
       <c r="G18" s="117" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H18" s="99"/>
       <c r="I18" s="103"/>
@@ -5471,7 +5530,7 @@
       <c r="AA18" s="83"/>
       <c r="AB18" s="22"/>
       <c r="AC18" s="119" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AD18" s="23"/>
       <c r="AE18" s="24"/>
@@ -5487,7 +5546,7 @@
         <v>14</v>
       </c>
       <c r="G19" s="117" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H19" s="99"/>
       <c r="I19" s="103"/>
@@ -5520,7 +5579,7 @@
       <c r="Z19" s="83"/>
       <c r="AA19" s="83"/>
       <c r="AB19" s="147" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AC19" s="23"/>
       <c r="AD19" s="23"/>
@@ -5537,7 +5596,7 @@
         <v>15</v>
       </c>
       <c r="G20" s="117" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H20" s="100"/>
       <c r="I20" s="104"/>
@@ -5564,7 +5623,7 @@
       <c r="AB20" s="22"/>
       <c r="AC20" s="23"/>
       <c r="AD20" s="119" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AE20" s="24"/>
     </row>
@@ -5579,7 +5638,7 @@
         <v>16</v>
       </c>
       <c r="G21" s="117" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H21" s="100"/>
       <c r="I21" s="104"/>
@@ -5606,7 +5665,7 @@
       <c r="AB21" s="22"/>
       <c r="AC21" s="23"/>
       <c r="AD21" s="119" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AE21" s="24"/>
     </row>
@@ -5621,7 +5680,7 @@
         <v>17</v>
       </c>
       <c r="G22" s="117" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H22" s="100"/>
       <c r="I22" s="104"/>
@@ -5648,7 +5707,7 @@
       <c r="AB22" s="22"/>
       <c r="AC22" s="23"/>
       <c r="AD22" s="119" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AE22" s="24"/>
     </row>
@@ -5663,7 +5722,7 @@
         <v>18</v>
       </c>
       <c r="G23" s="117" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H23" s="100"/>
       <c r="I23" s="104"/>
@@ -5690,7 +5749,7 @@
       <c r="AB23" s="22"/>
       <c r="AC23" s="23"/>
       <c r="AD23" s="119" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AE23" s="24"/>
     </row>
@@ -5705,9 +5764,9 @@
         <v>19</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="J24" s="219"/>
+        <v>81</v>
+      </c>
+      <c r="J24" s="171"/>
       <c r="K24" s="83"/>
       <c r="L24" s="83"/>
       <c r="M24" s="83"/>
@@ -5743,7 +5802,7 @@
         <v>20</v>
       </c>
       <c r="G25" s="117" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H25" s="100"/>
       <c r="I25" s="104"/>
@@ -5783,7 +5842,7 @@
         <v>21</v>
       </c>
       <c r="G26" s="117" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H26" s="100"/>
       <c r="I26" s="104"/>
@@ -5813,7 +5872,7 @@
       <c r="AC26" s="23"/>
       <c r="AD26" s="23"/>
       <c r="AE26" s="120" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="2:31" s="18" customFormat="1">
@@ -5827,7 +5886,7 @@
         <v>22</v>
       </c>
       <c r="G27" s="117" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H27" s="100"/>
       <c r="I27" s="104"/>
@@ -5847,14 +5906,16 @@
       <c r="X27" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="Y27" s="83" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z27" s="83"/>
+      <c r="Y27" s="123" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z27" s="123" t="s">
+        <v>18</v>
+      </c>
       <c r="AA27" s="83"/>
       <c r="AB27" s="22"/>
       <c r="AC27" s="119" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AD27" s="23"/>
       <c r="AE27" s="24"/>
@@ -5870,7 +5931,7 @@
         <v>23</v>
       </c>
       <c r="G28" s="117" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H28" s="100"/>
       <c r="I28" s="104"/>
@@ -5891,13 +5952,13 @@
       <c r="X28" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="Y28" s="83" t="s">
+      <c r="Y28" s="121" t="s">
         <v>18</v>
       </c>
       <c r="Z28" s="83"/>
       <c r="AA28" s="83"/>
       <c r="AB28" s="148" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AC28" s="76"/>
       <c r="AD28" s="76"/>
@@ -5914,7 +5975,7 @@
         <v>24</v>
       </c>
       <c r="G29" s="117" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H29" s="100"/>
       <c r="I29" s="104"/>
@@ -5934,7 +5995,7 @@
       <c r="X29" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="Y29" s="83" t="s">
+      <c r="Y29" s="121" t="s">
         <v>18</v>
       </c>
       <c r="Z29" s="83"/>
@@ -5955,7 +6016,7 @@
         <v>25</v>
       </c>
       <c r="G30" s="117" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H30" s="100"/>
       <c r="I30" s="104"/>
@@ -5979,16 +6040,16 @@
       <c r="Z30" s="83"/>
       <c r="AA30" s="83"/>
       <c r="AB30" s="147" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC30" s="119" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AD30" s="119" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE30" s="120" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="2:31" s="18" customFormat="1">
@@ -6002,7 +6063,7 @@
         <v>26</v>
       </c>
       <c r="G31" s="118" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H31" s="100"/>
       <c r="I31" s="104"/>
@@ -6033,10 +6094,10 @@
         <v>13</v>
       </c>
       <c r="AD31" s="119" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE31" s="120" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="2:31" s="18" customFormat="1">
@@ -6050,7 +6111,7 @@
         <v>27</v>
       </c>
       <c r="G32" s="118" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H32" s="100"/>
       <c r="I32" s="104"/>
@@ -6084,7 +6145,7 @@
       <c r="AC32" s="23"/>
       <c r="AD32" s="119"/>
       <c r="AE32" s="120" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="2:31" s="18" customFormat="1">
@@ -6098,7 +6159,7 @@
         <v>28</v>
       </c>
       <c r="G33" s="118" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H33" s="101"/>
       <c r="I33" s="105"/>
@@ -6123,16 +6184,16 @@
       </c>
       <c r="AA33" s="109"/>
       <c r="AB33" s="147" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC33" s="119" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AD33" s="119" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE33" s="120" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="2:31" s="18" customFormat="1" ht="13.5" thickBot="1">
@@ -6146,7 +6207,7 @@
         <v>29</v>
       </c>
       <c r="G34" s="118" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H34" s="94"/>
       <c r="I34" s="95"/>
@@ -6170,16 +6231,16 @@
         <v>18</v>
       </c>
       <c r="AB34" s="166" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC34" s="167" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AD34" s="167" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE34" s="168" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="2:31" s="18" customFormat="1" ht="13.5" thickBot="1">
@@ -6191,7 +6252,7 @@
       <c r="G35" s="79"/>
       <c r="H35" s="80"/>
       <c r="I35" s="169" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J35" s="106"/>
       <c r="K35" s="107"/>
@@ -6217,254 +6278,254 @@
       <c r="AE35" s="74"/>
     </row>
     <row r="36" spans="2:31" ht="12.75" customHeight="1">
-      <c r="B36" s="204" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="197" t="s">
+      <c r="B36" s="199" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="192" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="197" t="s">
+      <c r="E36" s="197" t="s">
         <v>24</v>
-      </c>
-      <c r="E36" s="202" t="s">
-        <v>25</v>
       </c>
       <c r="F36" s="28"/>
       <c r="G36" s="29"/>
       <c r="H36" s="30"/>
       <c r="I36" s="30"/>
-      <c r="J36" s="209" t="s">
+      <c r="J36" s="180" t="s">
+        <v>61</v>
+      </c>
+      <c r="K36" s="177" t="s">
+        <v>62</v>
+      </c>
+      <c r="L36" s="177" t="s">
         <v>63</v>
       </c>
-      <c r="K36" s="179" t="s">
+      <c r="M36" s="177" t="s">
+        <v>21</v>
+      </c>
+      <c r="N36" s="177" t="s">
         <v>64</v>
       </c>
-      <c r="L36" s="179" t="s">
+      <c r="O36" s="177" t="s">
         <v>65</v>
       </c>
-      <c r="M36" s="179" t="s">
-        <v>22</v>
-      </c>
-      <c r="N36" s="179" t="s">
+      <c r="P36" s="177" t="s">
         <v>66</v>
       </c>
-      <c r="O36" s="179" t="s">
+      <c r="Q36" s="177" t="s">
+        <v>68</v>
+      </c>
+      <c r="R36" s="177" t="s">
+        <v>80</v>
+      </c>
+      <c r="S36" s="177" t="s">
         <v>67</v>
       </c>
-      <c r="P36" s="179" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q36" s="179" t="s">
+      <c r="T36" s="177" t="s">
+        <v>69</v>
+      </c>
+      <c r="U36" s="177" t="s">
+        <v>79</v>
+      </c>
+      <c r="V36" s="209" t="s">
+        <v>36</v>
+      </c>
+      <c r="W36" s="177" t="s">
         <v>70</v>
       </c>
-      <c r="R36" s="179" t="s">
-        <v>82</v>
-      </c>
-      <c r="S36" s="179" t="s">
-        <v>69</v>
-      </c>
-      <c r="T36" s="179" t="s">
-        <v>71</v>
-      </c>
-      <c r="U36" s="179" t="s">
-        <v>81</v>
-      </c>
-      <c r="V36" s="186" t="s">
-        <v>37</v>
-      </c>
-      <c r="W36" s="179" t="s">
+      <c r="X36" s="177" t="s">
         <v>72</v>
       </c>
-      <c r="X36" s="179" t="s">
+      <c r="Y36" s="177" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z36" s="212" t="s">
         <v>74</v>
       </c>
-      <c r="Y36" s="179" t="s">
+      <c r="AA36" s="215" t="s">
         <v>75</v>
       </c>
-      <c r="Z36" s="189" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA36" s="192" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB36" s="182" t="s">
+      <c r="AB36" s="175" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC36" s="175" t="s">
         <v>31</v>
       </c>
-      <c r="AC36" s="182" t="s">
+      <c r="AD36" s="188" t="s">
         <v>32</v>
       </c>
-      <c r="AD36" s="217" t="s">
+      <c r="AE36" s="172" t="s">
         <v>33</v>
-      </c>
-      <c r="AE36" s="206" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="37" spans="2:31" ht="12.75" customHeight="1">
-      <c r="B37" s="204"/>
-      <c r="C37" s="197"/>
-      <c r="D37" s="197"/>
-      <c r="E37" s="202"/>
+      <c r="B37" s="199"/>
+      <c r="C37" s="192"/>
+      <c r="D37" s="192"/>
+      <c r="E37" s="197"/>
       <c r="F37" s="28"/>
       <c r="G37" s="31"/>
       <c r="H37" s="30"/>
       <c r="I37" s="30"/>
-      <c r="J37" s="210"/>
-      <c r="K37" s="180"/>
-      <c r="L37" s="180"/>
-      <c r="M37" s="180"/>
-      <c r="N37" s="180"/>
-      <c r="O37" s="180"/>
-      <c r="P37" s="180"/>
-      <c r="Q37" s="180"/>
-      <c r="R37" s="180"/>
-      <c r="S37" s="180"/>
-      <c r="T37" s="180"/>
-      <c r="U37" s="184"/>
-      <c r="V37" s="187"/>
-      <c r="W37" s="180"/>
-      <c r="X37" s="180"/>
-      <c r="Y37" s="180"/>
-      <c r="Z37" s="190"/>
-      <c r="AA37" s="193"/>
-      <c r="AB37" s="182"/>
-      <c r="AC37" s="182"/>
-      <c r="AD37" s="217"/>
-      <c r="AE37" s="207"/>
+      <c r="J37" s="181"/>
+      <c r="K37" s="178"/>
+      <c r="L37" s="178"/>
+      <c r="M37" s="178"/>
+      <c r="N37" s="178"/>
+      <c r="O37" s="178"/>
+      <c r="P37" s="178"/>
+      <c r="Q37" s="178"/>
+      <c r="R37" s="178"/>
+      <c r="S37" s="178"/>
+      <c r="T37" s="178"/>
+      <c r="U37" s="207"/>
+      <c r="V37" s="210"/>
+      <c r="W37" s="178"/>
+      <c r="X37" s="178"/>
+      <c r="Y37" s="178"/>
+      <c r="Z37" s="213"/>
+      <c r="AA37" s="216"/>
+      <c r="AB37" s="175"/>
+      <c r="AC37" s="175"/>
+      <c r="AD37" s="188"/>
+      <c r="AE37" s="173"/>
     </row>
     <row r="38" spans="2:31" ht="12.75" customHeight="1">
-      <c r="B38" s="204"/>
-      <c r="C38" s="197"/>
-      <c r="D38" s="197"/>
-      <c r="E38" s="202"/>
+      <c r="B38" s="199"/>
+      <c r="C38" s="192"/>
+      <c r="D38" s="192"/>
+      <c r="E38" s="197"/>
       <c r="F38" s="28"/>
       <c r="G38" s="31"/>
       <c r="H38" s="30"/>
       <c r="I38" s="30"/>
-      <c r="J38" s="210"/>
-      <c r="K38" s="180"/>
-      <c r="L38" s="180"/>
-      <c r="M38" s="180"/>
-      <c r="N38" s="180"/>
-      <c r="O38" s="180"/>
-      <c r="P38" s="180"/>
-      <c r="Q38" s="180"/>
-      <c r="R38" s="180"/>
-      <c r="S38" s="180"/>
-      <c r="T38" s="180"/>
-      <c r="U38" s="184"/>
-      <c r="V38" s="187"/>
-      <c r="W38" s="180"/>
-      <c r="X38" s="180"/>
-      <c r="Y38" s="180"/>
-      <c r="Z38" s="190"/>
-      <c r="AA38" s="193"/>
-      <c r="AB38" s="182"/>
-      <c r="AC38" s="182"/>
-      <c r="AD38" s="217"/>
-      <c r="AE38" s="207"/>
+      <c r="J38" s="181"/>
+      <c r="K38" s="178"/>
+      <c r="L38" s="178"/>
+      <c r="M38" s="178"/>
+      <c r="N38" s="178"/>
+      <c r="O38" s="178"/>
+      <c r="P38" s="178"/>
+      <c r="Q38" s="178"/>
+      <c r="R38" s="178"/>
+      <c r="S38" s="178"/>
+      <c r="T38" s="178"/>
+      <c r="U38" s="207"/>
+      <c r="V38" s="210"/>
+      <c r="W38" s="178"/>
+      <c r="X38" s="178"/>
+      <c r="Y38" s="178"/>
+      <c r="Z38" s="213"/>
+      <c r="AA38" s="216"/>
+      <c r="AB38" s="175"/>
+      <c r="AC38" s="175"/>
+      <c r="AD38" s="188"/>
+      <c r="AE38" s="173"/>
     </row>
     <row r="39" spans="2:31" ht="12.75" customHeight="1">
-      <c r="B39" s="204"/>
-      <c r="C39" s="197"/>
-      <c r="D39" s="197"/>
-      <c r="E39" s="202"/>
+      <c r="B39" s="199"/>
+      <c r="C39" s="192"/>
+      <c r="D39" s="192"/>
+      <c r="E39" s="197"/>
       <c r="F39" s="28"/>
       <c r="G39" s="32"/>
       <c r="H39" s="30"/>
       <c r="I39" s="30"/>
-      <c r="J39" s="210"/>
-      <c r="K39" s="180"/>
-      <c r="L39" s="180"/>
-      <c r="M39" s="180"/>
-      <c r="N39" s="180"/>
-      <c r="O39" s="180"/>
-      <c r="P39" s="180"/>
-      <c r="Q39" s="180"/>
-      <c r="R39" s="180"/>
-      <c r="S39" s="180"/>
-      <c r="T39" s="180"/>
-      <c r="U39" s="184"/>
-      <c r="V39" s="187"/>
-      <c r="W39" s="180"/>
-      <c r="X39" s="180"/>
-      <c r="Y39" s="180"/>
-      <c r="Z39" s="190"/>
-      <c r="AA39" s="193"/>
-      <c r="AB39" s="182"/>
-      <c r="AC39" s="182"/>
-      <c r="AD39" s="217"/>
-      <c r="AE39" s="207"/>
+      <c r="J39" s="181"/>
+      <c r="K39" s="178"/>
+      <c r="L39" s="178"/>
+      <c r="M39" s="178"/>
+      <c r="N39" s="178"/>
+      <c r="O39" s="178"/>
+      <c r="P39" s="178"/>
+      <c r="Q39" s="178"/>
+      <c r="R39" s="178"/>
+      <c r="S39" s="178"/>
+      <c r="T39" s="178"/>
+      <c r="U39" s="207"/>
+      <c r="V39" s="210"/>
+      <c r="W39" s="178"/>
+      <c r="X39" s="178"/>
+      <c r="Y39" s="178"/>
+      <c r="Z39" s="213"/>
+      <c r="AA39" s="216"/>
+      <c r="AB39" s="175"/>
+      <c r="AC39" s="175"/>
+      <c r="AD39" s="188"/>
+      <c r="AE39" s="173"/>
     </row>
     <row r="40" spans="2:31" ht="12.75" customHeight="1">
-      <c r="B40" s="204"/>
-      <c r="C40" s="197"/>
-      <c r="D40" s="197"/>
-      <c r="E40" s="202"/>
+      <c r="B40" s="199"/>
+      <c r="C40" s="192"/>
+      <c r="D40" s="192"/>
+      <c r="E40" s="197"/>
       <c r="F40" s="28"/>
       <c r="G40" s="29"/>
       <c r="H40" s="30"/>
       <c r="I40" s="30"/>
-      <c r="J40" s="210"/>
-      <c r="K40" s="180"/>
-      <c r="L40" s="180"/>
-      <c r="M40" s="180"/>
-      <c r="N40" s="180"/>
-      <c r="O40" s="180"/>
-      <c r="P40" s="180"/>
-      <c r="Q40" s="180"/>
-      <c r="R40" s="180"/>
-      <c r="S40" s="180"/>
-      <c r="T40" s="180"/>
-      <c r="U40" s="184"/>
-      <c r="V40" s="187"/>
-      <c r="W40" s="180"/>
-      <c r="X40" s="180"/>
-      <c r="Y40" s="180"/>
-      <c r="Z40" s="190"/>
-      <c r="AA40" s="193"/>
-      <c r="AB40" s="182"/>
-      <c r="AC40" s="182"/>
-      <c r="AD40" s="217"/>
-      <c r="AE40" s="207"/>
+      <c r="J40" s="181"/>
+      <c r="K40" s="178"/>
+      <c r="L40" s="178"/>
+      <c r="M40" s="178"/>
+      <c r="N40" s="178"/>
+      <c r="O40" s="178"/>
+      <c r="P40" s="178"/>
+      <c r="Q40" s="178"/>
+      <c r="R40" s="178"/>
+      <c r="S40" s="178"/>
+      <c r="T40" s="178"/>
+      <c r="U40" s="207"/>
+      <c r="V40" s="210"/>
+      <c r="W40" s="178"/>
+      <c r="X40" s="178"/>
+      <c r="Y40" s="178"/>
+      <c r="Z40" s="213"/>
+      <c r="AA40" s="216"/>
+      <c r="AB40" s="175"/>
+      <c r="AC40" s="175"/>
+      <c r="AD40" s="188"/>
+      <c r="AE40" s="173"/>
     </row>
     <row r="41" spans="2:31" ht="12" customHeight="1" thickBot="1">
-      <c r="B41" s="204"/>
-      <c r="C41" s="197"/>
-      <c r="D41" s="197"/>
-      <c r="E41" s="202"/>
+      <c r="B41" s="199"/>
+      <c r="C41" s="192"/>
+      <c r="D41" s="192"/>
+      <c r="E41" s="197"/>
       <c r="F41" s="28"/>
       <c r="G41" s="33"/>
       <c r="H41" s="30"/>
       <c r="I41" s="30"/>
-      <c r="J41" s="211"/>
-      <c r="K41" s="181"/>
-      <c r="L41" s="181"/>
-      <c r="M41" s="181"/>
-      <c r="N41" s="181"/>
-      <c r="O41" s="181"/>
-      <c r="P41" s="181"/>
-      <c r="Q41" s="181"/>
-      <c r="R41" s="181"/>
-      <c r="S41" s="181"/>
-      <c r="T41" s="181"/>
-      <c r="U41" s="185"/>
-      <c r="V41" s="188"/>
-      <c r="W41" s="181"/>
-      <c r="X41" s="181"/>
-      <c r="Y41" s="181"/>
-      <c r="Z41" s="191"/>
-      <c r="AA41" s="194"/>
-      <c r="AB41" s="183"/>
-      <c r="AC41" s="183"/>
-      <c r="AD41" s="218"/>
-      <c r="AE41" s="208"/>
+      <c r="J41" s="182"/>
+      <c r="K41" s="179"/>
+      <c r="L41" s="179"/>
+      <c r="M41" s="179"/>
+      <c r="N41" s="179"/>
+      <c r="O41" s="179"/>
+      <c r="P41" s="179"/>
+      <c r="Q41" s="179"/>
+      <c r="R41" s="179"/>
+      <c r="S41" s="179"/>
+      <c r="T41" s="179"/>
+      <c r="U41" s="208"/>
+      <c r="V41" s="211"/>
+      <c r="W41" s="179"/>
+      <c r="X41" s="179"/>
+      <c r="Y41" s="179"/>
+      <c r="Z41" s="214"/>
+      <c r="AA41" s="217"/>
+      <c r="AB41" s="176"/>
+      <c r="AC41" s="176"/>
+      <c r="AD41" s="189"/>
+      <c r="AE41" s="174"/>
     </row>
     <row r="42" spans="2:31">
-      <c r="B42" s="204"/>
-      <c r="C42" s="197"/>
-      <c r="D42" s="197"/>
-      <c r="E42" s="202"/>
+      <c r="B42" s="199"/>
+      <c r="C42" s="192"/>
+      <c r="D42" s="192"/>
+      <c r="E42" s="197"/>
       <c r="F42" s="34"/>
       <c r="G42" s="33"/>
       <c r="H42" s="33"/>
@@ -6493,10 +6554,10 @@
       <c r="AE42" s="150"/>
     </row>
     <row r="43" spans="2:31" ht="15.75" customHeight="1">
-      <c r="B43" s="204"/>
-      <c r="C43" s="197"/>
-      <c r="D43" s="197"/>
-      <c r="E43" s="202"/>
+      <c r="B43" s="199"/>
+      <c r="C43" s="192"/>
+      <c r="D43" s="192"/>
+      <c r="E43" s="197"/>
       <c r="F43" s="37"/>
       <c r="G43" s="33"/>
       <c r="H43" s="31"/>
@@ -6531,10 +6592,10 @@
       <c r="AE43" s="151"/>
     </row>
     <row r="44" spans="2:31" ht="12.75" customHeight="1">
-      <c r="B44" s="204"/>
-      <c r="C44" s="197"/>
-      <c r="D44" s="197"/>
-      <c r="E44" s="202"/>
+      <c r="B44" s="199"/>
+      <c r="C44" s="192"/>
+      <c r="D44" s="192"/>
+      <c r="E44" s="197"/>
       <c r="F44" s="34"/>
       <c r="G44" s="29"/>
       <c r="H44" s="31"/>
@@ -6556,7 +6617,7 @@
       <c r="T44" s="39"/>
       <c r="U44" s="39"/>
       <c r="V44" s="75" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W44" s="39"/>
       <c r="X44" s="39"/>
@@ -6569,10 +6630,10 @@
       <c r="AE44" s="151"/>
     </row>
     <row r="45" spans="2:31" ht="15.75">
-      <c r="B45" s="204"/>
-      <c r="C45" s="197"/>
-      <c r="D45" s="197"/>
-      <c r="E45" s="202"/>
+      <c r="B45" s="199"/>
+      <c r="C45" s="192"/>
+      <c r="D45" s="192"/>
+      <c r="E45" s="197"/>
       <c r="F45" s="34"/>
       <c r="G45" s="29"/>
       <c r="H45" s="31"/>
@@ -6605,10 +6666,10 @@
       <c r="AE45" s="151"/>
     </row>
     <row r="46" spans="2:31">
-      <c r="B46" s="204"/>
-      <c r="C46" s="197"/>
-      <c r="D46" s="197"/>
-      <c r="E46" s="202"/>
+      <c r="B46" s="199"/>
+      <c r="C46" s="192"/>
+      <c r="D46" s="192"/>
+      <c r="E46" s="197"/>
       <c r="F46" s="34"/>
       <c r="G46" s="29"/>
       <c r="H46" s="29"/>
@@ -6641,10 +6702,10 @@
       <c r="AE46" s="151"/>
     </row>
     <row r="47" spans="2:31" ht="15.75">
-      <c r="B47" s="204"/>
-      <c r="C47" s="197"/>
-      <c r="D47" s="197"/>
-      <c r="E47" s="202"/>
+      <c r="B47" s="199"/>
+      <c r="C47" s="192"/>
+      <c r="D47" s="192"/>
+      <c r="E47" s="197"/>
       <c r="F47" s="34"/>
       <c r="G47" s="41"/>
       <c r="H47" s="34"/>
@@ -6673,10 +6734,10 @@
       <c r="AE47" s="151"/>
     </row>
     <row r="48" spans="2:31" ht="13.5" thickBot="1">
-      <c r="B48" s="204"/>
-      <c r="C48" s="197"/>
-      <c r="D48" s="197"/>
-      <c r="E48" s="202"/>
+      <c r="B48" s="199"/>
+      <c r="C48" s="192"/>
+      <c r="D48" s="192"/>
+      <c r="E48" s="197"/>
       <c r="F48" s="42"/>
       <c r="G48" s="43"/>
       <c r="H48" s="44"/>
@@ -6705,32 +6766,32 @@
       <c r="AE48" s="156"/>
     </row>
     <row r="49" spans="2:31">
-      <c r="B49" s="204"/>
-      <c r="C49" s="197"/>
-      <c r="D49" s="197"/>
-      <c r="E49" s="202"/>
-      <c r="F49" s="195" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" s="196"/>
-      <c r="H49" s="196"/>
-      <c r="I49" s="196"/>
-      <c r="J49" s="196"/>
-      <c r="K49" s="196"/>
-      <c r="L49" s="196"/>
-      <c r="M49" s="196"/>
-      <c r="N49" s="196"/>
-      <c r="O49" s="196"/>
-      <c r="P49" s="196"/>
-      <c r="Q49" s="196"/>
-      <c r="R49" s="196"/>
-      <c r="S49" s="196"/>
-      <c r="T49" s="196"/>
-      <c r="U49" s="196"/>
-      <c r="V49" s="196"/>
-      <c r="W49" s="196"/>
-      <c r="X49" s="196"/>
-      <c r="Y49" s="196"/>
+      <c r="B49" s="199"/>
+      <c r="C49" s="192"/>
+      <c r="D49" s="192"/>
+      <c r="E49" s="197"/>
+      <c r="F49" s="218" t="s">
+        <v>82</v>
+      </c>
+      <c r="G49" s="219"/>
+      <c r="H49" s="219"/>
+      <c r="I49" s="219"/>
+      <c r="J49" s="219"/>
+      <c r="K49" s="219"/>
+      <c r="L49" s="219"/>
+      <c r="M49" s="219"/>
+      <c r="N49" s="219"/>
+      <c r="O49" s="219"/>
+      <c r="P49" s="219"/>
+      <c r="Q49" s="219"/>
+      <c r="R49" s="219"/>
+      <c r="S49" s="219"/>
+      <c r="T49" s="219"/>
+      <c r="U49" s="219"/>
+      <c r="V49" s="219"/>
+      <c r="W49" s="219"/>
+      <c r="X49" s="219"/>
+      <c r="Y49" s="219"/>
       <c r="Z49" s="149"/>
       <c r="AA49" s="157"/>
       <c r="AB49" s="158"/>
@@ -6739,30 +6800,30 @@
       <c r="AE49" s="150"/>
     </row>
     <row r="50" spans="2:31">
-      <c r="B50" s="204"/>
-      <c r="C50" s="197"/>
-      <c r="D50" s="197"/>
-      <c r="E50" s="202"/>
-      <c r="F50" s="175"/>
-      <c r="G50" s="176"/>
-      <c r="H50" s="176"/>
-      <c r="I50" s="176"/>
-      <c r="J50" s="176"/>
-      <c r="K50" s="176"/>
-      <c r="L50" s="176"/>
-      <c r="M50" s="176"/>
-      <c r="N50" s="176"/>
-      <c r="O50" s="176"/>
-      <c r="P50" s="176"/>
-      <c r="Q50" s="176"/>
-      <c r="R50" s="176"/>
-      <c r="S50" s="176"/>
-      <c r="T50" s="176"/>
-      <c r="U50" s="176"/>
-      <c r="V50" s="176"/>
-      <c r="W50" s="176"/>
-      <c r="X50" s="176"/>
-      <c r="Y50" s="176"/>
+      <c r="B50" s="199"/>
+      <c r="C50" s="192"/>
+      <c r="D50" s="192"/>
+      <c r="E50" s="197"/>
+      <c r="F50" s="190"/>
+      <c r="G50" s="191"/>
+      <c r="H50" s="191"/>
+      <c r="I50" s="191"/>
+      <c r="J50" s="191"/>
+      <c r="K50" s="191"/>
+      <c r="L50" s="191"/>
+      <c r="M50" s="191"/>
+      <c r="N50" s="191"/>
+      <c r="O50" s="191"/>
+      <c r="P50" s="191"/>
+      <c r="Q50" s="191"/>
+      <c r="R50" s="191"/>
+      <c r="S50" s="191"/>
+      <c r="T50" s="191"/>
+      <c r="U50" s="191"/>
+      <c r="V50" s="191"/>
+      <c r="W50" s="191"/>
+      <c r="X50" s="191"/>
+      <c r="Y50" s="191"/>
       <c r="Z50" s="162"/>
       <c r="AA50" s="163"/>
       <c r="AB50" s="164"/>
@@ -6771,30 +6832,30 @@
       <c r="AE50" s="165"/>
     </row>
     <row r="51" spans="2:31">
-      <c r="B51" s="204"/>
-      <c r="C51" s="197"/>
-      <c r="D51" s="197"/>
-      <c r="E51" s="202"/>
-      <c r="F51" s="175"/>
-      <c r="G51" s="176"/>
-      <c r="H51" s="176"/>
-      <c r="I51" s="176"/>
-      <c r="J51" s="176"/>
-      <c r="K51" s="176"/>
-      <c r="L51" s="176"/>
-      <c r="M51" s="176"/>
-      <c r="N51" s="176"/>
-      <c r="O51" s="176"/>
-      <c r="P51" s="176"/>
-      <c r="Q51" s="176"/>
-      <c r="R51" s="176"/>
-      <c r="S51" s="176"/>
-      <c r="T51" s="176"/>
-      <c r="U51" s="176"/>
-      <c r="V51" s="176"/>
-      <c r="W51" s="176"/>
-      <c r="X51" s="176"/>
-      <c r="Y51" s="176"/>
+      <c r="B51" s="199"/>
+      <c r="C51" s="192"/>
+      <c r="D51" s="192"/>
+      <c r="E51" s="197"/>
+      <c r="F51" s="190"/>
+      <c r="G51" s="191"/>
+      <c r="H51" s="191"/>
+      <c r="I51" s="191"/>
+      <c r="J51" s="191"/>
+      <c r="K51" s="191"/>
+      <c r="L51" s="191"/>
+      <c r="M51" s="191"/>
+      <c r="N51" s="191"/>
+      <c r="O51" s="191"/>
+      <c r="P51" s="191"/>
+      <c r="Q51" s="191"/>
+      <c r="R51" s="191"/>
+      <c r="S51" s="191"/>
+      <c r="T51" s="191"/>
+      <c r="U51" s="191"/>
+      <c r="V51" s="191"/>
+      <c r="W51" s="191"/>
+      <c r="X51" s="191"/>
+      <c r="Y51" s="191"/>
       <c r="Z51" s="162"/>
       <c r="AA51" s="162"/>
       <c r="AB51" s="164"/>
@@ -6803,30 +6864,30 @@
       <c r="AE51" s="165"/>
     </row>
     <row r="52" spans="2:31" s="13" customFormat="1" ht="13.5" thickBot="1">
-      <c r="B52" s="205"/>
-      <c r="C52" s="198"/>
-      <c r="D52" s="198"/>
-      <c r="E52" s="203"/>
-      <c r="F52" s="177"/>
-      <c r="G52" s="178"/>
-      <c r="H52" s="178"/>
-      <c r="I52" s="178"/>
-      <c r="J52" s="178"/>
-      <c r="K52" s="178"/>
-      <c r="L52" s="178"/>
-      <c r="M52" s="178"/>
-      <c r="N52" s="178"/>
-      <c r="O52" s="178"/>
-      <c r="P52" s="178"/>
-      <c r="Q52" s="178"/>
-      <c r="R52" s="178"/>
-      <c r="S52" s="178"/>
-      <c r="T52" s="178"/>
-      <c r="U52" s="178"/>
-      <c r="V52" s="178"/>
-      <c r="W52" s="178"/>
-      <c r="X52" s="178"/>
-      <c r="Y52" s="178"/>
+      <c r="B52" s="200"/>
+      <c r="C52" s="193"/>
+      <c r="D52" s="193"/>
+      <c r="E52" s="198"/>
+      <c r="F52" s="205"/>
+      <c r="G52" s="206"/>
+      <c r="H52" s="206"/>
+      <c r="I52" s="206"/>
+      <c r="J52" s="206"/>
+      <c r="K52" s="206"/>
+      <c r="L52" s="206"/>
+      <c r="M52" s="206"/>
+      <c r="N52" s="206"/>
+      <c r="O52" s="206"/>
+      <c r="P52" s="206"/>
+      <c r="Q52" s="206"/>
+      <c r="R52" s="206"/>
+      <c r="S52" s="206"/>
+      <c r="T52" s="206"/>
+      <c r="U52" s="206"/>
+      <c r="V52" s="206"/>
+      <c r="W52" s="206"/>
+      <c r="X52" s="206"/>
+      <c r="Y52" s="206"/>
       <c r="Z52" s="43"/>
       <c r="AA52" s="159"/>
       <c r="AB52" s="160"/>
@@ -6941,24 +7002,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="AE36:AE41"/>
-    <mergeCell ref="AB36:AB41"/>
-    <mergeCell ref="P36:P41"/>
-    <mergeCell ref="J36:J41"/>
-    <mergeCell ref="J5:U5"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="K36:K41"/>
-    <mergeCell ref="L36:L41"/>
-    <mergeCell ref="S36:S41"/>
-    <mergeCell ref="N36:N41"/>
-    <mergeCell ref="AD36:AD41"/>
-    <mergeCell ref="F50:Y50"/>
-    <mergeCell ref="O36:O41"/>
-    <mergeCell ref="D36:D52"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="E36:E52"/>
-    <mergeCell ref="B36:B52"/>
-    <mergeCell ref="C36:C52"/>
     <mergeCell ref="F3:Y4"/>
     <mergeCell ref="F51:Y51"/>
     <mergeCell ref="F52:Y52"/>
@@ -6975,141 +7018,247 @@
     <mergeCell ref="M36:M41"/>
     <mergeCell ref="Q36:Q41"/>
     <mergeCell ref="F49:Y49"/>
+    <mergeCell ref="F50:Y50"/>
+    <mergeCell ref="O36:O41"/>
+    <mergeCell ref="D36:D52"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="E36:E52"/>
+    <mergeCell ref="B36:B52"/>
+    <mergeCell ref="C36:C52"/>
+    <mergeCell ref="AE36:AE41"/>
+    <mergeCell ref="AB36:AB41"/>
+    <mergeCell ref="P36:P41"/>
+    <mergeCell ref="J36:J41"/>
+    <mergeCell ref="J5:U5"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="K36:K41"/>
+    <mergeCell ref="L36:L41"/>
+    <mergeCell ref="S36:S41"/>
+    <mergeCell ref="N36:N41"/>
+    <mergeCell ref="AD36:AD41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I55:J55 N55:P55">
-    <cfRule type="cellIs" dxfId="137" priority="158" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="170" stopIfTrue="1" operator="equal">
       <formula>"G"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="159" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="171" stopIfTrue="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="160" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="172" stopIfTrue="1" operator="equal">
       <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J35:U35 J32:T32 J31:S31 J30:R30 J13:N13 O9:T9 J10:L10 J9:K9 J11:K12 M12 J14:L16 N14 P14:T14 J18:M19 J17:T17 J28:T28 J27:Q27 S27:T27 J29:P29 R29:T29 T30 M9:M10 O12:T13 N10:T10 M11:T11 W33:Z33 N15:T15 J6:T8 O18:T19 N16 P16:T16 V25:W29 Z26:Z28 Y27:Y29 J20:T23 J25:T26">
-    <cfRule type="cellIs" dxfId="134" priority="161" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="J35:U35 J32:T32 J31:S31 J30:R30 J13:N13 O9:T9 J10:L10 J9:K9 J11:K12 M12 J14:L16 N14 P14:T14 J18:M19 J17:T17 J28:T28 J27:Q27 S27:T27 J29:P29 R29:T29 T30 M9:M10 O12:T13 N10:T10 M11:T11 W33:Z33 N15:T15 J6:T8 O18:T19 N16 P16:T16 V25:W29 Z26 J20:T23 J25:T26 Z28">
+    <cfRule type="cellIs" dxfId="158" priority="173" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="162" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="174" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="163" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="175" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T31">
-    <cfRule type="cellIs" dxfId="131" priority="148" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="160" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="149" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="161" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="150" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="162" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14:M16">
-    <cfRule type="cellIs" dxfId="128" priority="145" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="157" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="146" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="158" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="147" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="159" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="125" priority="142" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="154" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="143" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="155" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="144" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="156" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="122" priority="139" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="151" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="140" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="152" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="141" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="153" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14">
-    <cfRule type="cellIs" dxfId="119" priority="136" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="148" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="137" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="149" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="138" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="150" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N18:N19">
-    <cfRule type="cellIs" dxfId="116" priority="133" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="145" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="134" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="146" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="135" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="147" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U32">
-    <cfRule type="cellIs" dxfId="113" priority="130" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="142" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="131" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="143" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="132" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="144" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U31">
-    <cfRule type="cellIs" dxfId="110" priority="127" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="139" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="128" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="140" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="129" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="141" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V30">
-    <cfRule type="cellIs" dxfId="107" priority="79" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="91" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="80" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="92" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="81" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="93" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U26">
-    <cfRule type="cellIs" dxfId="104" priority="103" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="115" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="104" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="116" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="105" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="117" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U30">
+    <cfRule type="cellIs" dxfId="125" priority="100" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="101" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="123" priority="102" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U6:U17 U20:U22">
+    <cfRule type="cellIs" dxfId="122" priority="124" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="125" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="126" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U25">
+    <cfRule type="cellIs" dxfId="119" priority="118" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="119" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="120" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U27">
+    <cfRule type="cellIs" dxfId="116" priority="112" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="115" priority="113" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="114" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U28">
+    <cfRule type="cellIs" dxfId="113" priority="109" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="110" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="111" priority="111" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U29">
+    <cfRule type="cellIs" dxfId="110" priority="106" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="107" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="108" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V6:Z23 X30:Z30 Z29 Z24:Z25">
+    <cfRule type="cellIs" dxfId="107" priority="97" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="98" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="99" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V34:X34 Z34">
+    <cfRule type="cellIs" dxfId="104" priority="94" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="103" priority="95" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="96" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W35:Z35">
     <cfRule type="cellIs" dxfId="101" priority="88" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
@@ -7120,348 +7269,304 @@
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U6:U17 U20:U22">
-    <cfRule type="cellIs" dxfId="98" priority="112" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="W32">
+    <cfRule type="cellIs" dxfId="98" priority="85" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="113" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="86" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="114" stopIfTrue="1" operator="equal">
-      <formula>"D"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U25">
-    <cfRule type="cellIs" dxfId="95" priority="106" stopIfTrue="1" operator="equal">
-      <formula>"S"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="107" stopIfTrue="1" operator="equal">
-      <formula>"C"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="108" stopIfTrue="1" operator="equal">
-      <formula>"D"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U27">
-    <cfRule type="cellIs" dxfId="92" priority="100" stopIfTrue="1" operator="equal">
-      <formula>"S"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="101" stopIfTrue="1" operator="equal">
-      <formula>"C"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="102" stopIfTrue="1" operator="equal">
-      <formula>"D"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U28">
-    <cfRule type="cellIs" dxfId="89" priority="97" stopIfTrue="1" operator="equal">
-      <formula>"S"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="98" stopIfTrue="1" operator="equal">
-      <formula>"C"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="99" stopIfTrue="1" operator="equal">
-      <formula>"D"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U29">
-    <cfRule type="cellIs" dxfId="86" priority="94" stopIfTrue="1" operator="equal">
-      <formula>"S"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="95" stopIfTrue="1" operator="equal">
-      <formula>"C"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="96" stopIfTrue="1" operator="equal">
-      <formula>"D"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V6:Z23 X30:Z30 Z29 Z24:Z25">
-    <cfRule type="cellIs" dxfId="83" priority="85" stopIfTrue="1" operator="equal">
-      <formula>"S"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="86" stopIfTrue="1" operator="equal">
-      <formula>"C"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="87" stopIfTrue="1" operator="equal">
-      <formula>"D"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V34:X34 Z34">
-    <cfRule type="cellIs" dxfId="80" priority="82" stopIfTrue="1" operator="equal">
-      <formula>"S"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="83" stopIfTrue="1" operator="equal">
-      <formula>"C"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="84" stopIfTrue="1" operator="equal">
-      <formula>"D"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W35:Z35">
-    <cfRule type="cellIs" dxfId="77" priority="76" stopIfTrue="1" operator="equal">
-      <formula>"S"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="77" stopIfTrue="1" operator="equal">
-      <formula>"C"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="78" stopIfTrue="1" operator="equal">
-      <formula>"D"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W32">
-    <cfRule type="cellIs" dxfId="74" priority="73" stopIfTrue="1" operator="equal">
-      <formula>"S"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="74" stopIfTrue="1" operator="equal">
-      <formula>"C"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="75" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="87" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA6:AA30">
-    <cfRule type="cellIs" dxfId="71" priority="67" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="79" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="68" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="80" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="69" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="81" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA34">
-    <cfRule type="cellIs" dxfId="68" priority="64" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="76" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="65" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="77" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="66" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="78" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA35">
-    <cfRule type="cellIs" dxfId="65" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="73" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="62" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="74" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="63" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="75" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U23">
-    <cfRule type="cellIs" dxfId="62" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="70" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="71" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="60" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="72" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X25">
-    <cfRule type="cellIs" dxfId="59" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="67" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="68" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="69" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26">
-    <cfRule type="cellIs" dxfId="56" priority="52" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="64" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="65" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="66" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X27">
-    <cfRule type="cellIs" dxfId="53" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="61" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="62" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="63" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X28">
-    <cfRule type="cellIs" dxfId="50" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="58" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="59" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="60" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X29">
-    <cfRule type="cellIs" dxfId="47" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="55" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="56" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="57" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W30">
-    <cfRule type="cellIs" dxfId="44" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="52" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="53" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="54" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V31">
-    <cfRule type="cellIs" dxfId="41" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="49" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="50" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="51" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V32">
-    <cfRule type="cellIs" dxfId="38" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="46" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="47" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="48" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X32">
-    <cfRule type="cellIs" dxfId="35" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="43" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="44" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="45" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9">
-    <cfRule type="cellIs" dxfId="32" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="40" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="41" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="42" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12">
-    <cfRule type="cellIs" dxfId="29" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="37" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="38" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="39" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U18">
-    <cfRule type="cellIs" dxfId="26" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="34" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="35" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="36" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U19">
-    <cfRule type="cellIs" dxfId="23" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="31" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="32" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="33" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y25">
-    <cfRule type="cellIs" dxfId="20" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="28" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="29" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="30" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y26">
-    <cfRule type="cellIs" dxfId="17" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="25" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="26" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="27" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O16">
-    <cfRule type="cellIs" dxfId="14" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="22" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="23" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="24" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24:X24">
-    <cfRule type="cellIs" dxfId="11" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="19" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="20" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="21" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y24">
-    <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="16" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="17" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="18" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y32">
+    <cfRule type="cellIs" dxfId="29" priority="13" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="14" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="15" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z27">
+    <cfRule type="cellIs" dxfId="26" priority="10" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="11" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="12" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y27">
+    <cfRule type="cellIs" dxfId="17" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="8" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="9" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y28">
+    <cfRule type="cellIs" dxfId="11" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y29">
     <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>

--- a/OPPM.xlsx
+++ b/OPPM.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="86">
   <si>
     <t>A = primary owner</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,9 +133,6 @@
   </si>
   <si>
     <t>Chris Tobias</t>
-  </si>
-  <si>
-    <t>Junce Xchao</t>
   </si>
   <si>
     <t>Ben Bachtler</t>
@@ -291,7 +288,16 @@
     <t>Version 03/19/2010 of the OPPM sheet</t>
   </si>
   <si>
-    <t>Date: 11/26/2013</t>
+    <t>Date: 12/03/2013</t>
+  </si>
+  <si>
+    <t>12/04</t>
+  </si>
+  <si>
+    <t>12/06</t>
+  </si>
+  <si>
+    <t>Junce Zhao</t>
   </si>
 </sst>
 </file>
@@ -425,7 +431,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="87">
+  <borders count="88">
     <border>
       <left/>
       <right/>
@@ -1525,6 +1531,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1532,7 +1553,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="220">
+  <cellXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
@@ -1971,10 +1992,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="64" xfId="2" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="73" xfId="2" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="2" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -2062,15 +2079,140 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="73" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="86" xfId="2" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="65" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="55" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="56" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="57" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="56" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="57" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="77" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="79" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="83" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="84" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="85" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="58" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="59" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="66" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2081,26 +2223,6 @@
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="55" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="56" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="57" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="17" fontId="5" fillId="0" borderId="68" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
       <protection locked="0"/>
@@ -2136,117 +2258,38 @@
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="56" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="84" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="57" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="85" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="77" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="87" xfId="2" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="65" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="79" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="83" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="84" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="85" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="58" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="59" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2256,7 +2299,7 @@
     <cellStyle name="Normal_Project Matrix" xfId="2"/>
     <cellStyle name="Normal_Project Matrix Collection II" xfId="3"/>
   </cellStyles>
-  <dxfs count="162">
+  <dxfs count="273">
     <dxf>
       <font>
         <b/>
@@ -3848,6 +3891,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
       <fill>
         <patternFill patternType="mediumGray">
           <fgColor indexed="10"/>
@@ -3858,15 +3907,1119 @@
     <dxf>
       <fill>
         <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
           <fgColor indexed="43"/>
           <bgColor indexed="9"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="mediumGray">
           <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="10"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="42"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor indexed="43"/>
           <bgColor indexed="9"/>
         </patternFill>
       </fill>
@@ -4763,10 +5916,10 @@
   <sheetPr codeName="Sheet13" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AE57"/>
+  <dimension ref="A1:AG57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="73" zoomScalePageLayoutView="96" workbookViewId="0">
-      <selection activeCell="AD3" sqref="AD3"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="E12" zoomScaleNormal="100" zoomScaleSheetLayoutView="73" zoomScalePageLayoutView="96" workbookViewId="0">
+      <selection activeCell="AA34" sqref="AA34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -4778,15 +5931,15 @@
     <col min="9" max="9" width="8.625" style="1" customWidth="1"/>
     <col min="10" max="26" width="5" style="1" customWidth="1"/>
     <col min="27" max="27" width="5" style="2" customWidth="1"/>
-    <col min="28" max="29" width="4.125" style="3" customWidth="1"/>
-    <col min="30" max="31" width="4.125" style="1" customWidth="1"/>
-    <col min="32" max="16384" width="9" style="1"/>
+    <col min="28" max="29" width="5" style="3" customWidth="1"/>
+    <col min="30" max="33" width="4.125" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="13.5" thickBot="1">
+    <row r="1" spans="1:33" ht="13.5" thickBot="1">
       <c r="A1" s="47"/>
     </row>
-    <row r="2" spans="1:31" s="4" customFormat="1" ht="18">
+    <row r="2" spans="1:33" s="4" customFormat="1" ht="18">
       <c r="B2" s="55"/>
       <c r="C2" s="56"/>
       <c r="D2" s="56"/>
@@ -4800,7 +5953,7 @@
       </c>
       <c r="K2" s="7"/>
       <c r="L2" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
@@ -4820,117 +5973,125 @@
       <c r="AB2" s="10"/>
       <c r="AC2" s="10"/>
       <c r="AD2" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="AE2" s="132"/>
+        <v>82</v>
+      </c>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="132"/>
     </row>
-    <row r="3" spans="1:31" s="4" customFormat="1" ht="18" customHeight="1">
+    <row r="3" spans="1:33" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="B3" s="59"/>
       <c r="C3" s="60"/>
       <c r="D3" s="60"/>
       <c r="E3" s="61"/>
-      <c r="F3" s="201" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="202"/>
-      <c r="J3" s="202"/>
-      <c r="K3" s="202"/>
-      <c r="L3" s="202"/>
-      <c r="M3" s="202"/>
-      <c r="N3" s="202"/>
-      <c r="O3" s="202"/>
-      <c r="P3" s="202"/>
-      <c r="Q3" s="202"/>
-      <c r="R3" s="202"/>
-      <c r="S3" s="202"/>
-      <c r="T3" s="202"/>
-      <c r="U3" s="202"/>
-      <c r="V3" s="202"/>
-      <c r="W3" s="202"/>
-      <c r="X3" s="202"/>
-      <c r="Y3" s="202"/>
+      <c r="F3" s="169" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="170"/>
+      <c r="H3" s="170"/>
+      <c r="I3" s="170"/>
+      <c r="J3" s="170"/>
+      <c r="K3" s="170"/>
+      <c r="L3" s="170"/>
+      <c r="M3" s="170"/>
+      <c r="N3" s="170"/>
+      <c r="O3" s="170"/>
+      <c r="P3" s="170"/>
+      <c r="Q3" s="170"/>
+      <c r="R3" s="170"/>
+      <c r="S3" s="170"/>
+      <c r="T3" s="170"/>
+      <c r="U3" s="170"/>
+      <c r="V3" s="170"/>
+      <c r="W3" s="170"/>
+      <c r="X3" s="170"/>
+      <c r="Y3" s="170"/>
       <c r="Z3" s="60"/>
       <c r="AA3" s="130"/>
       <c r="AB3" s="131"/>
       <c r="AC3" s="131"/>
       <c r="AD3" s="60"/>
-      <c r="AE3" s="133"/>
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="60"/>
+      <c r="AG3" s="133"/>
     </row>
-    <row r="4" spans="1:31" s="12" customFormat="1" ht="15.75" thickBot="1">
+    <row r="4" spans="1:33" s="12" customFormat="1" ht="15.75" thickBot="1">
       <c r="B4" s="57"/>
       <c r="C4" s="58"/>
       <c r="D4" s="58"/>
       <c r="E4" s="58"/>
-      <c r="F4" s="203"/>
-      <c r="G4" s="204"/>
-      <c r="H4" s="204"/>
-      <c r="I4" s="204"/>
-      <c r="J4" s="204"/>
-      <c r="K4" s="204"/>
-      <c r="L4" s="204"/>
-      <c r="M4" s="204"/>
-      <c r="N4" s="204"/>
-      <c r="O4" s="204"/>
-      <c r="P4" s="204"/>
-      <c r="Q4" s="204"/>
-      <c r="R4" s="204"/>
-      <c r="S4" s="204"/>
-      <c r="T4" s="204"/>
-      <c r="U4" s="204"/>
-      <c r="V4" s="204"/>
-      <c r="W4" s="204"/>
-      <c r="X4" s="204"/>
-      <c r="Y4" s="204"/>
+      <c r="F4" s="171"/>
+      <c r="G4" s="172"/>
+      <c r="H4" s="172"/>
+      <c r="I4" s="172"/>
+      <c r="J4" s="172"/>
+      <c r="K4" s="172"/>
+      <c r="L4" s="172"/>
+      <c r="M4" s="172"/>
+      <c r="N4" s="172"/>
+      <c r="O4" s="172"/>
+      <c r="P4" s="172"/>
+      <c r="Q4" s="172"/>
+      <c r="R4" s="172"/>
+      <c r="S4" s="172"/>
+      <c r="T4" s="172"/>
+      <c r="U4" s="172"/>
+      <c r="V4" s="172"/>
+      <c r="W4" s="172"/>
+      <c r="X4" s="172"/>
+      <c r="Y4" s="172"/>
       <c r="Z4" s="58"/>
       <c r="AA4" s="134"/>
       <c r="AB4" s="135"/>
       <c r="AC4" s="135"/>
       <c r="AD4" s="58"/>
-      <c r="AE4" s="136"/>
+      <c r="AE4" s="58"/>
+      <c r="AF4" s="58"/>
+      <c r="AG4" s="136"/>
     </row>
-    <row r="5" spans="1:31" s="13" customFormat="1" ht="13.5" thickBot="1">
-      <c r="B5" s="194" t="s">
+    <row r="5" spans="1:33" s="13" customFormat="1" ht="13.5" thickBot="1">
+      <c r="B5" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="195"/>
-      <c r="D5" s="195"/>
-      <c r="E5" s="196"/>
+      <c r="C5" s="198"/>
+      <c r="D5" s="198"/>
+      <c r="E5" s="199"/>
       <c r="F5" s="14"/>
       <c r="G5" s="63" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
-      <c r="J5" s="183" t="s">
-        <v>77</v>
-      </c>
-      <c r="K5" s="184"/>
-      <c r="L5" s="184"/>
-      <c r="M5" s="184"/>
-      <c r="N5" s="184"/>
-      <c r="O5" s="184"/>
-      <c r="P5" s="184"/>
-      <c r="Q5" s="184"/>
-      <c r="R5" s="184"/>
-      <c r="S5" s="184"/>
-      <c r="T5" s="184"/>
-      <c r="U5" s="184"/>
+      <c r="J5" s="209" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" s="210"/>
+      <c r="L5" s="210"/>
+      <c r="M5" s="210"/>
+      <c r="N5" s="210"/>
+      <c r="O5" s="210"/>
+      <c r="P5" s="210"/>
+      <c r="Q5" s="210"/>
+      <c r="R5" s="210"/>
+      <c r="S5" s="210"/>
+      <c r="T5" s="210"/>
+      <c r="U5" s="210"/>
       <c r="V5" s="137"/>
       <c r="W5" s="137"/>
       <c r="X5" s="137"/>
       <c r="Y5" s="137"/>
       <c r="Z5" s="137"/>
-      <c r="AA5" s="138"/>
-      <c r="AB5" s="185" t="s">
+      <c r="AA5" s="137"/>
+      <c r="AB5" s="137"/>
+      <c r="AC5" s="137"/>
+      <c r="AD5" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="AC5" s="186"/>
-      <c r="AD5" s="186"/>
-      <c r="AE5" s="187"/>
+      <c r="AE5" s="212"/>
+      <c r="AF5" s="212"/>
+      <c r="AG5" s="213"/>
     </row>
-    <row r="6" spans="1:31" s="18" customFormat="1">
+    <row r="6" spans="1:33" s="18" customFormat="1">
       <c r="B6" s="84" t="s">
         <v>18</v>
       </c>
@@ -4941,7 +6102,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="116" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" s="98"/>
       <c r="I6" s="102"/>
@@ -4967,20 +6128,22 @@
       <c r="Y6" s="83"/>
       <c r="Z6" s="83"/>
       <c r="AA6" s="83"/>
-      <c r="AB6" s="19" t="s">
+      <c r="AB6" s="112"/>
+      <c r="AC6" s="218"/>
+      <c r="AD6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="AC6" s="20" t="s">
+      <c r="AE6" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="AD6" s="20" t="s">
+      <c r="AF6" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="AE6" s="21" t="s">
+      <c r="AG6" s="21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:31" s="18" customFormat="1">
+    <row r="7" spans="1:33" s="18" customFormat="1">
       <c r="B7" s="87" t="s">
         <v>18</v>
       </c>
@@ -4991,7 +6154,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="117" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" s="99"/>
       <c r="I7" s="103"/>
@@ -5015,20 +6178,22 @@
       <c r="Y7" s="83"/>
       <c r="Z7" s="83"/>
       <c r="AA7" s="83"/>
-      <c r="AB7" s="22" t="s">
+      <c r="AB7" s="112"/>
+      <c r="AC7" s="219"/>
+      <c r="AD7" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AC7" s="23" t="s">
+      <c r="AE7" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="AD7" s="23" t="s">
+      <c r="AF7" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="AE7" s="24" t="s">
+      <c r="AG7" s="24" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:31" s="18" customFormat="1">
+    <row r="8" spans="1:33" s="18" customFormat="1">
       <c r="B8" s="87" t="s">
         <v>18</v>
       </c>
@@ -5039,7 +6204,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="117" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H8" s="99"/>
       <c r="I8" s="103"/>
@@ -5063,20 +6228,22 @@
       <c r="Y8" s="83"/>
       <c r="Z8" s="83"/>
       <c r="AA8" s="83"/>
-      <c r="AB8" s="22" t="s">
+      <c r="AB8" s="83"/>
+      <c r="AC8" s="220"/>
+      <c r="AD8" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="AC8" s="119" t="s">
+      <c r="AE8" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="AD8" s="119" t="s">
+      <c r="AF8" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="AE8" s="120" t="s">
+      <c r="AG8" s="120" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:31" s="18" customFormat="1">
+    <row r="9" spans="1:33" s="18" customFormat="1">
       <c r="B9" s="87" t="s">
         <v>18</v>
       </c>
@@ -5087,7 +6254,7 @@
         <v>4</v>
       </c>
       <c r="G9" s="117" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" s="99"/>
       <c r="I9" s="103"/>
@@ -5112,20 +6279,22 @@
       <c r="Y9" s="83"/>
       <c r="Z9" s="83"/>
       <c r="AA9" s="83"/>
-      <c r="AB9" s="147" t="s">
+      <c r="AB9" s="83"/>
+      <c r="AC9" s="220"/>
+      <c r="AD9" s="145" t="s">
         <v>28</v>
       </c>
-      <c r="AC9" s="119" t="s">
+      <c r="AE9" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="AD9" s="119" t="s">
+      <c r="AF9" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="AE9" s="120" t="s">
+      <c r="AG9" s="120" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:31" s="18" customFormat="1">
+    <row r="10" spans="1:33" s="18" customFormat="1">
       <c r="B10" s="87" t="s">
         <v>18</v>
       </c>
@@ -5136,7 +6305,7 @@
         <v>5</v>
       </c>
       <c r="G10" s="117" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H10" s="99"/>
       <c r="I10" s="103"/>
@@ -5160,20 +6329,22 @@
       <c r="Y10" s="83"/>
       <c r="Z10" s="83"/>
       <c r="AA10" s="83"/>
-      <c r="AB10" s="147" t="s">
+      <c r="AB10" s="83"/>
+      <c r="AC10" s="220"/>
+      <c r="AD10" s="145" t="s">
         <v>28</v>
       </c>
-      <c r="AC10" s="119" t="s">
+      <c r="AE10" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="AD10" s="119" t="s">
+      <c r="AF10" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="AE10" s="120" t="s">
+      <c r="AG10" s="120" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:31" s="18" customFormat="1">
+    <row r="11" spans="1:33" s="18" customFormat="1">
       <c r="B11" s="87"/>
       <c r="C11" s="88" t="s">
         <v>18</v>
@@ -5184,7 +6355,7 @@
         <v>6</v>
       </c>
       <c r="G11" s="117" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H11" s="99"/>
       <c r="I11" s="103"/>
@@ -5208,20 +6379,22 @@
       <c r="Y11" s="83"/>
       <c r="Z11" s="83"/>
       <c r="AA11" s="83"/>
-      <c r="AB11" s="147" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC11" s="119" t="s">
+      <c r="AB11" s="83"/>
+      <c r="AC11" s="220"/>
+      <c r="AD11" s="145" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE11" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="AD11" s="119" t="s">
+      <c r="AF11" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="AE11" s="120" t="s">
+      <c r="AG11" s="120" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:31" s="18" customFormat="1">
+    <row r="12" spans="1:33" s="18" customFormat="1">
       <c r="B12" s="87"/>
       <c r="C12" s="88" t="s">
         <v>18</v>
@@ -5232,7 +6405,7 @@
         <v>7</v>
       </c>
       <c r="G12" s="117" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H12" s="99"/>
       <c r="I12" s="103"/>
@@ -5258,20 +6431,22 @@
       <c r="Y12" s="83"/>
       <c r="Z12" s="83"/>
       <c r="AA12" s="83"/>
-      <c r="AB12" s="147" t="s">
+      <c r="AB12" s="83"/>
+      <c r="AC12" s="220"/>
+      <c r="AD12" s="145" t="s">
         <v>28</v>
       </c>
-      <c r="AC12" s="119" t="s">
+      <c r="AE12" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="AD12" s="119" t="s">
+      <c r="AF12" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="AE12" s="120" t="s">
+      <c r="AG12" s="120" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:31" s="18" customFormat="1">
+    <row r="13" spans="1:33" s="18" customFormat="1">
       <c r="B13" s="87"/>
       <c r="C13" s="88" t="s">
         <v>18</v>
@@ -5282,7 +6457,7 @@
         <v>8</v>
       </c>
       <c r="G13" s="117" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H13" s="99"/>
       <c r="I13" s="103"/>
@@ -5306,14 +6481,16 @@
       <c r="Y13" s="83"/>
       <c r="Z13" s="83"/>
       <c r="AA13" s="83"/>
-      <c r="AB13" s="22" t="s">
+      <c r="AB13" s="83"/>
+      <c r="AC13" s="220"/>
+      <c r="AD13" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="AC13" s="23"/>
-      <c r="AD13" s="23"/>
-      <c r="AE13" s="24"/>
+      <c r="AE13" s="23"/>
+      <c r="AF13" s="23"/>
+      <c r="AG13" s="24"/>
     </row>
-    <row r="14" spans="1:31" s="18" customFormat="1">
+    <row r="14" spans="1:33" s="18" customFormat="1">
       <c r="B14" s="87"/>
       <c r="C14" s="88" t="s">
         <v>18</v>
@@ -5324,7 +6501,7 @@
         <v>9</v>
       </c>
       <c r="G14" s="117" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H14" s="99"/>
       <c r="I14" s="103"/>
@@ -5348,14 +6525,16 @@
       <c r="Y14" s="83"/>
       <c r="Z14" s="83"/>
       <c r="AA14" s="83"/>
-      <c r="AB14" s="147" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC14" s="23"/>
-      <c r="AD14" s="23"/>
-      <c r="AE14" s="24"/>
+      <c r="AB14" s="83"/>
+      <c r="AC14" s="220"/>
+      <c r="AD14" s="145" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE14" s="23"/>
+      <c r="AF14" s="23"/>
+      <c r="AG14" s="24"/>
     </row>
-    <row r="15" spans="1:31" s="18" customFormat="1">
+    <row r="15" spans="1:33" s="18" customFormat="1">
       <c r="B15" s="87"/>
       <c r="C15" s="88" t="s">
         <v>18</v>
@@ -5366,7 +6545,7 @@
         <v>10</v>
       </c>
       <c r="G15" s="117" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H15" s="99"/>
       <c r="I15" s="103"/>
@@ -5390,16 +6569,18 @@
       <c r="Y15" s="83"/>
       <c r="Z15" s="83"/>
       <c r="AA15" s="83"/>
-      <c r="AB15" s="22"/>
-      <c r="AC15" s="119" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD15" s="119" t="s">
+      <c r="AB15" s="83"/>
+      <c r="AC15" s="220"/>
+      <c r="AD15" s="22"/>
+      <c r="AE15" s="119" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF15" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="AE15" s="24"/>
+      <c r="AG15" s="24"/>
     </row>
-    <row r="16" spans="1:31" s="18" customFormat="1">
+    <row r="16" spans="1:33" s="18" customFormat="1">
       <c r="B16" s="87"/>
       <c r="C16" s="88"/>
       <c r="D16" s="88" t="s">
@@ -5410,7 +6591,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="117" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H16" s="99"/>
       <c r="I16" s="103"/>
@@ -5436,14 +6617,16 @@
       <c r="Y16" s="83"/>
       <c r="Z16" s="83"/>
       <c r="AA16" s="83"/>
-      <c r="AB16" s="147"/>
-      <c r="AC16" s="23"/>
-      <c r="AD16" s="119" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE16" s="24"/>
+      <c r="AB16" s="83"/>
+      <c r="AC16" s="220"/>
+      <c r="AD16" s="145"/>
+      <c r="AE16" s="23"/>
+      <c r="AF16" s="119" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG16" s="24"/>
     </row>
-    <row r="17" spans="2:31" s="18" customFormat="1">
+    <row r="17" spans="2:33" s="18" customFormat="1">
       <c r="B17" s="87"/>
       <c r="C17" s="88"/>
       <c r="D17" s="88" t="s">
@@ -5454,7 +6637,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="117" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H17" s="99"/>
       <c r="I17" s="103"/>
@@ -5478,14 +6661,16 @@
       <c r="Y17" s="83"/>
       <c r="Z17" s="83"/>
       <c r="AA17" s="83"/>
-      <c r="AB17" s="22"/>
-      <c r="AC17" s="23"/>
-      <c r="AD17" s="119" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE17" s="24"/>
+      <c r="AB17" s="83"/>
+      <c r="AC17" s="220"/>
+      <c r="AD17" s="22"/>
+      <c r="AE17" s="23"/>
+      <c r="AF17" s="119" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG17" s="24"/>
     </row>
-    <row r="18" spans="2:31" s="18" customFormat="1">
+    <row r="18" spans="2:33" s="18" customFormat="1">
       <c r="B18" s="87"/>
       <c r="C18" s="88"/>
       <c r="D18" s="88" t="s">
@@ -5496,7 +6681,7 @@
         <v>13</v>
       </c>
       <c r="G18" s="117" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H18" s="99"/>
       <c r="I18" s="103"/>
@@ -5528,14 +6713,16 @@
       <c r="Y18" s="83"/>
       <c r="Z18" s="83"/>
       <c r="AA18" s="83"/>
-      <c r="AB18" s="22"/>
-      <c r="AC18" s="119" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD18" s="23"/>
-      <c r="AE18" s="24"/>
+      <c r="AB18" s="83"/>
+      <c r="AC18" s="220"/>
+      <c r="AD18" s="22"/>
+      <c r="AE18" s="119" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF18" s="23"/>
+      <c r="AG18" s="24"/>
     </row>
-    <row r="19" spans="2:31" s="18" customFormat="1">
+    <row r="19" spans="2:33" s="18" customFormat="1">
       <c r="B19" s="87"/>
       <c r="C19" s="88"/>
       <c r="D19" s="88" t="s">
@@ -5546,7 +6733,7 @@
         <v>14</v>
       </c>
       <c r="G19" s="117" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H19" s="99"/>
       <c r="I19" s="103"/>
@@ -5578,14 +6765,16 @@
       <c r="Y19" s="83"/>
       <c r="Z19" s="83"/>
       <c r="AA19" s="83"/>
-      <c r="AB19" s="147" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC19" s="23"/>
-      <c r="AD19" s="23"/>
-      <c r="AE19" s="24"/>
+      <c r="AB19" s="83"/>
+      <c r="AC19" s="220"/>
+      <c r="AD19" s="145" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE19" s="23"/>
+      <c r="AF19" s="23"/>
+      <c r="AG19" s="24"/>
     </row>
-    <row r="20" spans="2:31" s="18" customFormat="1">
+    <row r="20" spans="2:33" s="18" customFormat="1">
       <c r="B20" s="87"/>
       <c r="C20" s="88"/>
       <c r="D20" s="88" t="s">
@@ -5596,7 +6785,7 @@
         <v>15</v>
       </c>
       <c r="G20" s="117" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H20" s="100"/>
       <c r="I20" s="104"/>
@@ -5620,14 +6809,16 @@
       <c r="Y20" s="83"/>
       <c r="Z20" s="83"/>
       <c r="AA20" s="83"/>
-      <c r="AB20" s="22"/>
-      <c r="AC20" s="23"/>
-      <c r="AD20" s="119" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE20" s="24"/>
+      <c r="AB20" s="83"/>
+      <c r="AC20" s="220"/>
+      <c r="AD20" s="22"/>
+      <c r="AE20" s="23"/>
+      <c r="AF20" s="119" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG20" s="24"/>
     </row>
-    <row r="21" spans="2:31" s="18" customFormat="1">
+    <row r="21" spans="2:33" s="18" customFormat="1">
       <c r="B21" s="87"/>
       <c r="C21" s="88"/>
       <c r="D21" s="88" t="s">
@@ -5638,7 +6829,7 @@
         <v>16</v>
       </c>
       <c r="G21" s="117" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H21" s="100"/>
       <c r="I21" s="104"/>
@@ -5662,14 +6853,16 @@
       <c r="Y21" s="83"/>
       <c r="Z21" s="83"/>
       <c r="AA21" s="83"/>
-      <c r="AB21" s="22"/>
-      <c r="AC21" s="23"/>
-      <c r="AD21" s="119" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE21" s="24"/>
+      <c r="AB21" s="83"/>
+      <c r="AC21" s="220"/>
+      <c r="AD21" s="22"/>
+      <c r="AE21" s="23"/>
+      <c r="AF21" s="119" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG21" s="24"/>
     </row>
-    <row r="22" spans="2:31" s="18" customFormat="1">
+    <row r="22" spans="2:33" s="18" customFormat="1">
       <c r="B22" s="87"/>
       <c r="C22" s="88"/>
       <c r="D22" s="88" t="s">
@@ -5680,7 +6873,7 @@
         <v>17</v>
       </c>
       <c r="G22" s="117" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H22" s="100"/>
       <c r="I22" s="104"/>
@@ -5704,14 +6897,16 @@
       <c r="Y22" s="83"/>
       <c r="Z22" s="83"/>
       <c r="AA22" s="83"/>
-      <c r="AB22" s="22"/>
-      <c r="AC22" s="23"/>
-      <c r="AD22" s="119" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE22" s="24"/>
+      <c r="AB22" s="83"/>
+      <c r="AC22" s="220"/>
+      <c r="AD22" s="22"/>
+      <c r="AE22" s="23"/>
+      <c r="AF22" s="119" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG22" s="24"/>
     </row>
-    <row r="23" spans="2:31" s="18" customFormat="1">
+    <row r="23" spans="2:33" s="18" customFormat="1">
       <c r="B23" s="87"/>
       <c r="C23" s="88"/>
       <c r="D23" s="88"/>
@@ -5722,7 +6917,7 @@
         <v>18</v>
       </c>
       <c r="G23" s="117" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H23" s="100"/>
       <c r="I23" s="104"/>
@@ -5746,14 +6941,16 @@
       <c r="Y23" s="83"/>
       <c r="Z23" s="83"/>
       <c r="AA23" s="83"/>
-      <c r="AB23" s="22"/>
-      <c r="AC23" s="23"/>
-      <c r="AD23" s="119" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE23" s="24"/>
+      <c r="AB23" s="83"/>
+      <c r="AC23" s="220"/>
+      <c r="AD23" s="22"/>
+      <c r="AE23" s="23"/>
+      <c r="AF23" s="119" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG23" s="24"/>
     </row>
-    <row r="24" spans="2:31" s="18" customFormat="1">
+    <row r="24" spans="2:33" s="18" customFormat="1">
       <c r="B24" s="87"/>
       <c r="C24" s="88"/>
       <c r="D24" s="88"/>
@@ -5764,9 +6961,9 @@
         <v>19</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="J24" s="171"/>
+        <v>80</v>
+      </c>
+      <c r="J24" s="168"/>
       <c r="K24" s="83"/>
       <c r="L24" s="83"/>
       <c r="M24" s="83"/>
@@ -5786,12 +6983,14 @@
       </c>
       <c r="Z24" s="83"/>
       <c r="AA24" s="83"/>
-      <c r="AB24" s="22"/>
-      <c r="AC24" s="23"/>
-      <c r="AD24" s="23"/>
-      <c r="AE24" s="24"/>
+      <c r="AB24" s="83"/>
+      <c r="AC24" s="220"/>
+      <c r="AD24" s="22"/>
+      <c r="AE24" s="23"/>
+      <c r="AF24" s="23"/>
+      <c r="AG24" s="24"/>
     </row>
-    <row r="25" spans="2:31" s="18" customFormat="1">
+    <row r="25" spans="2:33" s="18" customFormat="1">
       <c r="B25" s="87"/>
       <c r="C25" s="88"/>
       <c r="D25" s="88"/>
@@ -5802,7 +7001,7 @@
         <v>20</v>
       </c>
       <c r="G25" s="117" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H25" s="100"/>
       <c r="I25" s="104"/>
@@ -5826,12 +7025,14 @@
       </c>
       <c r="Z25" s="83"/>
       <c r="AA25" s="83"/>
-      <c r="AB25" s="22"/>
-      <c r="AC25" s="23"/>
-      <c r="AD25" s="23"/>
-      <c r="AE25" s="24"/>
+      <c r="AB25" s="83"/>
+      <c r="AC25" s="220"/>
+      <c r="AD25" s="22"/>
+      <c r="AE25" s="23"/>
+      <c r="AF25" s="23"/>
+      <c r="AG25" s="24"/>
     </row>
-    <row r="26" spans="2:31" s="18" customFormat="1">
+    <row r="26" spans="2:33" s="18" customFormat="1">
       <c r="B26" s="87"/>
       <c r="C26" s="88"/>
       <c r="D26" s="88"/>
@@ -5842,7 +7043,7 @@
         <v>21</v>
       </c>
       <c r="G26" s="117" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H26" s="100"/>
       <c r="I26" s="104"/>
@@ -5868,14 +7069,16 @@
       </c>
       <c r="Z26" s="113"/>
       <c r="AA26" s="113"/>
-      <c r="AB26" s="22"/>
-      <c r="AC26" s="23"/>
-      <c r="AD26" s="23"/>
-      <c r="AE26" s="120" t="s">
-        <v>76</v>
+      <c r="AB26" s="83"/>
+      <c r="AC26" s="220"/>
+      <c r="AD26" s="22"/>
+      <c r="AE26" s="23"/>
+      <c r="AF26" s="23"/>
+      <c r="AG26" s="120" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="27" spans="2:31" s="18" customFormat="1">
+    <row r="27" spans="2:33" s="18" customFormat="1">
       <c r="B27" s="87"/>
       <c r="C27" s="88"/>
       <c r="D27" s="88"/>
@@ -5886,7 +7089,7 @@
         <v>22</v>
       </c>
       <c r="G27" s="117" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H27" s="100"/>
       <c r="I27" s="104"/>
@@ -5912,15 +7115,21 @@
       <c r="Z27" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="AA27" s="83"/>
-      <c r="AB27" s="22"/>
-      <c r="AC27" s="119" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD27" s="23"/>
-      <c r="AE27" s="24"/>
+      <c r="AA27" s="112" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB27" s="83"/>
+      <c r="AC27" s="220"/>
+      <c r="AD27" s="22"/>
+      <c r="AE27" s="119" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF27" s="119" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG27" s="24"/>
     </row>
-    <row r="28" spans="2:31" s="18" customFormat="1">
+    <row r="28" spans="2:33" s="18" customFormat="1">
       <c r="B28" s="87"/>
       <c r="C28" s="88"/>
       <c r="D28" s="88"/>
@@ -5931,7 +7140,7 @@
         <v>23</v>
       </c>
       <c r="G28" s="117" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H28" s="100"/>
       <c r="I28" s="104"/>
@@ -5956,15 +7165,19 @@
         <v>18</v>
       </c>
       <c r="Z28" s="83"/>
-      <c r="AA28" s="83"/>
-      <c r="AB28" s="148" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC28" s="76"/>
-      <c r="AD28" s="76"/>
-      <c r="AE28" s="77"/>
+      <c r="AA28" s="112" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB28" s="83"/>
+      <c r="AC28" s="220"/>
+      <c r="AD28" s="146" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE28" s="76"/>
+      <c r="AF28" s="76"/>
+      <c r="AG28" s="77"/>
     </row>
-    <row r="29" spans="2:31" s="18" customFormat="1">
+    <row r="29" spans="2:33" s="18" customFormat="1">
       <c r="B29" s="87"/>
       <c r="C29" s="88"/>
       <c r="D29" s="88"/>
@@ -5975,7 +7188,7 @@
         <v>24</v>
       </c>
       <c r="G29" s="117" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H29" s="100"/>
       <c r="I29" s="104"/>
@@ -5999,13 +7212,17 @@
         <v>18</v>
       </c>
       <c r="Z29" s="83"/>
-      <c r="AA29" s="83"/>
-      <c r="AB29" s="25"/>
-      <c r="AC29" s="26"/>
-      <c r="AD29" s="26"/>
-      <c r="AE29" s="27"/>
+      <c r="AA29" s="112" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB29" s="113"/>
+      <c r="AC29" s="221"/>
+      <c r="AD29" s="25"/>
+      <c r="AE29" s="26"/>
+      <c r="AF29" s="26"/>
+      <c r="AG29" s="27"/>
     </row>
-    <row r="30" spans="2:31" s="18" customFormat="1">
+    <row r="30" spans="2:33" s="18" customFormat="1">
       <c r="B30" s="87" t="s">
         <v>18</v>
       </c>
@@ -6016,7 +7233,7 @@
         <v>25</v>
       </c>
       <c r="G30" s="117" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H30" s="100"/>
       <c r="I30" s="104"/>
@@ -6039,20 +7256,22 @@
       <c r="Y30" s="83"/>
       <c r="Z30" s="83"/>
       <c r="AA30" s="83"/>
-      <c r="AB30" s="147" t="s">
+      <c r="AB30" s="83"/>
+      <c r="AC30" s="220"/>
+      <c r="AD30" s="145" t="s">
         <v>28</v>
       </c>
-      <c r="AC30" s="119" t="s">
+      <c r="AE30" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="AD30" s="119" t="s">
+      <c r="AF30" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="AE30" s="120" t="s">
+      <c r="AG30" s="120" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="2:31" s="18" customFormat="1">
+    <row r="31" spans="2:33" s="18" customFormat="1">
       <c r="B31" s="87" t="s">
         <v>18</v>
       </c>
@@ -6086,21 +7305,25 @@
       <c r="X31" s="109"/>
       <c r="Y31" s="109"/>
       <c r="Z31" s="109"/>
-      <c r="AA31" s="109"/>
-      <c r="AB31" s="22" t="s">
+      <c r="AA31" s="112" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB31" s="83"/>
+      <c r="AC31" s="220"/>
+      <c r="AD31" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AC31" s="23" t="s">
+      <c r="AE31" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="AD31" s="119" t="s">
+      <c r="AF31" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="AE31" s="120" t="s">
+      <c r="AG31" s="120" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="2:31" s="18" customFormat="1">
+    <row r="32" spans="2:33" s="18" customFormat="1">
       <c r="B32" s="87" t="s">
         <v>18</v>
       </c>
@@ -6111,7 +7334,7 @@
         <v>27</v>
       </c>
       <c r="G32" s="118" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H32" s="100"/>
       <c r="I32" s="104"/>
@@ -6137,18 +7360,22 @@
       <c r="Y32" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="Z32" s="170" t="s">
+      <c r="Z32" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="AA32" s="139"/>
-      <c r="AB32" s="147"/>
-      <c r="AC32" s="23"/>
-      <c r="AD32" s="119"/>
-      <c r="AE32" s="120" t="s">
-        <v>76</v>
+      <c r="AA32" s="123" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB32" s="83"/>
+      <c r="AC32" s="220"/>
+      <c r="AD32" s="145"/>
+      <c r="AE32" s="23"/>
+      <c r="AF32" s="119"/>
+      <c r="AG32" s="120" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="33" spans="2:31" s="18" customFormat="1">
+    <row r="33" spans="2:33" s="18" customFormat="1">
       <c r="B33" s="87" t="s">
         <v>18</v>
       </c>
@@ -6175,28 +7402,30 @@
       <c r="S33" s="109"/>
       <c r="T33" s="109"/>
       <c r="U33" s="109"/>
-      <c r="V33" s="140"/>
+      <c r="V33" s="138"/>
       <c r="W33" s="83"/>
       <c r="X33" s="83"/>
       <c r="Y33" s="83"/>
-      <c r="Z33" s="125" t="s">
+      <c r="Z33" s="125"/>
+      <c r="AA33" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="AA33" s="109"/>
-      <c r="AB33" s="147" t="s">
+      <c r="AB33" s="109"/>
+      <c r="AC33" s="222"/>
+      <c r="AD33" s="145" t="s">
         <v>28</v>
       </c>
-      <c r="AC33" s="119" t="s">
+      <c r="AE33" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="AD33" s="119" t="s">
+      <c r="AF33" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="AE33" s="120" t="s">
+      <c r="AG33" s="120" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="2:31" s="18" customFormat="1" ht="13.5" thickBot="1">
+    <row r="34" spans="2:33" s="18" customFormat="1" ht="13.5" thickBot="1">
       <c r="B34" s="90" t="s">
         <v>18</v>
       </c>
@@ -6223,27 +7452,29 @@
       <c r="S34" s="111"/>
       <c r="T34" s="127"/>
       <c r="U34" s="111"/>
-      <c r="V34" s="141"/>
-      <c r="W34" s="141"/>
-      <c r="X34" s="141"/>
+      <c r="V34" s="139"/>
+      <c r="W34" s="139"/>
+      <c r="X34" s="139"/>
       <c r="Z34" s="128"/>
-      <c r="AA34" s="128" t="s">
+      <c r="AA34" s="128"/>
+      <c r="AB34" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="AB34" s="166" t="s">
+      <c r="AC34" s="223"/>
+      <c r="AD34" s="164" t="s">
         <v>28</v>
       </c>
-      <c r="AC34" s="167" t="s">
+      <c r="AE34" s="165" t="s">
         <v>28</v>
       </c>
-      <c r="AD34" s="167" t="s">
+      <c r="AF34" s="165" t="s">
         <v>28</v>
       </c>
-      <c r="AE34" s="168" t="s">
+      <c r="AG34" s="166" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="2:31" s="18" customFormat="1" ht="13.5" thickBot="1">
+    <row r="35" spans="2:33" s="18" customFormat="1" ht="13.5" thickBot="1">
       <c r="B35" s="48"/>
       <c r="C35" s="49"/>
       <c r="D35" s="62"/>
@@ -6251,8 +7482,8 @@
       <c r="F35" s="78"/>
       <c r="G35" s="79"/>
       <c r="H35" s="80"/>
-      <c r="I35" s="169" t="s">
-        <v>78</v>
+      <c r="I35" s="167" t="s">
+        <v>77</v>
       </c>
       <c r="J35" s="106"/>
       <c r="K35" s="107"/>
@@ -6265,112 +7496,120 @@
       <c r="R35" s="107"/>
       <c r="S35" s="107"/>
       <c r="T35" s="107"/>
-      <c r="U35" s="142"/>
-      <c r="V35" s="143"/>
-      <c r="W35" s="144"/>
-      <c r="X35" s="144"/>
-      <c r="Y35" s="144"/>
-      <c r="Z35" s="144"/>
-      <c r="AA35" s="146"/>
-      <c r="AB35" s="145"/>
-      <c r="AC35" s="51"/>
-      <c r="AD35" s="51"/>
-      <c r="AE35" s="74"/>
+      <c r="U35" s="140"/>
+      <c r="V35" s="141"/>
+      <c r="W35" s="142"/>
+      <c r="X35" s="142"/>
+      <c r="Y35" s="142"/>
+      <c r="Z35" s="142"/>
+      <c r="AA35" s="142"/>
+      <c r="AB35" s="141"/>
+      <c r="AC35" s="144"/>
+      <c r="AD35" s="143"/>
+      <c r="AE35" s="51"/>
+      <c r="AF35" s="51"/>
+      <c r="AG35" s="74"/>
     </row>
-    <row r="36" spans="2:31" ht="12.75" customHeight="1">
-      <c r="B36" s="199" t="s">
+    <row r="36" spans="2:33" ht="12.75" customHeight="1">
+      <c r="B36" s="202" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="192" t="s">
+      <c r="C36" s="195" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="192" t="s">
+      <c r="D36" s="195" t="s">
         <v>23</v>
       </c>
-      <c r="E36" s="197" t="s">
+      <c r="E36" s="200" t="s">
         <v>24</v>
       </c>
       <c r="F36" s="28"/>
       <c r="G36" s="29"/>
       <c r="H36" s="30"/>
       <c r="I36" s="30"/>
-      <c r="J36" s="180" t="s">
+      <c r="J36" s="206" t="s">
+        <v>60</v>
+      </c>
+      <c r="K36" s="177" t="s">
         <v>61</v>
       </c>
-      <c r="K36" s="177" t="s">
+      <c r="L36" s="177" t="s">
         <v>62</v>
-      </c>
-      <c r="L36" s="177" t="s">
-        <v>63</v>
       </c>
       <c r="M36" s="177" t="s">
         <v>21</v>
       </c>
       <c r="N36" s="177" t="s">
+        <v>63</v>
+      </c>
+      <c r="O36" s="177" t="s">
         <v>64</v>
       </c>
-      <c r="O36" s="177" t="s">
+      <c r="P36" s="177" t="s">
         <v>65</v>
       </c>
-      <c r="P36" s="177" t="s">
+      <c r="Q36" s="177" t="s">
+        <v>67</v>
+      </c>
+      <c r="R36" s="177" t="s">
+        <v>79</v>
+      </c>
+      <c r="S36" s="177" t="s">
         <v>66</v>
       </c>
-      <c r="Q36" s="177" t="s">
+      <c r="T36" s="177" t="s">
         <v>68</v>
       </c>
-      <c r="R36" s="177" t="s">
-        <v>80</v>
-      </c>
-      <c r="S36" s="177" t="s">
-        <v>67</v>
-      </c>
-      <c r="T36" s="177" t="s">
+      <c r="U36" s="177" t="s">
+        <v>78</v>
+      </c>
+      <c r="V36" s="184" t="s">
+        <v>35</v>
+      </c>
+      <c r="W36" s="177" t="s">
         <v>69</v>
       </c>
-      <c r="U36" s="177" t="s">
-        <v>79</v>
-      </c>
-      <c r="V36" s="209" t="s">
-        <v>36</v>
-      </c>
-      <c r="W36" s="177" t="s">
-        <v>70</v>
-      </c>
       <c r="X36" s="177" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y36" s="177" t="s">
         <v>72</v>
       </c>
-      <c r="Y36" s="177" t="s">
+      <c r="Z36" s="187" t="s">
         <v>73</v>
       </c>
-      <c r="Z36" s="212" t="s">
+      <c r="AA36" s="187" t="s">
         <v>74</v>
       </c>
-      <c r="AA36" s="215" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB36" s="175" t="s">
+      <c r="AB36" s="177" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC36" s="190" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD36" s="180" t="s">
         <v>30</v>
       </c>
-      <c r="AC36" s="175" t="s">
+      <c r="AE36" s="180" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF36" s="214" t="s">
         <v>31</v>
       </c>
-      <c r="AD36" s="188" t="s">
+      <c r="AG36" s="224" t="s">
         <v>32</v>
       </c>
-      <c r="AE36" s="172" t="s">
-        <v>33</v>
-      </c>
     </row>
-    <row r="37" spans="2:31" ht="12.75" customHeight="1">
-      <c r="B37" s="199"/>
-      <c r="C37" s="192"/>
-      <c r="D37" s="192"/>
-      <c r="E37" s="197"/>
+    <row r="37" spans="2:33" ht="12.75" customHeight="1">
+      <c r="B37" s="202"/>
+      <c r="C37" s="195"/>
+      <c r="D37" s="195"/>
+      <c r="E37" s="200"/>
       <c r="F37" s="28"/>
       <c r="G37" s="31"/>
       <c r="H37" s="30"/>
       <c r="I37" s="30"/>
-      <c r="J37" s="181"/>
+      <c r="J37" s="207"/>
       <c r="K37" s="178"/>
       <c r="L37" s="178"/>
       <c r="M37" s="178"/>
@@ -6381,28 +7620,30 @@
       <c r="R37" s="178"/>
       <c r="S37" s="178"/>
       <c r="T37" s="178"/>
-      <c r="U37" s="207"/>
-      <c r="V37" s="210"/>
+      <c r="U37" s="182"/>
+      <c r="V37" s="185"/>
       <c r="W37" s="178"/>
       <c r="X37" s="178"/>
       <c r="Y37" s="178"/>
-      <c r="Z37" s="213"/>
+      <c r="Z37" s="188"/>
       <c r="AA37" s="216"/>
-      <c r="AB37" s="175"/>
-      <c r="AC37" s="175"/>
-      <c r="AD37" s="188"/>
-      <c r="AE37" s="173"/>
+      <c r="AB37" s="182"/>
+      <c r="AC37" s="191"/>
+      <c r="AD37" s="180"/>
+      <c r="AE37" s="180"/>
+      <c r="AF37" s="214"/>
+      <c r="AG37" s="204"/>
     </row>
-    <row r="38" spans="2:31" ht="12.75" customHeight="1">
-      <c r="B38" s="199"/>
-      <c r="C38" s="192"/>
-      <c r="D38" s="192"/>
-      <c r="E38" s="197"/>
+    <row r="38" spans="2:33" ht="12.75" customHeight="1">
+      <c r="B38" s="202"/>
+      <c r="C38" s="195"/>
+      <c r="D38" s="195"/>
+      <c r="E38" s="200"/>
       <c r="F38" s="28"/>
       <c r="G38" s="31"/>
       <c r="H38" s="30"/>
       <c r="I38" s="30"/>
-      <c r="J38" s="181"/>
+      <c r="J38" s="207"/>
       <c r="K38" s="178"/>
       <c r="L38" s="178"/>
       <c r="M38" s="178"/>
@@ -6413,28 +7654,30 @@
       <c r="R38" s="178"/>
       <c r="S38" s="178"/>
       <c r="T38" s="178"/>
-      <c r="U38" s="207"/>
-      <c r="V38" s="210"/>
+      <c r="U38" s="182"/>
+      <c r="V38" s="185"/>
       <c r="W38" s="178"/>
       <c r="X38" s="178"/>
       <c r="Y38" s="178"/>
-      <c r="Z38" s="213"/>
+      <c r="Z38" s="188"/>
       <c r="AA38" s="216"/>
-      <c r="AB38" s="175"/>
-      <c r="AC38" s="175"/>
-      <c r="AD38" s="188"/>
-      <c r="AE38" s="173"/>
+      <c r="AB38" s="182"/>
+      <c r="AC38" s="191"/>
+      <c r="AD38" s="180"/>
+      <c r="AE38" s="180"/>
+      <c r="AF38" s="214"/>
+      <c r="AG38" s="204"/>
     </row>
-    <row r="39" spans="2:31" ht="12.75" customHeight="1">
-      <c r="B39" s="199"/>
-      <c r="C39" s="192"/>
-      <c r="D39" s="192"/>
-      <c r="E39" s="197"/>
+    <row r="39" spans="2:33" ht="12.75" customHeight="1">
+      <c r="B39" s="202"/>
+      <c r="C39" s="195"/>
+      <c r="D39" s="195"/>
+      <c r="E39" s="200"/>
       <c r="F39" s="28"/>
       <c r="G39" s="32"/>
       <c r="H39" s="30"/>
       <c r="I39" s="30"/>
-      <c r="J39" s="181"/>
+      <c r="J39" s="207"/>
       <c r="K39" s="178"/>
       <c r="L39" s="178"/>
       <c r="M39" s="178"/>
@@ -6445,28 +7688,30 @@
       <c r="R39" s="178"/>
       <c r="S39" s="178"/>
       <c r="T39" s="178"/>
-      <c r="U39" s="207"/>
-      <c r="V39" s="210"/>
+      <c r="U39" s="182"/>
+      <c r="V39" s="185"/>
       <c r="W39" s="178"/>
       <c r="X39" s="178"/>
       <c r="Y39" s="178"/>
-      <c r="Z39" s="213"/>
+      <c r="Z39" s="188"/>
       <c r="AA39" s="216"/>
-      <c r="AB39" s="175"/>
-      <c r="AC39" s="175"/>
-      <c r="AD39" s="188"/>
-      <c r="AE39" s="173"/>
+      <c r="AB39" s="182"/>
+      <c r="AC39" s="191"/>
+      <c r="AD39" s="180"/>
+      <c r="AE39" s="180"/>
+      <c r="AF39" s="214"/>
+      <c r="AG39" s="204"/>
     </row>
-    <row r="40" spans="2:31" ht="12.75" customHeight="1">
-      <c r="B40" s="199"/>
-      <c r="C40" s="192"/>
-      <c r="D40" s="192"/>
-      <c r="E40" s="197"/>
+    <row r="40" spans="2:33" ht="12.75" customHeight="1">
+      <c r="B40" s="202"/>
+      <c r="C40" s="195"/>
+      <c r="D40" s="195"/>
+      <c r="E40" s="200"/>
       <c r="F40" s="28"/>
       <c r="G40" s="29"/>
       <c r="H40" s="30"/>
       <c r="I40" s="30"/>
-      <c r="J40" s="181"/>
+      <c r="J40" s="207"/>
       <c r="K40" s="178"/>
       <c r="L40" s="178"/>
       <c r="M40" s="178"/>
@@ -6477,28 +7722,30 @@
       <c r="R40" s="178"/>
       <c r="S40" s="178"/>
       <c r="T40" s="178"/>
-      <c r="U40" s="207"/>
-      <c r="V40" s="210"/>
+      <c r="U40" s="182"/>
+      <c r="V40" s="185"/>
       <c r="W40" s="178"/>
       <c r="X40" s="178"/>
       <c r="Y40" s="178"/>
-      <c r="Z40" s="213"/>
+      <c r="Z40" s="188"/>
       <c r="AA40" s="216"/>
-      <c r="AB40" s="175"/>
-      <c r="AC40" s="175"/>
-      <c r="AD40" s="188"/>
-      <c r="AE40" s="173"/>
+      <c r="AB40" s="182"/>
+      <c r="AC40" s="191"/>
+      <c r="AD40" s="180"/>
+      <c r="AE40" s="180"/>
+      <c r="AF40" s="214"/>
+      <c r="AG40" s="204"/>
     </row>
-    <row r="41" spans="2:31" ht="12" customHeight="1" thickBot="1">
-      <c r="B41" s="199"/>
-      <c r="C41" s="192"/>
-      <c r="D41" s="192"/>
-      <c r="E41" s="197"/>
+    <row r="41" spans="2:33" ht="12" customHeight="1" thickBot="1">
+      <c r="B41" s="202"/>
+      <c r="C41" s="195"/>
+      <c r="D41" s="195"/>
+      <c r="E41" s="200"/>
       <c r="F41" s="28"/>
       <c r="G41" s="33"/>
       <c r="H41" s="30"/>
       <c r="I41" s="30"/>
-      <c r="J41" s="182"/>
+      <c r="J41" s="208"/>
       <c r="K41" s="179"/>
       <c r="L41" s="179"/>
       <c r="M41" s="179"/>
@@ -6509,23 +7756,25 @@
       <c r="R41" s="179"/>
       <c r="S41" s="179"/>
       <c r="T41" s="179"/>
-      <c r="U41" s="208"/>
-      <c r="V41" s="211"/>
+      <c r="U41" s="183"/>
+      <c r="V41" s="186"/>
       <c r="W41" s="179"/>
       <c r="X41" s="179"/>
       <c r="Y41" s="179"/>
-      <c r="Z41" s="214"/>
+      <c r="Z41" s="189"/>
       <c r="AA41" s="217"/>
-      <c r="AB41" s="176"/>
-      <c r="AC41" s="176"/>
-      <c r="AD41" s="189"/>
-      <c r="AE41" s="174"/>
+      <c r="AB41" s="183"/>
+      <c r="AC41" s="192"/>
+      <c r="AD41" s="181"/>
+      <c r="AE41" s="181"/>
+      <c r="AF41" s="215"/>
+      <c r="AG41" s="205"/>
     </row>
-    <row r="42" spans="2:31">
-      <c r="B42" s="199"/>
-      <c r="C42" s="192"/>
-      <c r="D42" s="192"/>
-      <c r="E42" s="197"/>
+    <row r="42" spans="2:33">
+      <c r="B42" s="202"/>
+      <c r="C42" s="195"/>
+      <c r="D42" s="195"/>
+      <c r="E42" s="200"/>
       <c r="F42" s="34"/>
       <c r="G42" s="33"/>
       <c r="H42" s="33"/>
@@ -6546,18 +7795,20 @@
       <c r="W42" s="36"/>
       <c r="X42" s="36"/>
       <c r="Y42" s="39"/>
-      <c r="Z42" s="149"/>
-      <c r="AA42" s="149"/>
-      <c r="AB42" s="149"/>
-      <c r="AC42" s="149"/>
-      <c r="AD42" s="149"/>
-      <c r="AE42" s="150"/>
+      <c r="Z42" s="147"/>
+      <c r="AA42" s="147"/>
+      <c r="AB42" s="147"/>
+      <c r="AC42" s="147"/>
+      <c r="AD42" s="147"/>
+      <c r="AE42" s="147"/>
+      <c r="AF42" s="147"/>
+      <c r="AG42" s="148"/>
     </row>
-    <row r="43" spans="2:31" ht="15.75" customHeight="1">
-      <c r="B43" s="199"/>
-      <c r="C43" s="192"/>
-      <c r="D43" s="192"/>
-      <c r="E43" s="197"/>
+    <row r="43" spans="2:33" ht="15.75" customHeight="1">
+      <c r="B43" s="202"/>
+      <c r="C43" s="195"/>
+      <c r="D43" s="195"/>
+      <c r="E43" s="200"/>
       <c r="F43" s="37"/>
       <c r="G43" s="33"/>
       <c r="H43" s="31"/>
@@ -6589,13 +7840,15 @@
       <c r="AB43" s="67"/>
       <c r="AC43" s="67"/>
       <c r="AD43" s="34"/>
-      <c r="AE43" s="151"/>
+      <c r="AE43" s="67"/>
+      <c r="AF43" s="67"/>
+      <c r="AG43" s="149"/>
     </row>
-    <row r="44" spans="2:31" ht="12.75" customHeight="1">
-      <c r="B44" s="199"/>
-      <c r="C44" s="192"/>
-      <c r="D44" s="192"/>
-      <c r="E44" s="197"/>
+    <row r="44" spans="2:33" ht="12.75" customHeight="1">
+      <c r="B44" s="202"/>
+      <c r="C44" s="195"/>
+      <c r="D44" s="195"/>
+      <c r="E44" s="200"/>
       <c r="F44" s="34"/>
       <c r="G44" s="29"/>
       <c r="H44" s="31"/>
@@ -6627,13 +7880,15 @@
       <c r="AB44" s="68"/>
       <c r="AC44" s="68"/>
       <c r="AD44" s="34"/>
-      <c r="AE44" s="151"/>
+      <c r="AE44" s="68"/>
+      <c r="AF44" s="68"/>
+      <c r="AG44" s="149"/>
     </row>
-    <row r="45" spans="2:31" ht="15.75">
-      <c r="B45" s="199"/>
-      <c r="C45" s="192"/>
-      <c r="D45" s="192"/>
-      <c r="E45" s="197"/>
+    <row r="45" spans="2:33" ht="15.75">
+      <c r="B45" s="202"/>
+      <c r="C45" s="195"/>
+      <c r="D45" s="195"/>
+      <c r="E45" s="200"/>
       <c r="F45" s="34"/>
       <c r="G45" s="29"/>
       <c r="H45" s="31"/>
@@ -6663,13 +7918,15 @@
       <c r="AB45" s="68"/>
       <c r="AC45" s="69"/>
       <c r="AD45" s="34"/>
-      <c r="AE45" s="151"/>
+      <c r="AE45" s="69"/>
+      <c r="AF45" s="69"/>
+      <c r="AG45" s="149"/>
     </row>
-    <row r="46" spans="2:31">
-      <c r="B46" s="199"/>
-      <c r="C46" s="192"/>
-      <c r="D46" s="192"/>
-      <c r="E46" s="197"/>
+    <row r="46" spans="2:33">
+      <c r="B46" s="202"/>
+      <c r="C46" s="195"/>
+      <c r="D46" s="195"/>
+      <c r="E46" s="200"/>
       <c r="F46" s="34"/>
       <c r="G46" s="29"/>
       <c r="H46" s="29"/>
@@ -6699,13 +7956,15 @@
       <c r="AB46" s="68"/>
       <c r="AC46" s="68"/>
       <c r="AD46" s="34"/>
-      <c r="AE46" s="151"/>
+      <c r="AE46" s="68"/>
+      <c r="AF46" s="68"/>
+      <c r="AG46" s="149"/>
     </row>
-    <row r="47" spans="2:31" ht="15.75">
-      <c r="B47" s="199"/>
-      <c r="C47" s="192"/>
-      <c r="D47" s="192"/>
-      <c r="E47" s="197"/>
+    <row r="47" spans="2:33" ht="15.75">
+      <c r="B47" s="202"/>
+      <c r="C47" s="195"/>
+      <c r="D47" s="195"/>
+      <c r="E47" s="200"/>
       <c r="F47" s="34"/>
       <c r="G47" s="41"/>
       <c r="H47" s="34"/>
@@ -6728,16 +7987,18 @@
       <c r="Y47" s="39"/>
       <c r="Z47" s="34"/>
       <c r="AA47" s="66"/>
-      <c r="AB47" s="152"/>
-      <c r="AC47" s="153"/>
+      <c r="AB47" s="150"/>
+      <c r="AC47" s="151"/>
       <c r="AD47" s="34"/>
       <c r="AE47" s="151"/>
+      <c r="AF47" s="151"/>
+      <c r="AG47" s="149"/>
     </row>
-    <row r="48" spans="2:31" ht="13.5" thickBot="1">
-      <c r="B48" s="199"/>
-      <c r="C48" s="192"/>
-      <c r="D48" s="192"/>
-      <c r="E48" s="197"/>
+    <row r="48" spans="2:33" ht="13.5" thickBot="1">
+      <c r="B48" s="202"/>
+      <c r="C48" s="195"/>
+      <c r="D48" s="195"/>
+      <c r="E48" s="200"/>
       <c r="F48" s="42"/>
       <c r="G48" s="43"/>
       <c r="H48" s="44"/>
@@ -6759,143 +8020,153 @@
       <c r="X48" s="46"/>
       <c r="Y48" s="46"/>
       <c r="Z48" s="44"/>
-      <c r="AA48" s="154"/>
-      <c r="AB48" s="155"/>
-      <c r="AC48" s="155"/>
+      <c r="AA48" s="152"/>
+      <c r="AB48" s="153"/>
+      <c r="AC48" s="153"/>
       <c r="AD48" s="44"/>
-      <c r="AE48" s="156"/>
+      <c r="AE48" s="153"/>
+      <c r="AF48" s="153"/>
+      <c r="AG48" s="154"/>
     </row>
-    <row r="49" spans="2:31">
-      <c r="B49" s="199"/>
-      <c r="C49" s="192"/>
-      <c r="D49" s="192"/>
-      <c r="E49" s="197"/>
-      <c r="F49" s="218" t="s">
-        <v>82</v>
-      </c>
-      <c r="G49" s="219"/>
-      <c r="H49" s="219"/>
-      <c r="I49" s="219"/>
-      <c r="J49" s="219"/>
-      <c r="K49" s="219"/>
-      <c r="L49" s="219"/>
-      <c r="M49" s="219"/>
-      <c r="N49" s="219"/>
-      <c r="O49" s="219"/>
-      <c r="P49" s="219"/>
-      <c r="Q49" s="219"/>
-      <c r="R49" s="219"/>
-      <c r="S49" s="219"/>
-      <c r="T49" s="219"/>
-      <c r="U49" s="219"/>
-      <c r="V49" s="219"/>
-      <c r="W49" s="219"/>
-      <c r="X49" s="219"/>
-      <c r="Y49" s="219"/>
-      <c r="Z49" s="149"/>
-      <c r="AA49" s="157"/>
-      <c r="AB49" s="158"/>
-      <c r="AC49" s="158"/>
-      <c r="AD49" s="149"/>
-      <c r="AE49" s="150"/>
+    <row r="49" spans="2:33">
+      <c r="B49" s="202"/>
+      <c r="C49" s="195"/>
+      <c r="D49" s="195"/>
+      <c r="E49" s="200"/>
+      <c r="F49" s="193" t="s">
+        <v>81</v>
+      </c>
+      <c r="G49" s="194"/>
+      <c r="H49" s="194"/>
+      <c r="I49" s="194"/>
+      <c r="J49" s="194"/>
+      <c r="K49" s="194"/>
+      <c r="L49" s="194"/>
+      <c r="M49" s="194"/>
+      <c r="N49" s="194"/>
+      <c r="O49" s="194"/>
+      <c r="P49" s="194"/>
+      <c r="Q49" s="194"/>
+      <c r="R49" s="194"/>
+      <c r="S49" s="194"/>
+      <c r="T49" s="194"/>
+      <c r="U49" s="194"/>
+      <c r="V49" s="194"/>
+      <c r="W49" s="194"/>
+      <c r="X49" s="194"/>
+      <c r="Y49" s="194"/>
+      <c r="Z49" s="147"/>
+      <c r="AA49" s="155"/>
+      <c r="AB49" s="156"/>
+      <c r="AC49" s="156"/>
+      <c r="AD49" s="147"/>
+      <c r="AE49" s="156"/>
+      <c r="AF49" s="156"/>
+      <c r="AG49" s="148"/>
     </row>
-    <row r="50" spans="2:31">
-      <c r="B50" s="199"/>
-      <c r="C50" s="192"/>
-      <c r="D50" s="192"/>
-      <c r="E50" s="197"/>
-      <c r="F50" s="190"/>
-      <c r="G50" s="191"/>
-      <c r="H50" s="191"/>
-      <c r="I50" s="191"/>
-      <c r="J50" s="191"/>
-      <c r="K50" s="191"/>
-      <c r="L50" s="191"/>
-      <c r="M50" s="191"/>
-      <c r="N50" s="191"/>
-      <c r="O50" s="191"/>
-      <c r="P50" s="191"/>
-      <c r="Q50" s="191"/>
-      <c r="R50" s="191"/>
-      <c r="S50" s="191"/>
-      <c r="T50" s="191"/>
-      <c r="U50" s="191"/>
-      <c r="V50" s="191"/>
-      <c r="W50" s="191"/>
-      <c r="X50" s="191"/>
-      <c r="Y50" s="191"/>
-      <c r="Z50" s="162"/>
-      <c r="AA50" s="163"/>
-      <c r="AB50" s="164"/>
-      <c r="AC50" s="164"/>
-      <c r="AD50" s="162"/>
-      <c r="AE50" s="165"/>
+    <row r="50" spans="2:33">
+      <c r="B50" s="202"/>
+      <c r="C50" s="195"/>
+      <c r="D50" s="195"/>
+      <c r="E50" s="200"/>
+      <c r="F50" s="173"/>
+      <c r="G50" s="174"/>
+      <c r="H50" s="174"/>
+      <c r="I50" s="174"/>
+      <c r="J50" s="174"/>
+      <c r="K50" s="174"/>
+      <c r="L50" s="174"/>
+      <c r="M50" s="174"/>
+      <c r="N50" s="174"/>
+      <c r="O50" s="174"/>
+      <c r="P50" s="174"/>
+      <c r="Q50" s="174"/>
+      <c r="R50" s="174"/>
+      <c r="S50" s="174"/>
+      <c r="T50" s="174"/>
+      <c r="U50" s="174"/>
+      <c r="V50" s="174"/>
+      <c r="W50" s="174"/>
+      <c r="X50" s="174"/>
+      <c r="Y50" s="174"/>
+      <c r="Z50" s="160"/>
+      <c r="AA50" s="161"/>
+      <c r="AB50" s="162"/>
+      <c r="AC50" s="162"/>
+      <c r="AD50" s="160"/>
+      <c r="AE50" s="162"/>
+      <c r="AF50" s="162"/>
+      <c r="AG50" s="163"/>
     </row>
-    <row r="51" spans="2:31">
-      <c r="B51" s="199"/>
-      <c r="C51" s="192"/>
-      <c r="D51" s="192"/>
-      <c r="E51" s="197"/>
-      <c r="F51" s="190"/>
-      <c r="G51" s="191"/>
-      <c r="H51" s="191"/>
-      <c r="I51" s="191"/>
-      <c r="J51" s="191"/>
-      <c r="K51" s="191"/>
-      <c r="L51" s="191"/>
-      <c r="M51" s="191"/>
-      <c r="N51" s="191"/>
-      <c r="O51" s="191"/>
-      <c r="P51" s="191"/>
-      <c r="Q51" s="191"/>
-      <c r="R51" s="191"/>
-      <c r="S51" s="191"/>
-      <c r="T51" s="191"/>
-      <c r="U51" s="191"/>
-      <c r="V51" s="191"/>
-      <c r="W51" s="191"/>
-      <c r="X51" s="191"/>
-      <c r="Y51" s="191"/>
-      <c r="Z51" s="162"/>
-      <c r="AA51" s="162"/>
-      <c r="AB51" s="164"/>
-      <c r="AC51" s="164"/>
-      <c r="AD51" s="162"/>
-      <c r="AE51" s="165"/>
+    <row r="51" spans="2:33">
+      <c r="B51" s="202"/>
+      <c r="C51" s="195"/>
+      <c r="D51" s="195"/>
+      <c r="E51" s="200"/>
+      <c r="F51" s="173"/>
+      <c r="G51" s="174"/>
+      <c r="H51" s="174"/>
+      <c r="I51" s="174"/>
+      <c r="J51" s="174"/>
+      <c r="K51" s="174"/>
+      <c r="L51" s="174"/>
+      <c r="M51" s="174"/>
+      <c r="N51" s="174"/>
+      <c r="O51" s="174"/>
+      <c r="P51" s="174"/>
+      <c r="Q51" s="174"/>
+      <c r="R51" s="174"/>
+      <c r="S51" s="174"/>
+      <c r="T51" s="174"/>
+      <c r="U51" s="174"/>
+      <c r="V51" s="174"/>
+      <c r="W51" s="174"/>
+      <c r="X51" s="174"/>
+      <c r="Y51" s="174"/>
+      <c r="Z51" s="160"/>
+      <c r="AA51" s="160"/>
+      <c r="AB51" s="162"/>
+      <c r="AC51" s="162"/>
+      <c r="AD51" s="160"/>
+      <c r="AE51" s="162"/>
+      <c r="AF51" s="162"/>
+      <c r="AG51" s="163"/>
     </row>
-    <row r="52" spans="2:31" s="13" customFormat="1" ht="13.5" thickBot="1">
-      <c r="B52" s="200"/>
-      <c r="C52" s="193"/>
-      <c r="D52" s="193"/>
-      <c r="E52" s="198"/>
-      <c r="F52" s="205"/>
-      <c r="G52" s="206"/>
-      <c r="H52" s="206"/>
-      <c r="I52" s="206"/>
-      <c r="J52" s="206"/>
-      <c r="K52" s="206"/>
-      <c r="L52" s="206"/>
-      <c r="M52" s="206"/>
-      <c r="N52" s="206"/>
-      <c r="O52" s="206"/>
-      <c r="P52" s="206"/>
-      <c r="Q52" s="206"/>
-      <c r="R52" s="206"/>
-      <c r="S52" s="206"/>
-      <c r="T52" s="206"/>
-      <c r="U52" s="206"/>
-      <c r="V52" s="206"/>
-      <c r="W52" s="206"/>
-      <c r="X52" s="206"/>
-      <c r="Y52" s="206"/>
+    <row r="52" spans="2:33" s="13" customFormat="1" ht="13.5" thickBot="1">
+      <c r="B52" s="203"/>
+      <c r="C52" s="196"/>
+      <c r="D52" s="196"/>
+      <c r="E52" s="201"/>
+      <c r="F52" s="175"/>
+      <c r="G52" s="176"/>
+      <c r="H52" s="176"/>
+      <c r="I52" s="176"/>
+      <c r="J52" s="176"/>
+      <c r="K52" s="176"/>
+      <c r="L52" s="176"/>
+      <c r="M52" s="176"/>
+      <c r="N52" s="176"/>
+      <c r="O52" s="176"/>
+      <c r="P52" s="176"/>
+      <c r="Q52" s="176"/>
+      <c r="R52" s="176"/>
+      <c r="S52" s="176"/>
+      <c r="T52" s="176"/>
+      <c r="U52" s="176"/>
+      <c r="V52" s="176"/>
+      <c r="W52" s="176"/>
+      <c r="X52" s="176"/>
+      <c r="Y52" s="176"/>
       <c r="Z52" s="43"/>
-      <c r="AA52" s="159"/>
-      <c r="AB52" s="160"/>
-      <c r="AC52" s="160"/>
+      <c r="AA52" s="157"/>
+      <c r="AB52" s="158"/>
+      <c r="AC52" s="158"/>
       <c r="AD52" s="43"/>
-      <c r="AE52" s="161"/>
+      <c r="AE52" s="158"/>
+      <c r="AF52" s="158"/>
+      <c r="AG52" s="159"/>
     </row>
-    <row r="53" spans="2:31" s="13" customFormat="1">
+    <row r="53" spans="2:33" s="13" customFormat="1">
       <c r="B53" s="13" t="s">
         <v>2</v>
       </c>
@@ -6907,7 +8178,7 @@
       <c r="AB53" s="17"/>
       <c r="AC53" s="17"/>
     </row>
-    <row r="54" spans="2:31">
+    <row r="54" spans="2:33">
       <c r="I54" s="52"/>
       <c r="J54" s="52"/>
       <c r="K54" s="3"/>
@@ -6930,7 +8201,7 @@
       <c r="AB54" s="53"/>
       <c r="AC54" s="53"/>
     </row>
-    <row r="55" spans="2:31">
+    <row r="55" spans="2:33">
       <c r="I55" s="52"/>
       <c r="J55" s="52"/>
       <c r="K55" s="3"/>
@@ -6940,7 +8211,7 @@
       <c r="O55" s="54"/>
       <c r="P55" s="54"/>
     </row>
-    <row r="56" spans="2:31">
+    <row r="56" spans="2:33">
       <c r="B56" s="47"/>
       <c r="C56" s="47"/>
       <c r="D56" s="47"/>
@@ -6970,7 +8241,7 @@
       <c r="AB56" s="52"/>
       <c r="AC56" s="52"/>
     </row>
-    <row r="57" spans="2:31">
+    <row r="57" spans="2:33">
       <c r="B57" s="47"/>
       <c r="C57" s="47"/>
       <c r="D57" s="47"/>
@@ -7001,12 +8272,32 @@
       <c r="AC57" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="36">
+    <mergeCell ref="AG36:AG41"/>
+    <mergeCell ref="AD36:AD41"/>
+    <mergeCell ref="P36:P41"/>
+    <mergeCell ref="J36:J41"/>
+    <mergeCell ref="J5:U5"/>
+    <mergeCell ref="AD5:AG5"/>
+    <mergeCell ref="K36:K41"/>
+    <mergeCell ref="L36:L41"/>
+    <mergeCell ref="S36:S41"/>
+    <mergeCell ref="N36:N41"/>
+    <mergeCell ref="AF36:AF41"/>
+    <mergeCell ref="AB36:AB41"/>
+    <mergeCell ref="AC36:AC41"/>
+    <mergeCell ref="F50:Y50"/>
+    <mergeCell ref="O36:O41"/>
+    <mergeCell ref="D36:D52"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="E36:E52"/>
+    <mergeCell ref="B36:B52"/>
+    <mergeCell ref="C36:C52"/>
     <mergeCell ref="F3:Y4"/>
     <mergeCell ref="F51:Y51"/>
     <mergeCell ref="F52:Y52"/>
     <mergeCell ref="R36:R41"/>
-    <mergeCell ref="AC36:AC41"/>
+    <mergeCell ref="AE36:AE41"/>
     <mergeCell ref="T36:T41"/>
     <mergeCell ref="U36:U41"/>
     <mergeCell ref="V36:V41"/>
@@ -7018,533 +8309,658 @@
     <mergeCell ref="M36:M41"/>
     <mergeCell ref="Q36:Q41"/>
     <mergeCell ref="F49:Y49"/>
-    <mergeCell ref="F50:Y50"/>
-    <mergeCell ref="O36:O41"/>
-    <mergeCell ref="D36:D52"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="E36:E52"/>
-    <mergeCell ref="B36:B52"/>
-    <mergeCell ref="C36:C52"/>
-    <mergeCell ref="AE36:AE41"/>
-    <mergeCell ref="AB36:AB41"/>
-    <mergeCell ref="P36:P41"/>
-    <mergeCell ref="J36:J41"/>
-    <mergeCell ref="J5:U5"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="K36:K41"/>
-    <mergeCell ref="L36:L41"/>
-    <mergeCell ref="S36:S41"/>
-    <mergeCell ref="N36:N41"/>
-    <mergeCell ref="AD36:AD41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I55:J55 N55:P55">
-    <cfRule type="cellIs" dxfId="161" priority="170" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="233" stopIfTrue="1" operator="equal">
       <formula>"G"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="171" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="234" stopIfTrue="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="172" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="235" stopIfTrue="1" operator="equal">
       <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35:U35 J32:T32 J31:S31 J30:R30 J13:N13 O9:T9 J10:L10 J9:K9 J11:K12 M12 J14:L16 N14 P14:T14 J18:M19 J17:T17 J28:T28 J27:Q27 S27:T27 J29:P29 R29:T29 T30 M9:M10 O12:T13 N10:T10 M11:T11 W33:Z33 N15:T15 J6:T8 O18:T19 N16 P16:T16 V25:W29 Z26 J20:T23 J25:T26 Z28">
-    <cfRule type="cellIs" dxfId="158" priority="173" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="236" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="174" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="237" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="175" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="238" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T31">
-    <cfRule type="cellIs" dxfId="155" priority="160" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="223" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="161" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="224" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="162" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="225" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14:M16">
-    <cfRule type="cellIs" dxfId="152" priority="157" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="220" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="158" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="221" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="159" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="222" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="149" priority="154" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="217" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="155" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="218" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="156" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="219" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="146" priority="151" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="214" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="152" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="215" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="153" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="216" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14">
-    <cfRule type="cellIs" dxfId="143" priority="148" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="211" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="149" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="212" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="150" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="213" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N18:N19">
-    <cfRule type="cellIs" dxfId="140" priority="145" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="208" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="146" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="209" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="147" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="210" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U32">
-    <cfRule type="cellIs" dxfId="137" priority="142" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="205" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="143" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="206" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="144" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="207" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U31">
-    <cfRule type="cellIs" dxfId="134" priority="139" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="202" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="140" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="203" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="141" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="204" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V30">
-    <cfRule type="cellIs" dxfId="131" priority="91" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="154" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="92" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="155" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="93" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="156" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U26">
-    <cfRule type="cellIs" dxfId="128" priority="115" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="178" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="116" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="179" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="117" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="180" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U30">
-    <cfRule type="cellIs" dxfId="125" priority="100" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="163" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="101" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="164" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="102" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="165" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U6:U17 U20:U22">
-    <cfRule type="cellIs" dxfId="122" priority="124" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="187" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="125" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="188" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="126" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="189" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U25">
-    <cfRule type="cellIs" dxfId="119" priority="118" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="181" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="119" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="182" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="120" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="183" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U27">
-    <cfRule type="cellIs" dxfId="116" priority="112" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="175" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="113" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="176" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="114" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="177" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U28">
-    <cfRule type="cellIs" dxfId="113" priority="109" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="172" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="110" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="173" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="111" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="174" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U29">
-    <cfRule type="cellIs" dxfId="110" priority="106" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="169" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="107" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="170" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="108" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="171" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V6:Z23 X30:Z30 Z29 Z24:Z25">
-    <cfRule type="cellIs" dxfId="107" priority="97" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="160" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="98" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="161" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="99" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="162" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V34:X34 Z34">
-    <cfRule type="cellIs" dxfId="104" priority="94" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="157" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="95" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="158" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="96" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="159" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W35:Z35">
-    <cfRule type="cellIs" dxfId="101" priority="88" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="151" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="89" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="152" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="90" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="153" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W32">
-    <cfRule type="cellIs" dxfId="98" priority="85" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="148" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="86" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="149" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="87" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="150" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA6:AA30">
-    <cfRule type="cellIs" dxfId="95" priority="79" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="AA6:AA26 AA30">
+    <cfRule type="cellIs" dxfId="173" priority="142" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="80" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="143" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="81" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="144" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA34">
-    <cfRule type="cellIs" dxfId="92" priority="76" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="139" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="77" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="140" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="78" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="141" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA35">
-    <cfRule type="cellIs" dxfId="89" priority="73" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="136" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="74" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="137" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="75" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="138" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U23">
-    <cfRule type="cellIs" dxfId="86" priority="70" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="133" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="71" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="134" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="72" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="135" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X25">
-    <cfRule type="cellIs" dxfId="83" priority="67" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="130" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="68" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="131" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="69" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="132" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26">
-    <cfRule type="cellIs" dxfId="80" priority="64" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="127" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="65" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="128" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="66" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="129" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X27">
-    <cfRule type="cellIs" dxfId="77" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="124" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="62" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="125" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="63" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="126" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X28">
-    <cfRule type="cellIs" dxfId="74" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="121" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="122" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="60" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="123" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X29">
-    <cfRule type="cellIs" dxfId="71" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="118" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="119" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="120" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W30">
-    <cfRule type="cellIs" dxfId="68" priority="52" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="115" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="116" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="117" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V31">
-    <cfRule type="cellIs" dxfId="65" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="112" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="113" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="114" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V32">
-    <cfRule type="cellIs" dxfId="62" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="109" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="110" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="111" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X32">
-    <cfRule type="cellIs" dxfId="59" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="106" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="107" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="108" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9">
-    <cfRule type="cellIs" dxfId="56" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="103" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="104" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="105" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12">
-    <cfRule type="cellIs" dxfId="53" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="100" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="101" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="102" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U18">
-    <cfRule type="cellIs" dxfId="50" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="97" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="98" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="99" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U19">
-    <cfRule type="cellIs" dxfId="47" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="94" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="95" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="96" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y25">
-    <cfRule type="cellIs" dxfId="44" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="91" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="92" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="93" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y26">
-    <cfRule type="cellIs" dxfId="41" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="88" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="89" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="90" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O16">
-    <cfRule type="cellIs" dxfId="38" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="85" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="86" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="87" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24:X24">
-    <cfRule type="cellIs" dxfId="35" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="82" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="83" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="84" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y24">
-    <cfRule type="cellIs" dxfId="32" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="79" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="80" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="81" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y32">
-    <cfRule type="cellIs" dxfId="29" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="76" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="77" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="78" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z27">
-    <cfRule type="cellIs" dxfId="26" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="73" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="74" stopIfTrue="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="75" stopIfTrue="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y27">
+    <cfRule type="cellIs" dxfId="101" priority="70" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="71" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="99" priority="72" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y28">
+    <cfRule type="cellIs" dxfId="98" priority="67" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="68" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="69" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y29">
+    <cfRule type="cellIs" dxfId="95" priority="64" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="65" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="66" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC6:AC23 AC25:AC32">
+    <cfRule type="cellIs" dxfId="83" priority="37" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="38" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="39" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB24">
+    <cfRule type="cellIs" dxfId="80" priority="40" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="41" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="42" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB6:AB23 AB25:AB32">
+    <cfRule type="cellIs" dxfId="74" priority="43" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="44" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="45" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC24">
+    <cfRule type="cellIs" dxfId="65" priority="34" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="35" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="36" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC35">
+    <cfRule type="cellIs" dxfId="62" priority="31" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="32" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="33" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA27">
+    <cfRule type="cellIs" dxfId="59" priority="28" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="29" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="30" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB34">
+    <cfRule type="cellIs" dxfId="47" priority="22" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="23" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="24" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA28">
+    <cfRule type="cellIs" dxfId="41" priority="19" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="20" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="21" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA29">
+    <cfRule type="cellIs" dxfId="35" priority="16" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="17" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="18" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA31">
+    <cfRule type="cellIs" dxfId="23" priority="10" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="11" stopIfTrue="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="12" stopIfTrue="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA32">
     <cfRule type="cellIs" dxfId="17" priority="7" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
@@ -7555,7 +8971,7 @@
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y28">
+  <conditionalFormatting sqref="Z32">
     <cfRule type="cellIs" dxfId="11" priority="4" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
@@ -7566,7 +8982,7 @@
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y29">
+  <conditionalFormatting sqref="AA33">
     <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
